--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="4280" windowWidth="25360" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="11360" yWindow="2840" windowWidth="27300" windowHeight="16920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="212">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -784,6 +784,122 @@
     <t>字典：用俩字典分别记字母录出现次数 然后用t的去s里找 key不存在或者数量不等就返回value 求和：用ASCALL来做 累加s的ASCALL值和t的ASCALL值相减 再转化为字符 位运算：异或操作   # a^a=0; 任何数字和自己异或都是0
                # a^0=a; 任何数字和0异或还是他自己
                # a^b^a=a^a^b 异或运算具有交换律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66.plus one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接模拟竖式相加：倒序遍历从低位往高位 如果当前位不需要进位直接加上并退出循环 如果当前位需要进位即等于10 设置成0并继续循环 如果是在最高位需要进位则insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>989.Add to Array-Form of Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：这里因为num的长度太大，不能直接转化num，有限制的语言容易溢出 ，所以我们选择将k转化成数组与num相加， 用双指针遍历两个数组，不考虑往前补0，如果两个指针都大于等于0，最后再做一个判断如果有一个指针还大于0继续把它加完。 模拟二：另外一种模拟法则补将k转化成数组，直接用对k取余获取个位，然后取商去除个位，不断重复此过程直到num倒序遍历结束，最后再做一个是否还存在k和carry的判断，还存在继续上述步骤直到都没了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">67.add binary </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作弊法：直接int转化成2进制相加然后格式化返回即可 模拟法：与十进制加法相似，python可以直接string转int，然后就是和竖式相加没什么差别，需要注意的是mod2取个位，除2去个位，难度不大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>415.add strings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：竖式加法模拟模板，有addcarry记得填上，没啥难度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1894.find the student that will replace the chalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：因为每一轮消耗的total是固定的，所以我们优先做一个取模运算 来避免重复运算，然后顺序遍历每次减去粉笔数量，当k不够用就返回学生的idx。                   这种做法的取模运算值得借鉴，在很多重复的问题中都可能运用到来降低时间复杂度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">414.third maximum number </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88.Merge Sorted Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：用三个变量分别存储最大值，需要注意的是 第二大和第三大 并且三种情况是互斥事件  如果下一个值和最大值相同则不更新第二大值，如果下一个值和最大值或者第二大值相同则不更新第三大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">合并+排序： 此做法没啥难度  正向双指针：此做法优化了时间复杂度只需要一次遍历 不过需要开辟数组用于存储 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>逆向双指针：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>此处证明还需要研究 优先级不高 作为一种课外拓展来参考 具体做法从m+n-1的idx位置开始往前遍历nums1，谁大加入谁，实现难度不大，需要注意需要先check-1然后再比较加入哪个指针的值，python中nums[-1]是合法的，还会进行对比。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>380.Insert Delete GetRandom O(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic+array：运用了dic插入、删除和查找1复杂度和list插入和随机的1复杂度的特性，主要难度在实现remove，具体做法就是用组一个val：idx的对，然后用val在1的复杂度找到idx，用此idx去list中找到元素，然后用list最后一个元素替换它并更新它在dic中的idx值，最后删除dic[val]以及做list.pop()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,7 +907,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -839,6 +955,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -857,7 +980,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -899,8 +1022,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -948,16 +1101,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -965,8 +1112,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="71">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -987,6 +1149,21 @@
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1007,6 +1184,21 @@
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1336,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E216"/>
+  <dimension ref="A1:E255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D203" sqref="D203"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E209" sqref="E209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1367,16 +1559,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="20" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1384,43 +1576,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="17"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="17"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="17"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1428,43 +1620,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="17"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="17"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="20" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1472,571 +1664,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="17"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="17"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="21">
         <v>44418</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="17"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="21">
         <v>44418</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="19"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="19"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="19"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="19"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="21">
         <v>44418</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="21">
         <v>44419</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="16"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="17"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="16"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="17"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="17"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="17"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="21">
         <v>44419</v>
       </c>
-      <c r="D37" s="17"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="17"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="17"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="17"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="20"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="20"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="21">
         <v>44420</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="16"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="17"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="16"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="17"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="16"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="17"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="16"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="17"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="21">
         <v>44420</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="17"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="17"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="17"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="17"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="21">
         <v>44421</v>
       </c>
-      <c r="D52" s="17"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="17"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="17"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="17"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="17"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="20"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="21">
         <v>44422</v>
       </c>
-      <c r="D57" s="18"/>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="14"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="18"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="14"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="18"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="14"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="18"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="14"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="18"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="21">
         <v>44423</v>
       </c>
-      <c r="D62" s="16"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="16"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="16"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="16"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="16"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="23"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="21">
         <v>44423</v>
       </c>
-      <c r="D67" s="16"/>
+      <c r="D67" s="23"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="16"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="16"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="23"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="16"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="23"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="16"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="23"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="21">
         <v>44423</v>
       </c>
-      <c r="D72" s="14"/>
+      <c r="D72" s="17"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="21">
         <v>44424</v>
       </c>
-      <c r="D77" s="14"/>
+      <c r="D77" s="17"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="16"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="16"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="16"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="16"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="21">
         <v>44424</v>
       </c>
-      <c r="D82" s="14"/>
+      <c r="D82" s="17"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="16"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="16"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="16"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="16"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="15">
+      <c r="C87" s="21">
         <v>44424</v>
       </c>
-      <c r="D87" s="14"/>
+      <c r="D87" s="17"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="1" t="s">
@@ -3202,90 +3394,192 @@
       </c>
     </row>
     <row r="204" spans="1:4" ht="75" customHeight="1">
-      <c r="A204" s="13"/>
-      <c r="D204" s="3"/>
+      <c r="A204" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C204" s="15">
+        <v>44449</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="205" spans="1:4" ht="75" customHeight="1">
-      <c r="A205" s="13"/>
-      <c r="D205" s="3"/>
+      <c r="A205" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C205" s="15">
+        <v>44449</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="206" spans="1:4" ht="75" customHeight="1">
-      <c r="A206" s="13"/>
-      <c r="D206" s="3"/>
+      <c r="A206" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C206" s="8">
+        <v>44449</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="207" spans="1:4" ht="75" customHeight="1">
-      <c r="A207" s="13"/>
-      <c r="D207" s="3"/>
+      <c r="A207" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C207" s="8">
+        <v>44449</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="208" spans="1:4" ht="75" customHeight="1">
-      <c r="A208" s="13"/>
-    </row>
-    <row r="209" spans="1:1" ht="75" customHeight="1">
-      <c r="A209" s="13"/>
-    </row>
-    <row r="210" spans="1:1" ht="75" customHeight="1">
-      <c r="A210" s="13"/>
-    </row>
-    <row r="211" spans="1:1" ht="75" customHeight="1">
-      <c r="A211" s="13"/>
-    </row>
-    <row r="212" spans="1:1" ht="75" customHeight="1">
-      <c r="A212" s="13"/>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="A208" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C208" s="8">
+        <v>44449</v>
+      </c>
+      <c r="D208" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="75" customHeight="1">
+      <c r="A209" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D209" s="16"/>
+    </row>
+    <row r="210" spans="1:4" ht="75" customHeight="1">
+      <c r="A210" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C210" s="8">
+        <v>44449</v>
+      </c>
+      <c r="D210" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="75" customHeight="1">
+      <c r="A211" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B211" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C211" s="8">
+        <v>44449</v>
+      </c>
+      <c r="D211" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="75" customHeight="1">
+      <c r="A212" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B212" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C212" s="8">
+        <v>44449</v>
+      </c>
+      <c r="D212" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="75" customHeight="1">
       <c r="A213" s="11"/>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:4" ht="75" customHeight="1">
       <c r="A214" s="11"/>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:4" ht="75" customHeight="1">
       <c r="A215" s="11"/>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:4" ht="75" customHeight="1">
       <c r="A216" s="11"/>
     </row>
+    <row r="217" spans="1:4" ht="75" customHeight="1"/>
+    <row r="218" spans="1:4" ht="75" customHeight="1"/>
+    <row r="219" spans="1:4" ht="75" customHeight="1"/>
+    <row r="220" spans="1:4" ht="75" customHeight="1"/>
+    <row r="221" spans="1:4" ht="75" customHeight="1"/>
+    <row r="222" spans="1:4" ht="75" customHeight="1"/>
+    <row r="223" spans="1:4" ht="75" customHeight="1"/>
+    <row r="224" spans="1:4" ht="75" customHeight="1"/>
+    <row r="225" ht="75" customHeight="1"/>
+    <row r="226" ht="75" customHeight="1"/>
+    <row r="227" ht="75" customHeight="1"/>
+    <row r="228" ht="75" customHeight="1"/>
+    <row r="229" ht="75" customHeight="1"/>
+    <row r="230" ht="75" customHeight="1"/>
+    <row r="231" ht="75" customHeight="1"/>
+    <row r="232" ht="75" customHeight="1"/>
+    <row r="233" ht="75" customHeight="1"/>
+    <row r="234" ht="75" customHeight="1"/>
+    <row r="235" ht="75" customHeight="1"/>
+    <row r="236" ht="75" customHeight="1"/>
+    <row r="237" ht="75" customHeight="1"/>
+    <row r="238" ht="75" customHeight="1"/>
+    <row r="239" ht="75" customHeight="1"/>
+    <row r="240" ht="75" customHeight="1"/>
+    <row r="241" ht="75" customHeight="1"/>
+    <row r="242" ht="75" customHeight="1"/>
+    <row r="243" ht="75" customHeight="1"/>
+    <row r="244" ht="75" customHeight="1"/>
+    <row r="245" ht="75" customHeight="1"/>
+    <row r="246" ht="75" customHeight="1"/>
+    <row r="247" ht="75" customHeight="1"/>
+    <row r="248" ht="75" customHeight="1"/>
+    <row r="249" ht="75" customHeight="1"/>
+    <row r="250" ht="75" customHeight="1"/>
+    <row r="251" ht="75" customHeight="1"/>
+    <row r="252" ht="75" customHeight="1"/>
+    <row r="253" ht="75" customHeight="1"/>
+    <row r="254" ht="75" customHeight="1"/>
+    <row r="255" ht="75" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
     <mergeCell ref="D67:D71"/>
     <mergeCell ref="B72:B76"/>
     <mergeCell ref="C72:C76"/>
@@ -3302,22 +3596,46 @@
     <mergeCell ref="B57:B61"/>
     <mergeCell ref="D57:D61"/>
     <mergeCell ref="C57:C61"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11360" yWindow="2840" windowWidth="27300" windowHeight="16920" tabRatio="500"/>
+    <workbookView xWindow="16600" yWindow="1140" windowWidth="31140" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="248">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -900,6 +900,151 @@
   </si>
   <si>
     <t>dic+array：运用了dic插入、删除和查找1复杂度和list插入和随机的1复杂度的特性，主要难度在实现remove，具体做法就是用组一个val：idx的对，然后用val在1的复杂度找到idx，用此idx去list中找到元素，然后用list最后一个元素替换它并更新它在dic中的idx值，最后删除dic[val]以及做list.pop()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次遍历：第一次从左往右维护prev为c的idx然后求出每个坐标到此prev的距离, 第二此从右往左维护prev 与第一次的值作对比 将较小的存入, 若刚开始它左边没有c字母，则idx减去-inf等于inf，配对后面取min。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>821.shortest distance to a character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600.Non-negative Integers without Consecutive Ones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brute force：将最后一位是否为1分情况讨论，最后一位是1 则只能在末尾添0， 最后一位不是1 则可以在末尾添0或添1（&amp;&amp;1 与 &amp;1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.spiral matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：建立direction = [(0, 1), (1, 0), (0, -1), (-1, 0)] ，开始方向为0，遇到出界就+1后的值模4转化方向，注意边界判断  按层遍历：此方法可以降低空间复杂度，不需要建立visited数组，对边界处理要求较高，需要很小心 从left top -&gt; right top  从right top -&gt; right bottom 然后通过left和right，top和bottom的关系判断是否需要往回走，并且每次遍历完需要left，right，top， bottom往内缩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：此题模拟和按层遍历空间复杂度相同，因为不需要建立额外的visited数组，建matrix的时候直接设置成-1，去过的都不等于-1，再加上边界就可以控制方向了。 按层遍历：同54题，通用方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59.spiral matrix II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>885.spiral matrix III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟；本题感觉还是没那么好想的，和前两道同名题相比，步长会变化，存在一种1，1，2，2，3，3，4，4...的规律，需要注意的当ans和row * col相同时就可以返回。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1381.Design a Stack With Increment Operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">栈：栈模拟即可 前缀和：为了降低increment的时间复杂度 eg：当调用increment(3，2)时，不需要同方法一一样直接为栈底3个元素加上2，而是开辟一个increment数组由于存储2，此increment和栈等长（每次push操作此数组append个0），在increment时将increment数组len长度-1和k-1取小，以此位idx插入val。当pop到累加过值的idx时，先把val值往左传递，然后算出stack.pop() + increment.pop() </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>387.First Unique Character in a String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表：写法一 两次遍历 第一次遍历数组存入{字母：出现次数}，第二次遍历数组返回第一个小于1的值 / 写法二 或者 遍历数组如果出现两次就存储{字母：-1}，其它设置成{字母：idx} 返回最小idx的字母即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">350.Intersection of Two Arrays II
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">349.Intersection of Two Arrays
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表：分别装入字典 对比相同元素取少的出现次数  排序+双指针： 过于简单不过赘述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCP无人机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>771.jewels and stones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希集合：过于简单不过赘述 排序+双指针： 过于简单不过赘述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希集合：过于简单不过赘述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>217.cointains duplicates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希集合：一次遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>219.cointains duplicates II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表；一次遍历 建立{num：idx}，每次遍历先查看num是否存在dict里，如果在就求idx差值 &lt;=k就是找到了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002.Find Common Characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究了一下午 本题不会 可以吃屎了 哈希表；维护minfrequncy和frequency表，不断更新求每个word都存在的字母的最少个数，注意dict操作起来需要很小心，还是推荐Counter或者defaultdict 数组：优化空间复杂度 用两个26长度的数组来分别代替minfrequncy和frequency表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>678. Valid Parenthesis String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双栈： 先装（和*的在string位置的idx， 如果遇到）先check是否有（或者*匹配，有就弹出，没有就返回False， 在配对完以后此时还剩下 (和* 需要单独判断，当没有*号与左括号匹配, 匹配就继续弹出，如果（的idx大于*返回False，需要注意的是根据题意如果只剩下*是合法的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1581.Water Bottles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：numBottles每次用去numExchange数量换取一瓶新酒，ans+=1表示喝完了，numBottles+=1又获得新空瓶子，循环条件是numBottles要大于numExchange。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -980,7 +1125,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1052,8 +1197,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1106,17 +1311,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1125,10 +1321,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="131">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1164,6 +1381,36 @@
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1199,6 +1446,36 @@
     <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1528,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E255"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E209" sqref="E209"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1559,16 +1836,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="24" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1576,43 +1853,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1620,43 +1897,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1664,571 +1941,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="22">
         <v>44418</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="20"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="20"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="20"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="22">
         <v>44418</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="22"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="22"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="22">
         <v>44418</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="20"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="22">
         <v>44419</v>
       </c>
-      <c r="D32" s="20"/>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="23"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="23"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="23"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="23"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="22">
         <v>44419</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="20"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="24"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="20"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="20"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="24"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="22">
         <v>44420</v>
       </c>
-      <c r="D42" s="20"/>
+      <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="23"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="23"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="23"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="23"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="22">
         <v>44420</v>
       </c>
-      <c r="D47" s="20"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="20"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="20"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="20"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="22">
         <v>44421</v>
       </c>
-      <c r="D52" s="20"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="20"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="24"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="20"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="20"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="20"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B57" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="22">
         <v>44422</v>
       </c>
-      <c r="D57" s="24"/>
+      <c r="D57" s="25"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="17"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="23"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="24"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="17"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="23"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="24"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="17"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="23"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="24"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="25"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="17"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="23"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="24"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="25"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="22">
         <v>44423</v>
       </c>
       <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="21"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="21"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="21"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="21"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="23"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="22">
         <v>44423</v>
       </c>
       <c r="D67" s="23"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
       <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="23"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="23"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="23"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="22">
         <v>44423</v>
       </c>
-      <c r="D72" s="17"/>
+      <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="22">
         <v>44424</v>
       </c>
-      <c r="D77" s="17"/>
+      <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="23"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="23"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="23"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="23"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="21">
+      <c r="C82" s="22">
         <v>44424</v>
       </c>
-      <c r="D82" s="17"/>
+      <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="23"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="23"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="23"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="23"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C87" s="22">
         <v>44424</v>
       </c>
-      <c r="D87" s="17"/>
+      <c r="D87" s="21"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="1" t="s">
@@ -3463,13 +3740,13 @@
         <v>203</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="75" customHeight="1">
+    <row r="209" spans="1:6" ht="75" customHeight="1">
       <c r="A209" s="13" t="s">
         <v>204</v>
       </c>
       <c r="D209" s="16"/>
     </row>
-    <row r="210" spans="1:4" ht="75" customHeight="1">
+    <row r="210" spans="1:6" ht="75" customHeight="1">
       <c r="A210" s="13" t="s">
         <v>205</v>
       </c>
@@ -3483,7 +3760,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="75" customHeight="1">
+    <row r="211" spans="1:6" ht="75" customHeight="1">
       <c r="A211" s="13" t="s">
         <v>206</v>
       </c>
@@ -3497,7 +3774,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="75" customHeight="1">
+    <row r="212" spans="1:6" ht="75" customHeight="1">
       <c r="A212" s="13" t="s">
         <v>209</v>
       </c>
@@ -3511,42 +3788,234 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="75" customHeight="1">
-      <c r="A213" s="11"/>
-    </row>
-    <row r="214" spans="1:4" ht="75" customHeight="1">
-      <c r="A214" s="11"/>
-    </row>
-    <row r="215" spans="1:4" ht="75" customHeight="1">
-      <c r="A215" s="11"/>
-    </row>
-    <row r="216" spans="1:4" ht="75" customHeight="1">
-      <c r="A216" s="11"/>
-    </row>
-    <row r="217" spans="1:4" ht="75" customHeight="1"/>
-    <row r="218" spans="1:4" ht="75" customHeight="1"/>
-    <row r="219" spans="1:4" ht="75" customHeight="1"/>
-    <row r="220" spans="1:4" ht="75" customHeight="1"/>
-    <row r="221" spans="1:4" ht="75" customHeight="1"/>
-    <row r="222" spans="1:4" ht="75" customHeight="1"/>
-    <row r="223" spans="1:4" ht="75" customHeight="1"/>
-    <row r="224" spans="1:4" ht="75" customHeight="1"/>
-    <row r="225" ht="75" customHeight="1"/>
-    <row r="226" ht="75" customHeight="1"/>
-    <row r="227" ht="75" customHeight="1"/>
-    <row r="228" ht="75" customHeight="1"/>
-    <row r="229" ht="75" customHeight="1"/>
-    <row r="230" ht="75" customHeight="1"/>
-    <row r="231" ht="75" customHeight="1"/>
-    <row r="232" ht="75" customHeight="1"/>
-    <row r="233" ht="75" customHeight="1"/>
-    <row r="234" ht="75" customHeight="1"/>
-    <row r="235" ht="75" customHeight="1"/>
-    <row r="236" ht="75" customHeight="1"/>
-    <row r="237" ht="75" customHeight="1"/>
-    <row r="238" ht="75" customHeight="1"/>
-    <row r="239" ht="75" customHeight="1"/>
-    <row r="240" ht="75" customHeight="1"/>
+    <row r="213" spans="1:6" ht="75" customHeight="1">
+      <c r="A213" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C213" s="8">
+        <v>44450</v>
+      </c>
+      <c r="D213" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="75" customHeight="1">
+      <c r="A214" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C214" s="8">
+        <v>44450</v>
+      </c>
+      <c r="D214" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="75" customHeight="1">
+      <c r="A215" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C215" s="8">
+        <v>44450</v>
+      </c>
+      <c r="D215" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="75" customHeight="1">
+      <c r="A216" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C216" s="8">
+        <v>44450</v>
+      </c>
+      <c r="D216" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="75" customHeight="1">
+      <c r="A217" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B217" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C217" s="8">
+        <v>44450</v>
+      </c>
+      <c r="D217" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="75" customHeight="1">
+      <c r="A218" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C218" s="8">
+        <v>44451</v>
+      </c>
+      <c r="D218" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="75" customHeight="1">
+      <c r="A219" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B219" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C219" s="8">
+        <v>44451</v>
+      </c>
+      <c r="D219" s="18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="75" customHeight="1">
+      <c r="A220" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C220" s="8">
+        <v>44451</v>
+      </c>
+      <c r="D220" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="75" customHeight="1">
+      <c r="A221" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B221" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C221" s="8">
+        <v>44451</v>
+      </c>
+      <c r="D221" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="75" customHeight="1">
+      <c r="A222" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C222" s="8">
+        <v>44451</v>
+      </c>
+      <c r="D222" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="75" customHeight="1">
+      <c r="A223" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C223" s="8">
+        <v>44451</v>
+      </c>
+      <c r="D223" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="75" customHeight="1">
+      <c r="A224" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C224" s="8">
+        <v>44451</v>
+      </c>
+      <c r="D224" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="75" customHeight="1">
+      <c r="A225" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C225" s="8">
+        <v>44451</v>
+      </c>
+      <c r="D225" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="75" customHeight="1">
+      <c r="A226" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C226" s="8">
+        <v>44451</v>
+      </c>
+      <c r="D226" s="18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="75" customHeight="1">
+      <c r="A227" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C227" s="8">
+        <v>44451</v>
+      </c>
+      <c r="D227" s="18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="75" customHeight="1">
+      <c r="A228" s="20"/>
+    </row>
+    <row r="229" spans="1:4" ht="75" customHeight="1"/>
+    <row r="230" spans="1:4" ht="75" customHeight="1"/>
+    <row r="231" spans="1:4" ht="75" customHeight="1"/>
+    <row r="232" spans="1:4" ht="75" customHeight="1"/>
+    <row r="233" spans="1:4" ht="75" customHeight="1"/>
+    <row r="234" spans="1:4" ht="75" customHeight="1"/>
+    <row r="235" spans="1:4" ht="75" customHeight="1"/>
+    <row r="236" spans="1:4" ht="75" customHeight="1"/>
+    <row r="237" spans="1:4" ht="75" customHeight="1"/>
+    <row r="238" spans="1:4" ht="75" customHeight="1"/>
+    <row r="239" spans="1:4" ht="75" customHeight="1"/>
+    <row r="240" spans="1:4" ht="75" customHeight="1"/>
     <row r="241" ht="75" customHeight="1"/>
     <row r="242" ht="75" customHeight="1"/>
     <row r="243" ht="75" customHeight="1"/>
@@ -3564,6 +4033,62 @@
     <row r="255" ht="75" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="C57:C61"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="D82:D86"/>
@@ -3580,62 +4105,6 @@
     <mergeCell ref="C82:C86"/>
     <mergeCell ref="B67:B71"/>
     <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16600" yWindow="1140" windowWidth="31140" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="2380" yWindow="1260" windowWidth="25760" windowHeight="17920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="278">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1044,7 +1044,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>447.Number of Boomerangs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>394.string decode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>模拟：numBottles每次用去numExchange数量换取一瓶新酒，ans+=1表示喝完了，numBottles+=1又获得新空瓶子，循环条件是numBottles要大于numExchange。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举 + 哈希表： 在每次处理中，我们先固定一个点，然后遍历其它点所有点，用dict{dis:num} 计算此次遍历两点之间差值相同的个数，然后依据题意考虑元组的顺序每轮循环计算一次个数大于2的排列数累加入ans。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：写法一 单栈：用一个栈先压所有除了']'的字符，一遇到']'就按照顺序 先取出字母（可能存在多个要注意顺序，可以用pop+string写法比较方便） 然后取出括号，再取出倍数（也是一样可能有多个），模拟相乘操作以后压入栈，重复步骤即可。 /写法二 DFS：递归写法稍微难些，还需要多看看，有两点要注意是 需要传递startIdx, 遇到'['就进入下一层，遇到']'就返回上一层，并且得用返回来的tmp_str * 当前的repeatNum。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>232.Implement Queue using Stacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双栈：通过只在outStack为空时候才往里压栈， 将pop优化至1时间复杂度。Peek也是优先考虑outStack[-1]，如果不存在再 返回inStack[0]。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>542.Longest Word in Dictionary through Deleting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">排序+双指针+贪心 我们可以先将 dictionary 依据字符串长度的降序和字典序的升序进行排序，然后从前向后找到第一个符合条件的字符串直接返回即可。具体做法重写sorted先对dictionary排序，然后用双指针i，j分别从s和word开始 如果在s中找到了word中的字符，一起移动i，j继续找word中下一个字符，没在s中找到word的字符，只移动i继续在s中找此字符，如果j == len(word)就是找到了。 动态规划：待补充 #子序列问题不考虑使用哈希表 因为子序列问题中有要求顺序，不考虑顺序的重复问题可以使用哈希表 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>811.Subdomain Visit Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符切割+哈希表：先按'空格'切割后获取frequency和domains， 然后再按'.'切割获取各个domain变成数组，接着用domianList[i:]从大到小切割domain装入dic{domain:frequency}，最后扫尾即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500.Keyboard Row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">720.Longest Word in Dictionary
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>599.Minimum Index Sum of Two Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表：分别遍历两个数组建立 {item : [idx1,idx2]}，然后if len(value) == 2 就不断更新idx1和idx2之和最小的key为res，需要注意的是找到新的最小idx相同元素, 清空栈内原有元素，清空可以用clear或者list()重新初始化，两种方法有区别，第二种会指向一个新地址，第一种则不会，如有复用操作需要注意。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202.happy number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>242. Valid Anagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表：因为是异位词不考虑顺序，找交集说明可以直接哈希表切了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 哈希集合：先写一个hasNext函数，可以自己实现也可以divmod，将n加入set然后算出下一个n然后判断是否重复，重复就返回Fasle，当为1退出则返回True 双指针 判环：普通快慢指针如果慢指针追上快指针说明有环，否则快指针会先到1即为快乐数 注意快慢指针起点若相同写法与不同while有些许不同。  #时间复杂度计算上有难度，待补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>438. Find All Anagrams in a String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心+排序+set()：从长到短按字典序排序 求前缀是否存在于数组words，（这里可以先将words的单词加入set优化查找速度）前缀不存在就换下一个word继续 当遍历完一整个word的时候说明找到了返回即课  前缀树 + 深度优先搜索：待补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表+模拟：先把键盘每一行用idx区分开存入[0]*26数组 然后遍历每个word 如果有一个字母的idx和其他不同就将flag设置成false 只有flag为True时才填入res数组 #遇到只有字母的可以考虑用[0]*26来降低空间复杂度（注意看题目是否有要求大小写）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力法：每次都遍历一次len(p)看是否是异位词 滑动窗口+数组优化：由于都是26个字母就用[0]*26数组优化空间复杂度（注意看题目是否有要求大小写） 用滑动窗口优化每次遍历len(p)，第一次先算idx0的，然后从m开始到len(s)，用字母数组s[i - m] -= 1，s[i] += 1模拟从窗口中删除和添加字母，并且滑动一次判断一次。 滑动窗口+双指针：待补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49. Group Anagrams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表：defaultdict(list) {[0]*26 : [word1, word2, word3]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>451. Sort Characters By Frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表+排序： 计入哈希表然后重写排序方法 按照frequency排序，最后扫尾。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,12 +1229,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1125,7 +1276,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1257,8 +1408,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1323,9 +1526,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1333,10 +1533,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1344,8 +1541,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="183">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1411,6 +1638,32 @@
     <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1476,6 +1729,32 @@
     <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1807,8 +2086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D226" sqref="D226"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1822,30 +2102,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="34" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1853,43 +2136,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="24"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="24"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1897,43 +2180,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="24"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="24"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1941,571 +2224,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="24"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="24"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="24"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="24"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="28">
         <v>44418</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="24"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="24"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="24"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="28">
         <v>44418</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="26"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="26"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="28">
         <v>44418</v>
       </c>
-      <c r="D27" s="24"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="24"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="24"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="24"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="24"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="28">
         <v>44419</v>
       </c>
-      <c r="D32" s="24"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="23"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="27"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="23"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="24"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="27"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="23"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="24"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="23"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="24"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="28">
         <v>44419</v>
       </c>
-      <c r="D37" s="24"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="24"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="24"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="27"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="27"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="24"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="27"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="28">
         <v>44420</v>
       </c>
-      <c r="D42" s="24"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="23"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="24"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="27"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="23"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="24"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="23"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="24"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="27"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="23"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="24"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="28">
         <v>44420</v>
       </c>
-      <c r="D47" s="24"/>
+      <c r="D47" s="27"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="24"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="24"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="27"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="24"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="27"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="24"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="28">
         <v>44421</v>
       </c>
-      <c r="D52" s="24"/>
+      <c r="D52" s="27"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="24"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="27"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="27"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="24"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="27"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="24"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="27"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57" s="28">
         <v>44422</v>
       </c>
-      <c r="D57" s="25"/>
+      <c r="D57" s="31"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="21"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="25"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="31"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="21"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="25"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="21"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="25"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="31"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="21"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="25"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="31"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="28">
         <v>44423</v>
       </c>
-      <c r="D62" s="23"/>
+      <c r="D62" s="30"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="30"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="23"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="30"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="23"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="30"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="23"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="30"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="22">
+      <c r="C67" s="28">
         <v>44423</v>
       </c>
-      <c r="D67" s="23"/>
+      <c r="D67" s="30"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="23"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="30"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="23"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="30"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="23"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="30"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="23"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="30"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="22">
+      <c r="C72" s="28">
         <v>44423</v>
       </c>
-      <c r="D72" s="21"/>
+      <c r="D72" s="24"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C77" s="28">
         <v>44424</v>
       </c>
-      <c r="D77" s="21"/>
+      <c r="D77" s="24"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="23"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="23"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="23"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="23"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="22">
+      <c r="C82" s="28">
         <v>44424</v>
       </c>
-      <c r="D82" s="21"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="23"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="23"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="23"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="23"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="22">
+      <c r="C87" s="28">
         <v>44424</v>
       </c>
-      <c r="D87" s="21"/>
+      <c r="D87" s="24"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="21"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="21"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="21"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="21"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="1" t="s">
@@ -3998,81 +4281,232 @@
         <v>44451</v>
       </c>
       <c r="D227" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="75" customHeight="1">
+      <c r="A228" s="20" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="75" customHeight="1">
-      <c r="A228" s="20"/>
-    </row>
-    <row r="229" spans="1:4" ht="75" customHeight="1"/>
-    <row r="230" spans="1:4" ht="75" customHeight="1"/>
-    <row r="231" spans="1:4" ht="75" customHeight="1"/>
-    <row r="232" spans="1:4" ht="75" customHeight="1"/>
-    <row r="233" spans="1:4" ht="75" customHeight="1"/>
-    <row r="234" spans="1:4" ht="75" customHeight="1"/>
-    <row r="235" spans="1:4" ht="75" customHeight="1"/>
-    <row r="236" spans="1:4" ht="75" customHeight="1"/>
-    <row r="237" spans="1:4" ht="75" customHeight="1"/>
-    <row r="238" spans="1:4" ht="75" customHeight="1"/>
-    <row r="239" spans="1:4" ht="75" customHeight="1"/>
-    <row r="240" spans="1:4" ht="75" customHeight="1"/>
-    <row r="241" ht="75" customHeight="1"/>
-    <row r="242" ht="75" customHeight="1"/>
-    <row r="243" ht="75" customHeight="1"/>
-    <row r="244" ht="75" customHeight="1"/>
-    <row r="245" ht="75" customHeight="1"/>
-    <row r="246" ht="75" customHeight="1"/>
-    <row r="247" ht="75" customHeight="1"/>
-    <row r="248" ht="75" customHeight="1"/>
-    <row r="249" ht="75" customHeight="1"/>
-    <row r="250" ht="75" customHeight="1"/>
-    <row r="251" ht="75" customHeight="1"/>
-    <row r="252" ht="75" customHeight="1"/>
-    <row r="253" ht="75" customHeight="1"/>
-    <row r="254" ht="75" customHeight="1"/>
-    <row r="255" ht="75" customHeight="1"/>
+      <c r="B228" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C228" s="8">
+        <v>44452</v>
+      </c>
+      <c r="D228" s="23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="75" customHeight="1">
+      <c r="A229" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C229" s="8">
+        <v>44452</v>
+      </c>
+      <c r="D229" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="75" customHeight="1">
+      <c r="A230" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B230" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C230" s="8">
+        <v>44453</v>
+      </c>
+      <c r="D230" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="98" customHeight="1">
+      <c r="A231" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C231" s="8">
+        <v>44453</v>
+      </c>
+      <c r="D231" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="75" customHeight="1">
+      <c r="A232" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B232" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C232" s="8">
+        <v>44453</v>
+      </c>
+      <c r="D232" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="75" customHeight="1">
+      <c r="A233" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B233" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C233" s="8">
+        <v>44453</v>
+      </c>
+      <c r="D233" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="75" customHeight="1">
+      <c r="A234" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B234" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C234" s="8">
+        <v>44453</v>
+      </c>
+      <c r="D234" s="23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="75" customHeight="1">
+      <c r="A235" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B235" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C235" s="8">
+        <v>44453</v>
+      </c>
+      <c r="D235" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="75" customHeight="1">
+      <c r="A236" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B236" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C236" s="8">
+        <v>44453</v>
+      </c>
+      <c r="D236" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="75" customHeight="1">
+      <c r="A237" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B237" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C237" s="8">
+        <v>44453</v>
+      </c>
+      <c r="D237" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="75" customHeight="1">
+      <c r="A238" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C238" s="8">
+        <v>44453</v>
+      </c>
+      <c r="D238" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="75" customHeight="1">
+      <c r="A239" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B239" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C239" s="8">
+        <v>44453</v>
+      </c>
+      <c r="D239" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="75" customHeight="1">
+      <c r="A240" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B240" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C240" s="8">
+        <v>44453</v>
+      </c>
+      <c r="D240" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="75" customHeight="1">
+      <c r="A241" s="22"/>
+      <c r="B241" s="21"/>
+      <c r="C241" s="8"/>
+    </row>
+    <row r="242" spans="1:3" ht="75" customHeight="1">
+      <c r="A242" s="22"/>
+    </row>
+    <row r="243" spans="1:3" ht="75" customHeight="1">
+      <c r="A243" s="22"/>
+    </row>
+    <row r="244" spans="1:3" ht="75" customHeight="1"/>
+    <row r="245" spans="1:3" ht="75" customHeight="1"/>
+    <row r="246" spans="1:3" ht="75" customHeight="1"/>
+    <row r="247" spans="1:3" ht="75" customHeight="1"/>
+    <row r="248" spans="1:3" ht="75" customHeight="1"/>
+    <row r="249" spans="1:3" ht="75" customHeight="1"/>
+    <row r="250" spans="1:3" ht="75" customHeight="1"/>
+    <row r="251" spans="1:3" ht="75" customHeight="1"/>
+    <row r="252" spans="1:3" ht="75" customHeight="1"/>
+    <row r="253" spans="1:3" ht="75" customHeight="1"/>
+    <row r="254" spans="1:3" ht="75" customHeight="1"/>
+    <row r="255" spans="1:3" ht="75" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
     <mergeCell ref="D67:D71"/>
     <mergeCell ref="B72:B76"/>
     <mergeCell ref="C72:C76"/>
@@ -4089,22 +4523,46 @@
     <mergeCell ref="B57:B61"/>
     <mergeCell ref="D57:D61"/>
     <mergeCell ref="C57:C61"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="1260" windowWidth="25760" windowHeight="17920" tabRatio="500"/>
+    <workbookView xWindow="15520" yWindow="2280" windowWidth="35040" windowHeight="17680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="343">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -576,18 +576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">贪心做法：每次选取可做项目中利润最大的，维护一个idx=-1，具体做法就是在成本范围内不断和上次对比利润大小，取利润大者，更新idx。如果一个项目都做不了idx不变就退出循环。同时记得累加利润后将做过的项目成本设置成无限大。需要注意的是如果资本w大于最大的capital，说明所有项目都能做，直接返回利润前k项。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>257.binary tree paths</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFS：直接前序遍历 不断更新path 到达叶子节点更新res 然后用join方法格式化答案 BFS：维护双队列 第一个队列正常操作 第二个队列储存一个string类型的path 如果有左右子树直接将它们的值加入path 到达叶子节点更新res即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>easy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -613,10 +601,6 @@
   </si>
   <si>
     <t>BFS：层序遍历 只更新i=0的答案 即每行最前的元素值 DFS： 先序遍历 + 维护一个maxdepth 如果当前depth大于maxdepth 更新maxdepth 和 ans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>654.maximum binary Tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1166,6 +1150,284 @@
   </si>
   <si>
     <t>哈希表+排序： 计入哈希表然后重写排序方法 按照frequency排序，最后扫尾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>768.Max chunks to make sorted II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数：将arr和sorted(arr)进行比较，用俩dic计数，如果在 某一个区域内 俩数组出现的数字都相同说明可以成块ans+=1 优化计数：只用一个dic计数，用变量 nonzero 来计数目前差值不等于 0 的字符的个数 若差值为0说明找到一个块 单调栈：只保留每个块中最大的数组作为head，维护一个单调递增栈，需要注意的是如果新元素小于前面几个head那么都需要一起融合了  #两个字符串/数组按顺序一个个比较可以用zip函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>162.find peak element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找：三种二分都可以用，差别主要在于LR结束的位置关系，用while(L &lt;= R)需要注意边界问题，因为RL才结束，不做边界判断会out of index 测试集要考虑[3,1,2]这种比较恶心的，所以不能写成[mid-1]&lt;[mid]&lt;[mid+1] 写成while(L + 1 &lt; R)需要兜底，若写成 while(L &lt; R)  要注意LR的收缩范围和mid的取值关系。写成left = mid , right = mid - 1的话要注意mid向上取整。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>676. Implement Magic Dictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表：维护{len：[word1, word2]}模拟即可 #本题长度是唯一性如果用26数组不好确认长度就会出现judgeea和judge这样的corner case 确认两个相等可以用数组，但是跟长度挂钩就不好办了，所以要注意题目中对对比的element长度的要求 以及是否长度的变化对结果有影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表：计算缝隙最多的idx位置，累加计算可以维护一个tmp降低每次都调用sum的时间复杂度，然后用墙的高度减去即可，注意依据题意最后一个idx = len - 1不要算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>554. Brick Wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215.Kth Largest Element in an Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大根堆/优先队列：写法一 heapq 保持heap中只存在k个元素多了就pop掉遍历完peek一下即可 / 写法二 手撕堆 快速选择：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">贪心做法：遍历min(len(profits, k)次利润，找出利润最大的切做得起的 维护一个idx，合法并且利润大就不断更新，因为要对比是的利润大所以我们以利润为基准进行遍历。如果一个项目都做不了idx不变就退出循环。同时记得累加利润后将做过的项目成本设置成无限大。需要注意的是如果资本w大于最大的capital，说明所有项目都能做，直接返回利润前k项。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/9/8   2021/9/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>257.binary tree paths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：直接前序遍历 不断更新path 到达叶子节点更新res 然后用join方法格式化答案 BFS：维护双队列 第一个队列正常操作 第二个队列储存一个string类型的path 如果有左右子树直接将它们的值加入path 到达叶子节点更新res即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试后通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>654.maximum binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>507.perfect number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">easy </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61.rotated linkedlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快慢指针：如果k对链表长度取模等于0说明不用移动，如果不等于0移动余数步即可，用快慢指针分割链表，将尾部连到头部即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟找：求出非本身的正因子然后相加看是否相等，注意排除1，并且i*i=num只需要计算一个i即可 #首先，约数是成对出现的。比如24,你找到个约数3,那么一定有个约数8,因为24/3=8。然后，这对约数必须一个在根号n之前，一个在根号n之后。因为都在根号n之前的话，乘积一定小于n（根号n*根号n=n），同样，都在根号n之后的话，乘积一定大于n。所以，如果你在根号n之前都找不到约数的话，那么根号n之后就不会有了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303.Range Sum Query - Immutable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力法：直接for遍历 前缀和：待补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>367.valid Perfect Square</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力法：如果有两个相同的因数即找到 二分查找：由于查找区间具有单调性，二分答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找：二分答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>374. Guess Number Higher or Lower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>412. Fizz Buzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>392. Is Subsequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：模拟取余即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针： 当i==len(s)即找到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>212.Word Search II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：待补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>263.Ugly Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：如果对某个因数取模等于0，一直除到取模不等于0换下一个因数继续除，最后看是否等于1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>264. Ugly Number II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1732.Find the Highest Altitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小堆： 利用set和最小堆维护一个丑数堆，先置入1在set和最小堆中，然后不断地弹出加入，弹出n次即找到第n个丑数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力：当前海拔高度就是从0开始累加到当前位置的结果，将最大值初始化为0即地面，不断更新最大值直到列表结束即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>373. Find K Pairs with Smallest Sums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23. Merge k Sorted Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力+最小堆：暴力遍历所有元素，依次放入最小堆，然后弹出前k个即可  / 写法二：切片+最小堆：由于题目给的是两个升序数组 那么直接截取两数组的[:k+1]再放入最小堆，这样可以将暴力的每次入堆的时间复杂度logn降低为logk。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>295. Find Median from Data Stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小堆：遍历数组依次把node放入最小堆，最后再取出值新建链表后串起来 / 写法二：一开始只维护所有链表的头结点在最小堆中即(lists[i].val, i) 这样每次入堆为loglen(lists)，依据示例1 三条链表，每次只维护三个最小值在最小堆里呀，弹出最小的，所在的那条链表（通过i来锁定）移动到下一个Node，然后推进去此Node继续比较三个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力：调用SortedList 然后对奇数偶数进行讨论。 最小堆：维护一个最大堆和最小堆，L:[5,4,3,2,1] R:[6,7,8,9,10]如此，然后对L和R的长度进行分类讨论，假定当为odd时我们让L比R多一个元素，当even我们让L和R各出队一个元素相加除二。 在此条件下，当元素入队时，有三种情况一种是偶数，入队以后成为odd，所以我们优先加入L，但加入L的前提是入队元素要小于等于R的队头元素，如果比R队头元素大，说明需要插入在R，此时需要弹出R中队头元素加入L，然后把入对元素加入R，完成一次操作。 第二种情况是odd，入对以后成为even，此时我们优先考虑加入R,加入前要和L的队顶元素对比，如果大于等于L的对顶元素，说明插入位置不在L，那么加入R即可，如果入队元素小于L的队顶元素，那么我们先把L的队顶元素出队后加入R，然后再把入队元素加入L即可， 最后一种是当R为空，说明是第一次插入，直接加入L即可。最后一种情况可以合并到偶数情况写成L = R。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24. Swap Nodes in Pairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针：写法一 迭代 建个dummy 当cur.next and cur.next.next存在 按结果依次穿针引线  写法二 递归 一直递归找head.next 到第n次返回None，此时head.next = None，继续执行n-1轮newHead.next = head，最后返回给n-2轮newHead，后面就一直返回newHead，也就是说后面的都是head.next = newHead（上一层返回来的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">36. Valid Sudoku
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表： row建一个数组里面套9个哈希表代表每行只能出现1-9各一次，col和box同理。然后暴力遍历，eg：rows「{num1:出现次数,2:1,3:1 ...} {...} {...}… 」col同理，并通过 (i//3) * 3 + (j//3)来锁定处于哪个box，用此三个判定条件来确认是否重复，剩下的就是代码实现了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>506. Relative Ranks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表+排序：遍历scores新建个数组，数组中元素用一个元祖来存(分数,idx),按照x[0]排，然后直接遍历用idx去scores中定位改值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>703. Kth Largest Element in a Stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小堆：维护最小堆大小为k多了就出队，然后peek队顶元素返回即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">剑指offer </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">205. Isomorphic Strings
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双哈希表：建两个哈希表互相存储对应字符，遍历检查要两边否符合才行否则返回False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>290. Word Pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双哈希表：split格式化s 建两个哈希表互相存储对应字符，遍历检查要两边否符合才行否则返回False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>997. Find the Town Judge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有向图：写法一 用哈希表维护 / 写法二 用数组维护 为了方便维护两个长度为N+1的数组一个为入度一个为出度，检查是否存在一个人被除了自己以外的所有人信任并且不信任任何人/ 写法三 邻接矩阵 / 写法四 邻接表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1276,7 +1538,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="183">
+  <cellStyleXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1460,19 +1722,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1484,32 +1772,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1518,10 +1794,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1532,47 +1814,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="183">
+  <cellStyles count="215">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1664,6 +1937,22 @@
     <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1755,6 +2044,22 @@
     <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2084,51 +2389,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F255"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D240" sqref="D240"/>
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D266" sqref="D266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="79.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="79.5" style="12" customWidth="1"/>
     <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>258</v>
+      <c r="E1" s="15" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2136,43 +2444,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2180,43 +2488,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="27"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="27"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="27"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2224,635 +2532,635 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="24">
         <v>44418</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="27"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="24">
         <v>44418</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="29"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="29"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="24">
         <v>44418</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="27"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="27"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="27"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="27"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="24">
         <v>44419</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="30"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="27"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="30"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="27"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="30"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="27"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="30"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="27"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="24">
         <v>44419</v>
       </c>
-      <c r="D37" s="27"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="27"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="27"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="27"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="27"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="24">
         <v>44420</v>
       </c>
-      <c r="D42" s="27"/>
+      <c r="D42" s="19"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="30"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="27"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="30"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="27"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="19"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="30"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="27"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="19"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="30"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="27"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="28">
+      <c r="C47" s="24">
         <v>44420</v>
       </c>
-      <c r="D47" s="27"/>
+      <c r="D47" s="19"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="27"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="19"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="27"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="19"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="27"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="19"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="27"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="19"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="24">
         <v>44421</v>
       </c>
-      <c r="D52" s="27"/>
+      <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="27"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="27"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="27"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="19"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="27"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="24">
         <v>44422</v>
       </c>
-      <c r="D57" s="31"/>
+      <c r="D57" s="19"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="24"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="31"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="24"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="31"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="19"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="24"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="31"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="19"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="24"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="31"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="19"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="28">
+      <c r="C62" s="24">
         <v>44423</v>
       </c>
-      <c r="D62" s="30"/>
+      <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="30"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="19"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="30"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="19"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="30"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="30"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="19"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="28">
+      <c r="C67" s="24">
         <v>44423</v>
       </c>
-      <c r="D67" s="30"/>
+      <c r="D67" s="19"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="30"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="19"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="30"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="19"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="30"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="19"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="30"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="19"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="28">
+      <c r="C72" s="24">
         <v>44423</v>
       </c>
-      <c r="D72" s="24"/>
+      <c r="D72" s="19"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="19"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="19"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="19"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="19"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="28">
+      <c r="C77" s="24">
         <v>44424</v>
       </c>
-      <c r="D77" s="24"/>
+      <c r="D77" s="19"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="30"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="30"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="19"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="30"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="30"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="19"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="28">
+      <c r="C82" s="24">
         <v>44424</v>
       </c>
-      <c r="D82" s="24"/>
+      <c r="D82" s="19"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="30"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="30"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="19"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="30"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="19"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="30"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="19"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="24" t="s">
+      <c r="A87" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="28">
+      <c r="C87" s="24">
         <v>44424</v>
       </c>
-      <c r="D87" s="24"/>
+      <c r="D87" s="19"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="19"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="19"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="19"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="24"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="25">
         <v>44425</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="75" customHeight="1">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="25">
         <v>44425</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="75" customHeight="1">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="25">
         <v>44425</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="75" customHeight="1">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="25">
         <v>44426</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="75" customHeight="1">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="25">
         <v>44426</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="75" customHeight="1">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="25">
         <v>44426</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -2860,1637 +3168,2079 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="75" customHeight="1">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="25">
         <v>44427</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="75" customHeight="1">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="25">
         <v>44427</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="75" customHeight="1">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="25">
         <v>44427</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="75" customHeight="1">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="25">
         <v>44428</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="75" customHeight="1">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="25">
         <v>44428</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="75" customHeight="1">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="25">
         <v>44428</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="75" customHeight="1">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="25">
         <v>44428</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="75" customHeight="1">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="25">
         <v>44428</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="75" customHeight="1">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="25">
         <v>44429</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="75" customHeight="1">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="25">
         <v>44429</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="75" customHeight="1">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="26">
         <v>44429</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="75" customHeight="1">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="25">
         <v>44429</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="75" customHeight="1">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="25">
         <v>44430</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="75" customHeight="1">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="25">
         <v>44430</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="75" customHeight="1">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="25">
         <v>44430</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="75" customHeight="1">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="25">
         <v>44431</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="75" customHeight="1">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="25">
         <v>44431</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="75" customHeight="1">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="25">
         <v>44431</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="75" customHeight="1">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="25">
         <v>44432</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="75" customHeight="1">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="25">
         <v>44432</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="75" customHeight="1">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="25">
         <v>44432</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="75" customHeight="1">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="25">
         <v>44432</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="75" customHeight="1">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="25">
         <v>44432</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="75" customHeight="1">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="25">
         <v>44432</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="75" customHeight="1">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="25">
         <v>44432</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="75" customHeight="1">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="25">
         <v>44432</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="75" customHeight="1">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="13" t="s">
         <v>81</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="25">
         <v>44432</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="75" customHeight="1">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="25">
         <v>44432</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="75" customHeight="1">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="25">
         <v>44432</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="75" customHeight="1">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="25">
         <v>44433</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="75" customHeight="1">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="25">
         <v>44433</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="75" customHeight="1">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="25">
         <v>44433</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="75" customHeight="1">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="25">
         <v>44433</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="75" customHeight="1">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="25">
         <v>44433</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="75" customHeight="1">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="25">
         <v>44433</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="75" customHeight="1">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="25">
         <v>44433</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="75" customHeight="1">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="25">
         <v>44433</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="75" customHeight="1">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="25">
         <v>44434</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="75" customHeight="1">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="25">
         <v>44434</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="75" customHeight="1">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="25">
         <v>44434</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="75" customHeight="1">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="25">
         <v>44434</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="75" customHeight="1">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="25">
         <v>44434</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="75" customHeight="1">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="25">
         <v>44434</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="75" customHeight="1">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="25">
         <v>44434</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="75" customHeight="1">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="25">
         <v>44434</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="75" customHeight="1">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="25">
         <v>44435</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="75" customHeight="1">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="25">
         <v>44436</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="75" customHeight="1">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="25">
         <v>44436</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="75" customHeight="1">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="25">
         <v>44436</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="75" customHeight="1">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="25">
         <v>44436</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="75" customHeight="1">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="25">
         <v>44436</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="75" customHeight="1">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="25">
         <v>44436</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="75" customHeight="1">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="25">
         <v>44436</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="75" customHeight="1">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="25">
         <v>44437</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="75" customHeight="1">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="25">
         <v>44437</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="75" customHeight="1">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C153" s="8">
+      <c r="C153" s="26">
         <v>44437</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="75" customHeight="1">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C154" s="8">
+      <c r="C154" s="26">
         <v>44438</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="75" customHeight="1">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C155" s="8">
+      <c r="C155" s="26">
         <v>44438</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="75" customHeight="1">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C156" s="8">
+      <c r="C156" s="26">
         <v>44438</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="75" customHeight="1">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C157" s="8">
+      <c r="C157" s="26">
         <v>44438</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="75" customHeight="1">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C158" s="8">
+      <c r="C158" s="26">
         <v>44438</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="75" customHeight="1">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C159" s="8">
+      <c r="C159" s="26">
         <v>44439</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="75" customHeight="1">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C160" s="8">
+      <c r="C160" s="26">
         <v>44439</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="75" customHeight="1">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C161" s="8">
+      <c r="C161" s="26">
         <v>44439</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="75" customHeight="1">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C162" s="8">
+      <c r="C162" s="26">
         <v>44439</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="75" customHeight="1">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C163" s="8">
+      <c r="C163" s="26">
         <v>44439</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="75" customHeight="1">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C164" s="8">
+      <c r="C164" s="26">
         <v>44439</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="75" customHeight="1">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C165" s="8">
+      <c r="C165" s="26">
         <v>44439</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="75" customHeight="1">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C166" s="25">
         <v>44440</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="75" customHeight="1">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167" s="25">
         <v>44440</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="75" customHeight="1">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C168" s="25">
         <v>44440</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="75" customHeight="1">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169" s="25">
         <v>44440</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="75" customHeight="1">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170" s="25">
         <v>44440</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="75" customHeight="1">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="25">
         <v>44440</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="75" customHeight="1">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="25">
         <v>44440</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="75" customHeight="1">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173" s="25">
         <v>44440</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="75" customHeight="1">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174" s="25">
         <v>44440</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="75" customHeight="1">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C175" s="25">
         <v>44440</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="75" customHeight="1">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C176" s="4">
+      <c r="C176" s="25">
         <v>44440</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="75" customHeight="1">
-      <c r="A177" s="5" t="s">
+    <row r="177" spans="1:6" ht="75" customHeight="1">
+      <c r="A177" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="25">
         <v>44440</v>
       </c>
     </row>
-    <row r="178" spans="1:5" s="2" customFormat="1" ht="75" customHeight="1">
-      <c r="A178" s="5"/>
-      <c r="C178" s="4">
+    <row r="178" spans="1:6" s="2" customFormat="1" ht="75" customHeight="1">
+      <c r="A178" s="13"/>
+      <c r="C178" s="25">
         <v>44441</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" s="2" customFormat="1" ht="75" customHeight="1">
-      <c r="A179" s="5"/>
-      <c r="C179" s="4">
+      <c r="D178" s="12"/>
+    </row>
+    <row r="179" spans="1:6" s="2" customFormat="1" ht="75" customHeight="1">
+      <c r="A179" s="13"/>
+      <c r="C179" s="25">
         <v>44442</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" s="2" customFormat="1" ht="75" customHeight="1">
-      <c r="A180" s="5"/>
-      <c r="C180" s="4">
+      <c r="D179" s="12"/>
+    </row>
+    <row r="180" spans="1:6" s="2" customFormat="1" ht="75" customHeight="1">
+      <c r="A180" s="13"/>
+      <c r="C180" s="25">
         <v>44443</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" s="2" customFormat="1" ht="75" customHeight="1">
-      <c r="A181" s="5"/>
-      <c r="C181" s="4">
+      <c r="D180" s="12"/>
+    </row>
+    <row r="181" spans="1:6" s="2" customFormat="1" ht="75" customHeight="1">
+      <c r="A181" s="13"/>
+      <c r="C181" s="25">
         <v>44444</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="75" customHeight="1">
-      <c r="A182" s="5"/>
-      <c r="C182" s="4">
+      <c r="D181" s="12"/>
+    </row>
+    <row r="182" spans="1:6" ht="75" customHeight="1">
+      <c r="C182" s="25">
         <v>44445</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="75" customHeight="1">
-      <c r="A183" s="5"/>
-      <c r="C183" s="8">
+    <row r="183" spans="1:6" ht="75" customHeight="1">
+      <c r="C183" s="26">
         <v>44446</v>
       </c>
     </row>
-    <row r="184" spans="1:5" s="2" customFormat="1" ht="75" customHeight="1">
-      <c r="A184" s="5" t="s">
+    <row r="184" spans="1:6" s="14" customFormat="1" ht="75" customHeight="1">
+      <c r="A184" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C184" s="8">
+      <c r="C184" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="D184" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="75" customHeight="1">
+      <c r="A185" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C185" s="26">
         <v>44447</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="75" customHeight="1">
-      <c r="A185" s="5" t="s">
+      <c r="D185" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="75" customHeight="1">
+      <c r="A186" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C186" s="26">
+        <v>44447</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="75" customHeight="1">
+      <c r="A187" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C185" s="8">
+      <c r="B187" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C187" s="26">
         <v>44447</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="75" customHeight="1">
-      <c r="A186" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B186" s="1" t="s">
+      <c r="D187" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="75" customHeight="1">
+      <c r="A188" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C188" s="26">
+        <v>44447</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="75" customHeight="1">
+      <c r="A189" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C189" s="26">
+        <v>44447</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="75" customHeight="1">
+      <c r="A190" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C190" s="26">
+        <v>44447</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="75" customHeight="1">
+      <c r="A191" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C191" s="26">
+        <v>44447</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="75" customHeight="1">
+      <c r="A192" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C192" s="26">
+        <v>44447</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="75" customHeight="1">
+      <c r="A193" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C186" s="8">
+      <c r="C193" s="26">
         <v>44447</v>
       </c>
-      <c r="D186" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="75" customHeight="1">
-      <c r="A187" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C187" s="8">
-        <v>44447</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="75" customHeight="1">
-      <c r="A188" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C188" s="8">
-        <v>44447</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="75" customHeight="1">
-      <c r="A189" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C189" s="8">
-        <v>44447</v>
-      </c>
-      <c r="D189" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="75" customHeight="1">
-      <c r="A190" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C190" s="8">
-        <v>44447</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="75" customHeight="1">
-      <c r="A191" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C191" s="8">
-        <v>44447</v>
-      </c>
-      <c r="D191" s="3" t="s">
+      <c r="D193" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="75" customHeight="1">
-      <c r="A192" s="5" t="s">
+    <row r="194" spans="1:4" ht="75" customHeight="1">
+      <c r="A194" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C192" s="8">
-        <v>44447</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="75" customHeight="1">
-      <c r="A193" s="5" t="s">
+      <c r="C194" s="25">
+        <v>44448</v>
+      </c>
+      <c r="D194" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C193" s="8">
-        <v>44447</v>
-      </c>
-      <c r="D193" s="3" t="s">
+    </row>
+    <row r="195" spans="1:4" ht="75" customHeight="1">
+      <c r="A195" s="13" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="75" customHeight="1">
-      <c r="A194" s="5" t="s">
+      <c r="B195" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C195" s="25">
+        <v>44448</v>
+      </c>
+      <c r="D195" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C194" s="9">
+    </row>
+    <row r="196" spans="1:4" ht="75" customHeight="1">
+      <c r="A196" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C196" s="25">
         <v>44448</v>
       </c>
-      <c r="D194" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="75" customHeight="1">
-      <c r="A195" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B195" s="1" t="s">
+      <c r="D196" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C195" s="9">
+    </row>
+    <row r="197" spans="1:4" ht="75" customHeight="1">
+      <c r="A197" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C197" s="25">
         <v>44448</v>
       </c>
-      <c r="D195" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="75" customHeight="1">
-      <c r="A196" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B196" s="1" t="s">
+      <c r="D197" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C196" s="9">
+    </row>
+    <row r="198" spans="1:4" ht="75" customHeight="1">
+      <c r="A198" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C198" s="25">
         <v>44448</v>
       </c>
-      <c r="D196" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="75" customHeight="1">
-      <c r="A197" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B197" s="1" t="s">
+      <c r="D198" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="75" customHeight="1">
+      <c r="A199" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C197" s="9">
+      <c r="C199" s="25">
         <v>44448</v>
       </c>
-      <c r="D197" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="75" customHeight="1">
-      <c r="A198" s="5" t="s">
+      <c r="D199" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="94" customHeight="1">
+      <c r="A200" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C198" s="9">
+      <c r="B200" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C200" s="25">
         <v>44448</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="D200" s="12" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="75" customHeight="1">
-      <c r="A199" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C199" s="12">
-        <v>44448</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="94" customHeight="1">
-      <c r="A200" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C200" s="12">
-        <v>44448</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="75" customHeight="1">
       <c r="A201" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C201" s="12">
+        <v>180</v>
+      </c>
+      <c r="C201" s="25">
         <v>44448</v>
       </c>
-      <c r="D201" s="3" t="s">
-        <v>185</v>
+      <c r="D201" s="12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="75" customHeight="1">
       <c r="A202" s="13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C202" s="12">
+        <v>163</v>
+      </c>
+      <c r="C202" s="25">
         <v>44448</v>
       </c>
-      <c r="D202" s="3" t="s">
-        <v>187</v>
+      <c r="D202" s="12" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="75" customHeight="1">
       <c r="A203" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C203" s="12">
+        <v>185</v>
+      </c>
+      <c r="C203" s="25">
         <v>44448</v>
       </c>
-      <c r="D203" s="3" t="s">
-        <v>190</v>
+      <c r="D203" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="75" customHeight="1">
       <c r="A204" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C204" s="15">
+        <v>188</v>
+      </c>
+      <c r="C204" s="25">
         <v>44449</v>
       </c>
-      <c r="D204" s="3" t="s">
-        <v>193</v>
+      <c r="D204" s="12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="75" customHeight="1">
       <c r="A205" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C205" s="15">
+        <v>191</v>
+      </c>
+      <c r="C205" s="25">
         <v>44449</v>
       </c>
-      <c r="D205" s="3" t="s">
-        <v>196</v>
+      <c r="D205" s="12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="75" customHeight="1">
       <c r="A206" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C206" s="8">
+        <v>191</v>
+      </c>
+      <c r="C206" s="26">
         <v>44449</v>
       </c>
-      <c r="D206" s="3" t="s">
-        <v>198</v>
+      <c r="D206" s="12" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="75" customHeight="1">
       <c r="A207" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B207" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C207" s="8">
+      <c r="B207" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C207" s="26">
         <v>44449</v>
       </c>
-      <c r="D207" s="3" t="s">
-        <v>200</v>
+      <c r="D207" s="12" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="75" customHeight="1">
       <c r="A208" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C208" s="8">
+        <v>198</v>
+      </c>
+      <c r="C208" s="26">
         <v>44449</v>
       </c>
-      <c r="D208" s="16" t="s">
-        <v>203</v>
+      <c r="D208" s="12" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="75" customHeight="1">
       <c r="A209" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D209" s="16"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="210" spans="1:6" ht="75" customHeight="1">
       <c r="A210" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B210" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C210" s="8">
+        <v>201</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C210" s="26">
         <v>44449</v>
       </c>
-      <c r="D210" s="16" t="s">
-        <v>207</v>
+      <c r="D210" s="12" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="75" customHeight="1">
       <c r="A211" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B211" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C211" s="8">
+        <v>202</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C211" s="26">
         <v>44449</v>
       </c>
-      <c r="D211" s="16" t="s">
-        <v>208</v>
+      <c r="D211" s="12" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="75" customHeight="1">
       <c r="A212" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C212" s="26">
+        <v>44449</v>
+      </c>
+      <c r="D212" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="75" customHeight="1">
+      <c r="A213" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B212" s="14" t="s">
+      <c r="C213" s="26">
+        <v>44450</v>
+      </c>
+      <c r="D213" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C212" s="8">
-        <v>44449</v>
-      </c>
-      <c r="D212" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="75" customHeight="1">
-      <c r="A213" s="20" t="s">
+    </row>
+    <row r="214" spans="1:6" ht="75" customHeight="1">
+      <c r="A214" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C214" s="26">
+        <v>44450</v>
+      </c>
+      <c r="D214" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="75" customHeight="1">
+      <c r="A215" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C213" s="8">
+      <c r="C215" s="26">
         <v>44450</v>
       </c>
-      <c r="D213" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="75" customHeight="1">
-      <c r="A214" s="20" t="s">
+      <c r="D215" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C214" s="8">
+    </row>
+    <row r="216" spans="1:6" ht="75" customHeight="1">
+      <c r="A216" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C216" s="26">
         <v>44450</v>
       </c>
-      <c r="D214" s="18" t="s">
+      <c r="D216" s="12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="75" customHeight="1">
-      <c r="A215" s="20" t="s">
+    <row r="217" spans="1:6" ht="75" customHeight="1">
+      <c r="A217" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C215" s="8">
+      <c r="B217" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C217" s="26">
         <v>44450</v>
       </c>
-      <c r="D215" s="18" t="s">
+      <c r="D217" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="75" customHeight="1">
-      <c r="A216" s="20" t="s">
+    <row r="218" spans="1:6" ht="75" customHeight="1">
+      <c r="A218" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C218" s="26">
+        <v>44451</v>
+      </c>
+      <c r="D218" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C216" s="8">
-        <v>44450</v>
-      </c>
-      <c r="D216" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="75" customHeight="1">
-      <c r="A217" s="20" t="s">
+    </row>
+    <row r="219" spans="1:6" ht="75" customHeight="1">
+      <c r="A219" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="B217" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C217" s="8">
-        <v>44450</v>
-      </c>
-      <c r="D217" s="18" t="s">
+      <c r="B219" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C219" s="26">
+        <v>44451</v>
+      </c>
+      <c r="D219" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="75" customHeight="1">
-      <c r="A218" s="20" t="s">
+    <row r="220" spans="1:6" ht="75" customHeight="1">
+      <c r="A220" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C218" s="8">
+      <c r="C220" s="26">
         <v>44451</v>
       </c>
-      <c r="D218" s="18" t="s">
+      <c r="D220" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="75" customHeight="1">
+      <c r="A221" s="13" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" ht="75" customHeight="1">
-      <c r="A219" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="B219" s="17" t="s">
+      <c r="B221" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C221" s="26">
+        <v>44451</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F221" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C219" s="8">
+    </row>
+    <row r="222" spans="1:6" ht="75" customHeight="1">
+      <c r="A222" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C222" s="26">
         <v>44451</v>
       </c>
-      <c r="D219" s="18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="75" customHeight="1">
-      <c r="A220" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C220" s="8">
+      <c r="D222" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="75" customHeight="1">
+      <c r="A223" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C223" s="26">
         <v>44451</v>
       </c>
-      <c r="D220" s="18" t="s">
+      <c r="D223" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="75" customHeight="1">
+      <c r="A224" s="13" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="75" customHeight="1">
-      <c r="A221" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="B221" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C221" s="8">
+      <c r="B224" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C224" s="26">
         <v>44451</v>
       </c>
-      <c r="D221" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="75" customHeight="1">
-      <c r="A222" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C222" s="8">
+      <c r="D224" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="75" customHeight="1">
+      <c r="A225" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C225" s="26">
         <v>44451</v>
       </c>
-      <c r="D222" s="19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="75" customHeight="1">
-      <c r="A223" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C223" s="8">
+      <c r="D225" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="75" customHeight="1">
+      <c r="A226" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C226" s="26">
         <v>44451</v>
       </c>
-      <c r="D223" s="18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="75" customHeight="1">
-      <c r="A224" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C224" s="8">
+      <c r="D226" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="75" customHeight="1">
+      <c r="A227" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C227" s="26">
         <v>44451</v>
       </c>
-      <c r="D224" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="75" customHeight="1">
-      <c r="A225" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C225" s="8">
-        <v>44451</v>
-      </c>
-      <c r="D225" s="18" t="s">
+      <c r="D227" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="75" customHeight="1">
+      <c r="A228" s="13" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" ht="75" customHeight="1">
-      <c r="A226" s="20" t="s">
+      <c r="B228" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C226" s="8">
-        <v>44451</v>
-      </c>
-      <c r="D226" s="18" t="s">
+      <c r="C228" s="26">
+        <v>44452</v>
+      </c>
+      <c r="D228" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="75" customHeight="1">
+      <c r="A229" s="13" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" ht="75" customHeight="1">
-      <c r="A227" s="20" t="s">
+      <c r="B229" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C227" s="8">
-        <v>44451</v>
-      </c>
-      <c r="D227" s="18" t="s">
+      <c r="C229" s="26">
+        <v>44452</v>
+      </c>
+      <c r="D229" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="75" customHeight="1">
+      <c r="A230" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C230" s="26">
+        <v>44453</v>
+      </c>
+      <c r="D230" s="12" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="75" customHeight="1">
-      <c r="A228" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C228" s="8">
-        <v>44452</v>
-      </c>
-      <c r="D228" s="23" t="s">
+    <row r="231" spans="1:4" ht="98" customHeight="1">
+      <c r="A231" s="13" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" ht="75" customHeight="1">
-      <c r="A229" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C229" s="8">
-        <v>44452</v>
-      </c>
-      <c r="D229" s="23" t="s">
+      <c r="B231" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C231" s="26">
+        <v>44453</v>
+      </c>
+      <c r="D231" s="12" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="75" customHeight="1">
-      <c r="A230" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="B230" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C230" s="8">
+    <row r="232" spans="1:4" ht="75" customHeight="1">
+      <c r="A232" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C232" s="26">
         <v>44453</v>
       </c>
-      <c r="D230" s="23" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="98" customHeight="1">
-      <c r="A231" s="22" t="s">
+      <c r="D232" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C231" s="8">
+    </row>
+    <row r="233" spans="1:4" ht="75" customHeight="1">
+      <c r="A233" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C233" s="26">
         <v>44453</v>
       </c>
-      <c r="D231" s="23" t="s">
+      <c r="D233" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="75" customHeight="1">
+      <c r="A234" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B234" s="10" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" ht="75" customHeight="1">
-      <c r="A232" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="B232" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C232" s="8">
+      <c r="C234" s="26">
         <v>44453</v>
       </c>
-      <c r="D232" s="23" t="s">
+      <c r="D234" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="75" customHeight="1">
+      <c r="A235" s="13" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" ht="75" customHeight="1">
-      <c r="A233" s="22" t="s">
+      <c r="B235" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C235" s="26">
+        <v>44453</v>
+      </c>
+      <c r="D235" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="75" customHeight="1">
+      <c r="A236" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="B233" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C233" s="8">
+      <c r="B236" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C236" s="26">
         <v>44453</v>
       </c>
-      <c r="D233" s="23" t="s">
+      <c r="D236" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="75" customHeight="1">
+      <c r="A237" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C237" s="26">
+        <v>44453</v>
+      </c>
+      <c r="D237" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="75" customHeight="1">
+      <c r="A238" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C238" s="26">
+        <v>44453</v>
+      </c>
+      <c r="D238" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="75" customHeight="1">
+      <c r="A239" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C239" s="26">
+        <v>44453</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="75" customHeight="1">
+      <c r="A240" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" ht="75" customHeight="1">
-      <c r="A234" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="B234" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C234" s="8">
+      <c r="B240" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C240" s="26">
         <v>44453</v>
       </c>
-      <c r="D234" s="23" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="75" customHeight="1">
-      <c r="A235" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="B235" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C235" s="8">
-        <v>44453</v>
-      </c>
-      <c r="D235" s="23" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="75" customHeight="1">
-      <c r="A236" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="B236" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C236" s="8">
-        <v>44453</v>
-      </c>
-      <c r="D236" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="75" customHeight="1">
-      <c r="A237" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="B237" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C237" s="8">
-        <v>44453</v>
-      </c>
-      <c r="D237" s="23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="75" customHeight="1">
-      <c r="A238" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C238" s="8">
-        <v>44453</v>
-      </c>
-      <c r="D238" s="23" t="s">
+      <c r="D240" s="12" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="75" customHeight="1">
-      <c r="A239" s="1" t="s">
+    <row r="241" spans="1:6" ht="75" customHeight="1">
+      <c r="A241" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="B239" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C239" s="8">
-        <v>44453</v>
-      </c>
-      <c r="D239" s="23" t="s">
+      <c r="B241" s="10" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" ht="75" customHeight="1">
-      <c r="A240" s="22" t="s">
+      <c r="C241" s="26">
+        <v>44454</v>
+      </c>
+      <c r="D241" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B240" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C240" s="8">
-        <v>44453</v>
-      </c>
-      <c r="D240" s="23" t="s">
+    </row>
+    <row r="242" spans="1:6" ht="75" customHeight="1">
+      <c r="A242" s="13" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" ht="75" customHeight="1">
-      <c r="A241" s="22"/>
-      <c r="B241" s="21"/>
-      <c r="C241" s="8"/>
-    </row>
-    <row r="242" spans="1:3" ht="75" customHeight="1">
-      <c r="A242" s="22"/>
-    </row>
-    <row r="243" spans="1:3" ht="75" customHeight="1">
-      <c r="A243" s="22"/>
-    </row>
-    <row r="244" spans="1:3" ht="75" customHeight="1"/>
-    <row r="245" spans="1:3" ht="75" customHeight="1"/>
-    <row r="246" spans="1:3" ht="75" customHeight="1"/>
-    <row r="247" spans="1:3" ht="75" customHeight="1"/>
-    <row r="248" spans="1:3" ht="75" customHeight="1"/>
-    <row r="249" spans="1:3" ht="75" customHeight="1"/>
-    <row r="250" spans="1:3" ht="75" customHeight="1"/>
-    <row r="251" spans="1:3" ht="75" customHeight="1"/>
-    <row r="252" spans="1:3" ht="75" customHeight="1"/>
-    <row r="253" spans="1:3" ht="75" customHeight="1"/>
-    <row r="254" spans="1:3" ht="75" customHeight="1"/>
-    <row r="255" spans="1:3" ht="75" customHeight="1"/>
+      <c r="B242" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C242" s="26">
+        <v>44454</v>
+      </c>
+      <c r="D242" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="75" customHeight="1">
+      <c r="A243" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C243" s="26">
+        <v>44454</v>
+      </c>
+      <c r="D243" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="75" customHeight="1">
+      <c r="A244" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C244" s="26">
+        <v>44454</v>
+      </c>
+      <c r="D244" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="75" customHeight="1">
+      <c r="A245" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C245" s="26">
+        <v>44454</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="75" customHeight="1">
+      <c r="A246" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C246" s="25">
+        <v>44455</v>
+      </c>
+      <c r="D246" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="75" customHeight="1">
+      <c r="A247" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C247" s="25">
+        <v>44455</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="75" customHeight="1">
+      <c r="A248" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C248" s="25">
+        <v>44455</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="75" customHeight="1">
+      <c r="A249" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C249" s="25">
+        <v>44455</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F249" s="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="75" customHeight="1">
+      <c r="A250" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C250" s="25">
+        <v>44455</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="75" customHeight="1">
+      <c r="A251" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C251" s="25">
+        <v>44455</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="75" customHeight="1">
+      <c r="A252" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C252" s="25">
+        <v>44455</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="75" customHeight="1">
+      <c r="A253" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C253" s="25">
+        <v>44455</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="75" customHeight="1">
+      <c r="A254" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C254" s="25">
+        <v>44455</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="75" customHeight="1">
+      <c r="A255" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C255" s="25">
+        <v>44455</v>
+      </c>
+      <c r="D255" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="75" customHeight="1">
+      <c r="A256" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C256" s="25">
+        <v>44455</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="75" customHeight="1">
+      <c r="A257" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C257" s="25">
+        <v>44455</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="75" customHeight="1">
+      <c r="A258" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C258" s="25">
+        <v>44455</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="175" customHeight="1">
+      <c r="A259" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C259" s="25">
+        <v>44456</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="75" customHeight="1">
+      <c r="A260" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C260" s="25">
+        <v>44456</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="75" customHeight="1">
+      <c r="A261" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C261" s="25">
+        <v>44456</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="75" customHeight="1">
+      <c r="A262" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C262" s="25">
+        <v>44456</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="75" customHeight="1">
+      <c r="A263" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C263" s="25">
+        <v>44456</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="75" customHeight="1">
+      <c r="A264" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C264" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="75" customHeight="1">
+      <c r="A265" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C265" s="25">
+        <v>44456</v>
+      </c>
+      <c r="D265" s="12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="75" customHeight="1">
+      <c r="A266" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C266" s="25">
+        <v>44456</v>
+      </c>
+      <c r="D266" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="75" customHeight="1">
+      <c r="A267" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C267" s="26">
+        <v>44456</v>
+      </c>
+      <c r="D267" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="75" customHeight="1"/>
+    <row r="269" spans="1:4" ht="75" customHeight="1"/>
+    <row r="270" spans="1:4" ht="75" customHeight="1"/>
+    <row r="271" spans="1:4" ht="75" customHeight="1"/>
+    <row r="272" spans="1:4" ht="75" customHeight="1"/>
+    <row r="273" ht="75" customHeight="1"/>
+    <row r="274" ht="75" customHeight="1"/>
+    <row r="275" ht="75" customHeight="1"/>
+    <row r="276" ht="75" customHeight="1"/>
+    <row r="277" ht="75" customHeight="1"/>
+    <row r="278" ht="75" customHeight="1"/>
+    <row r="279" ht="75" customHeight="1"/>
+    <row r="280" ht="75" customHeight="1"/>
+    <row r="281" ht="75" customHeight="1"/>
+    <row r="282" ht="75" customHeight="1"/>
+    <row r="283" ht="75" customHeight="1"/>
+    <row r="284" ht="75" customHeight="1"/>
+    <row r="285" ht="75" customHeight="1"/>
+    <row r="286" ht="75" customHeight="1"/>
+    <row r="287" ht="75" customHeight="1"/>
+    <row r="288" ht="75" customHeight="1"/>
+    <row r="289" ht="75" customHeight="1"/>
+    <row r="290" ht="75" customHeight="1"/>
+    <row r="291" ht="75" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="C57:C61"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="D82:D86"/>
@@ -4507,62 +5257,6 @@
     <mergeCell ref="C82:C86"/>
     <mergeCell ref="B67:B71"/>
     <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15520" yWindow="2280" windowWidth="35040" windowHeight="17680" tabRatio="500"/>
+    <workbookView xWindow="18440" yWindow="5120" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="361">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1428,6 +1428,78 @@
   </si>
   <si>
     <t>有向图：写法一 用哈希表维护 / 写法二 用数组维护 为了方便维护两个长度为N+1的数组一个为入度一个为出度，检查是否存在一个人被除了自己以外的所有人信任并且不信任任何人/ 写法三 邻接矩阵 / 写法四 邻接表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>292. Nim Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找规律：12（11 10 9） 8 （7 6 5） 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109. Convert Sorted List to Binary Search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：快慢指针找中点，建立并断开前后连接点，然后递归建立左右子树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108.Convert Sorted Array to Binary Search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS： 确定完base情况以后（此处L==R可以剪枝直接做node返回） 找中间节点 建立root 然后递归建立左右子树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>143.Reorder List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">134.Gas Station </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">meidum </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快慢指针+链表反转+链表拼接：找中点，反转后半部分，拼接 第三部有些tricky 需要先用tmp锁住断开后的点，然后再断开 线性表存储：此写法比较tricky 用收缩双指针来写 最后要对j单独处理，否则会成环。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>155. Min Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力：尝试每一个节点成为初始节点的可能性 暴力优化：最远距离绕到了之前，所以 i 后边的都不可能绕一圈了， i 直接跳到 j，外层 for 循环执行 i++，相当于从 j + 1 开始考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双栈：stack1存值 另一个用inf做个底然后维护stack1中当前的最小值 tuple：每次入栈(元素，最小元素)即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>671. Second Minimum Node In a Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力：前序遍历+最小堆  DFS：根据题意，根节点的值最小，初始化ans=-1，开始先序遍历找到第一个大于根节点的子节点，后面的就除非小于它才考虑， 也就是说如果ans已经被赋值过了，后面继续遍历到大于等于的值直接跳过。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1538,7 +1610,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="215">
+  <cellStyleXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1754,8 +1826,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1811,23 +1895,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1844,8 +1916,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="215">
+  <cellStyles count="227">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2060,6 +2150,18 @@
     <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2395,8 +2497,8 @@
   <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D266" sqref="D266"/>
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D273" sqref="D273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2410,16 +2512,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -2427,16 +2529,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2444,43 +2546,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="18"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="19"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="19"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2488,43 +2590,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="18"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="19"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2532,571 +2634,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="19"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="19"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="18"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="19"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="19"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="31">
         <v>44418</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="19"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="18"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="19"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="19"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="19"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="31">
         <v>44418</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="18"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="18"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="18"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="31">
         <v>44418</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="18"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="18"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="18"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="30"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="31">
         <v>44419</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="18"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="18"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="30"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="18"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="18"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="31">
         <v>44419</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="18"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="18"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="30"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="18"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="18"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="30"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="31">
         <v>44420</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="18"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="18"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="18"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="18"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="31">
         <v>44420</v>
       </c>
-      <c r="D47" s="19"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="18"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="19"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="30"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="18"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="19"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="30"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="18"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="19"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="30"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="18"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="19"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="31">
         <v>44421</v>
       </c>
-      <c r="D52" s="19"/>
+      <c r="D52" s="30"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="18"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="19"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="30"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="18"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="30"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="18"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="19"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="30"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="18"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="19"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="30"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="31">
         <v>44422</v>
       </c>
-      <c r="D57" s="19"/>
+      <c r="D57" s="30"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="30"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="19"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="30"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="19"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="30"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="19"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="30"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="31">
         <v>44423</v>
       </c>
-      <c r="D62" s="19"/>
+      <c r="D62" s="30"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="18"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="19"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="30"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="18"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="19"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="30"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="18"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="19"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="30"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="18"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="19"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="30"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="24">
+      <c r="C67" s="31">
         <v>44423</v>
       </c>
-      <c r="D67" s="19"/>
+      <c r="D67" s="30"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="18"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="19"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="30"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="18"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="19"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="30"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="18"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="19"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="30"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="18"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="19"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="30"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="24">
+      <c r="C72" s="31">
         <v>44423</v>
       </c>
-      <c r="D72" s="19"/>
+      <c r="D72" s="30"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="18"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="19"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="30"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="18"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="19"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="30"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="18"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="19"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="30"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="18"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="19"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="30"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="24">
+      <c r="C77" s="31">
         <v>44424</v>
       </c>
-      <c r="D77" s="19"/>
+      <c r="D77" s="30"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="18"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="30"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="18"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="19"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="30"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="18"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="19"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="30"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="18"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="19"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="30"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="18" t="s">
+      <c r="A82" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="24">
+      <c r="C82" s="31">
         <v>44424</v>
       </c>
-      <c r="D82" s="19"/>
+      <c r="D82" s="30"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="18"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="19"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="30"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="18"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="19"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="30"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="18"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="19"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="30"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="18"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="19"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="30"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="24">
+      <c r="C87" s="31">
         <v>44424</v>
       </c>
-      <c r="D87" s="19"/>
+      <c r="D87" s="30"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="18"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="19"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="30"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="18"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="19"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="30"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="18"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="19"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="30"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="18"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="19"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="30"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="13" t="s">
@@ -3105,7 +3207,7 @@
       <c r="B92" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C92" s="25">
+      <c r="C92" s="21">
         <v>44425</v>
       </c>
     </row>
@@ -3116,7 +3218,7 @@
       <c r="B93" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="25">
+      <c r="C93" s="21">
         <v>44425</v>
       </c>
     </row>
@@ -3127,7 +3229,7 @@
       <c r="B94" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="25">
+      <c r="C94" s="21">
         <v>44425</v>
       </c>
     </row>
@@ -3138,7 +3240,7 @@
       <c r="B95" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="25">
+      <c r="C95" s="21">
         <v>44426</v>
       </c>
     </row>
@@ -3149,7 +3251,7 @@
       <c r="B96" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="25">
+      <c r="C96" s="21">
         <v>44426</v>
       </c>
     </row>
@@ -3160,7 +3262,7 @@
       <c r="B97" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="25">
+      <c r="C97" s="21">
         <v>44426</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -3174,7 +3276,7 @@
       <c r="B98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C98" s="25">
+      <c r="C98" s="21">
         <v>44427</v>
       </c>
     </row>
@@ -3185,7 +3287,7 @@
       <c r="B99" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="25">
+      <c r="C99" s="21">
         <v>44427</v>
       </c>
     </row>
@@ -3196,7 +3298,7 @@
       <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="25">
+      <c r="C100" s="21">
         <v>44427</v>
       </c>
     </row>
@@ -3207,7 +3309,7 @@
       <c r="B101" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C101" s="25">
+      <c r="C101" s="21">
         <v>44428</v>
       </c>
     </row>
@@ -3218,7 +3320,7 @@
       <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="25">
+      <c r="C102" s="21">
         <v>44428</v>
       </c>
     </row>
@@ -3229,7 +3331,7 @@
       <c r="B103" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C103" s="25">
+      <c r="C103" s="21">
         <v>44428</v>
       </c>
     </row>
@@ -3240,7 +3342,7 @@
       <c r="B104" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="25">
+      <c r="C104" s="21">
         <v>44428</v>
       </c>
     </row>
@@ -3251,7 +3353,7 @@
       <c r="B105" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="25">
+      <c r="C105" s="21">
         <v>44428</v>
       </c>
     </row>
@@ -3262,7 +3364,7 @@
       <c r="B106" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C106" s="25">
+      <c r="C106" s="21">
         <v>44429</v>
       </c>
     </row>
@@ -3273,7 +3375,7 @@
       <c r="B107" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C107" s="25">
+      <c r="C107" s="21">
         <v>44429</v>
       </c>
     </row>
@@ -3284,7 +3386,7 @@
       <c r="B108" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="26">
+      <c r="C108" s="22">
         <v>44429</v>
       </c>
     </row>
@@ -3295,7 +3397,7 @@
       <c r="B109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="25">
+      <c r="C109" s="21">
         <v>44429</v>
       </c>
     </row>
@@ -3306,7 +3408,7 @@
       <c r="B110" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="25">
+      <c r="C110" s="21">
         <v>44430</v>
       </c>
     </row>
@@ -3317,7 +3419,7 @@
       <c r="B111" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="25">
+      <c r="C111" s="21">
         <v>44430</v>
       </c>
     </row>
@@ -3328,7 +3430,7 @@
       <c r="B112" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="25">
+      <c r="C112" s="21">
         <v>44430</v>
       </c>
     </row>
@@ -3339,7 +3441,7 @@
       <c r="B113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="25">
+      <c r="C113" s="21">
         <v>44431</v>
       </c>
     </row>
@@ -3350,7 +3452,7 @@
       <c r="B114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="25">
+      <c r="C114" s="21">
         <v>44431</v>
       </c>
     </row>
@@ -3361,7 +3463,7 @@
       <c r="B115" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="25">
+      <c r="C115" s="21">
         <v>44431</v>
       </c>
     </row>
@@ -3372,7 +3474,7 @@
       <c r="B116" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C116" s="25">
+      <c r="C116" s="21">
         <v>44432</v>
       </c>
     </row>
@@ -3383,7 +3485,7 @@
       <c r="B117" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="25">
+      <c r="C117" s="21">
         <v>44432</v>
       </c>
     </row>
@@ -3394,7 +3496,7 @@
       <c r="B118" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="25">
+      <c r="C118" s="21">
         <v>44432</v>
       </c>
     </row>
@@ -3405,7 +3507,7 @@
       <c r="B119" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C119" s="25">
+      <c r="C119" s="21">
         <v>44432</v>
       </c>
     </row>
@@ -3416,7 +3518,7 @@
       <c r="B120" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C120" s="25">
+      <c r="C120" s="21">
         <v>44432</v>
       </c>
     </row>
@@ -3427,7 +3529,7 @@
       <c r="B121" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C121" s="25">
+      <c r="C121" s="21">
         <v>44432</v>
       </c>
     </row>
@@ -3438,7 +3540,7 @@
       <c r="B122" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C122" s="25">
+      <c r="C122" s="21">
         <v>44432</v>
       </c>
     </row>
@@ -3449,7 +3551,7 @@
       <c r="B123" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C123" s="25">
+      <c r="C123" s="21">
         <v>44432</v>
       </c>
     </row>
@@ -3460,7 +3562,7 @@
       <c r="B124" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C124" s="25">
+      <c r="C124" s="21">
         <v>44432</v>
       </c>
     </row>
@@ -3471,7 +3573,7 @@
       <c r="B125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C125" s="25">
+      <c r="C125" s="21">
         <v>44432</v>
       </c>
     </row>
@@ -3482,7 +3584,7 @@
       <c r="B126" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C126" s="25">
+      <c r="C126" s="21">
         <v>44432</v>
       </c>
     </row>
@@ -3493,7 +3595,7 @@
       <c r="B127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C127" s="25">
+      <c r="C127" s="21">
         <v>44433</v>
       </c>
     </row>
@@ -3504,7 +3606,7 @@
       <c r="B128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C128" s="25">
+      <c r="C128" s="21">
         <v>44433</v>
       </c>
     </row>
@@ -3515,7 +3617,7 @@
       <c r="B129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C129" s="25">
+      <c r="C129" s="21">
         <v>44433</v>
       </c>
     </row>
@@ -3526,7 +3628,7 @@
       <c r="B130" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C130" s="25">
+      <c r="C130" s="21">
         <v>44433</v>
       </c>
     </row>
@@ -3537,7 +3639,7 @@
       <c r="B131" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="25">
+      <c r="C131" s="21">
         <v>44433</v>
       </c>
     </row>
@@ -3548,7 +3650,7 @@
       <c r="B132" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C132" s="25">
+      <c r="C132" s="21">
         <v>44433</v>
       </c>
     </row>
@@ -3559,7 +3661,7 @@
       <c r="B133" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C133" s="25">
+      <c r="C133" s="21">
         <v>44433</v>
       </c>
     </row>
@@ -3570,7 +3672,7 @@
       <c r="B134" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C134" s="25">
+      <c r="C134" s="21">
         <v>44433</v>
       </c>
     </row>
@@ -3581,7 +3683,7 @@
       <c r="B135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C135" s="25">
+      <c r="C135" s="21">
         <v>44434</v>
       </c>
     </row>
@@ -3592,7 +3694,7 @@
       <c r="B136" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C136" s="25">
+      <c r="C136" s="21">
         <v>44434</v>
       </c>
     </row>
@@ -3603,7 +3705,7 @@
       <c r="B137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C137" s="25">
+      <c r="C137" s="21">
         <v>44434</v>
       </c>
     </row>
@@ -3614,7 +3716,7 @@
       <c r="B138" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="25">
+      <c r="C138" s="21">
         <v>44434</v>
       </c>
     </row>
@@ -3625,7 +3727,7 @@
       <c r="B139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C139" s="25">
+      <c r="C139" s="21">
         <v>44434</v>
       </c>
     </row>
@@ -3636,7 +3738,7 @@
       <c r="B140" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C140" s="25">
+      <c r="C140" s="21">
         <v>44434</v>
       </c>
     </row>
@@ -3647,7 +3749,7 @@
       <c r="B141" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C141" s="25">
+      <c r="C141" s="21">
         <v>44434</v>
       </c>
     </row>
@@ -3658,7 +3760,7 @@
       <c r="B142" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C142" s="25">
+      <c r="C142" s="21">
         <v>44434</v>
       </c>
     </row>
@@ -3666,7 +3768,7 @@
       <c r="A143" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C143" s="25">
+      <c r="C143" s="21">
         <v>44435</v>
       </c>
     </row>
@@ -3674,7 +3776,7 @@
       <c r="A144" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C144" s="25">
+      <c r="C144" s="21">
         <v>44436</v>
       </c>
     </row>
@@ -3682,7 +3784,7 @@
       <c r="A145" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C145" s="25">
+      <c r="C145" s="21">
         <v>44436</v>
       </c>
     </row>
@@ -3690,7 +3792,7 @@
       <c r="A146" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C146" s="25">
+      <c r="C146" s="21">
         <v>44436</v>
       </c>
     </row>
@@ -3698,7 +3800,7 @@
       <c r="A147" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C147" s="25">
+      <c r="C147" s="21">
         <v>44436</v>
       </c>
     </row>
@@ -3706,7 +3808,7 @@
       <c r="A148" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C148" s="25">
+      <c r="C148" s="21">
         <v>44436</v>
       </c>
     </row>
@@ -3714,7 +3816,7 @@
       <c r="A149" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C149" s="25">
+      <c r="C149" s="21">
         <v>44436</v>
       </c>
     </row>
@@ -3722,7 +3824,7 @@
       <c r="A150" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C150" s="25">
+      <c r="C150" s="21">
         <v>44436</v>
       </c>
     </row>
@@ -3730,7 +3832,7 @@
       <c r="A151" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C151" s="25">
+      <c r="C151" s="21">
         <v>44437</v>
       </c>
     </row>
@@ -3738,7 +3840,7 @@
       <c r="A152" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C152" s="25">
+      <c r="C152" s="21">
         <v>44437</v>
       </c>
     </row>
@@ -3746,7 +3848,7 @@
       <c r="A153" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C153" s="26">
+      <c r="C153" s="22">
         <v>44437</v>
       </c>
     </row>
@@ -3754,7 +3856,7 @@
       <c r="A154" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C154" s="26">
+      <c r="C154" s="22">
         <v>44438</v>
       </c>
     </row>
@@ -3762,7 +3864,7 @@
       <c r="A155" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C155" s="26">
+      <c r="C155" s="22">
         <v>44438</v>
       </c>
     </row>
@@ -3770,7 +3872,7 @@
       <c r="A156" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C156" s="26">
+      <c r="C156" s="22">
         <v>44438</v>
       </c>
     </row>
@@ -3778,7 +3880,7 @@
       <c r="A157" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C157" s="26">
+      <c r="C157" s="22">
         <v>44438</v>
       </c>
     </row>
@@ -3786,7 +3888,7 @@
       <c r="A158" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C158" s="26">
+      <c r="C158" s="22">
         <v>44438</v>
       </c>
     </row>
@@ -3794,7 +3896,7 @@
       <c r="A159" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C159" s="26">
+      <c r="C159" s="22">
         <v>44439</v>
       </c>
     </row>
@@ -3802,7 +3904,7 @@
       <c r="A160" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C160" s="26">
+      <c r="C160" s="22">
         <v>44439</v>
       </c>
     </row>
@@ -3810,7 +3912,7 @@
       <c r="A161" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C161" s="26">
+      <c r="C161" s="22">
         <v>44439</v>
       </c>
     </row>
@@ -3818,7 +3920,7 @@
       <c r="A162" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C162" s="26">
+      <c r="C162" s="22">
         <v>44439</v>
       </c>
     </row>
@@ -3826,7 +3928,7 @@
       <c r="A163" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C163" s="26">
+      <c r="C163" s="22">
         <v>44439</v>
       </c>
     </row>
@@ -3834,7 +3936,7 @@
       <c r="A164" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C164" s="26">
+      <c r="C164" s="22">
         <v>44439</v>
       </c>
     </row>
@@ -3842,7 +3944,7 @@
       <c r="A165" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C165" s="26">
+      <c r="C165" s="22">
         <v>44439</v>
       </c>
     </row>
@@ -3850,7 +3952,7 @@
       <c r="A166" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C166" s="25">
+      <c r="C166" s="21">
         <v>44440</v>
       </c>
     </row>
@@ -3858,7 +3960,7 @@
       <c r="A167" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C167" s="25">
+      <c r="C167" s="21">
         <v>44440</v>
       </c>
     </row>
@@ -3866,7 +3968,7 @@
       <c r="A168" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C168" s="25">
+      <c r="C168" s="21">
         <v>44440</v>
       </c>
     </row>
@@ -3874,7 +3976,7 @@
       <c r="A169" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C169" s="25">
+      <c r="C169" s="21">
         <v>44440</v>
       </c>
     </row>
@@ -3882,7 +3984,7 @@
       <c r="A170" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C170" s="25">
+      <c r="C170" s="21">
         <v>44440</v>
       </c>
     </row>
@@ -3890,7 +3992,7 @@
       <c r="A171" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C171" s="25">
+      <c r="C171" s="21">
         <v>44440</v>
       </c>
     </row>
@@ -3898,7 +4000,7 @@
       <c r="A172" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C172" s="25">
+      <c r="C172" s="21">
         <v>44440</v>
       </c>
     </row>
@@ -3906,7 +4008,7 @@
       <c r="A173" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C173" s="25">
+      <c r="C173" s="21">
         <v>44440</v>
       </c>
     </row>
@@ -3914,7 +4016,7 @@
       <c r="A174" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C174" s="25">
+      <c r="C174" s="21">
         <v>44440</v>
       </c>
     </row>
@@ -3922,7 +4024,7 @@
       <c r="A175" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C175" s="25">
+      <c r="C175" s="21">
         <v>44440</v>
       </c>
     </row>
@@ -3930,7 +4032,7 @@
       <c r="A176" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C176" s="25">
+      <c r="C176" s="21">
         <v>44440</v>
       </c>
     </row>
@@ -3938,59 +4040,59 @@
       <c r="A177" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C177" s="25">
+      <c r="C177" s="21">
         <v>44440</v>
       </c>
     </row>
     <row r="178" spans="1:6" s="2" customFormat="1" ht="75" customHeight="1">
       <c r="A178" s="13"/>
-      <c r="C178" s="25">
+      <c r="C178" s="21">
         <v>44441</v>
       </c>
       <c r="D178" s="12"/>
     </row>
     <row r="179" spans="1:6" s="2" customFormat="1" ht="75" customHeight="1">
       <c r="A179" s="13"/>
-      <c r="C179" s="25">
+      <c r="C179" s="21">
         <v>44442</v>
       </c>
       <c r="D179" s="12"/>
     </row>
     <row r="180" spans="1:6" s="2" customFormat="1" ht="75" customHeight="1">
       <c r="A180" s="13"/>
-      <c r="C180" s="25">
+      <c r="C180" s="21">
         <v>44443</v>
       </c>
       <c r="D180" s="12"/>
     </row>
     <row r="181" spans="1:6" s="2" customFormat="1" ht="75" customHeight="1">
       <c r="A181" s="13"/>
-      <c r="C181" s="25">
+      <c r="C181" s="21">
         <v>44444</v>
       </c>
       <c r="D181" s="12"/>
     </row>
     <row r="182" spans="1:6" ht="75" customHeight="1">
-      <c r="C182" s="25">
+      <c r="C182" s="21">
         <v>44445</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="75" customHeight="1">
-      <c r="C183" s="26">
+      <c r="C183" s="22">
         <v>44446</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="14" customFormat="1" ht="75" customHeight="1">
-      <c r="A184" s="22" t="s">
+      <c r="A184" s="19" t="s">
         <v>136</v>
       </c>
       <c r="B184" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C184" s="27" t="s">
+      <c r="C184" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="D184" s="23" t="s">
+      <c r="D184" s="20" t="s">
         <v>286</v>
       </c>
       <c r="E184" s="14" t="s">
@@ -4007,7 +4109,7 @@
       <c r="B185" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C185" s="26">
+      <c r="C185" s="22">
         <v>44447</v>
       </c>
       <c r="D185" s="12" t="s">
@@ -4024,7 +4126,7 @@
       <c r="B186" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C186" s="26">
+      <c r="C186" s="22">
         <v>44447</v>
       </c>
       <c r="D186" s="12" t="s">
@@ -4038,7 +4140,7 @@
       <c r="B187" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C187" s="26">
+      <c r="C187" s="22">
         <v>44447</v>
       </c>
       <c r="D187" s="12" t="s">
@@ -4052,7 +4154,7 @@
       <c r="B188" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C188" s="26">
+      <c r="C188" s="22">
         <v>44447</v>
       </c>
       <c r="D188" s="12" t="s">
@@ -4066,7 +4168,7 @@
       <c r="B189" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C189" s="26">
+      <c r="C189" s="22">
         <v>44447</v>
       </c>
       <c r="D189" s="6" t="s">
@@ -4080,7 +4182,7 @@
       <c r="B190" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C190" s="26">
+      <c r="C190" s="22">
         <v>44447</v>
       </c>
       <c r="D190" s="12" t="s">
@@ -4094,7 +4196,7 @@
       <c r="B191" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C191" s="26">
+      <c r="C191" s="22">
         <v>44447</v>
       </c>
       <c r="D191" s="12" t="s">
@@ -4108,7 +4210,7 @@
       <c r="B192" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C192" s="26">
+      <c r="C192" s="22">
         <v>44447</v>
       </c>
       <c r="D192" s="12" t="s">
@@ -4122,7 +4224,7 @@
       <c r="B193" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C193" s="26">
+      <c r="C193" s="22">
         <v>44447</v>
       </c>
       <c r="D193" s="12" t="s">
@@ -4136,7 +4238,7 @@
       <c r="B194" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C194" s="25">
+      <c r="C194" s="21">
         <v>44448</v>
       </c>
       <c r="D194" s="12" t="s">
@@ -4150,7 +4252,7 @@
       <c r="B195" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C195" s="25">
+      <c r="C195" s="21">
         <v>44448</v>
       </c>
       <c r="D195" s="12" t="s">
@@ -4164,7 +4266,7 @@
       <c r="B196" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C196" s="25">
+      <c r="C196" s="21">
         <v>44448</v>
       </c>
       <c r="D196" s="12" t="s">
@@ -4178,7 +4280,7 @@
       <c r="B197" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C197" s="25">
+      <c r="C197" s="21">
         <v>44448</v>
       </c>
       <c r="D197" s="12" t="s">
@@ -4192,7 +4294,7 @@
       <c r="B198" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C198" s="25">
+      <c r="C198" s="21">
         <v>44448</v>
       </c>
       <c r="D198" s="12" t="s">
@@ -4206,7 +4308,7 @@
       <c r="B199" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C199" s="25">
+      <c r="C199" s="21">
         <v>44448</v>
       </c>
       <c r="D199" s="12" t="s">
@@ -4220,7 +4322,7 @@
       <c r="B200" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C200" s="25">
+      <c r="C200" s="21">
         <v>44448</v>
       </c>
       <c r="D200" s="12" t="s">
@@ -4234,7 +4336,7 @@
       <c r="B201" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C201" s="25">
+      <c r="C201" s="21">
         <v>44448</v>
       </c>
       <c r="D201" s="12" t="s">
@@ -4248,7 +4350,7 @@
       <c r="B202" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C202" s="25">
+      <c r="C202" s="21">
         <v>44448</v>
       </c>
       <c r="D202" s="12" t="s">
@@ -4262,7 +4364,7 @@
       <c r="B203" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C203" s="25">
+      <c r="C203" s="21">
         <v>44448</v>
       </c>
       <c r="D203" s="12" t="s">
@@ -4276,7 +4378,7 @@
       <c r="B204" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C204" s="25">
+      <c r="C204" s="21">
         <v>44449</v>
       </c>
       <c r="D204" s="12" t="s">
@@ -4290,7 +4392,7 @@
       <c r="B205" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C205" s="25">
+      <c r="C205" s="21">
         <v>44449</v>
       </c>
       <c r="D205" s="12" t="s">
@@ -4304,7 +4406,7 @@
       <c r="B206" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C206" s="26">
+      <c r="C206" s="22">
         <v>44449</v>
       </c>
       <c r="D206" s="12" t="s">
@@ -4318,7 +4420,7 @@
       <c r="B207" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C207" s="26">
+      <c r="C207" s="22">
         <v>44449</v>
       </c>
       <c r="D207" s="12" t="s">
@@ -4332,7 +4434,7 @@
       <c r="B208" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C208" s="26">
+      <c r="C208" s="22">
         <v>44449</v>
       </c>
       <c r="D208" s="12" t="s">
@@ -4351,7 +4453,7 @@
       <c r="B210" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C210" s="26">
+      <c r="C210" s="22">
         <v>44449</v>
       </c>
       <c r="D210" s="12" t="s">
@@ -4365,7 +4467,7 @@
       <c r="B211" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C211" s="26">
+      <c r="C211" s="22">
         <v>44449</v>
       </c>
       <c r="D211" s="12" t="s">
@@ -4379,7 +4481,7 @@
       <c r="B212" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C212" s="26">
+      <c r="C212" s="22">
         <v>44449</v>
       </c>
       <c r="D212" s="12" t="s">
@@ -4393,7 +4495,7 @@
       <c r="B213" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C213" s="26">
+      <c r="C213" s="22">
         <v>44450</v>
       </c>
       <c r="D213" s="12" t="s">
@@ -4407,7 +4509,7 @@
       <c r="B214" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C214" s="26">
+      <c r="C214" s="22">
         <v>44450</v>
       </c>
       <c r="D214" s="12" t="s">
@@ -4421,7 +4523,7 @@
       <c r="B215" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C215" s="26">
+      <c r="C215" s="22">
         <v>44450</v>
       </c>
       <c r="D215" s="12" t="s">
@@ -4435,7 +4537,7 @@
       <c r="B216" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C216" s="26">
+      <c r="C216" s="22">
         <v>44450</v>
       </c>
       <c r="D216" s="12" t="s">
@@ -4449,7 +4551,7 @@
       <c r="B217" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C217" s="26">
+      <c r="C217" s="22">
         <v>44450</v>
       </c>
       <c r="D217" s="12" t="s">
@@ -4463,7 +4565,7 @@
       <c r="B218" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C218" s="26">
+      <c r="C218" s="22">
         <v>44451</v>
       </c>
       <c r="D218" s="12" t="s">
@@ -4477,7 +4579,7 @@
       <c r="B219" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C219" s="26">
+      <c r="C219" s="22">
         <v>44451</v>
       </c>
       <c r="D219" s="12" t="s">
@@ -4491,7 +4593,7 @@
       <c r="B220" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C220" s="26">
+      <c r="C220" s="22">
         <v>44451</v>
       </c>
       <c r="D220" s="12" t="s">
@@ -4505,7 +4607,7 @@
       <c r="B221" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C221" s="26">
+      <c r="C221" s="22">
         <v>44451</v>
       </c>
       <c r="D221" s="12" t="s">
@@ -4522,7 +4624,7 @@
       <c r="B222" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C222" s="26">
+      <c r="C222" s="22">
         <v>44451</v>
       </c>
       <c r="D222" s="12" t="s">
@@ -4536,7 +4638,7 @@
       <c r="B223" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C223" s="26">
+      <c r="C223" s="22">
         <v>44451</v>
       </c>
       <c r="D223" s="12" t="s">
@@ -4550,7 +4652,7 @@
       <c r="B224" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C224" s="26">
+      <c r="C224" s="22">
         <v>44451</v>
       </c>
       <c r="D224" s="12" t="s">
@@ -4564,7 +4666,7 @@
       <c r="B225" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C225" s="26">
+      <c r="C225" s="22">
         <v>44451</v>
       </c>
       <c r="D225" s="12" t="s">
@@ -4578,7 +4680,7 @@
       <c r="B226" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C226" s="26">
+      <c r="C226" s="22">
         <v>44451</v>
       </c>
       <c r="D226" s="12" t="s">
@@ -4592,7 +4694,7 @@
       <c r="B227" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C227" s="26">
+      <c r="C227" s="22">
         <v>44451</v>
       </c>
       <c r="D227" s="12" t="s">
@@ -4606,7 +4708,7 @@
       <c r="B228" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C228" s="26">
+      <c r="C228" s="22">
         <v>44452</v>
       </c>
       <c r="D228" s="12" t="s">
@@ -4620,7 +4722,7 @@
       <c r="B229" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C229" s="26">
+      <c r="C229" s="22">
         <v>44452</v>
       </c>
       <c r="D229" s="12" t="s">
@@ -4634,7 +4736,7 @@
       <c r="B230" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C230" s="26">
+      <c r="C230" s="22">
         <v>44453</v>
       </c>
       <c r="D230" s="12" t="s">
@@ -4648,7 +4750,7 @@
       <c r="B231" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C231" s="26">
+      <c r="C231" s="22">
         <v>44453</v>
       </c>
       <c r="D231" s="12" t="s">
@@ -4662,7 +4764,7 @@
       <c r="B232" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C232" s="26">
+      <c r="C232" s="22">
         <v>44453</v>
       </c>
       <c r="D232" s="12" t="s">
@@ -4676,7 +4778,7 @@
       <c r="B233" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C233" s="26">
+      <c r="C233" s="22">
         <v>44453</v>
       </c>
       <c r="D233" s="12" t="s">
@@ -4690,7 +4792,7 @@
       <c r="B234" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C234" s="26">
+      <c r="C234" s="22">
         <v>44453</v>
       </c>
       <c r="D234" s="12" t="s">
@@ -4704,7 +4806,7 @@
       <c r="B235" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C235" s="26">
+      <c r="C235" s="22">
         <v>44453</v>
       </c>
       <c r="D235" s="12" t="s">
@@ -4718,7 +4820,7 @@
       <c r="B236" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C236" s="26">
+      <c r="C236" s="22">
         <v>44453</v>
       </c>
       <c r="D236" s="12" t="s">
@@ -4732,7 +4834,7 @@
       <c r="B237" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C237" s="26">
+      <c r="C237" s="22">
         <v>44453</v>
       </c>
       <c r="D237" s="12" t="s">
@@ -4746,7 +4848,7 @@
       <c r="B238" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C238" s="26">
+      <c r="C238" s="22">
         <v>44453</v>
       </c>
       <c r="D238" s="12" t="s">
@@ -4760,7 +4862,7 @@
       <c r="B239" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C239" s="26">
+      <c r="C239" s="22">
         <v>44453</v>
       </c>
       <c r="D239" s="12" t="s">
@@ -4774,7 +4876,7 @@
       <c r="B240" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C240" s="26">
+      <c r="C240" s="22">
         <v>44453</v>
       </c>
       <c r="D240" s="12" t="s">
@@ -4788,7 +4890,7 @@
       <c r="B241" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C241" s="26">
+      <c r="C241" s="22">
         <v>44454</v>
       </c>
       <c r="D241" s="12" t="s">
@@ -4802,7 +4904,7 @@
       <c r="B242" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C242" s="26">
+      <c r="C242" s="22">
         <v>44454</v>
       </c>
       <c r="D242" s="12" t="s">
@@ -4816,7 +4918,7 @@
       <c r="B243" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C243" s="26">
+      <c r="C243" s="22">
         <v>44454</v>
       </c>
       <c r="D243" s="12" t="s">
@@ -4830,7 +4932,7 @@
       <c r="B244" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C244" s="26">
+      <c r="C244" s="22">
         <v>44454</v>
       </c>
       <c r="D244" s="12" t="s">
@@ -4844,7 +4946,7 @@
       <c r="B245" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C245" s="26">
+      <c r="C245" s="22">
         <v>44454</v>
       </c>
       <c r="D245" s="12" t="s">
@@ -4858,7 +4960,7 @@
       <c r="B246" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C246" s="25">
+      <c r="C246" s="21">
         <v>44455</v>
       </c>
       <c r="D246" s="12" t="s">
@@ -4872,7 +4974,7 @@
       <c r="B247" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C247" s="25">
+      <c r="C247" s="21">
         <v>44455</v>
       </c>
       <c r="D247" s="12" t="s">
@@ -4886,7 +4988,7 @@
       <c r="B248" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C248" s="25">
+      <c r="C248" s="21">
         <v>44455</v>
       </c>
       <c r="D248" s="12" t="s">
@@ -4900,7 +5002,7 @@
       <c r="B249" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C249" s="25">
+      <c r="C249" s="21">
         <v>44455</v>
       </c>
       <c r="D249" s="12" t="s">
@@ -4917,7 +5019,7 @@
       <c r="B250" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C250" s="25">
+      <c r="C250" s="21">
         <v>44455</v>
       </c>
       <c r="D250" s="12" t="s">
@@ -4931,7 +5033,7 @@
       <c r="B251" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C251" s="25">
+      <c r="C251" s="21">
         <v>44455</v>
       </c>
       <c r="D251" s="12" t="s">
@@ -4945,7 +5047,7 @@
       <c r="B252" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C252" s="25">
+      <c r="C252" s="21">
         <v>44455</v>
       </c>
       <c r="D252" s="12" t="s">
@@ -4959,7 +5061,7 @@
       <c r="B253" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C253" s="25">
+      <c r="C253" s="21">
         <v>44455</v>
       </c>
       <c r="D253" s="12" t="s">
@@ -4973,7 +5075,7 @@
       <c r="B254" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C254" s="25">
+      <c r="C254" s="21">
         <v>44455</v>
       </c>
       <c r="D254" s="12" t="s">
@@ -4987,7 +5089,7 @@
       <c r="B255" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C255" s="25">
+      <c r="C255" s="21">
         <v>44455</v>
       </c>
       <c r="D255" s="12" t="s">
@@ -5001,7 +5103,7 @@
       <c r="B256" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C256" s="25">
+      <c r="C256" s="21">
         <v>44455</v>
       </c>
       <c r="D256" s="12" t="s">
@@ -5015,7 +5117,7 @@
       <c r="B257" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C257" s="25">
+      <c r="C257" s="21">
         <v>44455</v>
       </c>
       <c r="D257" s="12" t="s">
@@ -5029,7 +5131,7 @@
       <c r="B258" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C258" s="25">
+      <c r="C258" s="21">
         <v>44455</v>
       </c>
       <c r="D258" s="12" t="s">
@@ -5043,7 +5145,7 @@
       <c r="B259" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C259" s="25">
+      <c r="C259" s="21">
         <v>44456</v>
       </c>
       <c r="D259" s="12" t="s">
@@ -5057,7 +5159,7 @@
       <c r="B260" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C260" s="25">
+      <c r="C260" s="21">
         <v>44456</v>
       </c>
       <c r="D260" s="12" t="s">
@@ -5071,7 +5173,7 @@
       <c r="B261" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="C261" s="25">
+      <c r="C261" s="21">
         <v>44456</v>
       </c>
       <c r="D261" s="12" t="s">
@@ -5085,7 +5187,7 @@
       <c r="B262" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C262" s="25">
+      <c r="C262" s="21">
         <v>44456</v>
       </c>
       <c r="D262" s="12" t="s">
@@ -5099,7 +5201,7 @@
       <c r="B263" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C263" s="25">
+      <c r="C263" s="21">
         <v>44456</v>
       </c>
       <c r="D263" s="12" t="s">
@@ -5113,7 +5215,7 @@
       <c r="B264" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="C264" s="25" t="s">
+      <c r="C264" s="21" t="s">
         <v>335</v>
       </c>
     </row>
@@ -5124,7 +5226,7 @@
       <c r="B265" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C265" s="25">
+      <c r="C265" s="21">
         <v>44456</v>
       </c>
       <c r="D265" s="12" t="s">
@@ -5138,7 +5240,7 @@
       <c r="B266" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C266" s="25">
+      <c r="C266" s="21">
         <v>44456</v>
       </c>
       <c r="D266" s="12" t="s">
@@ -5152,79 +5254,146 @@
       <c r="B267" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C267" s="26">
+      <c r="C267" s="22">
         <v>44456</v>
       </c>
       <c r="D267" s="12" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="75" customHeight="1"/>
-    <row r="269" spans="1:4" ht="75" customHeight="1"/>
-    <row r="270" spans="1:4" ht="75" customHeight="1"/>
-    <row r="271" spans="1:4" ht="75" customHeight="1"/>
-    <row r="272" spans="1:4" ht="75" customHeight="1"/>
-    <row r="273" ht="75" customHeight="1"/>
-    <row r="274" ht="75" customHeight="1"/>
-    <row r="275" ht="75" customHeight="1"/>
-    <row r="276" ht="75" customHeight="1"/>
-    <row r="277" ht="75" customHeight="1"/>
-    <row r="278" ht="75" customHeight="1"/>
-    <row r="279" ht="75" customHeight="1"/>
-    <row r="280" ht="75" customHeight="1"/>
-    <row r="281" ht="75" customHeight="1"/>
-    <row r="282" ht="75" customHeight="1"/>
-    <row r="283" ht="75" customHeight="1"/>
-    <row r="284" ht="75" customHeight="1"/>
-    <row r="285" ht="75" customHeight="1"/>
-    <row r="286" ht="75" customHeight="1"/>
-    <row r="287" ht="75" customHeight="1"/>
-    <row r="288" ht="75" customHeight="1"/>
+    <row r="268" spans="1:4" ht="75" customHeight="1">
+      <c r="A268" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B268" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C268" s="22">
+        <v>44457</v>
+      </c>
+      <c r="D268" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="75" customHeight="1">
+      <c r="A269" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C269" s="22">
+        <v>44457</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="75" customHeight="1">
+      <c r="A270" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C270" s="22">
+        <v>44457</v>
+      </c>
+      <c r="D270" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="75" customHeight="1">
+      <c r="A271" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C271" s="22">
+        <v>44457</v>
+      </c>
+      <c r="D271" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="75" customHeight="1">
+      <c r="A272" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C272" s="22">
+        <v>44457</v>
+      </c>
+      <c r="D272" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="75" customHeight="1">
+      <c r="A273" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C273" s="22">
+        <v>44457</v>
+      </c>
+      <c r="D273" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="75" customHeight="1">
+      <c r="A274" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B274" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C274" s="22">
+        <v>44457</v>
+      </c>
+      <c r="D274" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="75" customHeight="1"/>
+    <row r="276" spans="1:4" ht="75" customHeight="1"/>
+    <row r="277" spans="1:4" ht="75" customHeight="1"/>
+    <row r="278" spans="1:4" ht="75" customHeight="1"/>
+    <row r="279" spans="1:4" ht="75" customHeight="1"/>
+    <row r="280" spans="1:4" ht="75" customHeight="1"/>
+    <row r="281" spans="1:4" ht="75" customHeight="1"/>
+    <row r="282" spans="1:4" ht="75" customHeight="1"/>
+    <row r="283" spans="1:4" ht="75" customHeight="1"/>
+    <row r="284" spans="1:4" ht="75" customHeight="1"/>
+    <row r="285" spans="1:4" ht="75" customHeight="1"/>
+    <row r="286" spans="1:4" ht="75" customHeight="1"/>
+    <row r="287" spans="1:4" ht="75" customHeight="1"/>
+    <row r="288" spans="1:4" ht="75" customHeight="1"/>
     <row r="289" ht="75" customHeight="1"/>
     <row r="290" ht="75" customHeight="1"/>
     <row r="291" ht="75" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
     <mergeCell ref="D67:D71"/>
     <mergeCell ref="B72:B76"/>
     <mergeCell ref="C72:C76"/>
@@ -5241,22 +5410,46 @@
     <mergeCell ref="B57:B61"/>
     <mergeCell ref="D57:D61"/>
     <mergeCell ref="C57:C61"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18440" yWindow="5120" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="12720" yWindow="1160" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="375">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1500,6 +1500,62 @@
   </si>
   <si>
     <t>暴力：前序遍历+最小堆  DFS：根据题意，根节点的值最小，初始化ans=-1，开始先序遍历找到第一个大于根节点的子节点，后面的就除非小于它才考虑， 也就是说如果ans已经被赋值过了，后面继续遍历到大于等于的值直接跳过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160. Intersection of Two Linked Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希集合：遍历A并且加入set，然后遍历B（如果B在set就返回B） 双指针：由于总路程相同 （pA 移动了 a+c+b 次、指针pB 移动了b+c+a 次）俩指针各遍历完a+c和b+c然后放置和上次不同的起点分别完成距离b和距离a。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>650.2 Keys Keyboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141. Linked List Cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142. Linked List Cycle II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floyd 判圈算法 ： 快慢指针 如果有环,fast指针先进入环并在若干圈后追上slow指针,如果没有环fast则会领先slow到达末尾,此时则判定无环。可以用while True来写，fast没了就返回False，相等就break。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希集合：我们遍历链表中的每个节点，并将它记录下来；一旦遇到了此前遍历过的节点，就可以判定链表中存在环 快慢指针： 待整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>733. Flood Fill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200. Number of Islands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS: 模板题 BFS:模板题 遍历查找每个点 如果是 1 则把它设为0然后进入循环 寻找它的子区域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS: 模板题 BFS: 模板题 需要注意一点的是如果curcolor == newcolor根据题目要求可以直接返回，不然会死循环，因为判断的条件被覆盖了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1610,7 +1666,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="227">
+  <cellStyleXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1838,8 +1894,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1917,10 +1983,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1928,14 +2006,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="227">
+  <cellStyles count="237">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2043,6 +2115,11 @@
     <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2162,6 +2239,11 @@
     <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2497,8 +2579,8 @@
   <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D273" sqref="D273"/>
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D279" sqref="D279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2529,16 +2611,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2546,43 +2628,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2590,43 +2672,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="30"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="30"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="30"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="30"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2634,571 +2716,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="31">
         <v>44418</v>
       </c>
-      <c r="D17" s="30"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="30"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="30"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="31"/>
-      <c r="D20" s="30"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="31"/>
-      <c r="D21" s="30"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="31">
         <v>44418</v>
       </c>
-      <c r="D22" s="30"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="30"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="30"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="30"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="30"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="31">
         <v>44418</v>
       </c>
-      <c r="D27" s="30"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="30"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="26"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="30"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="30"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="30"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="31">
         <v>44419</v>
       </c>
-      <c r="D32" s="30"/>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="30"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="30"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="30"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="26"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="30"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="31">
         <v>44419</v>
       </c>
-      <c r="D37" s="30"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="30"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="26"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="30"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="30"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="29"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="26"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="30"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="31">
         <v>44420</v>
       </c>
-      <c r="D42" s="30"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="30"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="30"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="26"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="30"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="26"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="30"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="31">
         <v>44420</v>
       </c>
-      <c r="D47" s="30"/>
+      <c r="D47" s="29"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="31"/>
-      <c r="D48" s="30"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="31"/>
-      <c r="D49" s="30"/>
+      <c r="D49" s="29"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="26"/>
-      <c r="B50" s="27"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="31"/>
-      <c r="D50" s="30"/>
+      <c r="D50" s="29"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="26"/>
-      <c r="B51" s="27"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="30"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="31">
         <v>44421</v>
       </c>
-      <c r="D52" s="30"/>
+      <c r="D52" s="29"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="26"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="30"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="26"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="30"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="29"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="26"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="30"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="26"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="30"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="29"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="28" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="31">
         <v>44422</v>
       </c>
-      <c r="D57" s="30"/>
+      <c r="D57" s="29"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="30"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="29"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="30"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="30"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="30"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="29"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="30" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="31">
         <v>44423</v>
       </c>
-      <c r="D62" s="30"/>
+      <c r="D62" s="29"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="26"/>
-      <c r="B63" s="27"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="31"/>
-      <c r="D63" s="30"/>
+      <c r="D63" s="29"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="26"/>
-      <c r="B64" s="27"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="31"/>
-      <c r="D64" s="30"/>
+      <c r="D64" s="29"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="26"/>
-      <c r="B65" s="27"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="31"/>
-      <c r="D65" s="30"/>
+      <c r="D65" s="29"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="26"/>
-      <c r="B66" s="27"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="31"/>
-      <c r="D66" s="30"/>
+      <c r="D66" s="29"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C67" s="31">
         <v>44423</v>
       </c>
-      <c r="D67" s="30"/>
+      <c r="D67" s="29"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="26"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="30"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="29"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="26"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="30"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="29"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="26"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="30"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="29"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="26"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="30"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="29"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="27" t="s">
+      <c r="B72" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C72" s="31">
         <v>44423</v>
       </c>
-      <c r="D72" s="30"/>
+      <c r="D72" s="29"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="26"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="30"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="29"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="26"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="30"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="29"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="26"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="30"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="29"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="26"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="30"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="29"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="31">
         <v>44424</v>
       </c>
-      <c r="D77" s="30"/>
+      <c r="D77" s="29"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="26"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="30"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="29"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="26"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="30"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="26"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="30"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="29"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="26"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="30"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="29"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="30" t="s">
         <v>41</v>
       </c>
       <c r="C82" s="31">
         <v>44424</v>
       </c>
-      <c r="D82" s="30"/>
+      <c r="D82" s="29"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="26"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="30"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="29"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="26"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="30"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="29"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="26"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="30"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="29"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="26"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="30"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="29"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="31">
         <v>44424</v>
       </c>
-      <c r="D87" s="30"/>
+      <c r="D87" s="29"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="26"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="30"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="29"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="26"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="30"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="29"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="26"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="30"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="29"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="26"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="30"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="29"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="13" t="s">
@@ -5359,12 +5441,90 @@
         <v>360</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="75" customHeight="1"/>
-    <row r="276" spans="1:4" ht="75" customHeight="1"/>
-    <row r="277" spans="1:4" ht="75" customHeight="1"/>
-    <row r="278" spans="1:4" ht="75" customHeight="1"/>
-    <row r="279" spans="1:4" ht="75" customHeight="1"/>
-    <row r="280" spans="1:4" ht="75" customHeight="1"/>
+    <row r="275" spans="1:4" ht="75" customHeight="1">
+      <c r="A275" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C275" s="27">
+        <v>44458</v>
+      </c>
+      <c r="D275" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="75" customHeight="1">
+      <c r="A276" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C276" s="27">
+        <v>44458</v>
+      </c>
+      <c r="D276" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="75" customHeight="1">
+      <c r="A277" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C277" s="27">
+        <v>44459</v>
+      </c>
+      <c r="D277" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="75" customHeight="1">
+      <c r="A278" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B278" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C278" s="27">
+        <v>44459</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="75" customHeight="1">
+      <c r="A279" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C279" s="27">
+        <v>44459</v>
+      </c>
+      <c r="D279" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="75" customHeight="1">
+      <c r="A280" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C280" s="27">
+        <v>44459</v>
+      </c>
+      <c r="D280" s="12" t="s">
+        <v>373</v>
+      </c>
+    </row>
     <row r="281" spans="1:4" ht="75" customHeight="1"/>
     <row r="282" spans="1:4" ht="75" customHeight="1"/>
     <row r="283" spans="1:4" ht="75" customHeight="1"/>
@@ -5378,6 +5538,62 @@
     <row r="291" ht="75" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="C57:C61"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="D82:D86"/>
@@ -5394,62 +5610,6 @@
     <mergeCell ref="C82:C86"/>
     <mergeCell ref="B67:B71"/>
     <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="1160" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="18480" yWindow="1620" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="391">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,10 +593,6 @@
   </si>
   <si>
     <t>medium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFS：为了方便先写一个是否是叶子节点的方法 然后直接先序遍历如果存在左子树并且左子树为叶子节点我们就累加ans，右子树的情况不用管直接搜即可，非要做的话可以加个如果右子树是叶子节点就不进入递归。BFS：同理进入右子树做一个是否是叶子节点的判断 是就累加ans</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1551,11 +1547,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DFS: 模板题 BFS:模板题 遍历查找每个点 如果是 1 则把它设为0然后进入循环 寻找它的子区域。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DFS: 模板题 BFS: 模板题 需要注意一点的是如果curcolor == newcolor根据题目要求可以直接返回，不然会死循环，因为判断的条件被覆盖了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58. Length of Last Word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：模板题 BFS:模板题 遍历查找每个点 如果是 1 则把它设为0然后进入循环 寻找它的子区域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串：split空格从后往前遍历非空的第一个单词算出长度返回即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>146. LRU Cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>695. Max Area of Island</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">medium </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表+双向链表：get方法：如果key不存在哈希表中直接返回-1，如果存在 返回值 + 更新最新访问对象，具体实现通过哈希表定位然后移动到头部。Put方法：如果不存在key则新建node添加入头部，并增加长度， 然后检查容量，如果超出容量，删除双向链表的尾部节点。如果存在key则先通过哈希表定位，更新val的值，并移动到头部。辅助方法的实现需要注意，很容易出错，分别需要实现removeNode， moveToHead， addToHead， removeTail，实现前最好先画图手动模拟下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>785. Is Graph Bipartite?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS： 判断是否每一条边的两个点都存在于不同集合 属于基础染色法题 DFS实现上有些难度 需要用一个维护一个valid来判断，首先根据邻接表建立含有所有点的矩阵，然后遍历矩阵一个个点去填色，设置三种nocolor和red和green，如果没有颜色就上成red，然后做一个颜色取反，对它的子节点进行判断是否上色，没上色的给它上色，然后顺便递归找其孙节点哈哈，上色的了是否等于此取反颜色，不等于就设valid为False然后一层层返回回去。也就是说如果矩阵中一个点不对就break掉返回valid的值。 BFS:只有加入的第一个先点赋值为red，其余按照规则变化,相对DFS好实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：遍历到1时，把其坐标设置成0，在递归内部维护一个size=1，接着对其四周进行遍历，有子size就返回给父size，累加出答案。（思考能否通过其它方式实现？这里不需要x和new_x进行对比，用base没什么问题，如果非要不写base呢，用nonlocal也可以实现嘛）BFS： 相对深搜好实现些，需要注意的是pop出来不一定都加size 有可能会有重复计算，所以为了避免重复计算 每次加入队列的坐标就都先设置成0  case：[[0,1,1],[0,1,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>417. Pacific Atlantic Water Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>329. Longest Increasing Path in a Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS：反转思路 不去找能到的边缘 需要处理的东西太多 而去找从边缘除法能到达的高点 做个set去重，加入Atlantic的边缘点位进去队列，从边缘往里找高于边缘的点，pacific同理  DFS：需要和源节点对比高度 写成base形式得返回高度再对比（暂时不懂咋实现┭┮﹏┭┮） 只能在加入子节点时候直接做一个过滤，只有新高度大于旧高度才去递归搜索。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：记忆化搜索 记录从点(i, j)出发能到达最远的距离是多少，在内部维护一个res表示加入第一个点的初始长度1，然后不断返回当前点的四个方向的路径暂时记录在初始化为1的tmp上，然后与res对比看哪个更长，并且每个点完了都要存一个 从点(i, j)出发能到达最远的距离是多少。 # DFS的实现还需要多看，感觉还是掌握的不够透彻。（是不是图画少了，以后有做DFS得多画画图）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：为了方便先写一个是否是叶子节点的方法 然后直接先序遍历如果存在左子树并且左子树为叶子节点我们就累加ans，右子树的情况不用管直接搜即可，非要做的话可以加个如果右子树是叶子节点就不进入递归。BFS：同理进入右子树做一个是否是叶子节点的判断 是就累加ans</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1666,7 +1730,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="237">
+  <cellStyleXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1904,8 +1968,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1989,16 +2069,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2006,8 +2086,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="237">
+  <cellStyles count="253">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2120,6 +2206,14 @@
     <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2244,6 +2338,14 @@
     <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2579,8 +2681,8 @@
   <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D279" sqref="D279"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B287" sqref="B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2607,20 +2709,20 @@
         <v>2</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="34" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2628,43 +2730,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="33"/>
-      <c r="D3" s="29"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="28"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="33"/>
-      <c r="D4" s="29"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="28"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="33"/>
-      <c r="D5" s="29"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="33"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="34" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2672,43 +2774,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="32"/>
-      <c r="D8" s="29"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="32"/>
-      <c r="D9" s="29"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="32"/>
-      <c r="D10" s="29"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="32"/>
-      <c r="D11" s="29"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2716,571 +2818,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="33"/>
-      <c r="D13" s="29"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="28"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="29"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="28"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="33"/>
-      <c r="D15" s="29"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="33"/>
-      <c r="D16" s="29"/>
+      <c r="D16" s="34"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="35">
         <v>44418</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="28"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="28"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="34"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="28"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="29"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="34"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="28"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="35">
         <v>44418</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="34"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="28"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="28"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="28"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="28"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="35">
         <v>44418</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="28"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="28"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="28"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="34"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="28"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="35">
         <v>44419</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="28"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="28"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="28"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="28"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="35">
         <v>44419</v>
       </c>
-      <c r="D37" s="29"/>
+      <c r="D37" s="34"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="28"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="34"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="28"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="34"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="28"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="34"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="28"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="34"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="35">
         <v>44420</v>
       </c>
-      <c r="D42" s="29"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="28"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="34"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="28"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="34"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="28"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="34"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="28"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="34"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="35">
         <v>44420</v>
       </c>
-      <c r="D47" s="29"/>
+      <c r="D47" s="34"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="28"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="29"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="34"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="28"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="29"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="34"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="28"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="29"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="28"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="29"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="35">
         <v>44421</v>
       </c>
-      <c r="D52" s="29"/>
+      <c r="D52" s="34"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="28"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="34"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="28"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="34"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="28"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="29"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="34"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="28"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="29"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="34"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="31">
+      <c r="C57" s="35">
         <v>44422</v>
       </c>
-      <c r="D57" s="29"/>
+      <c r="D57" s="34"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="29"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="34"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="29"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="34"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="29"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="34"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="34"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="31">
+      <c r="C62" s="35">
         <v>44423</v>
       </c>
-      <c r="D62" s="29"/>
+      <c r="D62" s="34"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="28"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="29"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="34"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="28"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="29"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="34"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="28"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="29"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="34"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="28"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="29"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="34"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="31">
+      <c r="C67" s="35">
         <v>44423</v>
       </c>
-      <c r="D67" s="29"/>
+      <c r="D67" s="34"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="28"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="29"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="34"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="28"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="29"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="34"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="28"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="34"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="28"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="29"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="34"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="31">
+      <c r="C72" s="35">
         <v>44423</v>
       </c>
-      <c r="D72" s="29"/>
+      <c r="D72" s="34"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="28"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="29"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="34"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="28"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="29"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="34"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="28"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="29"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="34"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="28"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="29"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="34"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="31">
+      <c r="C77" s="35">
         <v>44424</v>
       </c>
-      <c r="D77" s="29"/>
+      <c r="D77" s="34"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="28"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="29"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="34"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="28"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="29"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="34"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="28"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="29"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="34"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="28"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="29"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="34"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="31">
+      <c r="C82" s="35">
         <v>44424</v>
       </c>
-      <c r="D82" s="29"/>
+      <c r="D82" s="34"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="28"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="29"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="34"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="28"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="29"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="34"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="28"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="29"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="34"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="28"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="29"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="34"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="31">
+      <c r="C87" s="35">
         <v>44424</v>
       </c>
-      <c r="D87" s="29"/>
+      <c r="D87" s="34"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="28"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="29"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="34"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="28"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="29"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="34"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="28"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="29"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="34"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="28"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="29"/>
+      <c r="A91" s="30"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="34"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="13" t="s">
@@ -4172,21 +4274,21 @@
         <v>137</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E184" s="14" t="s">
         <v>138</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="75" customHeight="1">
       <c r="A185" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>139</v>
@@ -4195,10 +4297,10 @@
         <v>44447</v>
       </c>
       <c r="D185" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="75" customHeight="1">
@@ -4212,7 +4314,7 @@
         <v>44447</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>144</v>
+        <v>390</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="75" customHeight="1">
@@ -4226,40 +4328,40 @@
         <v>44447</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="75" customHeight="1">
       <c r="A188" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C188" s="22">
         <v>44447</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="75" customHeight="1">
       <c r="A189" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="C189" s="22">
         <v>44447</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="75" customHeight="1">
       <c r="A190" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>140</v>
@@ -4268,12 +4370,12 @@
         <v>44447</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="75" customHeight="1">
       <c r="A191" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>140</v>
@@ -4282,12 +4384,12 @@
         <v>44447</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="75" customHeight="1">
       <c r="A192" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>140</v>
@@ -4296,12 +4398,12 @@
         <v>44447</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="75" customHeight="1">
       <c r="A193" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>143</v>
@@ -4310,785 +4412,785 @@
         <v>44447</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="75" customHeight="1">
       <c r="A194" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C194" s="21">
         <v>44448</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="75" customHeight="1">
       <c r="A195" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="C195" s="21">
         <v>44448</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="75" customHeight="1">
       <c r="A196" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C196" s="21">
         <v>44448</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="75" customHeight="1">
       <c r="A197" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C197" s="21">
         <v>44448</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="75" customHeight="1">
       <c r="A198" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C198" s="21">
         <v>44448</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="75" customHeight="1">
       <c r="A199" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C199" s="21">
         <v>44448</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="94" customHeight="1">
       <c r="A200" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C200" s="21">
         <v>44448</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="75" customHeight="1">
       <c r="A201" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C201" s="21">
         <v>44448</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="75" customHeight="1">
       <c r="A202" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C202" s="21">
         <v>44448</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="75" customHeight="1">
       <c r="A203" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="C203" s="21">
         <v>44448</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="75" customHeight="1">
       <c r="A204" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C204" s="21">
         <v>44449</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="75" customHeight="1">
       <c r="A205" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="C205" s="21">
         <v>44449</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="75" customHeight="1">
       <c r="A206" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C206" s="22">
         <v>44449</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="75" customHeight="1">
       <c r="A207" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C207" s="22">
         <v>44449</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="75" customHeight="1">
       <c r="A208" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="C208" s="22">
         <v>44449</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="75" customHeight="1">
       <c r="A209" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="75" customHeight="1">
       <c r="A210" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C210" s="22">
         <v>44449</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="75" customHeight="1">
       <c r="A211" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C211" s="22">
         <v>44449</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="75" customHeight="1">
       <c r="A212" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B212" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="C212" s="22">
         <v>44449</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="75" customHeight="1">
       <c r="A213" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C213" s="22">
         <v>44450</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="75" customHeight="1">
       <c r="A214" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C214" s="22">
         <v>44450</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="75" customHeight="1">
       <c r="A215" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C215" s="22">
         <v>44450</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="75" customHeight="1">
       <c r="A216" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C216" s="22">
         <v>44450</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="75" customHeight="1">
       <c r="A217" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C217" s="22">
         <v>44450</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="75" customHeight="1">
       <c r="A218" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C218" s="22">
         <v>44451</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="75" customHeight="1">
       <c r="A219" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C219" s="22">
         <v>44451</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="75" customHeight="1">
       <c r="A220" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C220" s="22">
         <v>44451</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="75" customHeight="1">
       <c r="A221" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C221" s="22">
         <v>44451</v>
       </c>
       <c r="D221" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F221" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="75" customHeight="1">
       <c r="A222" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C222" s="22">
         <v>44451</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="75" customHeight="1">
       <c r="A223" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C223" s="22">
         <v>44451</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="75" customHeight="1">
       <c r="A224" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C224" s="22">
         <v>44451</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="75" customHeight="1">
       <c r="A225" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C225" s="22">
         <v>44451</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="75" customHeight="1">
       <c r="A226" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C226" s="22">
         <v>44451</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="75" customHeight="1">
       <c r="A227" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C227" s="22">
         <v>44451</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="75" customHeight="1">
       <c r="A228" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C228" s="22">
         <v>44452</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="75" customHeight="1">
       <c r="A229" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="C229" s="22">
         <v>44452</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="75" customHeight="1">
       <c r="A230" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C230" s="22">
         <v>44453</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="98" customHeight="1">
       <c r="A231" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C231" s="22">
         <v>44453</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="75" customHeight="1">
       <c r="A232" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C232" s="22">
         <v>44453</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="75" customHeight="1">
       <c r="A233" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C233" s="22">
         <v>44453</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="75" customHeight="1">
       <c r="A234" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C234" s="22">
         <v>44453</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="75" customHeight="1">
       <c r="A235" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C235" s="22">
         <v>44453</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="75" customHeight="1">
       <c r="A236" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C236" s="22">
         <v>44453</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="75" customHeight="1">
       <c r="A237" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C237" s="22">
         <v>44453</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="75" customHeight="1">
       <c r="A238" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C238" s="22">
         <v>44453</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="75" customHeight="1">
       <c r="A239" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C239" s="22">
         <v>44453</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="75" customHeight="1">
       <c r="A240" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C240" s="22">
         <v>44453</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="75" customHeight="1">
       <c r="A241" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B241" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="B241" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="C241" s="22">
         <v>44454</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="75" customHeight="1">
       <c r="A242" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="C242" s="22">
         <v>44454</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="75" customHeight="1">
       <c r="A243" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C243" s="22">
         <v>44454</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="75" customHeight="1">
       <c r="A244" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C244" s="22">
         <v>44454</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="75" customHeight="1">
       <c r="A245" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C245" s="22">
         <v>44454</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="75" customHeight="1">
       <c r="A246" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="C246" s="21">
         <v>44455</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="75" customHeight="1">
       <c r="A247" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C247" s="21">
         <v>44455</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="75" customHeight="1">
       <c r="A248" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C248" s="21">
         <v>44455</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="75" customHeight="1">
       <c r="A249" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C249" s="21">
         <v>44455</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F249" s="1">
         <v>507</v>
@@ -5096,256 +5198,256 @@
     </row>
     <row r="250" spans="1:6" ht="75" customHeight="1">
       <c r="A250" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C250" s="21">
         <v>44455</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="75" customHeight="1">
       <c r="A251" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C251" s="21">
         <v>44455</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="75" customHeight="1">
       <c r="A252" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C252" s="21">
         <v>44455</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="75" customHeight="1">
       <c r="A253" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="C253" s="21">
         <v>44455</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="75" customHeight="1">
       <c r="A254" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C254" s="21">
         <v>44455</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="75" customHeight="1">
       <c r="A255" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C255" s="21">
         <v>44455</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="75" customHeight="1">
       <c r="A256" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C256" s="21">
         <v>44455</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="75" customHeight="1">
       <c r="A257" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C257" s="21">
         <v>44455</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="75" customHeight="1">
       <c r="A258" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="C258" s="21">
         <v>44455</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="175" customHeight="1">
       <c r="A259" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C259" s="21">
         <v>44456</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="75" customHeight="1">
       <c r="A260" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="C260" s="21">
         <v>44456</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="75" customHeight="1">
       <c r="A261" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C261" s="21">
         <v>44456</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="75" customHeight="1">
       <c r="A262" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C262" s="21">
         <v>44456</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="75" customHeight="1">
       <c r="A263" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C263" s="21">
         <v>44456</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="75" customHeight="1">
       <c r="A264" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B264" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C264" s="21" t="s">
         <v>334</v>
-      </c>
-      <c r="C264" s="21" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="75" customHeight="1">
       <c r="A265" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C265" s="21">
         <v>44456</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="75" customHeight="1">
       <c r="A266" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C266" s="21">
         <v>44456</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="75" customHeight="1">
       <c r="A267" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C267" s="22">
         <v>44456</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="75" customHeight="1">
       <c r="A268" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B268" s="17" t="s">
         <v>33</v>
@@ -5354,183 +5456,261 @@
         <v>44457</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="75" customHeight="1">
       <c r="A269" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="C269" s="22">
         <v>44457</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="75" customHeight="1">
       <c r="A270" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="C270" s="22">
         <v>44457</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="75" customHeight="1">
       <c r="A271" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="C271" s="22">
         <v>44457</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="75" customHeight="1">
       <c r="A272" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="C272" s="22">
         <v>44457</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="75" customHeight="1">
       <c r="A273" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C273" s="22">
         <v>44457</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="75" customHeight="1">
       <c r="A274" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B274" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C274" s="22">
         <v>44457</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="75" customHeight="1">
       <c r="A275" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="C275" s="27">
         <v>44458</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="75" customHeight="1">
       <c r="A276" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C276" s="27">
         <v>44458</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="75" customHeight="1">
       <c r="A277" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C277" s="27">
         <v>44459</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="75" customHeight="1">
       <c r="A278" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B278" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C278" s="27">
         <v>44459</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="75" customHeight="1">
       <c r="A279" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C279" s="27">
         <v>44459</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="75" customHeight="1">
       <c r="A280" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C280" s="27">
         <v>44459</v>
       </c>
       <c r="D280" s="12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="75" customHeight="1">
+      <c r="A281" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" ht="75" customHeight="1"/>
-    <row r="282" spans="1:4" ht="75" customHeight="1"/>
-    <row r="283" spans="1:4" ht="75" customHeight="1"/>
-    <row r="284" spans="1:4" ht="75" customHeight="1"/>
-    <row r="285" spans="1:4" ht="75" customHeight="1"/>
-    <row r="286" spans="1:4" ht="75" customHeight="1"/>
+      <c r="C281" s="29">
+        <v>44460</v>
+      </c>
+      <c r="D281" s="12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="93" customHeight="1">
+      <c r="A282" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C282" s="29">
+        <v>44460</v>
+      </c>
+      <c r="D282" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="99" customHeight="1">
+      <c r="A283" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C283" s="29">
+        <v>44460</v>
+      </c>
+      <c r="D283" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="111" customHeight="1">
+      <c r="A284" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B284" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="C284" s="29">
+        <v>44460</v>
+      </c>
+      <c r="D284" s="12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="75" customHeight="1">
+      <c r="A285" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B285" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="C285" s="29">
+        <v>44460</v>
+      </c>
+      <c r="D285" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="75" customHeight="1">
+      <c r="A286" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C286" s="29">
+        <v>44460</v>
+      </c>
+      <c r="D286" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
     <row r="287" spans="1:4" ht="75" customHeight="1"/>
     <row r="288" spans="1:4" ht="75" customHeight="1"/>
     <row r="289" ht="75" customHeight="1"/>
@@ -5538,46 +5718,22 @@
     <row r="291" ht="75" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
     <mergeCell ref="D67:D71"/>
     <mergeCell ref="B72:B76"/>
     <mergeCell ref="C72:C76"/>
@@ -5594,22 +5750,46 @@
     <mergeCell ref="B57:B61"/>
     <mergeCell ref="D57:D61"/>
     <mergeCell ref="C57:C61"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18480" yWindow="1620" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="19660" yWindow="3360" windowWidth="25600" windowHeight="16080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="411">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1620,6 +1620,88 @@
   </si>
   <si>
     <t>DFS：为了方便先写一个是否是叶子节点的方法 然后直接先序遍历如果存在左子树并且左子树为叶子节点我们就累加ans，右子树的情况不用管直接搜即可，非要做的话可以加个如果右子树是叶子节点就不进入递归。BFS：同理进入右子树做一个是否是叶子节点的判断 是就累加ans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>542. 01 Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BFS：将问题转化为离0最近的1距离为多少，从0出发BFS找1，维护visited 和 res数组分别记录是否被访问和最近的0的距离 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">725. Split Linked List in Parts
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meidum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：分别计算每段应该需要分配的和前面几个需要多分配，用cur来记录，如果cur不存在就break，这里可以直接在res[i]中先存入cur，然后再移动cur到需要走的距离并断开。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：直接DFS 递归遍历左右子树对比后返回较深子树的高度+1（root的高度） BFS： 直接BFS层序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111. Minimum Depth of Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS:这道题递归条件里分2种情况 其中一个节点为空，说明m1和m2有一个必然为0，所以可以返回m1 + m2 + 1， 另一种情况，也就是左右孩子都不为空，返回最小深度+1即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>721.merge accounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS: 根据email建图 + dfs 搜索联通在一起的email存入res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127. Word Ladder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS: 先用wordList做个set，然后再做个visited数组初始化为1，此数组既可以查看是否被访问过也可以用于计算path长度，每个字母依次更换26个字母看是否存在于由wordList做的set中，如果存在并且没被访问过，设置visited为path + 1即被访问过了其比上次多一个步长，加入队列继续搜此单词的更换，直到有==endword 的返回path + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">34.Find First and Last Position of Element in Sorted Array
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分区间： 当找到就收缩要找的相反边界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>658. Find K Closest Elements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排除法：我们要排除掉 size - k 这么多元素，然后从left和right分别往里收缩区间直到剩余 size - k 个元素返回区间，要注意下题目中说，差值相等的时候取小的，此相等的时候，尽量缩小右边界。 二分区间：将问题转化为查找区间的左边界，将左边界mid右边界mid + k的值进行对比，看哪个离x更近。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1730,7 +1812,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="253">
+  <cellStyleXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1984,8 +2066,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2075,10 +2183,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2086,14 +2206,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="253">
+  <cellStyles count="279">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2214,6 +2328,19 @@
     <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2346,6 +2473,19 @@
     <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2678,11 +2818,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B287" sqref="B287"/>
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D292" sqref="D292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2713,16 +2853,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2730,43 +2870,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2774,43 +2914,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="34"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="34"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="34"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2818,571 +2958,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="35">
         <v>44418</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="34"/>
+      <c r="D18" s="33"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="34"/>
+      <c r="D19" s="33"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="34"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="35"/>
-      <c r="D21" s="34"/>
+      <c r="D21" s="33"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="35">
         <v>44418</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="34"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="34"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="34"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="34"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="35">
         <v>44418</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="34"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="34"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="34"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="34"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="35">
         <v>44419</v>
       </c>
-      <c r="D32" s="34"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="34"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="34"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="34"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="34"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="35">
         <v>44419</v>
       </c>
-      <c r="D37" s="34"/>
+      <c r="D37" s="33"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="34"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="34"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="34"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="33"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="34"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="33"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="35">
         <v>44420</v>
       </c>
-      <c r="D42" s="34"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="34"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="34"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="33"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="30"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="34"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="33"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="30"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="34"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="33"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="35">
         <v>44420</v>
       </c>
-      <c r="D47" s="34"/>
+      <c r="D47" s="33"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="35"/>
-      <c r="D48" s="34"/>
+      <c r="D48" s="33"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="35"/>
-      <c r="D49" s="34"/>
+      <c r="D49" s="33"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="35"/>
-      <c r="D50" s="34"/>
+      <c r="D50" s="33"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="34"/>
       <c r="C51" s="35"/>
-      <c r="D51" s="34"/>
+      <c r="D51" s="33"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="35">
         <v>44421</v>
       </c>
-      <c r="D52" s="34"/>
+      <c r="D52" s="33"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="34"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="33"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="30"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="34"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="33"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="30"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="34"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="33"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="30"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="34"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="33"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="35">
         <v>44422</v>
       </c>
-      <c r="D57" s="34"/>
+      <c r="D57" s="33"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="34"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="33"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="34"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="33"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="34"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="33"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="34"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="33"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="35">
         <v>44423</v>
       </c>
-      <c r="D62" s="34"/>
+      <c r="D62" s="33"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="30"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="34"/>
       <c r="C63" s="35"/>
-      <c r="D63" s="34"/>
+      <c r="D63" s="33"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="30"/>
-      <c r="B64" s="31"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="34"/>
       <c r="C64" s="35"/>
-      <c r="D64" s="34"/>
+      <c r="D64" s="33"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="30"/>
-      <c r="B65" s="31"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="34"/>
       <c r="C65" s="35"/>
-      <c r="D65" s="34"/>
+      <c r="D65" s="33"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="30"/>
-      <c r="B66" s="31"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="35"/>
-      <c r="D66" s="34"/>
+      <c r="D66" s="33"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C67" s="35">
         <v>44423</v>
       </c>
-      <c r="D67" s="34"/>
+      <c r="D67" s="33"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="30"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="34"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="33"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="30"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="34"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="33"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="30"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="34"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="33"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="30"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="34"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="33"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C72" s="35">
         <v>44423</v>
       </c>
-      <c r="D72" s="34"/>
+      <c r="D72" s="33"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="30"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="34"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="33"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="30"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="34"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="33"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="30"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="34"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="33"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="30"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="34"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="33"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="35">
         <v>44424</v>
       </c>
-      <c r="D77" s="34"/>
+      <c r="D77" s="33"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="30"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="34"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="33"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="30"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="34"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="33"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="30"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="34"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="33"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="30"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="34"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="33"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="34" t="s">
         <v>41</v>
       </c>
       <c r="C82" s="35">
         <v>44424</v>
       </c>
-      <c r="D82" s="34"/>
+      <c r="D82" s="33"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="30"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="34"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="33"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="30"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="34"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="33"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="30"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="34"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="33"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="30"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="34"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="33"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="35">
         <v>44424</v>
       </c>
-      <c r="D87" s="34"/>
+      <c r="D87" s="33"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="30"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="34"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="33"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="30"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="34"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="33"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="30"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="34"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="33"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="30"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="34"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="33"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="13" t="s">
@@ -5711,13 +5851,212 @@
         <v>389</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="75" customHeight="1"/>
-    <row r="288" spans="1:4" ht="75" customHeight="1"/>
-    <row r="289" ht="75" customHeight="1"/>
-    <row r="290" ht="75" customHeight="1"/>
-    <row r="291" ht="75" customHeight="1"/>
+    <row r="287" spans="1:4" ht="75" customHeight="1">
+      <c r="A287" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C287" s="31">
+        <v>44461</v>
+      </c>
+      <c r="D287" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="75" customHeight="1">
+      <c r="A288" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C288" s="31">
+        <v>44461</v>
+      </c>
+      <c r="D288" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="75" customHeight="1">
+      <c r="A289" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C289" s="31">
+        <v>44461</v>
+      </c>
+      <c r="D289" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="75" customHeight="1">
+      <c r="A290" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C290" s="31">
+        <v>44461</v>
+      </c>
+      <c r="D290" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="75" customHeight="1">
+      <c r="A291" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B291" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="C291" s="31">
+        <v>44461</v>
+      </c>
+      <c r="D291" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="75" customHeight="1">
+      <c r="A292" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C292" s="31">
+        <v>44461</v>
+      </c>
+      <c r="D292" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="75" customHeight="1">
+      <c r="A293" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C293" s="22">
+        <v>44461</v>
+      </c>
+      <c r="D293" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="75" customHeight="1">
+      <c r="A294" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="B294" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="C294" s="22">
+        <v>44461</v>
+      </c>
+      <c r="D294" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="75" customHeight="1"/>
+    <row r="296" spans="1:4" ht="75" customHeight="1"/>
+    <row r="297" spans="1:4" ht="75" customHeight="1"/>
+    <row r="298" spans="1:4" ht="75" customHeight="1"/>
+    <row r="299" spans="1:4" ht="75" customHeight="1"/>
+    <row r="300" spans="1:4" ht="75" customHeight="1"/>
+    <row r="301" spans="1:4" ht="75" customHeight="1"/>
+    <row r="302" spans="1:4" ht="75" customHeight="1"/>
+    <row r="303" spans="1:4" ht="75" customHeight="1"/>
+    <row r="304" spans="1:4" ht="75" customHeight="1"/>
+    <row r="305" ht="75" customHeight="1"/>
+    <row r="306" ht="75" customHeight="1"/>
+    <row r="307" ht="75" customHeight="1"/>
+    <row r="308" ht="75" customHeight="1"/>
+    <row r="309" ht="75" customHeight="1"/>
+    <row r="310" ht="75" customHeight="1"/>
+    <row r="311" ht="75" customHeight="1"/>
+    <row r="312" ht="75" customHeight="1"/>
+    <row r="313" ht="75" customHeight="1"/>
+    <row r="314" ht="75" customHeight="1"/>
+    <row r="315" ht="75" customHeight="1"/>
+    <row r="316" ht="75" customHeight="1"/>
+    <row r="317" ht="75" customHeight="1"/>
+    <row r="318" ht="75" customHeight="1"/>
+    <row r="319" ht="75" customHeight="1"/>
+    <row r="320" ht="75" customHeight="1"/>
+    <row r="321" ht="75" customHeight="1"/>
+    <row r="322" ht="75" customHeight="1"/>
+    <row r="323" ht="75" customHeight="1"/>
+    <row r="324" ht="75" customHeight="1"/>
+    <row r="325" ht="75" customHeight="1"/>
+    <row r="326" ht="75" customHeight="1"/>
+    <row r="327" ht="75" customHeight="1"/>
+    <row r="328" ht="75" customHeight="1"/>
+    <row r="329" ht="75" customHeight="1"/>
+    <row r="330" ht="75" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="C57:C61"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="D82:D86"/>
@@ -5734,62 +6073,6 @@
     <mergeCell ref="C82:C86"/>
     <mergeCell ref="B67:B71"/>
     <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19660" yWindow="3360" windowWidth="25600" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="12340" yWindow="1840" windowWidth="25600" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="435">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1702,6 +1702,103 @@
   </si>
   <si>
     <t>排除法：我们要排除掉 size - k 这么多元素，然后从left和right分别往里收缩区间直到剩余 size - k 个元素返回区间，要注意下题目中说，差值相等的时候取小的，此相等的时候，尽量缩小右边界。 二分区间：将问题转化为查找区间的左边界，将左边界mid右边界mid + k的值进行对比，看哪个离x更近。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>744. Find Smallest Letter Greater Than Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分区间：寻找左边界 注意等于情况的划分 做这种题最好先手画下边界情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">326. Power of Three
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试除法：不断地将 n 除以 3，直到 n=1。如果此过程中 nn 无法被 3 整除，就说明 n 不是 3 的幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100. Same Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS:分情况讨论 如果俩节点都不存在为相同，如果只存在一边为不相同，如果俩节点数值不同也不相同，然后递归着寻找左右子树即可。 BFS:想对麻烦一些需要另外判断俩节点的左右子节点是否相同，而在DFS中我们则交给递归去处理，土一点就把左右子节点只存在一个的所有情况都列出来，而快捷写法需要用异或是判断两边是否不相等，不相等就表示有一个不为空，会返回false。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>153. Find Minimum in Rotated Sorted Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分区间：根据mid的位置分情况讨论 寻找左边界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33. Search in Rotated Sorted Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分答案：需要先根据mid分情况讨论 先判断mid在左半上升区间还是在右半边，然后再看再看target存在哪边区间内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35. Search Insert Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分答案：几种答案的情况都被L给包括了我是没想到的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81. Search in Rotated Sorted Array II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分答案：解决 corner case:  [1,0,1,1,1] 通过收缩边界使其恢复单调性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69. Sqrt(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分区间：寻找右边界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>278. First Bad Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分区间：寻找左边界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>475. Heaters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分区间：寻找左边界 然后再算出离此房子左边最近的heater和右边最近的heater取最小值，接着遍历各个房子重复上面步骤取最小值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：先按照x[0]排序,然后遍历intervals判断是否相互重叠，如果还没添加过或者添加过的区间的末尾小于下一个即将添加区间的开头，否则可以上一个区间进行合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56. Merge Intervals</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1812,7 +1909,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="279">
+  <cellStyleXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2092,8 +2189,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2189,16 +2335,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2206,8 +2352,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="279">
+  <cellStyles count="328">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2341,6 +2493,30 @@
     <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2486,6 +2662,31 @@
     <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2821,8 +3022,8 @@
   <dimension ref="A1:F330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D292" sqref="D292"/>
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D304" sqref="D304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2853,16 +3054,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="38" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2870,43 +3071,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="37"/>
-      <c r="D3" s="33"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="32"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="37"/>
-      <c r="D4" s="33"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="37"/>
-      <c r="D5" s="33"/>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="37"/>
-      <c r="D6" s="33"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="38" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2914,43 +3115,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="36"/>
-      <c r="D8" s="33"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="36"/>
-      <c r="D9" s="33"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="32"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="36"/>
-      <c r="D10" s="33"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="36"/>
-      <c r="D11" s="33"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="38" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2958,571 +3159,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="32"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="33"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="32"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="33"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="32"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="33"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="32"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="33"/>
+      <c r="D16" s="38"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="39">
         <v>44418</v>
       </c>
-      <c r="D17" s="33"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="32"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="38"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="32"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="38"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="32"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="33"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="38"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="32"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="39">
         <v>44418</v>
       </c>
-      <c r="D22" s="33"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="32"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="38"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="32"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="38"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="32"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="38"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="32"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="38"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="39">
         <v>44418</v>
       </c>
-      <c r="D27" s="33"/>
+      <c r="D27" s="38"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="32"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="38"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="32"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="38"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="32"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="38"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="32"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="38"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="39">
         <v>44419</v>
       </c>
-      <c r="D32" s="33"/>
+      <c r="D32" s="38"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="32"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="38"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="32"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="38"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="32"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="38"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="32"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="38"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="39">
         <v>44419</v>
       </c>
-      <c r="D37" s="33"/>
+      <c r="D37" s="38"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="32"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="38"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="32"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="38"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="32"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="38"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="32"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="38"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C42" s="39">
         <v>44420</v>
       </c>
-      <c r="D42" s="33"/>
+      <c r="D42" s="38"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="32"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="38"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="32"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="38"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="32"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="38"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="32"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="38"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="39">
         <v>44420</v>
       </c>
-      <c r="D47" s="33"/>
+      <c r="D47" s="38"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="32"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="33"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="38"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="32"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="33"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="38"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="32"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="33"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="38"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="32"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="33"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="38"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="39">
         <v>44421</v>
       </c>
-      <c r="D52" s="33"/>
+      <c r="D52" s="38"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="32"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="33"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="38"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="32"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="33"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="38"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="32"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="33"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="38"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="32"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="33"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="38"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="35">
+      <c r="C57" s="39">
         <v>44422</v>
       </c>
-      <c r="D57" s="33"/>
+      <c r="D57" s="38"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="33"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="38"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="33"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="38"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="33"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="38"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="33"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="38"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="35">
+      <c r="C62" s="39">
         <v>44423</v>
       </c>
-      <c r="D62" s="33"/>
+      <c r="D62" s="38"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="32"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="33"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="38"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="32"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="33"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="38"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="32"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="33"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="38"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="32"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="33"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="38"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="35">
+      <c r="C67" s="39">
         <v>44423</v>
       </c>
-      <c r="D67" s="33"/>
+      <c r="D67" s="38"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="32"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="33"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="38"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="32"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="33"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="38"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="32"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="33"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="38"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="32"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="33"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="38"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="35">
+      <c r="C72" s="39">
         <v>44423</v>
       </c>
-      <c r="D72" s="33"/>
+      <c r="D72" s="38"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="32"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="33"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="38"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="32"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="33"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="38"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="32"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="33"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="38"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="32"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="33"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="38"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="35">
+      <c r="C77" s="39">
         <v>44424</v>
       </c>
-      <c r="D77" s="33"/>
+      <c r="D77" s="38"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="32"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="33"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="38"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="32"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="33"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="38"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="32"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="33"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="38"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="32"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="33"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="38"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="32" t="s">
+      <c r="A82" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="35">
+      <c r="C82" s="39">
         <v>44424</v>
       </c>
-      <c r="D82" s="33"/>
+      <c r="D82" s="38"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="32"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="33"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="38"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="32"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="33"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="38"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="32"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="33"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="38"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="32"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="33"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="38"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="32" t="s">
+      <c r="A87" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="35">
+      <c r="C87" s="39">
         <v>44424</v>
       </c>
-      <c r="D87" s="33"/>
+      <c r="D87" s="38"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="32"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="33"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="38"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="32"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="33"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="38"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="32"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="33"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="38"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="32"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="33"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="38"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="13" t="s">
@@ -5963,32 +6164,175 @@
         <v>410</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="75" customHeight="1"/>
-    <row r="296" spans="1:4" ht="75" customHeight="1"/>
-    <row r="297" spans="1:4" ht="75" customHeight="1"/>
-    <row r="298" spans="1:4" ht="75" customHeight="1"/>
-    <row r="299" spans="1:4" ht="75" customHeight="1"/>
-    <row r="300" spans="1:4" ht="75" customHeight="1"/>
-    <row r="301" spans="1:4" ht="75" customHeight="1"/>
-    <row r="302" spans="1:4" ht="75" customHeight="1"/>
-    <row r="303" spans="1:4" ht="75" customHeight="1"/>
-    <row r="304" spans="1:4" ht="75" customHeight="1"/>
-    <row r="305" ht="75" customHeight="1"/>
-    <row r="306" ht="75" customHeight="1"/>
-    <row r="307" ht="75" customHeight="1"/>
-    <row r="308" ht="75" customHeight="1"/>
-    <row r="309" ht="75" customHeight="1"/>
-    <row r="310" ht="75" customHeight="1"/>
-    <row r="311" ht="75" customHeight="1"/>
-    <row r="312" ht="75" customHeight="1"/>
-    <row r="313" ht="75" customHeight="1"/>
-    <row r="314" ht="75" customHeight="1"/>
-    <row r="315" ht="75" customHeight="1"/>
-    <row r="316" ht="75" customHeight="1"/>
-    <row r="317" ht="75" customHeight="1"/>
-    <row r="318" ht="75" customHeight="1"/>
-    <row r="319" ht="75" customHeight="1"/>
-    <row r="320" ht="75" customHeight="1"/>
+    <row r="295" spans="1:4" ht="75" customHeight="1">
+      <c r="A295" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C295" s="22">
+        <v>44462</v>
+      </c>
+      <c r="D295" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="75" customHeight="1">
+      <c r="A296" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="B296" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="C296" s="22">
+        <v>44462</v>
+      </c>
+      <c r="D296" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="75" customHeight="1">
+      <c r="A297" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="B297" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="C297" s="22">
+        <v>44462</v>
+      </c>
+      <c r="D297" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="75" customHeight="1">
+      <c r="A298" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B298" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C298" s="22">
+        <v>44462</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="75" customHeight="1">
+      <c r="A299" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="B299" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C299" s="22">
+        <v>44462</v>
+      </c>
+      <c r="D299" s="12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="75" customHeight="1">
+      <c r="A300" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="B300" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="C300" s="22">
+        <v>44462</v>
+      </c>
+      <c r="D300" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="75" customHeight="1">
+      <c r="A301" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="B301" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C301" s="22">
+        <v>44462</v>
+      </c>
+      <c r="D301" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="75" customHeight="1">
+      <c r="A302" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B302" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="C302" s="22">
+        <v>44462</v>
+      </c>
+      <c r="D302" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="75" customHeight="1">
+      <c r="A303" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="B303" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="C303" s="22">
+        <v>44462</v>
+      </c>
+      <c r="D303" s="32" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="75" customHeight="1">
+      <c r="A304" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="B304" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C304" s="22">
+        <v>44462</v>
+      </c>
+      <c r="D304" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="75" customHeight="1">
+      <c r="A305" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="B305" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C305" s="22">
+        <v>44462</v>
+      </c>
+      <c r="D305" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="75" customHeight="1"/>
+    <row r="307" spans="1:4" ht="75" customHeight="1"/>
+    <row r="308" spans="1:4" ht="75" customHeight="1"/>
+    <row r="309" spans="1:4" ht="75" customHeight="1"/>
+    <row r="310" spans="1:4" ht="75" customHeight="1"/>
+    <row r="311" spans="1:4" ht="75" customHeight="1"/>
+    <row r="312" spans="1:4" ht="75" customHeight="1"/>
+    <row r="313" spans="1:4" ht="75" customHeight="1"/>
+    <row r="314" spans="1:4" ht="75" customHeight="1"/>
+    <row r="315" spans="1:4" ht="75" customHeight="1"/>
+    <row r="316" spans="1:4" ht="75" customHeight="1"/>
+    <row r="317" spans="1:4" ht="75" customHeight="1"/>
+    <row r="318" spans="1:4" ht="75" customHeight="1"/>
+    <row r="319" spans="1:4" ht="75" customHeight="1"/>
+    <row r="320" spans="1:4" ht="75" customHeight="1"/>
     <row r="321" ht="75" customHeight="1"/>
     <row r="322" ht="75" customHeight="1"/>
     <row r="323" ht="75" customHeight="1"/>
@@ -6001,46 +6345,22 @@
     <row r="330" ht="75" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
     <mergeCell ref="D67:D71"/>
     <mergeCell ref="B72:B76"/>
     <mergeCell ref="C72:C76"/>
@@ -6057,22 +6377,46 @@
     <mergeCell ref="B57:B61"/>
     <mergeCell ref="D57:D61"/>
     <mergeCell ref="C57:C61"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="1840" windowWidth="25600" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="12900" yWindow="820" windowWidth="25600" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="447">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1799,6 +1799,54 @@
   </si>
   <si>
     <t>56. Merge Intervals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：回溯法 写法一 直接传递path / 写法二维护全局变量res 维护total记录当前root.val，每递归一层就传入上一层的total*10 + 当前层root的值 BFS：双队列 一个按正常遍历  另一个不断累积数值类似 当前层 * 10 + 下一层，到达叶子节点就算一次res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430. Flatten a Multilevel Doubly Linked List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>781. Rabbits in Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：写法一 遍历链表，递归找到cNode，然后连接head和cNode，连接完head和child然后继续head.next移动child的最后一个节点/ 写法二 有child就往child优先递归，返回末尾节点，将末尾节点和node.next拼接成双向链表(扁平化)即可 做了个优化 因为在写法一中每次child都要遍历两边， 具体做法就是在遍历完child就返回last node of child 不用再重复寻找child的最后一个节点  BFS：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表：维护一个哈希表用于去除报了同数目并且是同种颜色的兔子 然后分情况讨论 有兔子报了0 说明是只独特的兔子 没有兔子和它一个颜色，有兔子报了n，最少总数最少加n+1，有兔子报了n，最少总数的情况是忽略后面同样的n个n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57. Insert Interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129. Sum Root to Leaf Numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：分情况讨论 rTmp &lt; left可以直接插入interval，lTmp &gt; right 先判断newInterval插入过没 没插入过先插入 然后再插入interval，最后一种情况就是需要融合边界，但是融合完不着急插入可能还需要和后面对比， 如果遍历完所有区间没被插入，插入在最后。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1122. Relative Sort Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表+排序： 写法一 先记录arr1元素出现次数在哈希表，然后用arr2为依据进行元素排列，排列一个每次都pop一下哈希表，遍历哈希表获取最后剩下元素排列后补在res后。/ 写法二重写lambda函数 直接用元祖进行优化 先遍历arr2做一个rank {num:idx}根据是否存在在rank中来判断后 对比(0,rank[x]) 和 (1,x）  计数排序：先遍历arr1用数组（优化空间复杂度 长度为max(arr1)+1）记录所有元素出现次数 然后遍历arr2遇到了就取出extend一下res 像[x]*frequency[x]，最后再做一个兜底，遍历剩下的不存在arr2中的数字但是有出现在arr1中。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1909,7 +1957,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="328">
+  <cellStyleXfs count="348">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2238,8 +2286,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2341,10 +2409,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2352,14 +2429,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="328">
+  <cellStyles count="348">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2517,6 +2588,16 @@
     <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2687,6 +2768,16 @@
     <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3022,8 +3113,8 @@
   <dimension ref="A1:F330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D304" sqref="D304"/>
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3054,16 +3145,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="36" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3071,43 +3162,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="36" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3115,43 +3206,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="38"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="38"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="36" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3159,571 +3250,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="38">
         <v>44418</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="38"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="36"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="38"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="38"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="38"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="38">
         <v>44418</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="36"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="38"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="38"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="38"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="38"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="38">
         <v>44418</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="38"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="38"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="38"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="38"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="38">
         <v>44419</v>
       </c>
-      <c r="D32" s="38"/>
+      <c r="D32" s="36"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="38"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="38"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="38"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="38"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="38">
         <v>44419</v>
       </c>
-      <c r="D37" s="38"/>
+      <c r="D37" s="36"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="38"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="38"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="36"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="34"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="38"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="38"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="39">
+      <c r="C42" s="38">
         <v>44420</v>
       </c>
-      <c r="D42" s="38"/>
+      <c r="D42" s="36"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="34"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="38"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="36"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="34"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="38"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="36"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="34"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="38"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="36"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="38"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="36"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="38">
         <v>44420</v>
       </c>
-      <c r="D47" s="38"/>
+      <c r="D47" s="36"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="34"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="38"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="36"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="34"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="38"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="36"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="34"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="38"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="36"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="34"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="38"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="36"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="38">
         <v>44421</v>
       </c>
-      <c r="D52" s="38"/>
+      <c r="D52" s="36"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="34"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="38"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="36"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="34"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="38"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="36"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="34"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="38"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="36"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="34"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="38"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="38">
         <v>44422</v>
       </c>
-      <c r="D57" s="38"/>
+      <c r="D57" s="36"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="38"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="36"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="38"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="36"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="38"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="36"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="38"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="39">
+      <c r="C62" s="38">
         <v>44423</v>
       </c>
-      <c r="D62" s="38"/>
+      <c r="D62" s="36"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="34"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="38"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="36"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="34"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="38"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="36"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="34"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="38"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="36"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="34"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="38"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="36"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="38">
         <v>44423</v>
       </c>
-      <c r="D67" s="38"/>
+      <c r="D67" s="36"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="34"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="38"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="36"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="34"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="38"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="36"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="34"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="38"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="36"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="34"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="38"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="36"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="34" t="s">
+      <c r="A72" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="35" t="s">
+      <c r="B72" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="39">
+      <c r="C72" s="38">
         <v>44423</v>
       </c>
-      <c r="D72" s="38"/>
+      <c r="D72" s="36"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="34"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="38"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="36"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="34"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="38"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="36"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="34"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="38"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="36"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="34"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="38"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="36"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="34" t="s">
+      <c r="A77" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="39">
+      <c r="C77" s="38">
         <v>44424</v>
       </c>
-      <c r="D77" s="38"/>
+      <c r="D77" s="36"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="34"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="38"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="36"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="34"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="38"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="36"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="34"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="38"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="36"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="34"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="38"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="36"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="34" t="s">
+      <c r="A82" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="39">
+      <c r="C82" s="38">
         <v>44424</v>
       </c>
-      <c r="D82" s="38"/>
+      <c r="D82" s="36"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="34"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="38"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="36"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="34"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="38"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="36"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="34"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="38"/>
+      <c r="A85" s="35"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="36"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="34"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="38"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="36"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="34" t="s">
+      <c r="A87" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="39">
+      <c r="C87" s="38">
         <v>44424</v>
       </c>
-      <c r="D87" s="38"/>
+      <c r="D87" s="36"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="34"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="38"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="36"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="34"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="38"/>
+      <c r="A89" s="35"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="36"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="34"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="38"/>
+      <c r="A90" s="35"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="36"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="34"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="38"/>
+      <c r="A91" s="35"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="36"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="13" t="s">
@@ -6318,11 +6409,76 @@
         <v>433</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="75" customHeight="1"/>
-    <row r="307" spans="1:4" ht="75" customHeight="1"/>
-    <row r="308" spans="1:4" ht="75" customHeight="1"/>
-    <row r="309" spans="1:4" ht="75" customHeight="1"/>
-    <row r="310" spans="1:4" ht="75" customHeight="1"/>
+    <row r="306" spans="1:4" ht="75" customHeight="1">
+      <c r="A306" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="B306" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="C306" s="22">
+        <v>44463</v>
+      </c>
+      <c r="D306" s="12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="75" customHeight="1">
+      <c r="A307" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B307" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="C307" s="22">
+        <v>44463</v>
+      </c>
+      <c r="D307" s="12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="75" customHeight="1">
+      <c r="A308" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B308" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="C308" s="22">
+        <v>44463</v>
+      </c>
+      <c r="D308" s="12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="75" customHeight="1">
+      <c r="A309" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B309" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="C309" s="22">
+        <v>44463</v>
+      </c>
+      <c r="D309" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="109" customHeight="1">
+      <c r="A310" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C310" s="22">
+        <v>44463</v>
+      </c>
+      <c r="D310" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
     <row r="311" spans="1:4" ht="75" customHeight="1"/>
     <row r="312" spans="1:4" ht="75" customHeight="1"/>
     <row r="313" spans="1:4" ht="75" customHeight="1"/>
@@ -6345,6 +6501,62 @@
     <row r="330" ht="75" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="C57:C61"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="D82:D86"/>
@@ -6361,62 +6573,6 @@
     <mergeCell ref="C82:C86"/>
     <mergeCell ref="B67:B71"/>
     <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="820" windowWidth="25600" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="17720" yWindow="1540" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="462">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1847,6 +1847,69 @@
   </si>
   <si>
     <t>哈希表+排序： 写法一 先记录arr1元素出现次数在哈希表，然后用arr2为依据进行元素排列，排列一个每次都pop一下哈希表，遍历哈希表获取最后剩下元素排列后补在res后。/ 写法二重写lambda函数 直接用元祖进行优化 先遍历arr2做一个rank {num:idx}根据是否存在在rank中来判断后 对比(0,rank[x]) 和 (1,x）  计数排序：先遍历arr1用数组（优化空间复杂度 长度为max(arr1)+1）记录所有元素出现次数 然后遍历arr2遇到了就取出extend一下res 像[x]*frequency[x]，最后再做一个兜底，遍历剩下的不存在arr2中的数字但是有出现在arr1中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>583. Delete Operation for Two Strings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS+记忆化: 找时间再仔细把DP写法学一下，看看三叶姐姐有没有专题 #难题呀字符串问题，需要下功夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">513. Find Bottom Left Tree Value
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS：板子送分题 DFS：使用先序遍历 维护nonlocal ans 和nonlocal maxdepth 当深度大于max就更新ans一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">371. Sum of Two Integers
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">297. Serialize and Deserialize Binary Tree
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bits manipulation： 与运算1与1为1 或运算1或0为1 异或运算相异为1 原理是利用异或运算为没有进位的加法，而与运算再&lt;&lt;1以后为进行，一直循环直到没有进位退出即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：序列化：直接前序遍历二叉树将其val生成字符串 运用字符串可拼接性质 反序列化：先split(,)切割为数组，然后每次弹出最前元素进行转化，如果为None就返回None，不是的话就做个root，然后递归找它的子节点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS+sort： dfs遍历, 得到col,row,value三元组 ,col 为第一关键字升序,row为第二关键字升序,value 为第三关键字升序, 同列存到字典,key为col,value为[val]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>639. Decode Ways II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>987. Vertical Order Traversal of a Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划水过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1957,7 +2020,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="348">
+  <cellStyleXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2306,8 +2369,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2412,6 +2491,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2430,7 +2515,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="348">
+  <cellStyles count="364">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2598,6 +2683,14 @@
     <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2778,6 +2871,14 @@
     <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3113,8 +3214,8 @@
   <dimension ref="A1:F330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C310" sqref="C310"/>
+      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D316" sqref="D316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3145,16 +3246,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="38" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3162,43 +3263,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="35"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="36"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="35"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="36"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="35"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="36"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="38" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3206,43 +3307,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="35"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="36"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="35"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="36"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="36"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="38" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3250,571 +3351,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="35"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="36"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="35"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="36"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="35"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="36"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="35"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="36"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="38"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="40">
         <v>44418</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="35"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="36"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="38"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="35"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="38"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="35"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="38"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="35"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="40">
         <v>44418</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="35"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="35"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="35"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="35"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="40">
         <v>44418</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="38"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="35"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="35"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="35"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="35"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="40">
         <v>44419</v>
       </c>
-      <c r="D32" s="36"/>
+      <c r="D32" s="38"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="35"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="35"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="35"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="35"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="40">
         <v>44419</v>
       </c>
-      <c r="D37" s="36"/>
+      <c r="D37" s="38"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="35"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="35"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="35"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="35"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="38">
+      <c r="C42" s="40">
         <v>44420</v>
       </c>
-      <c r="D42" s="36"/>
+      <c r="D42" s="38"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="35"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="38"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="35"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="38"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="35"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="38"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="35"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="38"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="40">
         <v>44420</v>
       </c>
-      <c r="D47" s="36"/>
+      <c r="D47" s="38"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="35"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="36"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="38"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="35"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="36"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="38"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="35"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="36"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="38"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="35"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="36"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="38"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="38">
+      <c r="C52" s="40">
         <v>44421</v>
       </c>
-      <c r="D52" s="36"/>
+      <c r="D52" s="38"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="35"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="36"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="38"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="35"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="36"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="38"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="35"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="36"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="35"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="36"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="38"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="38">
+      <c r="C57" s="40">
         <v>44422</v>
       </c>
-      <c r="D57" s="36"/>
+      <c r="D57" s="38"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="36"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="38"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="36"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="38"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="36"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="38"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="36"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="38"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="38">
+      <c r="C62" s="40">
         <v>44423</v>
       </c>
-      <c r="D62" s="36"/>
+      <c r="D62" s="38"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="35"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="36"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="38"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="35"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="36"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="38"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="35"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="36"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="38"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="35"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="36"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="38"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="38">
+      <c r="C67" s="40">
         <v>44423</v>
       </c>
-      <c r="D67" s="36"/>
+      <c r="D67" s="38"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="35"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="36"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="38"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="35"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="36"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="38"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="35"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="36"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="38"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="35"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="36"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="38"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="38">
+      <c r="C72" s="40">
         <v>44423</v>
       </c>
-      <c r="D72" s="36"/>
+      <c r="D72" s="38"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="35"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="36"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="38"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="35"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="36"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="38"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="35"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="36"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="38"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="35"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="36"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="38"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="35" t="s">
+      <c r="A77" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="37" t="s">
+      <c r="B77" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="38">
+      <c r="C77" s="40">
         <v>44424</v>
       </c>
-      <c r="D77" s="36"/>
+      <c r="D77" s="38"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="35"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="36"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="38"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="35"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="36"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="38"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="35"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="36"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="38"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="35"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="36"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="38"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="37" t="s">
+      <c r="B82" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="38">
+      <c r="C82" s="40">
         <v>44424</v>
       </c>
-      <c r="D82" s="36"/>
+      <c r="D82" s="38"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="35"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="36"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="38"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="35"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="36"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="38"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="35"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="36"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="38"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="35"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="36"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="38"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="37" t="s">
+      <c r="B87" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="38">
+      <c r="C87" s="40">
         <v>44424</v>
       </c>
-      <c r="D87" s="36"/>
+      <c r="D87" s="38"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="35"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="36"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="38"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="35"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="36"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="38"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="35"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="36"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="38"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="35"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="36"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="38"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="13" t="s">
@@ -6479,12 +6580,90 @@
         <v>446</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="75" customHeight="1"/>
-    <row r="312" spans="1:4" ht="75" customHeight="1"/>
-    <row r="313" spans="1:4" ht="75" customHeight="1"/>
-    <row r="314" spans="1:4" ht="75" customHeight="1"/>
-    <row r="315" spans="1:4" ht="75" customHeight="1"/>
-    <row r="316" spans="1:4" ht="75" customHeight="1"/>
+    <row r="311" spans="1:4" ht="75" customHeight="1">
+      <c r="A311" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C311" s="22">
+        <v>44464</v>
+      </c>
+      <c r="D311" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="75" customHeight="1">
+      <c r="A312" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="B312" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="C312" s="22">
+        <v>44464</v>
+      </c>
+      <c r="D312" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="75" customHeight="1">
+      <c r="A313" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B313" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="C313" s="22">
+        <v>44465</v>
+      </c>
+      <c r="D313" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="75" customHeight="1">
+      <c r="A314" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C314" s="22">
+        <v>44465</v>
+      </c>
+      <c r="D314" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="75" customHeight="1">
+      <c r="A315" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B315" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="C315" s="36">
+        <v>44466</v>
+      </c>
+      <c r="D315" s="12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="75" customHeight="1">
+      <c r="A316" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C316" s="36">
+        <v>44466</v>
+      </c>
+      <c r="D316" s="12" t="s">
+        <v>461</v>
+      </c>
+    </row>
     <row r="317" spans="1:4" ht="75" customHeight="1"/>
     <row r="318" spans="1:4" ht="75" customHeight="1"/>
     <row r="319" spans="1:4" ht="75" customHeight="1"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17720" yWindow="1540" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="16120" yWindow="4840" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="480">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1664,10 +1664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DFS:这道题递归条件里分2种情况 其中一个节点为空，说明m1和m2有一个必然为0，所以可以返回m1 + m2 + 1， 另一种情况，也就是左右孩子都不为空，返回最小深度+1即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>721.merge accounts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1910,6 +1906,83 @@
   </si>
   <si>
     <t>划水过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.two sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表：存{num : idx} 如果target - num在键中存在，就返回[dic[target - num], idx]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79.Word Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backtracking: 枚举每个点的DFS写法，需要注意的是不能直接返回，会变成只从坐标 (0,0) 开始搜索，搜索不到返回 False，而是要转化成一个check函数，如果全部的格子都搜索完了以后，都返回 False ，才返回 False，做一个visited数组，访问过设置成0，当搜索完此字符的四个方向需要重新设置成-1，这样就不会影响后面继续枚举。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>437.path Sum III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归/DFS：两个DFS嵌套，一个是普通的前序遍历 DFS不断更新targetSum - root.val，然后外面套一个递归查找父节点，左，右子树，写法上可以维护全局变量或者用返回值，参见3YE DP里有篇的题解里列出来类似的分类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">543. Diameter of Binary Tree
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DFS： 本题的难点在于 直径的出发点可以不是根节点，而是可以在任意一个根节点，所以在求二叉树最大深度的同时，我们需要不断维护ans ans是以某个节点为根节点出发的左右子树最大深度 即depthR + depthL + 1， </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS:这道题递归条件里分2种情况 其中一个节点为空，说明m1和m2有一个必然为0，所以可以返回m1 + m2 + 1，即当 root 节点左右孩子有一个为空时，返回不为空的孩子节点的深度， 另一种情况，也就是左右孩子都不为空，返回最小深度+1即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>406. Queue Reconstruction by Height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序： 按照先H高度降序，K个数升序排序，遍历排序后的数组，根据K插入到K的位置上，核心思想是高个子先站好位，矮个子插入到K位置上，前面肯定有K个高个子。 #以len(res)来界定前面有多少人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>208. Implement Trie (Prefix Tree)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组实现：待补充  字典实现：总体来看是个字典套字典的形式eg： {a:{b:{c:{d}}}}，写一个自己的TreeNode类，属性有children和isWord，isWord在插入方法结束时候设置成True， 搜索方法就是遍历字符串 一个个字母去字典里搜，如果有一个字母不存在就返回False，因为都是唯一的一一对应，遍历字符串以最后一个字符的isWord来判断是否找到，startsWith方法则类似，只不过不需要通过isWord来判断。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1603. Design Parking System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量模拟：设置三个属性，三个if暴力模拟 数组模拟：维护[0,big,medium,small]，这样直接park[cType]-=1很快，如果==0就返回False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207. Course Schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓扑排序：判断是否是DAG （有向无环图）分三步走，第一步建立联系 eg：indegrees[1] = 1 表示课程1有1个入度， adjacency[0] = [1,2,3] 表示课程0的邻居为1,2,3即学习课程1,2,3需要先学0课程 第二步 根据题意你这个学期必须选修 numCourses 门课程，记为 0 到 numCourses - 1，遍历所有课程，找到入度为0的人口，放入队列作为遍历的入口，最后一步 遍历入度为0的点的邻居点（出度），邻居点的入度-=1以后 如果入度为0就加入队列 待查找 循环往复直到 如果numCourses为0就说明是DAG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2020,7 +2093,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="364">
+  <cellStyleXfs count="392">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2385,8 +2458,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2497,16 +2598,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2514,8 +2615,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="364">
+  <cellStyles count="392">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2691,6 +2798,20 @@
     <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2879,6 +3000,20 @@
     <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3214,8 +3349,8 @@
   <dimension ref="A1:F330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D316" sqref="D316"/>
+      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D324" sqref="D324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3246,16 +3381,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="43" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3263,43 +3398,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="37"/>
-      <c r="B3" s="39"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="42"/>
-      <c r="D3" s="38"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="37"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="42"/>
-      <c r="D4" s="38"/>
+      <c r="D4" s="43"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="37"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="42"/>
-      <c r="D5" s="38"/>
+      <c r="D5" s="43"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="38"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="43" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3307,43 +3442,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="41"/>
-      <c r="D8" s="38"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="41"/>
-      <c r="D9" s="38"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="41"/>
-      <c r="D10" s="38"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="41"/>
-      <c r="D11" s="38"/>
+      <c r="D11" s="43"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="43" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3351,571 +3486,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="37"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="42"/>
-      <c r="D13" s="38"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="37"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="38"/>
+      <c r="D14" s="43"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="37"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="38"/>
+      <c r="D15" s="43"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="42"/>
-      <c r="D16" s="38"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="44">
         <v>44418</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="43"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="37"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="38"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="37"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="38"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="43"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="37"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="38"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="43"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="37"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="38"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="43"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="44">
         <v>44418</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="43"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="37"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="43"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="37"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="43"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="37"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="43"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="37"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="43"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="44">
         <v>44418</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="43"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="37"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="43"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="37"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="43"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="37"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="43"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="37"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="43"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="40">
+      <c r="C32" s="44">
         <v>44419</v>
       </c>
-      <c r="D32" s="38"/>
+      <c r="D32" s="43"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="37"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="43"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="37"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="43"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="37"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="43"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="37"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="43"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C37" s="44">
         <v>44419</v>
       </c>
-      <c r="D37" s="38"/>
+      <c r="D37" s="43"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="37"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="38"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="43"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="37"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="38"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="43"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="37"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="38"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="43"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="37"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="43"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="40">
+      <c r="C42" s="44">
         <v>44420</v>
       </c>
-      <c r="D42" s="38"/>
+      <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="37"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="43"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="37"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="43"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="37"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="38"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="43"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="37"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="38"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="43"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="40">
+      <c r="C47" s="44">
         <v>44420</v>
       </c>
-      <c r="D47" s="38"/>
+      <c r="D47" s="43"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="37"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="38"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="43"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="37"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="38"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="43"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="37"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="38"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="43"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="37"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="38"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="43"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="44">
         <v>44421</v>
       </c>
-      <c r="D52" s="38"/>
+      <c r="D52" s="43"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="37"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="38"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="43"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="37"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="38"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="43"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="37"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="38"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="37"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="38"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="43"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="40">
+      <c r="C57" s="44">
         <v>44422</v>
       </c>
-      <c r="D57" s="38"/>
+      <c r="D57" s="43"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="38"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="43"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="38"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="43"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="38"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="43"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="38"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="43"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="40">
+      <c r="C62" s="44">
         <v>44423</v>
       </c>
-      <c r="D62" s="38"/>
+      <c r="D62" s="43"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="37"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="38"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="43"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="37"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="38"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="43"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="37"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="38"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="43"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="37"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="38"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="43"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="44">
         <v>44423</v>
       </c>
-      <c r="D67" s="38"/>
+      <c r="D67" s="43"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="37"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="38"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="43"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="37"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="38"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="43"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="37"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="38"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="43"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="37"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="38"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="43"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="40">
+      <c r="C72" s="44">
         <v>44423</v>
       </c>
-      <c r="D72" s="38"/>
+      <c r="D72" s="43"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="37"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="38"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="43"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="37"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="38"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="43"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="37"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="38"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="43"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="37"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="38"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="43"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="40">
+      <c r="C77" s="44">
         <v>44424</v>
       </c>
-      <c r="D77" s="38"/>
+      <c r="D77" s="43"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="37"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="38"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="43"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="37"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="38"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="43"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="37"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="38"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="43"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="37"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="38"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="43"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="40">
+      <c r="C82" s="44">
         <v>44424</v>
       </c>
-      <c r="D82" s="38"/>
+      <c r="D82" s="43"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="37"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="38"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="43"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="37"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="38"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="43"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="37"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="38"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="43"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="37"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="38"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="43"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="40">
+      <c r="C87" s="44">
         <v>44424</v>
       </c>
-      <c r="D87" s="38"/>
+      <c r="D87" s="43"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="37"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="38"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="43"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="37"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="38"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="43"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="37"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="38"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="43"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="37"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="38"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="43"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="13" t="s">
@@ -6297,12 +6432,12 @@
         <v>44461</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>401</v>
+        <v>471</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="75" customHeight="1">
       <c r="A291" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B291" s="30" t="s">
         <v>395</v>
@@ -6311,26 +6446,26 @@
         <v>44461</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="75" customHeight="1">
       <c r="A292" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C292" s="31">
         <v>44461</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="75" customHeight="1">
       <c r="A293" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>392</v>
@@ -6339,12 +6474,12 @@
         <v>44461</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="75" customHeight="1">
       <c r="A294" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B294" s="30" t="s">
         <v>392</v>
@@ -6353,54 +6488,54 @@
         <v>44461</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="75" customHeight="1">
       <c r="A295" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="C295" s="22">
         <v>44462</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="75" customHeight="1">
       <c r="A296" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B296" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C296" s="22">
         <v>44462</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="75" customHeight="1">
       <c r="A297" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B297" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C297" s="22">
         <v>44462</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="75" customHeight="1">
       <c r="A298" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B298" s="33" t="s">
         <v>392</v>
@@ -6409,12 +6544,12 @@
         <v>44462</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="75" customHeight="1">
       <c r="A299" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B299" s="33" t="s">
         <v>392</v>
@@ -6423,26 +6558,26 @@
         <v>44462</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="75" customHeight="1">
       <c r="A300" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="B300" s="33" t="s">
         <v>422</v>
-      </c>
-      <c r="B300" s="33" t="s">
-        <v>423</v>
       </c>
       <c r="C300" s="22">
         <v>44462</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="75" customHeight="1">
       <c r="A301" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B301" s="33" t="s">
         <v>392</v>
@@ -6451,40 +6586,40 @@
         <v>44462</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="75" customHeight="1">
       <c r="A302" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B302" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C302" s="22">
         <v>44462</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="75" customHeight="1">
       <c r="A303" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B303" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C303" s="22">
         <v>44462</v>
       </c>
       <c r="D303" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="75" customHeight="1">
       <c r="A304" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B304" s="33" t="s">
         <v>392</v>
@@ -6493,12 +6628,12 @@
         <v>44462</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="75" customHeight="1">
       <c r="A305" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B305" s="33" t="s">
         <v>392</v>
@@ -6507,12 +6642,12 @@
         <v>44462</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="75" customHeight="1">
       <c r="A306" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B306" s="34" t="s">
         <v>392</v>
@@ -6521,12 +6656,12 @@
         <v>44463</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="75" customHeight="1">
       <c r="A307" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B307" s="34" t="s">
         <v>392</v>
@@ -6535,12 +6670,12 @@
         <v>44463</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="75" customHeight="1">
       <c r="A308" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B308" s="34" t="s">
         <v>392</v>
@@ -6549,177 +6684,257 @@
         <v>44463</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="75" customHeight="1">
       <c r="A309" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B309" s="34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C309" s="22">
         <v>44463</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="109" customHeight="1">
       <c r="A310" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C310" s="22">
         <v>44463</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="75" customHeight="1">
       <c r="A311" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="C311" s="22">
         <v>44464</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="75" customHeight="1">
       <c r="A312" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B312" s="35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C312" s="22">
         <v>44464</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="75" customHeight="1">
       <c r="A313" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B313" s="35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C313" s="22">
         <v>44465</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="75" customHeight="1">
       <c r="A314" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="C314" s="22">
         <v>44465</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="75" customHeight="1">
       <c r="A315" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B315" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C315" s="36">
         <v>44466</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="75" customHeight="1">
       <c r="A316" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C316" s="36">
         <v>44466</v>
       </c>
       <c r="D316" s="12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="75" customHeight="1">
+      <c r="A317" s="13" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" ht="75" customHeight="1"/>
-    <row r="318" spans="1:4" ht="75" customHeight="1"/>
-    <row r="319" spans="1:4" ht="75" customHeight="1"/>
-    <row r="320" spans="1:4" ht="75" customHeight="1"/>
-    <row r="321" ht="75" customHeight="1"/>
-    <row r="322" ht="75" customHeight="1"/>
-    <row r="323" ht="75" customHeight="1"/>
-    <row r="324" ht="75" customHeight="1"/>
-    <row r="325" ht="75" customHeight="1"/>
-    <row r="326" ht="75" customHeight="1"/>
-    <row r="327" ht="75" customHeight="1"/>
-    <row r="328" ht="75" customHeight="1"/>
-    <row r="329" ht="75" customHeight="1"/>
-    <row r="330" ht="75" customHeight="1"/>
+      <c r="B317" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C317" s="38">
+        <v>44467</v>
+      </c>
+      <c r="D317" s="12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="75" customHeight="1">
+      <c r="A318" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C318" s="38">
+        <v>44467</v>
+      </c>
+      <c r="D318" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="75" customHeight="1">
+      <c r="A319" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B319" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="C319" s="38">
+        <v>44467</v>
+      </c>
+      <c r="D319" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="75" customHeight="1">
+      <c r="A320" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C320" s="38">
+        <v>44467</v>
+      </c>
+      <c r="D320" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="75" customHeight="1">
+      <c r="A321" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B321" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="C321" s="38">
+        <v>44467</v>
+      </c>
+      <c r="D321" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="75" customHeight="1">
+      <c r="A322" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="B322" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="C322" s="38">
+        <v>44467</v>
+      </c>
+      <c r="D322" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="75" customHeight="1">
+      <c r="A323" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="B323" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="C323" s="38">
+        <v>44467</v>
+      </c>
+      <c r="D323" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="100" customHeight="1">
+      <c r="A324" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="B324" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="C324" s="38">
+        <v>44467</v>
+      </c>
+      <c r="D324" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="75" customHeight="1"/>
+    <row r="326" spans="1:4" ht="75" customHeight="1"/>
+    <row r="327" spans="1:4" ht="75" customHeight="1"/>
+    <row r="328" spans="1:4" ht="75" customHeight="1"/>
+    <row r="329" spans="1:4" ht="75" customHeight="1"/>
+    <row r="330" spans="1:4" ht="75" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
     <mergeCell ref="D67:D71"/>
     <mergeCell ref="B72:B76"/>
     <mergeCell ref="C72:C76"/>
@@ -6736,22 +6951,46 @@
     <mergeCell ref="B57:B61"/>
     <mergeCell ref="D57:D61"/>
     <mergeCell ref="C57:C61"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16120" yWindow="4840" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="14960" yWindow="2340" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="491">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1985,12 +1985,226 @@
     <t>拓扑排序：判断是否是DAG （有向无环图）分三步走，第一步建立联系 eg：indegrees[1] = 1 表示课程1有1个入度， adjacency[0] = [1,2,3] 表示课程0的邻居为1,2,3即学习课程1,2,3需要先学0课程 第二步 根据题意你这个学期必须选修 numCourses 门课程，记为 0 到 numCourses - 1，遍历所有课程，找到入度为0的人口，放入队列作为遍历的入口，最后一步 遍历入度为0的点的邻居点（出度），邻居点的入度-=1以后 如果入度为0就加入队列 待查找 循环往复直到 如果numCourses为0就说明是DAG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>517. Super Washing Machines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greedy：没弄懂，gg，明天再看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小堆：做一个哈希表{num:frequency} 维护一个大小为k的最小堆（优先队列），最后答案就是剩下在队内的k个元素 快速选择：运用快排序partition函数的特性 [小于pivot的元素]pivot[大于pivot的元素] 当low维护与i位置交换完元素后，index为i位置的元素代表了前面有i个元素小于它，当i == k - 1时,我们就找到答案（包含上i一共有k个）直接返回nums[:k]即可，否则如果i大于k - 1，就递归寻找范围在[low, i - 1]的元素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>347. Top K Frequent Elements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303. Range Sum Query - Immutable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304. Range Sum Query 2D - Immutable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力：直接遍历然后每次都计算index从left到right内的值 一维前缀和：预处理数组 前缀和数组通向式为preSum[i + 1] = preSum[i] + nums[i]，又因为nums[i] = preSum[i + 1] - preSum[i]，所以nums[i] + … + nums[j] = preSum[j + 1] - preSum[i]  #公式推导 见草稿纸 #边界问题要考虑清除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>暴力：暴力遍历 把范围拆成一维前缀和分别去算 二维前缀和：求出 preSum 二维阵列然后带入 A sigma(i=a) B sigma(i=b) arr[i][j] = preSum[i][j] + preSum[i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="华文黑体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1][j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="华文黑体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="华文黑体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">− </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preSum[i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="华文黑体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1][j] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="华文黑体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">− </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preSum[i][j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="华文黑体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1] (可简化，即让preSum 阵列会比原矩阵多一行一列类似一维) 简化为：A sigma(i=a) B sigma(i=b) preSum[A+1][B+1]+preSum[a][b]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="华文黑体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preSum[A+1][b]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="华文黑体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preSum[a][B+1]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2045,6 +2259,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文黑体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2487,7 +2708,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2539,9 +2760,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2609,16 +2827,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3346,16 +3573,16 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F330"/>
+  <dimension ref="A1:F358"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D324" sqref="D324"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D328" sqref="D328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="38" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="79.5" style="12" customWidth="1"/>
@@ -3364,16 +3591,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -3381,16 +3608,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3398,43 +3625,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="42"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3442,43 +3669,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="43"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="43"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="43"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="43"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="42" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3486,635 +3713,635 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="42"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="44">
         <v>44418</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="44"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="44"/>
-      <c r="D19" s="43"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="44"/>
-      <c r="D20" s="43"/>
+      <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="44"/>
-      <c r="D21" s="43"/>
+      <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="44">
         <v>44418</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="42"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="43"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="43"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="43"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="43"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="44">
         <v>44418</v>
       </c>
-      <c r="D27" s="43"/>
+      <c r="D27" s="42"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="43"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="43"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="43"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="43"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="44">
         <v>44419</v>
       </c>
-      <c r="D32" s="43"/>
+      <c r="D32" s="42"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="43"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="43"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="39"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="43"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="43"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="44">
         <v>44419</v>
       </c>
-      <c r="D37" s="43"/>
+      <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="43"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="42"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="39"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="43"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="39"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="43"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="39"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="43"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="42"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="44">
         <v>44420</v>
       </c>
-      <c r="D42" s="43"/>
+      <c r="D42" s="42"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="39"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="43"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="42"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="39"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="43"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="42"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="39"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="43"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="42"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="39"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="43"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="42"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="44">
         <v>44420</v>
       </c>
-      <c r="D47" s="43"/>
+      <c r="D47" s="42"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="39"/>
-      <c r="B48" s="40"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="44"/>
-      <c r="D48" s="43"/>
+      <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="39"/>
-      <c r="B49" s="40"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="44"/>
-      <c r="D49" s="43"/>
+      <c r="D49" s="42"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="39"/>
-      <c r="B50" s="40"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="44"/>
-      <c r="D50" s="43"/>
+      <c r="D50" s="42"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="39"/>
-      <c r="B51" s="40"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="44"/>
-      <c r="D51" s="43"/>
+      <c r="D51" s="42"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="44">
         <v>44421</v>
       </c>
-      <c r="D52" s="43"/>
+      <c r="D52" s="42"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="39"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="43"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="42"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="39"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="43"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="42"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="39"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="43"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="42"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="39"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="43"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="42"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="41" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="44">
         <v>44422</v>
       </c>
-      <c r="D57" s="43"/>
+      <c r="D57" s="42"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="43"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="42"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="43"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="42"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="43"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="42"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="43"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="42"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="44">
         <v>44423</v>
       </c>
-      <c r="D62" s="43"/>
+      <c r="D62" s="42"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="39"/>
-      <c r="B63" s="40"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="44"/>
-      <c r="D63" s="43"/>
+      <c r="D63" s="42"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="39"/>
-      <c r="B64" s="40"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="44"/>
-      <c r="D64" s="43"/>
+      <c r="D64" s="42"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="39"/>
-      <c r="B65" s="40"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="44"/>
-      <c r="D65" s="43"/>
+      <c r="D65" s="42"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="39"/>
-      <c r="B66" s="40"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="44"/>
-      <c r="D66" s="43"/>
+      <c r="D66" s="42"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C67" s="44">
         <v>44423</v>
       </c>
-      <c r="D67" s="43"/>
+      <c r="D67" s="42"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="39"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="43"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="42"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="39"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="43"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="42"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="39"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="43"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="42"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="39"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="43"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="42"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="39" t="s">
+      <c r="A72" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C72" s="44">
         <v>44423</v>
       </c>
-      <c r="D72" s="43"/>
+      <c r="D72" s="42"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="39"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="43"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="42"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="39"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="43"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="42"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="39"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="43"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="42"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="39"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="43"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="42"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="39" t="s">
+      <c r="A77" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="44">
         <v>44424</v>
       </c>
-      <c r="D77" s="43"/>
+      <c r="D77" s="42"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="39"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="43"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="42"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="39"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="43"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="42"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="39"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="43"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="42"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="39"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="43"/>
+      <c r="A81" s="41"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="42"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="39" t="s">
+      <c r="A82" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="40" t="s">
+      <c r="B82" s="43" t="s">
         <v>41</v>
       </c>
       <c r="C82" s="44">
         <v>44424</v>
       </c>
-      <c r="D82" s="43"/>
+      <c r="D82" s="42"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="39"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="43"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="42"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="39"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="43"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="42"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="39"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="43"/>
+      <c r="A85" s="41"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="42"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="39"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="43"/>
+      <c r="A86" s="41"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="42"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="39" t="s">
+      <c r="A87" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="40" t="s">
+      <c r="B87" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="44">
         <v>44424</v>
       </c>
-      <c r="D87" s="43"/>
+      <c r="D87" s="42"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="39"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="43"/>
+      <c r="A88" s="41"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="42"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="39"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="43"/>
+      <c r="A89" s="41"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="42"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="39"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="43"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="42"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="39"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="43"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="42"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="38" t="s">
         <v>44</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C92" s="21">
+      <c r="C92" s="20">
         <v>44425</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="75" customHeight="1">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="21">
+      <c r="C93" s="20">
         <v>44425</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="75" customHeight="1">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="38" t="s">
         <v>45</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="21">
+      <c r="C94" s="20">
         <v>44425</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="75" customHeight="1">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="38" t="s">
         <v>47</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="21">
+      <c r="C95" s="20">
         <v>44426</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="75" customHeight="1">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="38" t="s">
         <v>46</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="21">
+      <c r="C96" s="20">
         <v>44426</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="75" customHeight="1">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="38" t="s">
         <v>48</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="21">
+      <c r="C97" s="20">
         <v>44426</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -4122,112 +4349,112 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="75" customHeight="1">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="38" t="s">
         <v>49</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C98" s="21">
+      <c r="C98" s="20">
         <v>44427</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="75" customHeight="1">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="38" t="s">
         <v>51</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="21">
+      <c r="C99" s="20">
         <v>44427</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="75" customHeight="1">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="38" t="s">
         <v>52</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="21">
+      <c r="C100" s="20">
         <v>44427</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="75" customHeight="1">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="38" t="s">
         <v>53</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C101" s="21">
+      <c r="C101" s="20">
         <v>44428</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="75" customHeight="1">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="21">
+      <c r="C102" s="20">
         <v>44428</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="75" customHeight="1">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="38" t="s">
         <v>51</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C103" s="21">
+      <c r="C103" s="20">
         <v>44428</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="75" customHeight="1">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="20">
         <v>44428</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="75" customHeight="1">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="38" t="s">
         <v>68</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="21">
+      <c r="C105" s="20">
         <v>44428</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="75" customHeight="1">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="38" t="s">
         <v>57</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C106" s="21">
+      <c r="C106" s="20">
         <v>44429</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="75" customHeight="1">
-      <c r="A107" s="13" t="s">
+      <c r="A107" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C107" s="21">
+      <c r="C107" s="20">
         <v>44429</v>
       </c>
     </row>
@@ -4238,713 +4465,713 @@
       <c r="B108" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="22">
+      <c r="C108" s="21">
         <v>44429</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="75" customHeight="1">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="38" t="s">
         <v>60</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="21">
+      <c r="C109" s="20">
         <v>44429</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="75" customHeight="1">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="38" t="s">
         <v>62</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="21">
+      <c r="C110" s="20">
         <v>44430</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="75" customHeight="1">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="38" t="s">
         <v>67</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="21">
+      <c r="C111" s="20">
         <v>44430</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="75" customHeight="1">
-      <c r="A112" s="13" t="s">
+      <c r="A112" s="38" t="s">
         <v>66</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="21">
+      <c r="C112" s="20">
         <v>44430</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="75" customHeight="1">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="21">
+      <c r="C113" s="20">
         <v>44431</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="75" customHeight="1">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="38" t="s">
         <v>63</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="21">
+      <c r="C114" s="20">
         <v>44431</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="75" customHeight="1">
-      <c r="A115" s="13" t="s">
+      <c r="A115" s="38" t="s">
         <v>64</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="21">
+      <c r="C115" s="20">
         <v>44431</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="75" customHeight="1">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="38" t="s">
         <v>70</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C116" s="21">
+      <c r="C116" s="20">
         <v>44432</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="75" customHeight="1">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="38" t="s">
         <v>72</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="21">
+      <c r="C117" s="20">
         <v>44432</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="75" customHeight="1">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="38" t="s">
         <v>73</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="21">
+      <c r="C118" s="20">
         <v>44432</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="75" customHeight="1">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="38" t="s">
         <v>74</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C119" s="21">
+      <c r="C119" s="20">
         <v>44432</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="75" customHeight="1">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="38" t="s">
         <v>76</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C120" s="21">
+      <c r="C120" s="20">
         <v>44432</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="75" customHeight="1">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="38" t="s">
         <v>77</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C121" s="21">
+      <c r="C121" s="20">
         <v>44432</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="75" customHeight="1">
-      <c r="A122" s="13" t="s">
+      <c r="A122" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C122" s="21">
+      <c r="C122" s="20">
         <v>44432</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="75" customHeight="1">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="38" t="s">
         <v>80</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C123" s="21">
+      <c r="C123" s="20">
         <v>44432</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="75" customHeight="1">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="38" t="s">
         <v>81</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C124" s="21">
+      <c r="C124" s="20">
         <v>44432</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="75" customHeight="1">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="38" t="s">
         <v>82</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C125" s="21">
+      <c r="C125" s="20">
         <v>44432</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="75" customHeight="1">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="38" t="s">
         <v>83</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C126" s="21">
+      <c r="C126" s="20">
         <v>44432</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="75" customHeight="1">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="38" t="s">
         <v>84</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C127" s="21">
+      <c r="C127" s="20">
         <v>44433</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="75" customHeight="1">
-      <c r="A128" s="13" t="s">
+      <c r="A128" s="38" t="s">
         <v>85</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C128" s="21">
+      <c r="C128" s="20">
         <v>44433</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="75" customHeight="1">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="38" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C129" s="21">
+      <c r="C129" s="20">
         <v>44433</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="75" customHeight="1">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="38" t="s">
         <v>87</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C130" s="21">
+      <c r="C130" s="20">
         <v>44433</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="75" customHeight="1">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="38" t="s">
         <v>88</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="21">
+      <c r="C131" s="20">
         <v>44433</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="75" customHeight="1">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="38" t="s">
         <v>89</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C132" s="21">
+      <c r="C132" s="20">
         <v>44433</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="75" customHeight="1">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="38" t="s">
         <v>90</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C133" s="21">
+      <c r="C133" s="20">
         <v>44433</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="75" customHeight="1">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="38" t="s">
         <v>91</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C134" s="21">
+      <c r="C134" s="20">
         <v>44433</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="75" customHeight="1">
-      <c r="A135" s="13" t="s">
+      <c r="A135" s="38" t="s">
         <v>92</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C135" s="21">
+      <c r="C135" s="20">
         <v>44434</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="75" customHeight="1">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="38" t="s">
         <v>93</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C136" s="21">
+      <c r="C136" s="20">
         <v>44434</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="75" customHeight="1">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="38" t="s">
         <v>95</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C137" s="21">
+      <c r="C137" s="20">
         <v>44434</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="75" customHeight="1">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="38" t="s">
         <v>96</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="21">
+      <c r="C138" s="20">
         <v>44434</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="75" customHeight="1">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="38" t="s">
         <v>97</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C139" s="21">
+      <c r="C139" s="20">
         <v>44434</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="75" customHeight="1">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="38" t="s">
         <v>98</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C140" s="21">
+      <c r="C140" s="20">
         <v>44434</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="75" customHeight="1">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="38" t="s">
         <v>99</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C141" s="21">
+      <c r="C141" s="20">
         <v>44434</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="75" customHeight="1">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="38" t="s">
         <v>100</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C142" s="21">
+      <c r="C142" s="20">
         <v>44434</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="75" customHeight="1">
-      <c r="A143" s="13" t="s">
+      <c r="A143" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C143" s="21">
+      <c r="C143" s="20">
         <v>44435</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="75" customHeight="1">
-      <c r="A144" s="13" t="s">
+      <c r="A144" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C144" s="21">
+      <c r="C144" s="20">
         <v>44436</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="75" customHeight="1">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C145" s="21">
+      <c r="C145" s="20">
         <v>44436</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="75" customHeight="1">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C146" s="21">
+      <c r="C146" s="20">
         <v>44436</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="75" customHeight="1">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C147" s="21">
+      <c r="C147" s="20">
         <v>44436</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="75" customHeight="1">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C148" s="21">
+      <c r="C148" s="20">
         <v>44436</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="75" customHeight="1">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C149" s="21">
+      <c r="C149" s="20">
         <v>44436</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="75" customHeight="1">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C150" s="21">
+      <c r="C150" s="20">
         <v>44436</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="75" customHeight="1">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C151" s="21">
+      <c r="C151" s="20">
         <v>44437</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="75" customHeight="1">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C152" s="21">
+      <c r="C152" s="20">
         <v>44437</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="75" customHeight="1">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C153" s="22">
+      <c r="C153" s="21">
         <v>44437</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="75" customHeight="1">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C154" s="22">
+      <c r="C154" s="21">
         <v>44438</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="75" customHeight="1">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C155" s="22">
+      <c r="C155" s="21">
         <v>44438</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="75" customHeight="1">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C156" s="22">
+      <c r="C156" s="21">
         <v>44438</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="75" customHeight="1">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C157" s="22">
+      <c r="C157" s="21">
         <v>44438</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="75" customHeight="1">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C158" s="22">
+      <c r="C158" s="21">
         <v>44438</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="75" customHeight="1">
-      <c r="A159" s="13" t="s">
+      <c r="A159" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C159" s="22">
+      <c r="C159" s="21">
         <v>44439</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="75" customHeight="1">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C160" s="22">
+      <c r="C160" s="21">
         <v>44439</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="75" customHeight="1">
-      <c r="A161" s="13" t="s">
+      <c r="A161" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C161" s="22">
+      <c r="C161" s="21">
         <v>44439</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="75" customHeight="1">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C162" s="22">
+      <c r="C162" s="21">
         <v>44439</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="75" customHeight="1">
-      <c r="A163" s="13" t="s">
+      <c r="A163" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C163" s="22">
+      <c r="C163" s="21">
         <v>44439</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="75" customHeight="1">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C164" s="22">
+      <c r="C164" s="21">
         <v>44439</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="75" customHeight="1">
-      <c r="A165" s="13" t="s">
+      <c r="A165" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C165" s="22">
+      <c r="C165" s="21">
         <v>44439</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="75" customHeight="1">
-      <c r="A166" s="13" t="s">
+      <c r="A166" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C166" s="21">
+      <c r="C166" s="20">
         <v>44440</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="75" customHeight="1">
-      <c r="A167" s="13" t="s">
+      <c r="A167" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C167" s="21">
+      <c r="C167" s="20">
         <v>44440</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="75" customHeight="1">
-      <c r="A168" s="13" t="s">
+      <c r="A168" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C168" s="21">
+      <c r="C168" s="20">
         <v>44440</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="75" customHeight="1">
-      <c r="A169" s="13" t="s">
+      <c r="A169" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="C169" s="21">
+      <c r="C169" s="20">
         <v>44440</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="75" customHeight="1">
-      <c r="A170" s="13" t="s">
+      <c r="A170" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="C170" s="21">
+      <c r="C170" s="20">
         <v>44440</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="75" customHeight="1">
-      <c r="A171" s="13" t="s">
+      <c r="A171" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C171" s="21">
+      <c r="C171" s="20">
         <v>44440</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="75" customHeight="1">
-      <c r="A172" s="13" t="s">
+      <c r="A172" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C172" s="21">
+      <c r="C172" s="20">
         <v>44440</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="75" customHeight="1">
-      <c r="A173" s="13" t="s">
+      <c r="A173" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C173" s="21">
+      <c r="C173" s="20">
         <v>44440</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="75" customHeight="1">
-      <c r="A174" s="13" t="s">
+      <c r="A174" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C174" s="21">
+      <c r="C174" s="20">
         <v>44440</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="75" customHeight="1">
-      <c r="A175" s="13" t="s">
+      <c r="A175" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C175" s="21">
+      <c r="C175" s="20">
         <v>44440</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="75" customHeight="1">
-      <c r="A176" s="13" t="s">
+      <c r="A176" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C176" s="21">
+      <c r="C176" s="20">
         <v>44440</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="75" customHeight="1">
-      <c r="A177" s="13" t="s">
+      <c r="A177" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C177" s="21">
+      <c r="C177" s="20">
         <v>44440</v>
       </c>
     </row>
     <row r="178" spans="1:6" s="2" customFormat="1" ht="75" customHeight="1">
-      <c r="A178" s="13"/>
-      <c r="C178" s="21">
+      <c r="A178" s="38"/>
+      <c r="C178" s="20">
         <v>44441</v>
       </c>
       <c r="D178" s="12"/>
     </row>
     <row r="179" spans="1:6" s="2" customFormat="1" ht="75" customHeight="1">
-      <c r="A179" s="13"/>
-      <c r="C179" s="21">
+      <c r="A179" s="38"/>
+      <c r="C179" s="20">
         <v>44442</v>
       </c>
       <c r="D179" s="12"/>
     </row>
     <row r="180" spans="1:6" s="2" customFormat="1" ht="75" customHeight="1">
-      <c r="A180" s="13"/>
-      <c r="C180" s="21">
+      <c r="A180" s="38"/>
+      <c r="C180" s="20">
         <v>44443</v>
       </c>
       <c r="D180" s="12"/>
     </row>
     <row r="181" spans="1:6" s="2" customFormat="1" ht="75" customHeight="1">
-      <c r="A181" s="13"/>
-      <c r="C181" s="21">
+      <c r="A181" s="38"/>
+      <c r="C181" s="20">
         <v>44444</v>
       </c>
       <c r="D181" s="12"/>
     </row>
     <row r="182" spans="1:6" ht="75" customHeight="1">
-      <c r="C182" s="21">
+      <c r="C182" s="20">
         <v>44445</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="75" customHeight="1">
-      <c r="C183" s="22">
+      <c r="C183" s="21">
         <v>44446</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="14" customFormat="1" ht="75" customHeight="1">
-      <c r="A184" s="19" t="s">
+      <c r="A184" s="18" t="s">
         <v>136</v>
       </c>
       <c r="B184" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C184" s="23" t="s">
+      <c r="C184" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="D184" s="20" t="s">
+      <c r="D184" s="19" t="s">
         <v>285</v>
       </c>
       <c r="E184" s="14" t="s">
@@ -4955,13 +5182,13 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="75" customHeight="1">
-      <c r="A185" s="13" t="s">
+      <c r="A185" s="38" t="s">
         <v>287</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C185" s="22">
+      <c r="C185" s="21">
         <v>44447</v>
       </c>
       <c r="D185" s="12" t="s">
@@ -4972,13 +5199,13 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="75" customHeight="1">
-      <c r="A186" s="13" t="s">
+      <c r="A186" s="38" t="s">
         <v>141</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C186" s="22">
+      <c r="C186" s="21">
         <v>44447</v>
       </c>
       <c r="D186" s="12" t="s">
@@ -4986,13 +5213,13 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="75" customHeight="1">
-      <c r="A187" s="13" t="s">
+      <c r="A187" s="38" t="s">
         <v>142</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C187" s="22">
+      <c r="C187" s="21">
         <v>44447</v>
       </c>
       <c r="D187" s="12" t="s">
@@ -5000,13 +5227,13 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="75" customHeight="1">
-      <c r="A188" s="13" t="s">
+      <c r="A188" s="38" t="s">
         <v>291</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C188" s="22">
+      <c r="C188" s="21">
         <v>44447</v>
       </c>
       <c r="D188" s="12" t="s">
@@ -5014,13 +5241,13 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="75" customHeight="1">
-      <c r="A189" s="13" t="s">
+      <c r="A189" s="38" t="s">
         <v>147</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C189" s="22">
+      <c r="C189" s="21">
         <v>44447</v>
       </c>
       <c r="D189" s="6" t="s">
@@ -5028,13 +5255,13 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="75" customHeight="1">
-      <c r="A190" s="13" t="s">
+      <c r="A190" s="38" t="s">
         <v>149</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C190" s="22">
+      <c r="C190" s="21">
         <v>44447</v>
       </c>
       <c r="D190" s="12" t="s">
@@ -5042,13 +5269,13 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="75" customHeight="1">
-      <c r="A191" s="13" t="s">
+      <c r="A191" s="38" t="s">
         <v>152</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C191" s="22">
+      <c r="C191" s="21">
         <v>44447</v>
       </c>
       <c r="D191" s="12" t="s">
@@ -5056,13 +5283,13 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="75" customHeight="1">
-      <c r="A192" s="13" t="s">
+      <c r="A192" s="38" t="s">
         <v>154</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C192" s="22">
+      <c r="C192" s="21">
         <v>44447</v>
       </c>
       <c r="D192" s="12" t="s">
@@ -5070,13 +5297,13 @@
       </c>
     </row>
     <row r="193" spans="1:4" ht="75" customHeight="1">
-      <c r="A193" s="13" t="s">
+      <c r="A193" s="38" t="s">
         <v>156</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C193" s="22">
+      <c r="C193" s="21">
         <v>44447</v>
       </c>
       <c r="D193" s="12" t="s">
@@ -5084,13 +5311,13 @@
       </c>
     </row>
     <row r="194" spans="1:4" ht="75" customHeight="1">
-      <c r="A194" s="13" t="s">
+      <c r="A194" s="38" t="s">
         <v>159</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C194" s="21">
+      <c r="C194" s="20">
         <v>44448</v>
       </c>
       <c r="D194" s="12" t="s">
@@ -5098,13 +5325,13 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="75" customHeight="1">
-      <c r="A195" s="13" t="s">
+      <c r="A195" s="38" t="s">
         <v>161</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C195" s="21">
+      <c r="C195" s="20">
         <v>44448</v>
       </c>
       <c r="D195" s="12" t="s">
@@ -5112,13 +5339,13 @@
       </c>
     </row>
     <row r="196" spans="1:4" ht="75" customHeight="1">
-      <c r="A196" s="13" t="s">
+      <c r="A196" s="38" t="s">
         <v>164</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C196" s="21">
+      <c r="C196" s="20">
         <v>44448</v>
       </c>
       <c r="D196" s="12" t="s">
@@ -5126,13 +5353,13 @@
       </c>
     </row>
     <row r="197" spans="1:4" ht="75" customHeight="1">
-      <c r="A197" s="13" t="s">
+      <c r="A197" s="38" t="s">
         <v>167</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C197" s="21">
+      <c r="C197" s="20">
         <v>44448</v>
       </c>
       <c r="D197" s="12" t="s">
@@ -5140,13 +5367,13 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="75" customHeight="1">
-      <c r="A198" s="13" t="s">
+      <c r="A198" s="38" t="s">
         <v>171</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C198" s="21">
+      <c r="C198" s="20">
         <v>44448</v>
       </c>
       <c r="D198" s="12" t="s">
@@ -5154,13 +5381,13 @@
       </c>
     </row>
     <row r="199" spans="1:4" ht="75" customHeight="1">
-      <c r="A199" s="13" t="s">
+      <c r="A199" s="38" t="s">
         <v>176</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C199" s="21">
+      <c r="C199" s="20">
         <v>44448</v>
       </c>
       <c r="D199" s="12" t="s">
@@ -5168,13 +5395,13 @@
       </c>
     </row>
     <row r="200" spans="1:4" ht="94" customHeight="1">
-      <c r="A200" s="13" t="s">
+      <c r="A200" s="38" t="s">
         <v>175</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C200" s="21">
+      <c r="C200" s="20">
         <v>44448</v>
       </c>
       <c r="D200" s="12" t="s">
@@ -5182,13 +5409,13 @@
       </c>
     </row>
     <row r="201" spans="1:4" ht="75" customHeight="1">
-      <c r="A201" s="13" t="s">
+      <c r="A201" s="38" t="s">
         <v>178</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C201" s="21">
+      <c r="C201" s="20">
         <v>44448</v>
       </c>
       <c r="D201" s="12" t="s">
@@ -5196,13 +5423,13 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="75" customHeight="1">
-      <c r="A202" s="13" t="s">
+      <c r="A202" s="38" t="s">
         <v>181</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C202" s="21">
+      <c r="C202" s="20">
         <v>44448</v>
       </c>
       <c r="D202" s="12" t="s">
@@ -5210,13 +5437,13 @@
       </c>
     </row>
     <row r="203" spans="1:4" ht="75" customHeight="1">
-      <c r="A203" s="13" t="s">
+      <c r="A203" s="38" t="s">
         <v>183</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C203" s="21">
+      <c r="C203" s="20">
         <v>44448</v>
       </c>
       <c r="D203" s="12" t="s">
@@ -5224,13 +5451,13 @@
       </c>
     </row>
     <row r="204" spans="1:4" ht="75" customHeight="1">
-      <c r="A204" s="13" t="s">
+      <c r="A204" s="38" t="s">
         <v>186</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C204" s="21">
+      <c r="C204" s="20">
         <v>44449</v>
       </c>
       <c r="D204" s="12" t="s">
@@ -5238,13 +5465,13 @@
       </c>
     </row>
     <row r="205" spans="1:4" ht="75" customHeight="1">
-      <c r="A205" s="13" t="s">
+      <c r="A205" s="38" t="s">
         <v>189</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C205" s="21">
+      <c r="C205" s="20">
         <v>44449</v>
       </c>
       <c r="D205" s="12" t="s">
@@ -5252,13 +5479,13 @@
       </c>
     </row>
     <row r="206" spans="1:4" ht="75" customHeight="1">
-      <c r="A206" s="13" t="s">
+      <c r="A206" s="38" t="s">
         <v>192</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C206" s="22">
+      <c r="C206" s="21">
         <v>44449</v>
       </c>
       <c r="D206" s="12" t="s">
@@ -5266,13 +5493,13 @@
       </c>
     </row>
     <row r="207" spans="1:4" ht="75" customHeight="1">
-      <c r="A207" s="13" t="s">
+      <c r="A207" s="38" t="s">
         <v>194</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C207" s="22">
+      <c r="C207" s="21">
         <v>44449</v>
       </c>
       <c r="D207" s="12" t="s">
@@ -5280,13 +5507,13 @@
       </c>
     </row>
     <row r="208" spans="1:4" ht="75" customHeight="1">
-      <c r="A208" s="13" t="s">
+      <c r="A208" s="38" t="s">
         <v>196</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C208" s="22">
+      <c r="C208" s="21">
         <v>44449</v>
       </c>
       <c r="D208" s="12" t="s">
@@ -5294,18 +5521,18 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="75" customHeight="1">
-      <c r="A209" s="13" t="s">
+      <c r="A209" s="38" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="75" customHeight="1">
-      <c r="A210" s="13" t="s">
+      <c r="A210" s="38" t="s">
         <v>200</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C210" s="22">
+      <c r="C210" s="21">
         <v>44449</v>
       </c>
       <c r="D210" s="12" t="s">
@@ -5313,13 +5540,13 @@
       </c>
     </row>
     <row r="211" spans="1:6" ht="75" customHeight="1">
-      <c r="A211" s="13" t="s">
+      <c r="A211" s="38" t="s">
         <v>201</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C211" s="22">
+      <c r="C211" s="21">
         <v>44449</v>
       </c>
       <c r="D211" s="12" t="s">
@@ -5327,13 +5554,13 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="75" customHeight="1">
-      <c r="A212" s="13" t="s">
+      <c r="A212" s="38" t="s">
         <v>204</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C212" s="22">
+      <c r="C212" s="21">
         <v>44449</v>
       </c>
       <c r="D212" s="12" t="s">
@@ -5341,13 +5568,13 @@
       </c>
     </row>
     <row r="213" spans="1:6" ht="75" customHeight="1">
-      <c r="A213" s="13" t="s">
+      <c r="A213" s="38" t="s">
         <v>210</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C213" s="22">
+      <c r="C213" s="21">
         <v>44450</v>
       </c>
       <c r="D213" s="12" t="s">
@@ -5355,13 +5582,13 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="75" customHeight="1">
-      <c r="A214" s="13" t="s">
+      <c r="A214" s="38" t="s">
         <v>212</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C214" s="22">
+      <c r="C214" s="21">
         <v>44450</v>
       </c>
       <c r="D214" s="12" t="s">
@@ -5369,13 +5596,13 @@
       </c>
     </row>
     <row r="215" spans="1:6" ht="75" customHeight="1">
-      <c r="A215" s="13" t="s">
+      <c r="A215" s="38" t="s">
         <v>215</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C215" s="22">
+      <c r="C215" s="21">
         <v>44450</v>
       </c>
       <c r="D215" s="12" t="s">
@@ -5383,13 +5610,13 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="75" customHeight="1">
-      <c r="A216" s="13" t="s">
+      <c r="A216" s="38" t="s">
         <v>218</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C216" s="22">
+      <c r="C216" s="21">
         <v>44450</v>
       </c>
       <c r="D216" s="12" t="s">
@@ -5397,13 +5624,13 @@
       </c>
     </row>
     <row r="217" spans="1:6" ht="75" customHeight="1">
-      <c r="A217" s="13" t="s">
+      <c r="A217" s="38" t="s">
         <v>219</v>
       </c>
       <c r="B217" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C217" s="22">
+      <c r="C217" s="21">
         <v>44450</v>
       </c>
       <c r="D217" s="12" t="s">
@@ -5411,13 +5638,13 @@
       </c>
     </row>
     <row r="218" spans="1:6" ht="75" customHeight="1">
-      <c r="A218" s="13" t="s">
+      <c r="A218" s="38" t="s">
         <v>221</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C218" s="22">
+      <c r="C218" s="21">
         <v>44451</v>
       </c>
       <c r="D218" s="12" t="s">
@@ -5425,13 +5652,13 @@
       </c>
     </row>
     <row r="219" spans="1:6" ht="75" customHeight="1">
-      <c r="A219" s="13" t="s">
+      <c r="A219" s="38" t="s">
         <v>223</v>
       </c>
       <c r="B219" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C219" s="22">
+      <c r="C219" s="21">
         <v>44451</v>
       </c>
       <c r="D219" s="12" t="s">
@@ -5439,13 +5666,13 @@
       </c>
     </row>
     <row r="220" spans="1:6" ht="75" customHeight="1">
-      <c r="A220" s="13" t="s">
+      <c r="A220" s="38" t="s">
         <v>227</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C220" s="22">
+      <c r="C220" s="21">
         <v>44451</v>
       </c>
       <c r="D220" s="12" t="s">
@@ -5453,13 +5680,13 @@
       </c>
     </row>
     <row r="221" spans="1:6" ht="75" customHeight="1">
-      <c r="A221" s="13" t="s">
+      <c r="A221" s="38" t="s">
         <v>226</v>
       </c>
       <c r="B221" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C221" s="22">
+      <c r="C221" s="21">
         <v>44451</v>
       </c>
       <c r="D221" s="12" t="s">
@@ -5470,13 +5697,13 @@
       </c>
     </row>
     <row r="222" spans="1:6" ht="75" customHeight="1">
-      <c r="A222" s="13" t="s">
+      <c r="A222" s="38" t="s">
         <v>230</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C222" s="22">
+      <c r="C222" s="21">
         <v>44451</v>
       </c>
       <c r="D222" s="12" t="s">
@@ -5484,13 +5711,13 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="75" customHeight="1">
-      <c r="A223" s="13" t="s">
+      <c r="A223" s="38" t="s">
         <v>233</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C223" s="22">
+      <c r="C223" s="21">
         <v>44451</v>
       </c>
       <c r="D223" s="12" t="s">
@@ -5498,13 +5725,13 @@
       </c>
     </row>
     <row r="224" spans="1:6" ht="75" customHeight="1">
-      <c r="A224" s="13" t="s">
+      <c r="A224" s="38" t="s">
         <v>235</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C224" s="22">
+      <c r="C224" s="21">
         <v>44451</v>
       </c>
       <c r="D224" s="12" t="s">
@@ -5512,13 +5739,13 @@
       </c>
     </row>
     <row r="225" spans="1:4" ht="75" customHeight="1">
-      <c r="A225" s="13" t="s">
+      <c r="A225" s="38" t="s">
         <v>237</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C225" s="22">
+      <c r="C225" s="21">
         <v>44451</v>
       </c>
       <c r="D225" s="12" t="s">
@@ -5526,13 +5753,13 @@
       </c>
     </row>
     <row r="226" spans="1:4" ht="75" customHeight="1">
-      <c r="A226" s="13" t="s">
+      <c r="A226" s="38" t="s">
         <v>239</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C226" s="22">
+      <c r="C226" s="21">
         <v>44451</v>
       </c>
       <c r="D226" s="12" t="s">
@@ -5540,13 +5767,13 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="75" customHeight="1">
-      <c r="A227" s="13" t="s">
+      <c r="A227" s="38" t="s">
         <v>241</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C227" s="22">
+      <c r="C227" s="21">
         <v>44451</v>
       </c>
       <c r="D227" s="12" t="s">
@@ -5554,13 +5781,13 @@
       </c>
     </row>
     <row r="228" spans="1:4" ht="75" customHeight="1">
-      <c r="A228" s="13" t="s">
+      <c r="A228" s="38" t="s">
         <v>242</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C228" s="22">
+      <c r="C228" s="21">
         <v>44452</v>
       </c>
       <c r="D228" s="12" t="s">
@@ -5568,13 +5795,13 @@
       </c>
     </row>
     <row r="229" spans="1:4" ht="75" customHeight="1">
-      <c r="A229" s="13" t="s">
+      <c r="A229" s="38" t="s">
         <v>244</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C229" s="22">
+      <c r="C229" s="21">
         <v>44452</v>
       </c>
       <c r="D229" s="12" t="s">
@@ -5582,13 +5809,13 @@
       </c>
     </row>
     <row r="230" spans="1:4" ht="75" customHeight="1">
-      <c r="A230" s="13" t="s">
+      <c r="A230" s="38" t="s">
         <v>249</v>
       </c>
       <c r="B230" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C230" s="22">
+      <c r="C230" s="21">
         <v>44453</v>
       </c>
       <c r="D230" s="12" t="s">
@@ -5596,13 +5823,13 @@
       </c>
     </row>
     <row r="231" spans="1:4" ht="98" customHeight="1">
-      <c r="A231" s="13" t="s">
+      <c r="A231" s="38" t="s">
         <v>251</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C231" s="22">
+      <c r="C231" s="21">
         <v>44453</v>
       </c>
       <c r="D231" s="12" t="s">
@@ -5610,13 +5837,13 @@
       </c>
     </row>
     <row r="232" spans="1:4" ht="75" customHeight="1">
-      <c r="A232" s="13" t="s">
+      <c r="A232" s="38" t="s">
         <v>254</v>
       </c>
       <c r="B232" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C232" s="22">
+      <c r="C232" s="21">
         <v>44453</v>
       </c>
       <c r="D232" s="12" t="s">
@@ -5624,13 +5851,13 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="75" customHeight="1">
-      <c r="A233" s="13" t="s">
+      <c r="A233" s="38" t="s">
         <v>257</v>
       </c>
       <c r="B233" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C233" s="22">
+      <c r="C233" s="21">
         <v>44453</v>
       </c>
       <c r="D233" s="12" t="s">
@@ -5638,13 +5865,13 @@
       </c>
     </row>
     <row r="234" spans="1:4" ht="75" customHeight="1">
-      <c r="A234" s="13" t="s">
+      <c r="A234" s="38" t="s">
         <v>258</v>
       </c>
       <c r="B234" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C234" s="22">
+      <c r="C234" s="21">
         <v>44453</v>
       </c>
       <c r="D234" s="12" t="s">
@@ -5652,13 +5879,13 @@
       </c>
     </row>
     <row r="235" spans="1:4" ht="75" customHeight="1">
-      <c r="A235" s="13" t="s">
+      <c r="A235" s="38" t="s">
         <v>259</v>
       </c>
       <c r="B235" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C235" s="22">
+      <c r="C235" s="21">
         <v>44453</v>
       </c>
       <c r="D235" s="12" t="s">
@@ -5666,13 +5893,13 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="75" customHeight="1">
-      <c r="A236" s="13" t="s">
+      <c r="A236" s="38" t="s">
         <v>261</v>
       </c>
       <c r="B236" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C236" s="22">
+      <c r="C236" s="21">
         <v>44453</v>
       </c>
       <c r="D236" s="12" t="s">
@@ -5680,13 +5907,13 @@
       </c>
     </row>
     <row r="237" spans="1:4" ht="75" customHeight="1">
-      <c r="A237" s="13" t="s">
+      <c r="A237" s="38" t="s">
         <v>262</v>
       </c>
       <c r="B237" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C237" s="22">
+      <c r="C237" s="21">
         <v>44453</v>
       </c>
       <c r="D237" s="12" t="s">
@@ -5694,13 +5921,13 @@
       </c>
     </row>
     <row r="238" spans="1:4" ht="75" customHeight="1">
-      <c r="A238" s="13" t="s">
+      <c r="A238" s="38" t="s">
         <v>265</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C238" s="22">
+      <c r="C238" s="21">
         <v>44453</v>
       </c>
       <c r="D238" s="12" t="s">
@@ -5708,13 +5935,13 @@
       </c>
     </row>
     <row r="239" spans="1:4" ht="75" customHeight="1">
-      <c r="A239" s="13" t="s">
+      <c r="A239" s="38" t="s">
         <v>269</v>
       </c>
       <c r="B239" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C239" s="22">
+      <c r="C239" s="21">
         <v>44453</v>
       </c>
       <c r="D239" s="12" t="s">
@@ -5722,13 +5949,13 @@
       </c>
     </row>
     <row r="240" spans="1:4" ht="75" customHeight="1">
-      <c r="A240" s="13" t="s">
+      <c r="A240" s="38" t="s">
         <v>271</v>
       </c>
       <c r="B240" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C240" s="22">
+      <c r="C240" s="21">
         <v>44453</v>
       </c>
       <c r="D240" s="12" t="s">
@@ -5736,13 +5963,13 @@
       </c>
     </row>
     <row r="241" spans="1:6" ht="75" customHeight="1">
-      <c r="A241" s="13" t="s">
+      <c r="A241" s="38" t="s">
         <v>273</v>
       </c>
       <c r="B241" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C241" s="22">
+      <c r="C241" s="21">
         <v>44454</v>
       </c>
       <c r="D241" s="12" t="s">
@@ -5750,13 +5977,13 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="75" customHeight="1">
-      <c r="A242" s="13" t="s">
+      <c r="A242" s="38" t="s">
         <v>276</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C242" s="22">
+      <c r="C242" s="21">
         <v>44454</v>
       </c>
       <c r="D242" s="12" t="s">
@@ -5764,13 +5991,13 @@
       </c>
     </row>
     <row r="243" spans="1:6" ht="75" customHeight="1">
-      <c r="A243" s="13" t="s">
+      <c r="A243" s="38" t="s">
         <v>279</v>
       </c>
       <c r="B243" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C243" s="22">
+      <c r="C243" s="21">
         <v>44454</v>
       </c>
       <c r="D243" s="12" t="s">
@@ -5778,13 +6005,13 @@
       </c>
     </row>
     <row r="244" spans="1:6" ht="75" customHeight="1">
-      <c r="A244" s="13" t="s">
+      <c r="A244" s="38" t="s">
         <v>282</v>
       </c>
       <c r="B244" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C244" s="22">
+      <c r="C244" s="21">
         <v>44454</v>
       </c>
       <c r="D244" s="12" t="s">
@@ -5792,13 +6019,13 @@
       </c>
     </row>
     <row r="245" spans="1:6" ht="75" customHeight="1">
-      <c r="A245" s="13" t="s">
+      <c r="A245" s="38" t="s">
         <v>283</v>
       </c>
       <c r="B245" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C245" s="22">
+      <c r="C245" s="21">
         <v>44454</v>
       </c>
       <c r="D245" s="12" t="s">
@@ -5806,13 +6033,13 @@
       </c>
     </row>
     <row r="246" spans="1:6" ht="75" customHeight="1">
-      <c r="A246" s="13" t="s">
+      <c r="A246" s="38" t="s">
         <v>292</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C246" s="21">
+      <c r="C246" s="20">
         <v>44455</v>
       </c>
       <c r="D246" s="12" t="s">
@@ -5820,13 +6047,13 @@
       </c>
     </row>
     <row r="247" spans="1:6" ht="75" customHeight="1">
-      <c r="A247" s="13" t="s">
+      <c r="A247" s="38" t="s">
         <v>294</v>
       </c>
       <c r="B247" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C247" s="21">
+      <c r="C247" s="20">
         <v>44455</v>
       </c>
       <c r="D247" s="12" t="s">
@@ -5834,13 +6061,13 @@
       </c>
     </row>
     <row r="248" spans="1:6" ht="75" customHeight="1">
-      <c r="A248" s="13" t="s">
+      <c r="A248" s="38" t="s">
         <v>298</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C248" s="21">
+      <c r="C248" s="20">
         <v>44455</v>
       </c>
       <c r="D248" s="12" t="s">
@@ -5848,13 +6075,13 @@
       </c>
     </row>
     <row r="249" spans="1:6" ht="75" customHeight="1">
-      <c r="A249" s="13" t="s">
+      <c r="A249" s="38" t="s">
         <v>300</v>
       </c>
       <c r="B249" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C249" s="21">
+      <c r="C249" s="20">
         <v>44455</v>
       </c>
       <c r="D249" s="12" t="s">
@@ -5865,13 +6092,13 @@
       </c>
     </row>
     <row r="250" spans="1:6" ht="75" customHeight="1">
-      <c r="A250" s="13" t="s">
+      <c r="A250" s="38" t="s">
         <v>303</v>
       </c>
       <c r="B250" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C250" s="21">
+      <c r="C250" s="20">
         <v>44455</v>
       </c>
       <c r="D250" s="12" t="s">
@@ -5879,13 +6106,13 @@
       </c>
     </row>
     <row r="251" spans="1:6" ht="75" customHeight="1">
-      <c r="A251" s="13" t="s">
+      <c r="A251" s="38" t="s">
         <v>304</v>
       </c>
       <c r="B251" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C251" s="21">
+      <c r="C251" s="20">
         <v>44455</v>
       </c>
       <c r="D251" s="12" t="s">
@@ -5893,13 +6120,13 @@
       </c>
     </row>
     <row r="252" spans="1:6" ht="75" customHeight="1">
-      <c r="A252" s="13" t="s">
+      <c r="A252" s="38" t="s">
         <v>305</v>
       </c>
       <c r="B252" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C252" s="21">
+      <c r="C252" s="20">
         <v>44455</v>
       </c>
       <c r="D252" s="12" t="s">
@@ -5907,13 +6134,13 @@
       </c>
     </row>
     <row r="253" spans="1:6" ht="75" customHeight="1">
-      <c r="A253" s="13" t="s">
+      <c r="A253" s="38" t="s">
         <v>308</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C253" s="21">
+      <c r="C253" s="20">
         <v>44455</v>
       </c>
       <c r="D253" s="12" t="s">
@@ -5921,13 +6148,13 @@
       </c>
     </row>
     <row r="254" spans="1:6" ht="75" customHeight="1">
-      <c r="A254" s="13" t="s">
+      <c r="A254" s="38" t="s">
         <v>311</v>
       </c>
       <c r="B254" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C254" s="21">
+      <c r="C254" s="20">
         <v>44455</v>
       </c>
       <c r="D254" s="12" t="s">
@@ -5935,13 +6162,13 @@
       </c>
     </row>
     <row r="255" spans="1:6" ht="75" customHeight="1">
-      <c r="A255" s="13" t="s">
+      <c r="A255" s="38" t="s">
         <v>313</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C255" s="21">
+      <c r="C255" s="20">
         <v>44455</v>
       </c>
       <c r="D255" s="12" t="s">
@@ -5949,13 +6176,13 @@
       </c>
     </row>
     <row r="256" spans="1:6" ht="75" customHeight="1">
-      <c r="A256" s="13" t="s">
+      <c r="A256" s="38" t="s">
         <v>314</v>
       </c>
       <c r="B256" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C256" s="21">
+      <c r="C256" s="20">
         <v>44455</v>
       </c>
       <c r="D256" s="12" t="s">
@@ -5963,13 +6190,13 @@
       </c>
     </row>
     <row r="257" spans="1:4" ht="75" customHeight="1">
-      <c r="A257" s="13" t="s">
+      <c r="A257" s="38" t="s">
         <v>317</v>
       </c>
       <c r="B257" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C257" s="21">
+      <c r="C257" s="20">
         <v>44455</v>
       </c>
       <c r="D257" s="12" t="s">
@@ -5977,13 +6204,13 @@
       </c>
     </row>
     <row r="258" spans="1:4" ht="75" customHeight="1">
-      <c r="A258" s="13" t="s">
+      <c r="A258" s="38" t="s">
         <v>318</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C258" s="21">
+      <c r="C258" s="20">
         <v>44455</v>
       </c>
       <c r="D258" s="12" t="s">
@@ -5991,13 +6218,13 @@
       </c>
     </row>
     <row r="259" spans="1:4" ht="175" customHeight="1">
-      <c r="A259" s="13" t="s">
+      <c r="A259" s="38" t="s">
         <v>321</v>
       </c>
       <c r="B259" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C259" s="21">
+      <c r="C259" s="20">
         <v>44456</v>
       </c>
       <c r="D259" s="12" t="s">
@@ -6005,13 +6232,13 @@
       </c>
     </row>
     <row r="260" spans="1:4" ht="75" customHeight="1">
-      <c r="A260" s="13" t="s">
+      <c r="A260" s="38" t="s">
         <v>324</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C260" s="21">
+      <c r="C260" s="20">
         <v>44456</v>
       </c>
       <c r="D260" s="12" t="s">
@@ -6019,13 +6246,13 @@
       </c>
     </row>
     <row r="261" spans="1:4" ht="75" customHeight="1">
-      <c r="A261" s="13" t="s">
+      <c r="A261" s="38" t="s">
         <v>327</v>
       </c>
       <c r="B261" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C261" s="21">
+      <c r="C261" s="20">
         <v>44456</v>
       </c>
       <c r="D261" s="12" t="s">
@@ -6033,13 +6260,13 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="75" customHeight="1">
-      <c r="A262" s="13" t="s">
+      <c r="A262" s="38" t="s">
         <v>329</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C262" s="21">
+      <c r="C262" s="20">
         <v>44456</v>
       </c>
       <c r="D262" s="12" t="s">
@@ -6047,13 +6274,13 @@
       </c>
     </row>
     <row r="263" spans="1:4" ht="75" customHeight="1">
-      <c r="A263" s="13" t="s">
+      <c r="A263" s="38" t="s">
         <v>331</v>
       </c>
       <c r="B263" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C263" s="21">
+      <c r="C263" s="20">
         <v>44456</v>
       </c>
       <c r="D263" s="12" t="s">
@@ -6061,24 +6288,24 @@
       </c>
     </row>
     <row r="264" spans="1:4" ht="75" customHeight="1">
-      <c r="A264" s="13" t="s">
+      <c r="A264" s="38" t="s">
         <v>335</v>
       </c>
       <c r="B264" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="C264" s="21" t="s">
+      <c r="C264" s="20" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="75" customHeight="1">
-      <c r="A265" s="13" t="s">
+      <c r="A265" s="38" t="s">
         <v>336</v>
       </c>
       <c r="B265" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C265" s="21">
+      <c r="C265" s="20">
         <v>44456</v>
       </c>
       <c r="D265" s="12" t="s">
@@ -6086,13 +6313,13 @@
       </c>
     </row>
     <row r="266" spans="1:4" ht="75" customHeight="1">
-      <c r="A266" s="13" t="s">
+      <c r="A266" s="38" t="s">
         <v>338</v>
       </c>
       <c r="B266" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C266" s="21">
+      <c r="C266" s="20">
         <v>44456</v>
       </c>
       <c r="D266" s="12" t="s">
@@ -6100,13 +6327,13 @@
       </c>
     </row>
     <row r="267" spans="1:4" ht="75" customHeight="1">
-      <c r="A267" s="13" t="s">
+      <c r="A267" s="38" t="s">
         <v>340</v>
       </c>
       <c r="B267" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C267" s="22">
+      <c r="C267" s="21">
         <v>44456</v>
       </c>
       <c r="D267" s="12" t="s">
@@ -6114,13 +6341,13 @@
       </c>
     </row>
     <row r="268" spans="1:4" ht="75" customHeight="1">
-      <c r="A268" s="13" t="s">
+      <c r="A268" s="38" t="s">
         <v>342</v>
       </c>
       <c r="B268" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C268" s="22">
+      <c r="C268" s="21">
         <v>44457</v>
       </c>
       <c r="D268" s="12" t="s">
@@ -6128,13 +6355,13 @@
       </c>
     </row>
     <row r="269" spans="1:4" ht="75" customHeight="1">
-      <c r="A269" s="18" t="s">
+      <c r="A269" s="38" t="s">
         <v>344</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C269" s="22">
+      <c r="C269" s="21">
         <v>44457</v>
       </c>
       <c r="D269" s="12" t="s">
@@ -6142,13 +6369,13 @@
       </c>
     </row>
     <row r="270" spans="1:4" ht="75" customHeight="1">
-      <c r="A270" s="13" t="s">
+      <c r="A270" s="38" t="s">
         <v>347</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C270" s="22">
+      <c r="C270" s="21">
         <v>44457</v>
       </c>
       <c r="D270" s="12" t="s">
@@ -6156,13 +6383,13 @@
       </c>
     </row>
     <row r="271" spans="1:4" ht="75" customHeight="1">
-      <c r="A271" s="13" t="s">
+      <c r="A271" s="38" t="s">
         <v>350</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C271" s="22">
+      <c r="C271" s="21">
         <v>44457</v>
       </c>
       <c r="D271" s="12" t="s">
@@ -6170,13 +6397,13 @@
       </c>
     </row>
     <row r="272" spans="1:4" ht="75" customHeight="1">
-      <c r="A272" s="13" t="s">
+      <c r="A272" s="38" t="s">
         <v>352</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C272" s="22">
+      <c r="C272" s="21">
         <v>44457</v>
       </c>
       <c r="D272" s="12" t="s">
@@ -6184,13 +6411,13 @@
       </c>
     </row>
     <row r="273" spans="1:4" ht="75" customHeight="1">
-      <c r="A273" s="13" t="s">
+      <c r="A273" s="38" t="s">
         <v>355</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C273" s="22">
+      <c r="C273" s="21">
         <v>44457</v>
       </c>
       <c r="D273" s="12" t="s">
@@ -6198,13 +6425,13 @@
       </c>
     </row>
     <row r="274" spans="1:4" ht="75" customHeight="1">
-      <c r="A274" s="13" t="s">
+      <c r="A274" s="38" t="s">
         <v>358</v>
       </c>
       <c r="B274" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="C274" s="22">
+      <c r="C274" s="21">
         <v>44457</v>
       </c>
       <c r="D274" s="12" t="s">
@@ -6212,13 +6439,13 @@
       </c>
     </row>
     <row r="275" spans="1:4" ht="75" customHeight="1">
-      <c r="A275" s="13" t="s">
+      <c r="A275" s="38" t="s">
         <v>360</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C275" s="27">
+      <c r="C275" s="26">
         <v>44458</v>
       </c>
       <c r="D275" s="12" t="s">
@@ -6226,13 +6453,13 @@
       </c>
     </row>
     <row r="276" spans="1:4" ht="75" customHeight="1">
-      <c r="A276" s="13" t="s">
+      <c r="A276" s="38" t="s">
         <v>363</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C276" s="27">
+      <c r="C276" s="26">
         <v>44458</v>
       </c>
       <c r="D276" s="12" t="s">
@@ -6240,13 +6467,13 @@
       </c>
     </row>
     <row r="277" spans="1:4" ht="75" customHeight="1">
-      <c r="A277" s="13" t="s">
+      <c r="A277" s="38" t="s">
         <v>366</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C277" s="27">
+      <c r="C277" s="26">
         <v>44459</v>
       </c>
       <c r="D277" s="12" t="s">
@@ -6254,13 +6481,13 @@
       </c>
     </row>
     <row r="278" spans="1:4" ht="75" customHeight="1">
-      <c r="A278" s="13" t="s">
+      <c r="A278" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="B278" s="26" t="s">
+      <c r="B278" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="C278" s="27">
+      <c r="C278" s="26">
         <v>44459</v>
       </c>
       <c r="D278" s="12" t="s">
@@ -6268,13 +6495,13 @@
       </c>
     </row>
     <row r="279" spans="1:4" ht="75" customHeight="1">
-      <c r="A279" s="13" t="s">
+      <c r="A279" s="38" t="s">
         <v>370</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C279" s="27">
+      <c r="C279" s="26">
         <v>44459</v>
       </c>
       <c r="D279" s="12" t="s">
@@ -6282,13 +6509,13 @@
       </c>
     </row>
     <row r="280" spans="1:4" ht="75" customHeight="1">
-      <c r="A280" s="13" t="s">
+      <c r="A280" s="38" t="s">
         <v>371</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C280" s="27">
+      <c r="C280" s="26">
         <v>44459</v>
       </c>
       <c r="D280" s="12" t="s">
@@ -6296,13 +6523,13 @@
       </c>
     </row>
     <row r="281" spans="1:4" ht="75" customHeight="1">
-      <c r="A281" s="13" t="s">
+      <c r="A281" s="38" t="s">
         <v>374</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C281" s="29">
+      <c r="C281" s="28">
         <v>44460</v>
       </c>
       <c r="D281" s="12" t="s">
@@ -6310,13 +6537,13 @@
       </c>
     </row>
     <row r="282" spans="1:4" ht="93" customHeight="1">
-      <c r="A282" s="13" t="s">
+      <c r="A282" s="38" t="s">
         <v>378</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C282" s="29">
+      <c r="C282" s="28">
         <v>44460</v>
       </c>
       <c r="D282" s="12" t="s">
@@ -6324,13 +6551,13 @@
       </c>
     </row>
     <row r="283" spans="1:4" ht="99" customHeight="1">
-      <c r="A283" s="13" t="s">
+      <c r="A283" s="38" t="s">
         <v>379</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C283" s="29">
+      <c r="C283" s="28">
         <v>44460</v>
       </c>
       <c r="D283" s="12" t="s">
@@ -6338,13 +6565,13 @@
       </c>
     </row>
     <row r="284" spans="1:4" ht="111" customHeight="1">
-      <c r="A284" s="13" t="s">
+      <c r="A284" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="B284" s="28" t="s">
+      <c r="B284" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="C284" s="29">
+      <c r="C284" s="28">
         <v>44460</v>
       </c>
       <c r="D284" s="12" t="s">
@@ -6352,13 +6579,13 @@
       </c>
     </row>
     <row r="285" spans="1:4" ht="75" customHeight="1">
-      <c r="A285" s="13" t="s">
+      <c r="A285" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="B285" s="28" t="s">
+      <c r="B285" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="C285" s="29">
+      <c r="C285" s="28">
         <v>44460</v>
       </c>
       <c r="D285" s="12" t="s">
@@ -6366,13 +6593,13 @@
       </c>
     </row>
     <row r="286" spans="1:4" ht="75" customHeight="1">
-      <c r="A286" s="13" t="s">
+      <c r="A286" s="38" t="s">
         <v>386</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C286" s="29">
+      <c r="C286" s="28">
         <v>44460</v>
       </c>
       <c r="D286" s="12" t="s">
@@ -6380,13 +6607,13 @@
       </c>
     </row>
     <row r="287" spans="1:4" ht="75" customHeight="1">
-      <c r="A287" s="13" t="s">
+      <c r="A287" s="38" t="s">
         <v>391</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C287" s="31">
+      <c r="C287" s="30">
         <v>44461</v>
       </c>
       <c r="D287" s="12" t="s">
@@ -6394,13 +6621,13 @@
       </c>
     </row>
     <row r="288" spans="1:4" ht="75" customHeight="1">
-      <c r="A288" s="13" t="s">
+      <c r="A288" s="38" t="s">
         <v>394</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C288" s="31">
+      <c r="C288" s="30">
         <v>44461</v>
       </c>
       <c r="D288" s="12" t="s">
@@ -6408,13 +6635,13 @@
       </c>
     </row>
     <row r="289" spans="1:4" ht="75" customHeight="1">
-      <c r="A289" s="13" t="s">
+      <c r="A289" s="38" t="s">
         <v>397</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C289" s="31">
+      <c r="C289" s="30">
         <v>44461</v>
       </c>
       <c r="D289" s="12" t="s">
@@ -6422,13 +6649,13 @@
       </c>
     </row>
     <row r="290" spans="1:4" ht="75" customHeight="1">
-      <c r="A290" s="13" t="s">
+      <c r="A290" s="38" t="s">
         <v>400</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C290" s="31">
+      <c r="C290" s="30">
         <v>44461</v>
       </c>
       <c r="D290" s="12" t="s">
@@ -6436,13 +6663,13 @@
       </c>
     </row>
     <row r="291" spans="1:4" ht="75" customHeight="1">
-      <c r="A291" s="13" t="s">
+      <c r="A291" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="B291" s="30" t="s">
+      <c r="B291" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="C291" s="31">
+      <c r="C291" s="30">
         <v>44461</v>
       </c>
       <c r="D291" s="12" t="s">
@@ -6450,13 +6677,13 @@
       </c>
     </row>
     <row r="292" spans="1:4" ht="75" customHeight="1">
-      <c r="A292" s="13" t="s">
+      <c r="A292" s="38" t="s">
         <v>404</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C292" s="31">
+      <c r="C292" s="30">
         <v>44461</v>
       </c>
       <c r="D292" s="12" t="s">
@@ -6464,13 +6691,13 @@
       </c>
     </row>
     <row r="293" spans="1:4" ht="75" customHeight="1">
-      <c r="A293" s="13" t="s">
+      <c r="A293" s="38" t="s">
         <v>406</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C293" s="22">
+      <c r="C293" s="21">
         <v>44461</v>
       </c>
       <c r="D293" s="12" t="s">
@@ -6478,13 +6705,13 @@
       </c>
     </row>
     <row r="294" spans="1:4" ht="75" customHeight="1">
-      <c r="A294" s="13" t="s">
+      <c r="A294" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="B294" s="30" t="s">
+      <c r="B294" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="C294" s="22">
+      <c r="C294" s="21">
         <v>44461</v>
       </c>
       <c r="D294" s="12" t="s">
@@ -6492,13 +6719,13 @@
       </c>
     </row>
     <row r="295" spans="1:4" ht="75" customHeight="1">
-      <c r="A295" s="13" t="s">
+      <c r="A295" s="38" t="s">
         <v>410</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C295" s="22">
+      <c r="C295" s="21">
         <v>44462</v>
       </c>
       <c r="D295" s="12" t="s">
@@ -6506,13 +6733,13 @@
       </c>
     </row>
     <row r="296" spans="1:4" ht="75" customHeight="1">
-      <c r="A296" s="13" t="s">
+      <c r="A296" s="38" t="s">
         <v>413</v>
       </c>
-      <c r="B296" s="33" t="s">
+      <c r="B296" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="C296" s="22">
+      <c r="C296" s="21">
         <v>44462</v>
       </c>
       <c r="D296" s="12" t="s">
@@ -6520,13 +6747,13 @@
       </c>
     </row>
     <row r="297" spans="1:4" ht="75" customHeight="1">
-      <c r="A297" s="13" t="s">
+      <c r="A297" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="B297" s="33" t="s">
+      <c r="B297" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="C297" s="22">
+      <c r="C297" s="21">
         <v>44462</v>
       </c>
       <c r="D297" s="12" t="s">
@@ -6534,13 +6761,13 @@
       </c>
     </row>
     <row r="298" spans="1:4" ht="75" customHeight="1">
-      <c r="A298" s="13" t="s">
+      <c r="A298" s="38" t="s">
         <v>417</v>
       </c>
-      <c r="B298" s="33" t="s">
+      <c r="B298" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="C298" s="22">
+      <c r="C298" s="21">
         <v>44462</v>
       </c>
       <c r="D298" s="12" t="s">
@@ -6548,13 +6775,13 @@
       </c>
     </row>
     <row r="299" spans="1:4" ht="75" customHeight="1">
-      <c r="A299" s="13" t="s">
+      <c r="A299" s="38" t="s">
         <v>419</v>
       </c>
-      <c r="B299" s="33" t="s">
+      <c r="B299" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="C299" s="22">
+      <c r="C299" s="21">
         <v>44462</v>
       </c>
       <c r="D299" s="12" t="s">
@@ -6562,13 +6789,13 @@
       </c>
     </row>
     <row r="300" spans="1:4" ht="75" customHeight="1">
-      <c r="A300" s="13" t="s">
+      <c r="A300" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="B300" s="33" t="s">
+      <c r="B300" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="C300" s="22">
+      <c r="C300" s="21">
         <v>44462</v>
       </c>
       <c r="D300" s="12" t="s">
@@ -6576,13 +6803,13 @@
       </c>
     </row>
     <row r="301" spans="1:4" ht="75" customHeight="1">
-      <c r="A301" s="13" t="s">
+      <c r="A301" s="38" t="s">
         <v>424</v>
       </c>
-      <c r="B301" s="33" t="s">
+      <c r="B301" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="C301" s="22">
+      <c r="C301" s="21">
         <v>44462</v>
       </c>
       <c r="D301" s="12" t="s">
@@ -6590,13 +6817,13 @@
       </c>
     </row>
     <row r="302" spans="1:4" ht="75" customHeight="1">
-      <c r="A302" s="13" t="s">
+      <c r="A302" s="38" t="s">
         <v>426</v>
       </c>
-      <c r="B302" s="33" t="s">
+      <c r="B302" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="C302" s="22">
+      <c r="C302" s="21">
         <v>44462</v>
       </c>
       <c r="D302" s="12" t="s">
@@ -6604,27 +6831,27 @@
       </c>
     </row>
     <row r="303" spans="1:4" ht="75" customHeight="1">
-      <c r="A303" s="13" t="s">
+      <c r="A303" s="38" t="s">
         <v>428</v>
       </c>
-      <c r="B303" s="33" t="s">
+      <c r="B303" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="C303" s="22">
+      <c r="C303" s="21">
         <v>44462</v>
       </c>
-      <c r="D303" s="32" t="s">
+      <c r="D303" s="31" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="75" customHeight="1">
-      <c r="A304" s="13" t="s">
+      <c r="A304" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="B304" s="33" t="s">
+      <c r="B304" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="C304" s="22">
+      <c r="C304" s="21">
         <v>44462</v>
       </c>
       <c r="D304" s="12" t="s">
@@ -6632,13 +6859,13 @@
       </c>
     </row>
     <row r="305" spans="1:4" ht="75" customHeight="1">
-      <c r="A305" s="13" t="s">
+      <c r="A305" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="B305" s="33" t="s">
+      <c r="B305" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="C305" s="22">
+      <c r="C305" s="21">
         <v>44462</v>
       </c>
       <c r="D305" s="12" t="s">
@@ -6646,13 +6873,13 @@
       </c>
     </row>
     <row r="306" spans="1:4" ht="75" customHeight="1">
-      <c r="A306" s="13" t="s">
+      <c r="A306" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="B306" s="34" t="s">
+      <c r="B306" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="C306" s="22">
+      <c r="C306" s="21">
         <v>44463</v>
       </c>
       <c r="D306" s="12" t="s">
@@ -6660,13 +6887,13 @@
       </c>
     </row>
     <row r="307" spans="1:4" ht="75" customHeight="1">
-      <c r="A307" s="13" t="s">
+      <c r="A307" s="38" t="s">
         <v>435</v>
       </c>
-      <c r="B307" s="34" t="s">
+      <c r="B307" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="C307" s="22">
+      <c r="C307" s="21">
         <v>44463</v>
       </c>
       <c r="D307" s="12" t="s">
@@ -6674,13 +6901,13 @@
       </c>
     </row>
     <row r="308" spans="1:4" ht="75" customHeight="1">
-      <c r="A308" s="13" t="s">
+      <c r="A308" s="38" t="s">
         <v>436</v>
       </c>
-      <c r="B308" s="34" t="s">
+      <c r="B308" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="C308" s="22">
+      <c r="C308" s="21">
         <v>44463</v>
       </c>
       <c r="D308" s="12" t="s">
@@ -6688,13 +6915,13 @@
       </c>
     </row>
     <row r="309" spans="1:4" ht="75" customHeight="1">
-      <c r="A309" s="13" t="s">
+      <c r="A309" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="B309" s="34" t="s">
+      <c r="B309" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="C309" s="22">
+      <c r="C309" s="21">
         <v>44463</v>
       </c>
       <c r="D309" s="12" t="s">
@@ -6702,13 +6929,13 @@
       </c>
     </row>
     <row r="310" spans="1:4" ht="109" customHeight="1">
-      <c r="A310" s="13" t="s">
+      <c r="A310" s="38" t="s">
         <v>442</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C310" s="22">
+      <c r="C310" s="21">
         <v>44463</v>
       </c>
       <c r="D310" s="12" t="s">
@@ -6716,13 +6943,13 @@
       </c>
     </row>
     <row r="311" spans="1:4" ht="75" customHeight="1">
-      <c r="A311" s="13" t="s">
+      <c r="A311" s="38" t="s">
         <v>446</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C311" s="22">
+      <c r="C311" s="21">
         <v>44464</v>
       </c>
       <c r="D311" s="12" t="s">
@@ -6730,13 +6957,13 @@
       </c>
     </row>
     <row r="312" spans="1:4" ht="75" customHeight="1">
-      <c r="A312" s="13" t="s">
+      <c r="A312" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="B312" s="35" t="s">
+      <c r="B312" s="34" t="s">
         <v>449</v>
       </c>
-      <c r="C312" s="22">
+      <c r="C312" s="21">
         <v>44464</v>
       </c>
       <c r="D312" s="12" t="s">
@@ -6744,13 +6971,13 @@
       </c>
     </row>
     <row r="313" spans="1:4" ht="75" customHeight="1">
-      <c r="A313" s="13" t="s">
+      <c r="A313" s="38" t="s">
         <v>452</v>
       </c>
-      <c r="B313" s="35" t="s">
+      <c r="B313" s="34" t="s">
         <v>449</v>
       </c>
-      <c r="C313" s="22">
+      <c r="C313" s="21">
         <v>44465</v>
       </c>
       <c r="D313" s="12" t="s">
@@ -6758,13 +6985,13 @@
       </c>
     </row>
     <row r="314" spans="1:4" ht="75" customHeight="1">
-      <c r="A314" s="13" t="s">
+      <c r="A314" s="38" t="s">
         <v>453</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C314" s="22">
+      <c r="C314" s="21">
         <v>44465</v>
       </c>
       <c r="D314" s="12" t="s">
@@ -6772,13 +6999,13 @@
       </c>
     </row>
     <row r="315" spans="1:4" ht="75" customHeight="1">
-      <c r="A315" s="13" t="s">
+      <c r="A315" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="B315" s="35" t="s">
+      <c r="B315" s="34" t="s">
         <v>454</v>
       </c>
-      <c r="C315" s="36">
+      <c r="C315" s="35">
         <v>44466</v>
       </c>
       <c r="D315" s="12" t="s">
@@ -6786,13 +7013,13 @@
       </c>
     </row>
     <row r="316" spans="1:4" ht="75" customHeight="1">
-      <c r="A316" s="13" t="s">
+      <c r="A316" s="38" t="s">
         <v>458</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C316" s="36">
+      <c r="C316" s="35">
         <v>44466</v>
       </c>
       <c r="D316" s="12" t="s">
@@ -6800,13 +7027,13 @@
       </c>
     </row>
     <row r="317" spans="1:4" ht="75" customHeight="1">
-      <c r="A317" s="13" t="s">
+      <c r="A317" s="38" t="s">
         <v>461</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C317" s="38">
+      <c r="C317" s="37">
         <v>44467</v>
       </c>
       <c r="D317" s="12" t="s">
@@ -6814,13 +7041,13 @@
       </c>
     </row>
     <row r="318" spans="1:4" ht="75" customHeight="1">
-      <c r="A318" s="13" t="s">
+      <c r="A318" s="38" t="s">
         <v>464</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C318" s="38">
+      <c r="C318" s="37">
         <v>44467</v>
       </c>
       <c r="D318" s="12" t="s">
@@ -6828,13 +7055,13 @@
       </c>
     </row>
     <row r="319" spans="1:4" ht="75" customHeight="1">
-      <c r="A319" s="13" t="s">
+      <c r="A319" s="38" t="s">
         <v>467</v>
       </c>
-      <c r="B319" s="37" t="s">
+      <c r="B319" s="36" t="s">
         <v>465</v>
       </c>
-      <c r="C319" s="38">
+      <c r="C319" s="37">
         <v>44467</v>
       </c>
       <c r="D319" s="12" t="s">
@@ -6842,13 +7069,13 @@
       </c>
     </row>
     <row r="320" spans="1:4" ht="75" customHeight="1">
-      <c r="A320" s="13" t="s">
+      <c r="A320" s="38" t="s">
         <v>469</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C320" s="38">
+      <c r="C320" s="37">
         <v>44467</v>
       </c>
       <c r="D320" s="12" t="s">
@@ -6856,13 +7083,13 @@
       </c>
     </row>
     <row r="321" spans="1:4" ht="75" customHeight="1">
-      <c r="A321" s="13" t="s">
+      <c r="A321" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="B321" s="37" t="s">
+      <c r="B321" s="36" t="s">
         <v>465</v>
       </c>
-      <c r="C321" s="38">
+      <c r="C321" s="37">
         <v>44467</v>
       </c>
       <c r="D321" s="12" t="s">
@@ -6870,13 +7097,13 @@
       </c>
     </row>
     <row r="322" spans="1:4" ht="75" customHeight="1">
-      <c r="A322" s="13" t="s">
+      <c r="A322" s="38" t="s">
         <v>474</v>
       </c>
-      <c r="B322" s="37" t="s">
+      <c r="B322" s="36" t="s">
         <v>465</v>
       </c>
-      <c r="C322" s="38">
+      <c r="C322" s="37">
         <v>44467</v>
       </c>
       <c r="D322" s="12" t="s">
@@ -6884,13 +7111,13 @@
       </c>
     </row>
     <row r="323" spans="1:4" ht="75" customHeight="1">
-      <c r="A323" s="13" t="s">
+      <c r="A323" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="B323" s="37" t="s">
+      <c r="B323" s="36" t="s">
         <v>462</v>
       </c>
-      <c r="C323" s="38">
+      <c r="C323" s="37">
         <v>44467</v>
       </c>
       <c r="D323" s="12" t="s">
@@ -6898,27 +7125,163 @@
       </c>
     </row>
     <row r="324" spans="1:4" ht="100" customHeight="1">
-      <c r="A324" s="13" t="s">
+      <c r="A324" s="38" t="s">
         <v>478</v>
       </c>
-      <c r="B324" s="37" t="s">
+      <c r="B324" s="36" t="s">
         <v>465</v>
       </c>
-      <c r="C324" s="38">
+      <c r="C324" s="37">
         <v>44467</v>
       </c>
       <c r="D324" s="12" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="75" customHeight="1"/>
-    <row r="326" spans="1:4" ht="75" customHeight="1"/>
-    <row r="327" spans="1:4" ht="75" customHeight="1"/>
-    <row r="328" spans="1:4" ht="75" customHeight="1"/>
+    <row r="325" spans="1:4" ht="75" customHeight="1">
+      <c r="A325" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C325" s="40">
+        <v>44468</v>
+      </c>
+      <c r="D325" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="75" customHeight="1">
+      <c r="A326" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="B326" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" s="40">
+        <v>44468</v>
+      </c>
+      <c r="D326" s="12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="75" customHeight="1">
+      <c r="A327" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C327" s="40">
+        <v>44468</v>
+      </c>
+      <c r="D327" s="12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="75" customHeight="1">
+      <c r="A328" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C328" s="40">
+        <v>44468</v>
+      </c>
+      <c r="D328" s="12" t="s">
+        <v>490</v>
+      </c>
+    </row>
     <row r="329" spans="1:4" ht="75" customHeight="1"/>
     <row r="330" spans="1:4" ht="75" customHeight="1"/>
+    <row r="331" spans="1:4" ht="75" customHeight="1"/>
+    <row r="332" spans="1:4" ht="75" customHeight="1"/>
+    <row r="333" spans="1:4" ht="75" customHeight="1"/>
+    <row r="334" spans="1:4" ht="75" customHeight="1"/>
+    <row r="335" spans="1:4" ht="75" customHeight="1"/>
+    <row r="336" spans="1:4" ht="75" customHeight="1"/>
+    <row r="337" ht="75" customHeight="1"/>
+    <row r="338" ht="75" customHeight="1"/>
+    <row r="339" ht="75" customHeight="1"/>
+    <row r="340" ht="75" customHeight="1"/>
+    <row r="341" ht="75" customHeight="1"/>
+    <row r="342" ht="75" customHeight="1"/>
+    <row r="343" ht="75" customHeight="1"/>
+    <row r="344" ht="75" customHeight="1"/>
+    <row r="345" ht="75" customHeight="1"/>
+    <row r="346" ht="75" customHeight="1"/>
+    <row r="347" ht="75" customHeight="1"/>
+    <row r="348" ht="75" customHeight="1"/>
+    <row r="349" ht="75" customHeight="1"/>
+    <row r="350" ht="75" customHeight="1"/>
+    <row r="351" ht="75" customHeight="1"/>
+    <row r="352" ht="75" customHeight="1"/>
+    <row r="353" ht="75" customHeight="1"/>
+    <row r="354" ht="75" customHeight="1"/>
+    <row r="355" ht="75" customHeight="1"/>
+    <row r="356" ht="75" customHeight="1"/>
+    <row r="357" ht="75" customHeight="1"/>
+    <row r="358" ht="75" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="C57:C61"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="D82:D86"/>
@@ -6935,62 +7298,6 @@
     <mergeCell ref="C82:C86"/>
     <mergeCell ref="B67:B71"/>
     <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14960" yWindow="2340" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="19680" yWindow="3820" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="512">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1041,10 +1041,6 @@
   </si>
   <si>
     <t>模拟：numBottles每次用去numExchange数量换取一瓶新酒，ans+=1表示喝完了，numBottles+=1又获得新空瓶子，循环条件是numBottles要大于numExchange。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举 + 哈希表： 在每次处理中，我们先固定一个点，然后遍历其它点所有点，用dict{dis:num} 计算此次遍历两点之间差值相同的个数，然后依据题意考虑元组的顺序每轮循环计算一次个数大于2的排列数累加入ans。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2199,6 +2195,99 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>223. Rectangle Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举 + 哈希表： 在每次处理中，我们先固定一个点，然后遍历其它点所有点，用dict{dis:num} 计算此次遍历两点之间差值相同的个数，然后依据题意考虑元组的顺序每轮循环计算一次个数大于2的排列数累加入ans。 # 排列:第一个空位有n个可以选，第二个空位有(n - 1)个可以选 即n * (n - 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟+分情况讨论：俩矩形面积相加再减去重合部分，重合部分需要讨论 有重合 与 没有重合的情况 具体的可以用max(0，overlapWidth) * max(0, overlapHeight)，如果长宽求出来为负数就表示没有重合直接置为0相乘即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>525. Contiguous Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和+哈希表：建立字典，key为1的数量和0的数量的差值,value为对应坐标idx，遍历数组如果遇到1就+1 遇到0就-1 来维护1与0的差值，当在遍历中的有某两次1与0差值相等，（都为某一个数字）说明中间的1和0的差值相等即符合题意，计算idx - dic[preSum]，直到找出最大的那个长度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1436. Destination City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希集合：两次遍历 第一个遍历outdegree加入set 然后遍历indegree如果不在set就返回indegree，说明indegree不通往任何outdegree即目的地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Longest Substring Without Repeating Characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口+哈希集合：用for循环维护右指针，用变量left维护左指针 并计算curlen长度，发现重复 将s[i]从集合中移出, 移动left, 同时减少curlen 一直移动左边界直到s[i]不在memo中，因为有可能字符不在边界上，当curlen大于maxlen就更新maxlen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130. Surrounded Regions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS/BFS：逆反思路 遍历边界上所有的O然后设置成# 并向内蔓延 再一次遍历board然后把所有其他的O设置成X 并还原#成O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73. Set Matrix Zeroes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bruteForce：两次遍历 第一次先有0存在的行列设置成#（注意如果matrix[i][j] == 0就不设置成#，因为会影响到后面的行列判断） 第二次遇到#就设置成0 优化：优化时间复杂度与空间复杂度 先遍历第0行和第0列看是否存在0 从(1,1)开始遍历查看坐标位置是否存在0，存在就记录在matrix的第0行和第0列上 再次遍历matrix根据第一行第一列的记录来置放0 最后再判断第一行和第一列是否需要置为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>187. Repeated DNA Sequences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希集合 + 滑动窗口：直接遍历同时利用切片存入哈希表 如果第二次见到就存到res中，注意res也需要做一个去重所以也可以用哈希集合，最后将res转化成list即可 #求有长度的子字符串遍历range的范围 n - Length + 1  bitmask优化：待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">189. Rotate Array
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力：直接pop出来尾巴然后用insert方法插入到头部循环k%len(nums)次即可 tricky翻转：nums = "-----&gt;--&gt;"; k =3 result = "--&gt;-----&gt;";
+    reverse "-----&gt;--&gt;" we can get "&lt;--&lt;-----"
+    reverse "&lt;--" we can get "--&gt;&lt;-----"
+    reverse "&lt;-----" we can get "--&gt;-----&gt;"
+    this visualization help me figure it out :)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>173. Binary Search Tree Iterator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力：直接写一个dfs中序遍历 在初始化就直接遍历将整个树的值先存入deque中 后面next直接popleft即可 用stack进行暴力优化：均摊复杂度为O(1) 初始化遍历到最左的子节点同时加入它们到stack中 然后调用next方法的时候 看此节点是否有右子节点，如果有就继续遍历到此右子节点的最左的子节点同时加入它们到stack中，本质上就是模拟中序遍历的迭代写法 #这个有点忘了得找时间复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2314,7 +2403,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="392">
+  <cellStyleXfs count="424">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2707,8 +2796,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2831,6 +2952,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2849,7 +2979,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="392">
+  <cellStyles count="424">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3039,6 +3169,22 @@
     <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="422" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3241,6 +3387,22 @@
     <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3576,8 +3738,8 @@
   <dimension ref="A1:F358"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D328" sqref="D328"/>
+      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B338" sqref="B338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3604,20 +3766,20 @@
         <v>2</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="45" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3625,43 +3787,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="41"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="42"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="41"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="42"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="45"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="41"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="42"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="42"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="45" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3669,43 +3831,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="41"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="42"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="41"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="42"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="41"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="42"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="42"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="45"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="45" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3713,571 +3875,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="41"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="42"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="41"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="42"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="41"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="42"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="41"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="42"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="45"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="47">
         <v>44418</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="45"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="41"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="42"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="45"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="41"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="42"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="45"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="41"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="42"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="45"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="41"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="42"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="47">
         <v>44418</v>
       </c>
-      <c r="D22" s="42"/>
+      <c r="D22" s="45"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="41"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="41"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="41"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="41"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="47">
         <v>44418</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="45"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="41"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="41"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="41"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="41"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="47">
         <v>44419</v>
       </c>
-      <c r="D32" s="42"/>
+      <c r="D32" s="45"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="41"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="41"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="41"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="41"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="42"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="45"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="44">
+      <c r="C37" s="47">
         <v>44419</v>
       </c>
-      <c r="D37" s="42"/>
+      <c r="D37" s="45"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="41"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="42"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="45"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="41"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="42"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="45"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="41"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="42"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="41"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="42"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="45"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="44">
+      <c r="C42" s="47">
         <v>44420</v>
       </c>
-      <c r="D42" s="42"/>
+      <c r="D42" s="45"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="41"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="42"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="45"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="41"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="42"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="45"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="41"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="42"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="45"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="41"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="45"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="44">
+      <c r="C47" s="47">
         <v>44420</v>
       </c>
-      <c r="D47" s="42"/>
+      <c r="D47" s="45"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="41"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="42"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="45"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="41"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="42"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="45"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="41"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="42"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="45"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="41"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="42"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="45"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="44">
+      <c r="C52" s="47">
         <v>44421</v>
       </c>
-      <c r="D52" s="42"/>
+      <c r="D52" s="45"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="41"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="42"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="45"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="41"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="42"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="45"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="41"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="42"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="45"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="41"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="42"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="45"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="44">
+      <c r="C57" s="47">
         <v>44422</v>
       </c>
-      <c r="D57" s="42"/>
+      <c r="D57" s="45"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="42"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="45"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="42"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="45"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="42"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="45"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="41"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="42"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="45"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="44">
+      <c r="C62" s="47">
         <v>44423</v>
       </c>
-      <c r="D62" s="42"/>
+      <c r="D62" s="45"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="41"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="42"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="45"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="41"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="42"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="45"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="41"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="42"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="45"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="41"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="42"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="45"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="44">
+      <c r="C67" s="47">
         <v>44423</v>
       </c>
-      <c r="D67" s="42"/>
+      <c r="D67" s="45"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="41"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="42"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="45"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="41"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="42"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="45"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="41"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="42"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="45"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="41"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="42"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="45"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="44">
+      <c r="C72" s="47">
         <v>44423</v>
       </c>
-      <c r="D72" s="42"/>
+      <c r="D72" s="45"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="41"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="42"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="45"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="41"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="42"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="45"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="41"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="42"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="45"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="41"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="42"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="45"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="44">
+      <c r="C77" s="47">
         <v>44424</v>
       </c>
-      <c r="D77" s="42"/>
+      <c r="D77" s="45"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="41"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="42"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="45"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="41"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="42"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="45"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="41"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="42"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="45"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="41"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="42"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="45"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="44">
+      <c r="C82" s="47">
         <v>44424</v>
       </c>
-      <c r="D82" s="42"/>
+      <c r="D82" s="45"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="41"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="42"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="45"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="41"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="42"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="45"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="41"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="42"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="45"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="41"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="42"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="45"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="41" t="s">
+      <c r="A87" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="43" t="s">
+      <c r="B87" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="44">
+      <c r="C87" s="47">
         <v>44424</v>
       </c>
-      <c r="D87" s="42"/>
+      <c r="D87" s="45"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="41"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="42"/>
+      <c r="A88" s="44"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="45"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="41"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="42"/>
+      <c r="A89" s="44"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="45"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="41"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="42"/>
+      <c r="A90" s="44"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="45"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="41"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="42"/>
+      <c r="A91" s="44"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="45"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="38" t="s">
@@ -5169,21 +5331,21 @@
         <v>137</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E184" s="14" t="s">
         <v>138</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="75" customHeight="1">
       <c r="A185" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>139</v>
@@ -5192,10 +5354,10 @@
         <v>44447</v>
       </c>
       <c r="D185" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="75" customHeight="1">
@@ -5209,7 +5371,7 @@
         <v>44447</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="75" customHeight="1">
@@ -5228,7 +5390,7 @@
     </row>
     <row r="188" spans="1:6" ht="75" customHeight="1">
       <c r="A188" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>145</v>
@@ -5791,7 +5953,7 @@
         <v>44452</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>247</v>
+        <v>491</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="75" customHeight="1">
@@ -5805,12 +5967,12 @@
         <v>44452</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="75" customHeight="1">
       <c r="A230" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B230" s="10" t="s">
         <v>245</v>
@@ -5819,12 +5981,12 @@
         <v>44453</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="98" customHeight="1">
       <c r="A231" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>245</v>
@@ -5833,12 +5995,12 @@
         <v>44453</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="75" customHeight="1">
       <c r="A232" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B232" s="10" t="s">
         <v>245</v>
@@ -5847,82 +6009,82 @@
         <v>44453</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="75" customHeight="1">
       <c r="A233" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C233" s="21">
         <v>44453</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="75" customHeight="1">
       <c r="A234" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C234" s="21">
         <v>44453</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="75" customHeight="1">
       <c r="A235" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C235" s="21">
         <v>44453</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="75" customHeight="1">
       <c r="A236" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C236" s="21">
         <v>44453</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="75" customHeight="1">
       <c r="A237" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C237" s="21">
         <v>44453</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="75" customHeight="1">
       <c r="A238" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>245</v>
@@ -5931,12 +6093,12 @@
         <v>44453</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="75" customHeight="1">
       <c r="A239" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B239" s="10" t="s">
         <v>245</v>
@@ -5945,12 +6107,12 @@
         <v>44453</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="75" customHeight="1">
       <c r="A240" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B240" s="10" t="s">
         <v>245</v>
@@ -5959,133 +6121,133 @@
         <v>44453</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="75" customHeight="1">
       <c r="A241" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="B241" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="B241" s="10" t="s">
-        <v>274</v>
       </c>
       <c r="C241" s="21">
         <v>44454</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="75" customHeight="1">
       <c r="A242" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="C242" s="21">
         <v>44454</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="75" customHeight="1">
       <c r="A243" s="38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C243" s="21">
         <v>44454</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="75" customHeight="1">
       <c r="A244" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C244" s="21">
         <v>44454</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="75" customHeight="1">
       <c r="A245" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C245" s="21">
         <v>44454</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="75" customHeight="1">
       <c r="A246" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="C246" s="20">
         <v>44455</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="75" customHeight="1">
       <c r="A247" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C247" s="20">
         <v>44455</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="75" customHeight="1">
       <c r="A248" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C248" s="20">
         <v>44455</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="75" customHeight="1">
       <c r="A249" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C249" s="20">
         <v>44455</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F249" s="1">
         <v>507</v>
@@ -6093,256 +6255,256 @@
     </row>
     <row r="250" spans="1:6" ht="75" customHeight="1">
       <c r="A250" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C250" s="20">
         <v>44455</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="75" customHeight="1">
       <c r="A251" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C251" s="20">
         <v>44455</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="75" customHeight="1">
       <c r="A252" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C252" s="20">
         <v>44455</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="75" customHeight="1">
       <c r="A253" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="C253" s="20">
         <v>44455</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="75" customHeight="1">
       <c r="A254" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C254" s="20">
         <v>44455</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="75" customHeight="1">
       <c r="A255" s="38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C255" s="20">
         <v>44455</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="75" customHeight="1">
       <c r="A256" s="38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C256" s="20">
         <v>44455</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="75" customHeight="1">
       <c r="A257" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C257" s="20">
         <v>44455</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="75" customHeight="1">
       <c r="A258" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="C258" s="20">
         <v>44455</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="175" customHeight="1">
       <c r="A259" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C259" s="20">
         <v>44456</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="75" customHeight="1">
       <c r="A260" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="C260" s="20">
         <v>44456</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="75" customHeight="1">
       <c r="A261" s="38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C261" s="20">
         <v>44456</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="75" customHeight="1">
       <c r="A262" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C262" s="20">
         <v>44456</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="75" customHeight="1">
       <c r="A263" s="38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C263" s="20">
         <v>44456</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="75" customHeight="1">
       <c r="A264" s="38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B264" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C264" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="C264" s="20" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="75" customHeight="1">
       <c r="A265" s="38" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C265" s="20">
         <v>44456</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="75" customHeight="1">
       <c r="A266" s="38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C266" s="20">
         <v>44456</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="75" customHeight="1">
       <c r="A267" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C267" s="21">
         <v>44456</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="75" customHeight="1">
       <c r="A268" s="38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B268" s="17" t="s">
         <v>33</v>
@@ -6351,306 +6513,306 @@
         <v>44457</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="75" customHeight="1">
       <c r="A269" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="C269" s="21">
         <v>44457</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="75" customHeight="1">
       <c r="A270" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="C270" s="21">
         <v>44457</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="75" customHeight="1">
       <c r="A271" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="C271" s="21">
         <v>44457</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="75" customHeight="1">
       <c r="A272" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="C272" s="21">
         <v>44457</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="75" customHeight="1">
       <c r="A273" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C273" s="21">
         <v>44457</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="75" customHeight="1">
       <c r="A274" s="38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B274" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C274" s="21">
         <v>44457</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="75" customHeight="1">
       <c r="A275" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="C275" s="26">
         <v>44458</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="75" customHeight="1">
       <c r="A276" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="C276" s="26">
         <v>44458</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="75" customHeight="1">
       <c r="A277" s="38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C277" s="26">
         <v>44459</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="75" customHeight="1">
       <c r="A278" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B278" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C278" s="26">
         <v>44459</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="75" customHeight="1">
       <c r="A279" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C279" s="26">
         <v>44459</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="75" customHeight="1">
       <c r="A280" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C280" s="26">
         <v>44459</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="75" customHeight="1">
       <c r="A281" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C281" s="28">
         <v>44460</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="93" customHeight="1">
       <c r="A282" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C282" s="28">
         <v>44460</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="99" customHeight="1">
       <c r="A283" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="C283" s="28">
         <v>44460</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="111" customHeight="1">
       <c r="A284" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B284" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C284" s="28">
         <v>44460</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="75" customHeight="1">
       <c r="A285" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B285" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C285" s="28">
         <v>44460</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="75" customHeight="1">
       <c r="A286" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="C286" s="28">
         <v>44460</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="75" customHeight="1">
       <c r="A287" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="C287" s="30">
         <v>44461</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="75" customHeight="1">
       <c r="A288" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="C288" s="30">
         <v>44461</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="75" customHeight="1">
       <c r="A289" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="C289" s="30">
         <v>44461</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="75" customHeight="1">
       <c r="A290" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>207</v>
@@ -6659,502 +6821,502 @@
         <v>44461</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="75" customHeight="1">
       <c r="A291" s="38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B291" s="29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C291" s="30">
         <v>44461</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="75" customHeight="1">
       <c r="A292" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C292" s="30">
         <v>44461</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="75" customHeight="1">
       <c r="A293" s="38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C293" s="21">
         <v>44461</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="75" customHeight="1">
       <c r="A294" s="38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B294" s="29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C294" s="21">
         <v>44461</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="75" customHeight="1">
       <c r="A295" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="C295" s="21">
         <v>44462</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="75" customHeight="1">
       <c r="A296" s="38" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B296" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C296" s="21">
         <v>44462</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="75" customHeight="1">
       <c r="A297" s="38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B297" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C297" s="21">
         <v>44462</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="75" customHeight="1">
       <c r="A298" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B298" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C298" s="21">
         <v>44462</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="75" customHeight="1">
       <c r="A299" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B299" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C299" s="21">
         <v>44462</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="75" customHeight="1">
       <c r="A300" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="B300" s="32" t="s">
         <v>421</v>
-      </c>
-      <c r="B300" s="32" t="s">
-        <v>422</v>
       </c>
       <c r="C300" s="21">
         <v>44462</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="75" customHeight="1">
       <c r="A301" s="38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B301" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C301" s="21">
         <v>44462</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="75" customHeight="1">
       <c r="A302" s="38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B302" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C302" s="21">
         <v>44462</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="75" customHeight="1">
       <c r="A303" s="38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B303" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C303" s="21">
         <v>44462</v>
       </c>
       <c r="D303" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="75" customHeight="1">
       <c r="A304" s="38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B304" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C304" s="21">
         <v>44462</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="75" customHeight="1">
       <c r="A305" s="38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B305" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C305" s="21">
         <v>44462</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="75" customHeight="1">
       <c r="A306" s="38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B306" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C306" s="21">
         <v>44463</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="75" customHeight="1">
       <c r="A307" s="38" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B307" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C307" s="21">
         <v>44463</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="75" customHeight="1">
       <c r="A308" s="38" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B308" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C308" s="21">
         <v>44463</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="75" customHeight="1">
       <c r="A309" s="38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B309" s="33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C309" s="21">
         <v>44463</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="109" customHeight="1">
       <c r="A310" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C310" s="21">
         <v>44463</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="75" customHeight="1">
       <c r="A311" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="C311" s="21">
         <v>44464</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="75" customHeight="1">
       <c r="A312" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B312" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C312" s="21">
         <v>44464</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="75" customHeight="1">
       <c r="A313" s="38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B313" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C313" s="21">
         <v>44465</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="75" customHeight="1">
       <c r="A314" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="C314" s="21">
         <v>44465</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="75" customHeight="1">
       <c r="A315" s="38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B315" s="34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C315" s="35">
         <v>44466</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="75" customHeight="1">
       <c r="A316" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C316" s="35">
         <v>44466</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="75" customHeight="1">
       <c r="A317" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="C317" s="37">
         <v>44467</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="75" customHeight="1">
       <c r="A318" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="C318" s="37">
         <v>44467</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="75" customHeight="1">
       <c r="A319" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B319" s="36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C319" s="37">
         <v>44467</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="75" customHeight="1">
       <c r="A320" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C320" s="37">
         <v>44467</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="75" customHeight="1">
       <c r="A321" s="38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B321" s="36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C321" s="37">
         <v>44467</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="75" customHeight="1">
       <c r="A322" s="38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B322" s="36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C322" s="37">
         <v>44467</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="75" customHeight="1">
       <c r="A323" s="38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B323" s="36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C323" s="37">
         <v>44467</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="100" customHeight="1">
       <c r="A324" s="38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B324" s="36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C324" s="37">
         <v>44467</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="75" customHeight="1">
       <c r="A325" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="C325" s="40">
         <v>44468</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="75" customHeight="1">
       <c r="A326" s="38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B326" s="39" t="s">
         <v>4</v>
@@ -7163,61 +7325,178 @@
         <v>44468</v>
       </c>
       <c r="D326" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="75" customHeight="1">
       <c r="A327" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="C327" s="40">
         <v>44468</v>
       </c>
       <c r="D327" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="75" customHeight="1">
       <c r="A328" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="C328" s="40">
         <v>44468</v>
       </c>
       <c r="D328" s="12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="75" customHeight="1">
+      <c r="A329" s="38" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" ht="75" customHeight="1"/>
-    <row r="330" spans="1:4" ht="75" customHeight="1"/>
-    <row r="331" spans="1:4" ht="75" customHeight="1"/>
-    <row r="332" spans="1:4" ht="75" customHeight="1"/>
-    <row r="333" spans="1:4" ht="75" customHeight="1"/>
-    <row r="334" spans="1:4" ht="75" customHeight="1"/>
-    <row r="335" spans="1:4" ht="75" customHeight="1"/>
-    <row r="336" spans="1:4" ht="75" customHeight="1"/>
-    <row r="337" ht="75" customHeight="1"/>
-    <row r="338" ht="75" customHeight="1"/>
-    <row r="339" ht="75" customHeight="1"/>
-    <row r="340" ht="75" customHeight="1"/>
-    <row r="341" ht="75" customHeight="1"/>
-    <row r="342" ht="75" customHeight="1"/>
-    <row r="343" ht="75" customHeight="1"/>
-    <row r="344" ht="75" customHeight="1"/>
-    <row r="345" ht="75" customHeight="1"/>
-    <row r="346" ht="75" customHeight="1"/>
-    <row r="347" ht="75" customHeight="1"/>
-    <row r="348" ht="75" customHeight="1"/>
-    <row r="349" ht="75" customHeight="1"/>
-    <row r="350" ht="75" customHeight="1"/>
-    <row r="351" ht="75" customHeight="1"/>
-    <row r="352" ht="75" customHeight="1"/>
+      <c r="B329" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329" s="21">
+        <v>44469</v>
+      </c>
+      <c r="D329" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="75" customHeight="1">
+      <c r="A330" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="B330" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C330" s="21">
+        <v>44469</v>
+      </c>
+      <c r="D330" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="75" customHeight="1">
+      <c r="A331" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C331" s="43">
+        <v>44470</v>
+      </c>
+      <c r="D331" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="75" customHeight="1">
+      <c r="A332" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C332" s="43">
+        <v>44470</v>
+      </c>
+      <c r="D332" s="12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="75" customHeight="1">
+      <c r="A333" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="B333" s="42" t="s">
+        <v>499</v>
+      </c>
+      <c r="C333" s="43">
+        <v>44470</v>
+      </c>
+      <c r="D333" s="12" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="75" customHeight="1">
+      <c r="A334" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="B334" s="42" t="s">
+        <v>499</v>
+      </c>
+      <c r="C334" s="43">
+        <v>44470</v>
+      </c>
+      <c r="D334" s="12" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="75" customHeight="1">
+      <c r="A335" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="B335" s="42" t="s">
+        <v>508</v>
+      </c>
+      <c r="C335" s="43">
+        <v>44470</v>
+      </c>
+      <c r="D335" s="12" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="96" customHeight="1">
+      <c r="A336" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="B336" s="42" t="s">
+        <v>499</v>
+      </c>
+      <c r="C336" s="43">
+        <v>44470</v>
+      </c>
+      <c r="D336" s="12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="75" customHeight="1">
+      <c r="A337" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="B337" s="42" t="s">
+        <v>499</v>
+      </c>
+      <c r="C337" s="43">
+        <v>44470</v>
+      </c>
+      <c r="D337" s="12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="75" customHeight="1"/>
+    <row r="339" spans="1:4" ht="75" customHeight="1"/>
+    <row r="340" spans="1:4" ht="75" customHeight="1"/>
+    <row r="341" spans="1:4" ht="75" customHeight="1"/>
+    <row r="342" spans="1:4" ht="75" customHeight="1"/>
+    <row r="343" spans="1:4" ht="75" customHeight="1"/>
+    <row r="344" spans="1:4" ht="75" customHeight="1"/>
+    <row r="345" spans="1:4" ht="75" customHeight="1"/>
+    <row r="346" spans="1:4" ht="75" customHeight="1"/>
+    <row r="347" spans="1:4" ht="75" customHeight="1"/>
+    <row r="348" spans="1:4" ht="75" customHeight="1"/>
+    <row r="349" spans="1:4" ht="75" customHeight="1"/>
+    <row r="350" spans="1:4" ht="75" customHeight="1"/>
+    <row r="351" spans="1:4" ht="75" customHeight="1"/>
+    <row r="352" spans="1:4" ht="75" customHeight="1"/>
     <row r="353" ht="75" customHeight="1"/>
     <row r="354" ht="75" customHeight="1"/>
     <row r="355" ht="75" customHeight="1"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19680" yWindow="3820" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="13620" yWindow="2920" windowWidth="25640" windowHeight="15680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="526">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2281,11 +2281,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>暴力：直接写一个dfs中序遍历 在初始化就直接遍历将整个树的值先存入deque中 后面next直接popleft即可 用stack进行暴力优化：均摊复杂度为O(1) 初始化遍历到最左的子节点同时加入它们到stack中 然后调用next方法的时候 看此节点是否有右子节点，如果有就继续遍历到此右子节点的最左的子节点同时加入它们到stack中，本质上就是模拟中序遍历的迭代写法 #这个有点忘了得找时间复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>173. Binary Search Tree Iterator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暴力：直接写一个dfs中序遍历 在初始化就直接遍历将整个树的值先存入deque中 后面next直接popleft即可 用stack进行暴力优化：均摊复杂度为O(1) 初始化遍历到最左的子节点同时加入它们到stack中 然后调用next方法的时候 看此节点是否有右子节点，如果有就继续遍历到此右子节点的最左的子节点同时加入它们到stack中，本质上就是模拟中序遍历的迭代写法 #这个有点忘了得找时间复习</t>
+    <t>30. Substring with Concatenation of All Words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>405. Convert a Number to Hexadecimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>523. Continuous Subarray Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口+双哈希表：先用一个哈希表存储words中单词出现的频次，先用i表示外部循环，然后用idx来表示内部窗口的检查，检查子串内部是否满足条件，同时用第二个哈希表存储遍历过程中单词出现的频次，滑动窗口+切片 curWord = s[idx: idx+lengthWord]，如果curWord不存在或者curWord存在的次数已经满了即subWords[curWord] == allWords[curWord]，如果循环结束此时如果idx位于末尾表示满足条件 即没有被break过 将此次的i加入答案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166. Fraction to Recurring Decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖式除法的模拟：先判断正负数 然后处理成正数 下一步判断是否有余数 没有余数直接返回 然后处理余数 把所有出现过的余数记录下来 loc = {remainder : len(res)}模拟竖式计算，将余数和分母继续运算得到新的商和余数，余数存在就说明存在循环 插入左，右括号后break即可 #corner case: 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1590. Make Sum Divisible by P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和优化+同余定理：具体推导见草稿纸，实现上难度不大，唯一需要注意的是，如果哈希表中存在remains，我们则不更新dic[remains]了，因为题目的要求比较简单只需要判断是否存在这样的子数组。由于哈希表存储的是每个余数第一次出现的下标，因此当遇到重复的余数时，根据当前下标和哈希表中存储的下标计算得到的子数组长度是以当前下标结尾的子数组中满足元素和为 k 的倍数的子数组长度中的最大值。只要最大长度至少为 2，即存在符合要求的子数组。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和优化+同余定理：具体推导见草稿纸，这里比较麻烦的是需要处理curmod - mod正负的情况 (curmod为当前preSum的余数，mod为sum(nums)%k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179. Largest Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmp_to_key：重写sort 第一步先把 nums 中的所有数字转字符串，形成字符串数组 nums_str 第二步比较两个字符串 x,y 拼接的结果 x + y 和 y + x 哪个更大，从而确定 x 和 y 谁排在前面然后将 nums_str 降序排序，第三步把整个数组排序的结果拼接成一个字符串，并返回  快速排序：字符串拼接比较大小 （a+b &gt; b+a） + 快排倒序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2403,7 +2459,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="424">
+  <cellStyleXfs count="444">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2828,8 +2884,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2960,6 +3036,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2979,7 +3064,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="424">
+  <cellStyles count="444">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3185,6 +3270,16 @@
     <cellStyle name="超链接" xfId="418" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="420" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="442" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3403,6 +3498,16 @@
     <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3738,8 +3843,8 @@
   <dimension ref="A1:F358"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B338" sqref="B338"/>
+      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E342" sqref="E342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3770,16 +3875,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="48" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3787,43 +3892,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="44"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="44"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="48"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="44"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="45"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="45"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="48" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3831,43 +3936,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="44"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="45"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="44"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="45"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="48"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="44"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="45"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="48"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="44"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="45"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="48"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="48" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3875,571 +3980,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="44"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="45"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="44"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="45"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="48"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="44"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="45"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="48"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="44"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="45"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="48"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="50">
         <v>44418</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="44"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="45"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="44"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="45"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="48"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="44"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="45"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="44"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="45"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="48"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="50">
         <v>44418</v>
       </c>
-      <c r="D22" s="45"/>
+      <c r="D22" s="48"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="44"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="44"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="44"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="44"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="50">
         <v>44418</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="48"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="44"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="44"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="44"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="44"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32" s="50">
         <v>44419</v>
       </c>
-      <c r="D32" s="45"/>
+      <c r="D32" s="48"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="44"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="44"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="48"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="44"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="48"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="44"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="45"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C37" s="50">
         <v>44419</v>
       </c>
-      <c r="D37" s="45"/>
+      <c r="D37" s="48"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="44"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="45"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="44"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="45"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="44"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="45"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="44"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="45"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="47">
+      <c r="C42" s="50">
         <v>44420</v>
       </c>
-      <c r="D42" s="45"/>
+      <c r="D42" s="48"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="44"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="45"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="48"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="44"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="45"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="44"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="45"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="48"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="44"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="45"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="47">
+      <c r="C47" s="50">
         <v>44420</v>
       </c>
-      <c r="D47" s="45"/>
+      <c r="D47" s="48"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="44"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="45"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="48"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="44"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="45"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="48"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="44"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="45"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="48"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="44"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="45"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="48"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="47">
+      <c r="C52" s="50">
         <v>44421</v>
       </c>
-      <c r="D52" s="45"/>
+      <c r="D52" s="48"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="44"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="45"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="48"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="44"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="45"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="48"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="44"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="45"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="48"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="44"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="45"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="48"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="47">
+      <c r="C57" s="50">
         <v>44422</v>
       </c>
-      <c r="D57" s="45"/>
+      <c r="D57" s="48"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="45"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="48"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="45"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="48"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="45"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="48"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="45"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="48"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="47">
+      <c r="C62" s="50">
         <v>44423</v>
       </c>
-      <c r="D62" s="45"/>
+      <c r="D62" s="48"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="44"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="45"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="48"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="44"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="45"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="48"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="44"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="45"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="48"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="44"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="45"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="48"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="44" t="s">
+      <c r="A67" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="47">
+      <c r="C67" s="50">
         <v>44423</v>
       </c>
-      <c r="D67" s="45"/>
+      <c r="D67" s="48"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="44"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="45"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="48"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="44"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="45"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="48"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="44"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="45"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="48"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="44"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="45"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="48"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="44" t="s">
+      <c r="A72" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="47">
+      <c r="C72" s="50">
         <v>44423</v>
       </c>
-      <c r="D72" s="45"/>
+      <c r="D72" s="48"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="44"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="45"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="48"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="44"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="45"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="48"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="44"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="45"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="48"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="44"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="45"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="48"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="44" t="s">
+      <c r="A77" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="47">
+      <c r="C77" s="50">
         <v>44424</v>
       </c>
-      <c r="D77" s="45"/>
+      <c r="D77" s="48"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="44"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="45"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="48"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="44"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="45"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="48"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="44"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="45"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="48"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="44"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="45"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="48"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="46" t="s">
+      <c r="B82" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="47">
+      <c r="C82" s="50">
         <v>44424</v>
       </c>
-      <c r="D82" s="45"/>
+      <c r="D82" s="48"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="44"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="45"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="48"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="44"/>
-      <c r="B84" s="46"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="45"/>
+      <c r="A84" s="47"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="48"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="44"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="45"/>
+      <c r="A85" s="47"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="48"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="44"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="45"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="48"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="44" t="s">
+      <c r="A87" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="46" t="s">
+      <c r="B87" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="47">
+      <c r="C87" s="50">
         <v>44424</v>
       </c>
-      <c r="D87" s="45"/>
+      <c r="D87" s="48"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="44"/>
-      <c r="B88" s="46"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="45"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="48"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="44"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="45"/>
+      <c r="A89" s="47"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="48"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="44"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="45"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="48"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="44"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="45"/>
+      <c r="A91" s="47"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="48"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="38" t="s">
@@ -7470,7 +7575,7 @@
     </row>
     <row r="337" spans="1:4" ht="75" customHeight="1">
       <c r="A337" s="38" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B337" s="42" t="s">
         <v>499</v>
@@ -7479,15 +7584,90 @@
         <v>44470</v>
       </c>
       <c r="D337" s="12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="75" customHeight="1">
+      <c r="A338" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C338" s="44">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="95" customHeight="1">
+      <c r="A339" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" ht="75" customHeight="1"/>
-    <row r="339" spans="1:4" ht="75" customHeight="1"/>
-    <row r="340" spans="1:4" ht="75" customHeight="1"/>
-    <row r="341" spans="1:4" ht="75" customHeight="1"/>
-    <row r="342" spans="1:4" ht="75" customHeight="1"/>
-    <row r="343" spans="1:4" ht="75" customHeight="1"/>
+      <c r="C339" s="44">
+        <v>44471</v>
+      </c>
+      <c r="D339" s="12" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="95" customHeight="1">
+      <c r="A340" s="38" t="s">
+        <v>516</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C340" s="44">
+        <v>44471</v>
+      </c>
+      <c r="D340" s="12" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="75" customHeight="1">
+      <c r="A341" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="B341" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C341" s="46">
+        <v>44472</v>
+      </c>
+      <c r="D341" s="12" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="75" customHeight="1">
+      <c r="A342" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="B342" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C342" s="46">
+        <v>44472</v>
+      </c>
+      <c r="D342" s="12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="75" customHeight="1">
+      <c r="A343" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="B343" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C343" s="46">
+        <v>44472</v>
+      </c>
+      <c r="D343" s="12" t="s">
+        <v>525</v>
+      </c>
+    </row>
     <row r="344" spans="1:4" ht="75" customHeight="1"/>
     <row r="345" spans="1:4" ht="75" customHeight="1"/>
     <row r="346" spans="1:4" ht="75" customHeight="1"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="2920" windowWidth="25640" windowHeight="15680" tabRatio="500"/>
+    <workbookView xWindow="21700" yWindow="3100" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="552">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1747,10 +1747,6 @@
   </si>
   <si>
     <t>easy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二分答案：几种答案的情况都被L给包括了我是没想到的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2344,6 +2340,116 @@
     <t>cmp_to_key：重写sort 第一步先把 nums 中的所有数字转字符串，形成字符串数组 nums_str 第二步比较两个字符串 x,y 拼接的结果 x + y 和 y + x 哪个更大，从而确定 x 和 y 谁排在前面然后将 nums_str 降序排序，第三步把整个数组排序的结果拼接成一个字符串，并返回  快速排序：字符串拼接比较大小 （a+b &gt; b+a） + 快排倒序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>482. License Key Formatting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正序模拟：计算remains = count % k 对remains大于0或者小于0进行讨论，大于零的情况就先拼接remains个字符，剩下的就按照k个一组运用滑动窗口写法进行拼接即可，小于零同理 倒序模拟：维护一个数组 不需要讨论remains的大小 直接倒序遍历string 合法即加入数组 同时计算count 当count mod k为0说明需要添加一个'-' 最后兜底判断是否存在'-'在最右边 如果存在就pop掉 最后返回''.join(res[::-1])即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>876. Middle of the Linked List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快慢指针；写法一 fast and fast.next / 写法二 dummy + fast.next and fast.next.next  #可以先手动模拟下 不容易出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">26. Remove Duplicates from Sorted Array
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针：初始化i，j = 0，for循环不断移动i 如果nums[i] != nums[j]时候，就交换nums[j+1] 和nums[i]，然后j += 1  通用解法：遍历每个元素同时维护idx游标，对每个元素进行判断 先按照idx位置放置题目要求的k个相同元素，然后通过对比当前项和idx-k项判断是否重复，如果不重复就在idx处放置新元素，最后返回idx即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>284. Peeking Iterator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力：使用数组存储所有元素 同时维护一个idx tricky处就是next时候 self.idx += 1 return self.arr[self.idx - 1]  储存pek：解释法一 pek和next方法都移动指针，不过在peek时没有pek就先存 然后在next前先做一个判断如果有存在pek就先返回并清空 这样就可以复杂操作"peek", "next"返回的是一样的值 / 解释法二 存上一个pek的元素，如果有就在pek时直接返回，不移动指针 next的时候清空pek的元素 如果没有就直接调用next方法移动指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>638. Shopping Offers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">756. Pyramid Transition Matrix
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS： 以needs为基准的暴力搜索 有全排列的感觉 cost = min(不选礼包，选择礼包的话费 + dfs(剩下的needs))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：存一个dic {基底：[上面可以放的石头1，上面可以放的石头2]} 暴力遍历bottom 用idx串联起来递归，如果idx==len(bottom)-1说明到底了 可以进行切片 bottom只剩下一个元素，则深度搜索结束，求解成功 然后再判断bottom是否合理 然后根据idx拼接新的bottom_进入下一个递归dfs(下一个bottom_, idx+1) #还需要理一理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802. Find Eventual Safe States</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS+染色法：无论每一步选择沿哪条有向边行走，最后必然在有限步内到达终点，则将该起始节点称作是安全的 反向思维一下即如果没死循环即可以到达某一终点 DFS染色法找环 本质就是如果有环就返回False 0表示未访问过 1表示访问过了还可以继续访问 2表示为合法节点 base为如果该点被遍历过，那么返回该点是否安全（如果不为2就为不安全，为2才表示安全） 没被遍历过就设置成1（表示遍历了但是还需要检查其子节点什么个情况即搜索其出度 ） 如果其子节点都check失败 则会将此节点设置为2即安全节点并返回True 如果在第&gt;1层则防止上一层返回False/如果再第1层则打印 反向图+拓扑排序：待补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35. Search Insert Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分答案：几种答案的情况都被L给包括了我是没想到的 二分区间left + 1 &lt; right 需要分情况讨论 把用例分类为 不存在且出左界 不存在且出右界 存在于左边 存在于右边 画图看下就可知返回L还是R了 #二分答案的mid+1 mid-1配上left&lt;=right 结束循环时候L或者R的位置正好把出界情况都囊括了 所以这里选择二分答案  说明用二分时候可以也可以从这个角度思考问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见上次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>414. Third Maximum Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：初始化三个变量最大值，第二大和第三大为-inf 更新最大值就把 第二大值传给第三大 最大值传给第二大 需要注意的是如果一个值和最大值不相同则更新第二大值 如果一个值和最大值或者第二大值相同才更新第三大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>530. Minimum Absolute Difference in BST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inorder： 有序数列的最小值一定是存在于连续的两个数字之间 因为是BST所以我们采用中序遍历 写法一 递归 可以直接存一个数组然后双指针找 也可以选择preVal存上一个点然后求diff 如果diff小于全局diff就存下 / 写法二 迭代 同理也是用preVal存上一个点然后求diff 如果diff小于全局diff就存下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>563. Binary Tree Tilt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postorder: 核心为 计算本点的tilt时 需要返回本层leftVal+rightVal+root.val供上一层计算使用 #要想想遍历的顺序和写法上的关系 如果需要用到左右俩值进行操作则考虑后序遍历 因为需要此时俩点的值都有了 可以拓展到其它递归写法上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>572. Subtree of Another Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：恶心题 需要结合isSameTree 递归套递归 外层递归是遍历root树 内层每次都判断一次isSameTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2459,7 +2565,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="444">
+  <cellStyleXfs count="494">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2904,8 +3010,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3046,6 +3202,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3064,7 +3232,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="444">
+  <cellStyles count="494">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3280,6 +3448,31 @@
     <cellStyle name="超链接" xfId="438" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="440" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="492" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3508,6 +3701,31 @@
     <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3843,8 +4061,8 @@
   <dimension ref="A1:F358"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E342" sqref="E342"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D352" sqref="D352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3875,16 +4093,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="52" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3892,43 +4110,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="47"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="48"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="47"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="48"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="48"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="48"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="52"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="52" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3936,43 +4154,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="47"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="47"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="48"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="47"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="48"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="48"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="52" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3980,571 +4198,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="47"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="48"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="47"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="48"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="52"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="47"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="48"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="47"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="48"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="52"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="54">
         <v>44418</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="52"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="47"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="48"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="52"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="47"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="48"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="52"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="47"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="48"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="52"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="47"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="48"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="54">
         <v>44418</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="52"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="47"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="47"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="47"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="47"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="54">
         <v>44418</v>
       </c>
-      <c r="D27" s="48"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="47"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="47"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="47"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="47"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="54">
         <v>44419</v>
       </c>
-      <c r="D32" s="48"/>
+      <c r="D32" s="52"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="47"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="47"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="48"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="47"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="48"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="47"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="48"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37" s="54">
         <v>44419</v>
       </c>
-      <c r="D37" s="48"/>
+      <c r="D37" s="52"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="47"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="47"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="47"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="47"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="54">
         <v>44420</v>
       </c>
-      <c r="D42" s="48"/>
+      <c r="D42" s="52"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="47"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="48"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="47"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="52"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="47"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="48"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="47"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="52"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="50">
+      <c r="C47" s="54">
         <v>44420</v>
       </c>
-      <c r="D47" s="48"/>
+      <c r="D47" s="52"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="47"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="48"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="47"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="48"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="47"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="48"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="52"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="47"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="48"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="50">
+      <c r="C52" s="54">
         <v>44421</v>
       </c>
-      <c r="D52" s="48"/>
+      <c r="D52" s="52"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="47"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="48"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="52"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="47"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="48"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="52"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="47"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="48"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="52"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="47"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="48"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="52"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="50">
+      <c r="C57" s="54">
         <v>44422</v>
       </c>
-      <c r="D57" s="48"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="48"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="52"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="48"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="52"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="48"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="52"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="48"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="52"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="50">
+      <c r="C62" s="54">
         <v>44423</v>
       </c>
-      <c r="D62" s="48"/>
+      <c r="D62" s="52"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="47"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="48"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="47"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="48"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="52"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="47"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="48"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="52"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="47"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="48"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="52"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="50">
+      <c r="C67" s="54">
         <v>44423</v>
       </c>
-      <c r="D67" s="48"/>
+      <c r="D67" s="52"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="47"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="48"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="52"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="47"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="48"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="47"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="48"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="52"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="47"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="48"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="52"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="49" t="s">
+      <c r="B72" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="50">
+      <c r="C72" s="54">
         <v>44423</v>
       </c>
-      <c r="D72" s="48"/>
+      <c r="D72" s="52"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="47"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="48"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="52"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="47"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="48"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="52"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="47"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="48"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="52"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="47"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="48"/>
+      <c r="A76" s="51"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="52"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="47" t="s">
+      <c r="A77" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="49" t="s">
+      <c r="B77" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="50">
+      <c r="C77" s="54">
         <v>44424</v>
       </c>
-      <c r="D77" s="48"/>
+      <c r="D77" s="52"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="47"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="48"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="52"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="47"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="48"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="52"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="47"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="48"/>
+      <c r="A80" s="51"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="52"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="47"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="48"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="52"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="49" t="s">
+      <c r="B82" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="50">
+      <c r="C82" s="54">
         <v>44424</v>
       </c>
-      <c r="D82" s="48"/>
+      <c r="D82" s="52"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="47"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="48"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="52"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="47"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="48"/>
+      <c r="A84" s="51"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="52"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="47"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="48"/>
+      <c r="A85" s="51"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="52"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="47"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="48"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="52"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="47" t="s">
+      <c r="A87" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="49" t="s">
+      <c r="B87" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="50">
+      <c r="C87" s="54">
         <v>44424</v>
       </c>
-      <c r="D87" s="48"/>
+      <c r="D87" s="52"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="47"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="48"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="52"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="47"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="48"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="52"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="47"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="48"/>
+      <c r="A90" s="51"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="52"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="47"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="48"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="52"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="38" t="s">
@@ -6058,7 +6276,7 @@
         <v>44452</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="75" customHeight="1">
@@ -6926,7 +7144,7 @@
         <v>44461</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="75" customHeight="1">
@@ -7066,12 +7284,12 @@
         <v>44462</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>422</v>
+        <v>542</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="75" customHeight="1">
       <c r="A301" s="38" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B301" s="32" t="s">
         <v>391</v>
@@ -7080,12 +7298,12 @@
         <v>44462</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="75" customHeight="1">
       <c r="A302" s="38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B302" s="32" t="s">
         <v>421</v>
@@ -7094,12 +7312,12 @@
         <v>44462</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="75" customHeight="1">
       <c r="A303" s="38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B303" s="32" t="s">
         <v>421</v>
@@ -7108,12 +7326,12 @@
         <v>44462</v>
       </c>
       <c r="D303" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="75" customHeight="1">
       <c r="A304" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B304" s="32" t="s">
         <v>391</v>
@@ -7122,12 +7340,12 @@
         <v>44462</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="75" customHeight="1">
       <c r="A305" s="38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B305" s="32" t="s">
         <v>391</v>
@@ -7136,12 +7354,12 @@
         <v>44462</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="75" customHeight="1">
       <c r="A306" s="38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B306" s="33" t="s">
         <v>391</v>
@@ -7150,12 +7368,12 @@
         <v>44463</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="75" customHeight="1">
       <c r="A307" s="38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B307" s="33" t="s">
         <v>391</v>
@@ -7164,12 +7382,12 @@
         <v>44463</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="75" customHeight="1">
       <c r="A308" s="38" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B308" s="33" t="s">
         <v>391</v>
@@ -7178,250 +7396,250 @@
         <v>44463</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="75" customHeight="1">
       <c r="A309" s="38" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B309" s="33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C309" s="21">
         <v>44463</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="109" customHeight="1">
       <c r="A310" s="38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C310" s="21">
         <v>44463</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="75" customHeight="1">
       <c r="A311" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="C311" s="21">
         <v>44464</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="75" customHeight="1">
       <c r="A312" s="38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B312" s="34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C312" s="21">
         <v>44464</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="75" customHeight="1">
       <c r="A313" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B313" s="34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C313" s="21">
         <v>44465</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="75" customHeight="1">
       <c r="A314" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="C314" s="21">
         <v>44465</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="75" customHeight="1">
       <c r="A315" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B315" s="34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C315" s="35">
         <v>44466</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="75" customHeight="1">
       <c r="A316" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C316" s="35">
         <v>44466</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="75" customHeight="1">
       <c r="A317" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="C317" s="37">
         <v>44467</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="75" customHeight="1">
       <c r="A318" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="C318" s="37">
         <v>44467</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="75" customHeight="1">
       <c r="A319" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B319" s="36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C319" s="37">
         <v>44467</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="75" customHeight="1">
       <c r="A320" s="38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C320" s="37">
         <v>44467</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="75" customHeight="1">
       <c r="A321" s="38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B321" s="36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C321" s="37">
         <v>44467</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="75" customHeight="1">
       <c r="A322" s="38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B322" s="36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C322" s="37">
         <v>44467</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="75" customHeight="1">
       <c r="A323" s="38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B323" s="36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C323" s="37">
         <v>44467</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="100" customHeight="1">
       <c r="A324" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B324" s="36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C324" s="37">
         <v>44467</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="75" customHeight="1">
       <c r="A325" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="C325" s="40">
         <v>44468</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="75" customHeight="1">
       <c r="A326" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B326" s="39" t="s">
         <v>4</v>
@@ -7430,40 +7648,40 @@
         <v>44468</v>
       </c>
       <c r="D326" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="75" customHeight="1">
       <c r="A327" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="C327" s="40">
         <v>44468</v>
       </c>
       <c r="D327" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="75" customHeight="1">
       <c r="A328" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="C328" s="40">
         <v>44468</v>
       </c>
       <c r="D328" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="75" customHeight="1">
       <c r="A329" s="38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B329" s="41" t="s">
         <v>6</v>
@@ -7472,12 +7690,12 @@
         <v>44469</v>
       </c>
       <c r="D329" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="75" customHeight="1">
       <c r="A330" s="38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B330" s="41" t="s">
         <v>6</v>
@@ -7486,113 +7704,113 @@
         <v>44469</v>
       </c>
       <c r="D330" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="75" customHeight="1">
       <c r="A331" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="C331" s="43">
         <v>44470</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="75" customHeight="1">
       <c r="A332" s="38" t="s">
+        <v>497</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="C332" s="43">
         <v>44470</v>
       </c>
       <c r="D332" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="75" customHeight="1">
       <c r="A333" s="38" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B333" s="42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C333" s="43">
         <v>44470</v>
       </c>
       <c r="D333" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="75" customHeight="1">
       <c r="A334" s="38" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B334" s="42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C334" s="43">
         <v>44470</v>
       </c>
       <c r="D334" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="75" customHeight="1">
       <c r="A335" s="38" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B335" s="42" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C335" s="43">
         <v>44470</v>
       </c>
       <c r="D335" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="96" customHeight="1">
       <c r="A336" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B336" s="42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C336" s="43">
         <v>44470</v>
       </c>
       <c r="D336" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="75" customHeight="1">
       <c r="A337" s="38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B337" s="42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C337" s="43">
         <v>44470</v>
       </c>
       <c r="D337" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="75" customHeight="1">
       <c r="A338" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="C338" s="44">
         <v>44470</v>
@@ -7600,35 +7818,35 @@
     </row>
     <row r="339" spans="1:4" ht="95" customHeight="1">
       <c r="A339" s="38" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C339" s="44">
         <v>44471</v>
       </c>
       <c r="D339" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="95" customHeight="1">
       <c r="A340" s="38" t="s">
+        <v>515</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="C340" s="44">
         <v>44471</v>
       </c>
       <c r="D340" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="75" customHeight="1">
       <c r="A341" s="38" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B341" s="45" t="s">
         <v>11</v>
@@ -7637,12 +7855,12 @@
         <v>44472</v>
       </c>
       <c r="D341" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="75" customHeight="1">
       <c r="A342" s="38" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B342" s="45" t="s">
         <v>11</v>
@@ -7651,12 +7869,12 @@
         <v>44472</v>
       </c>
       <c r="D342" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="75" customHeight="1">
       <c r="A343" s="38" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B343" s="45" t="s">
         <v>11</v>
@@ -7665,24 +7883,180 @@
         <v>44472</v>
       </c>
       <c r="D343" s="12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="75" customHeight="1">
+      <c r="A344" s="38" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" ht="75" customHeight="1"/>
-    <row r="345" spans="1:4" ht="75" customHeight="1"/>
-    <row r="346" spans="1:4" ht="75" customHeight="1"/>
-    <row r="347" spans="1:4" ht="75" customHeight="1"/>
-    <row r="348" spans="1:4" ht="75" customHeight="1"/>
-    <row r="349" spans="1:4" ht="75" customHeight="1"/>
-    <row r="350" spans="1:4" ht="75" customHeight="1"/>
-    <row r="351" spans="1:4" ht="75" customHeight="1"/>
-    <row r="352" spans="1:4" ht="75" customHeight="1"/>
-    <row r="353" ht="75" customHeight="1"/>
-    <row r="354" ht="75" customHeight="1"/>
-    <row r="355" ht="75" customHeight="1"/>
-    <row r="356" ht="75" customHeight="1"/>
-    <row r="357" ht="75" customHeight="1"/>
-    <row r="358" ht="75" customHeight="1"/>
+      <c r="B344" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C344" s="48">
+        <v>44473</v>
+      </c>
+      <c r="D344" s="12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="75" customHeight="1">
+      <c r="A345" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C345" s="48">
+        <v>44473</v>
+      </c>
+      <c r="D345" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="75" customHeight="1">
+      <c r="A346" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="B346" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="C346" s="48">
+        <v>44474</v>
+      </c>
+      <c r="D346" s="12" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="93" customHeight="1">
+      <c r="A347" s="38" t="s">
+        <v>532</v>
+      </c>
+      <c r="B347" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" s="48">
+        <v>44474</v>
+      </c>
+      <c r="D347" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="75" customHeight="1">
+      <c r="A348" s="38" t="s">
+        <v>534</v>
+      </c>
+      <c r="B348" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" s="48">
+        <v>44474</v>
+      </c>
+      <c r="D348" s="12" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="75" customHeight="1">
+      <c r="A349" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="B349" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" s="48">
+        <v>44474</v>
+      </c>
+      <c r="D349" s="12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="124" customHeight="1">
+      <c r="A350" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="B350" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350" s="50">
+        <v>44475</v>
+      </c>
+      <c r="D350" s="12" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="75" customHeight="1">
+      <c r="A351" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C351" s="50">
+        <v>44475</v>
+      </c>
+      <c r="D351" s="12" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="75" customHeight="1">
+      <c r="A352" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="B352" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="C352" s="50">
+        <v>44475</v>
+      </c>
+      <c r="D352" s="12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="75" customHeight="1">
+      <c r="A353" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="B353" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="C353" s="50">
+        <v>44475</v>
+      </c>
+      <c r="D353" s="12" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="75" customHeight="1">
+      <c r="A354" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="B354" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="C354" s="50">
+        <v>44475</v>
+      </c>
+      <c r="D354" s="12" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="75" customHeight="1">
+      <c r="A355" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="B355" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="C355" s="50">
+        <v>44475</v>
+      </c>
+      <c r="D355" s="12" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="75" customHeight="1"/>
+    <row r="357" spans="1:4" ht="75" customHeight="1"/>
+    <row r="358" spans="1:4" ht="75" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
     <mergeCell ref="A2:A6"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21700" yWindow="3100" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="17960" yWindow="1740" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="595">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1416,10 +1416,6 @@
   </si>
   <si>
     <t>997. Find the Town Judge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有向图：写法一 用哈希表维护 / 写法二 用数组维护 为了方便维护两个长度为N+1的数组一个为入度一个为出度，检查是否存在一个人被除了自己以外的所有人信任并且不信任任何人/ 写法三 邻接矩阵 / 写法四 邻接表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2256,10 +2252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>哈希集合 + 滑动窗口：直接遍历同时利用切片存入哈希表 如果第二次见到就存到res中，注意res也需要做一个去重所以也可以用哈希集合，最后将res转化成list即可 #求有长度的子字符串遍历range的范围 n - Length + 1  bitmask优化：待完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">189. Rotate Array
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2325,10 +2317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前缀和优化+同余定理：具体推导见草稿纸，实现上难度不大，唯一需要注意的是，如果哈希表中存在remains，我们则不更新dic[remains]了，因为题目的要求比较简单只需要判断是否存在这样的子数组。由于哈希表存储的是每个余数第一次出现的下标，因此当遇到重复的余数时，根据当前下标和哈希表中存储的下标计算得到的子数组长度是以当前下标结尾的子数组中满足元素和为 k 的倍数的子数组长度中的最大值。只要最大长度至少为 2，即存在符合要求的子数组。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前缀和优化+同余定理：具体推导见草稿纸，这里比较麻烦的是需要处理curmod - mod正负的情况 (curmod为当前preSum的余数，mod为sum(nums)%k)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2448,6 +2436,193 @@
   </si>
   <si>
     <t>DFS：恶心题 需要结合isSameTree 递归套递归 外层递归是遍历root树 内层每次都判断一次isSameTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>434. Number of Segments in a String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">模拟： 设置个flag 只有在当前不为空字符并且flag为True才count+=1 统计完一次就将flag成False 直到下次遇到空格设置成True </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大根堆：维护一个大根堆 先存入前k个 求第一次初始化窗口时的最大值 存入res数组，然后开始从k往后遍历入栈，每次遍历都需要检查一下最大值的idx是否还存在窗口内（idx&lt;=i-k），不存在就弹出此元素，因为用heap没有在每次入堆都弹出元素，如果只弹出一次可能存在上个窗口中第二大的值（不存在于此窗口中），所以需要不定检查直到都符合条件，同时每次遍历都需要计算一次此时窗口内的最大值 即大根堆的堆顶元素 单调递减栈： 1.维护单调递减栈存元素的idx（方便窗口计算） 如果入栈元素大于元素就把小于的都弹出 2.判断最大元素是否合法 不合法的情况下考虑直接弹出（idx&lt;=i-k） 3.判断窗口是否初始化完成（idx&gt;=k-1） 完成就需要开始加栈底元素加入res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>239. Sliding Window Maximum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>441. Arranging Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分区间：找到右边界 搭建n层所需coins的数量是一个等差数列(1,2,3,4,5,6,7,8...) 等差数列计算前n项和公式 sn = na1 + (n(n - 1)d / 2) or sn = n(a1 + an) / 2 通项公式为 an = a1 + (n-1)d 通过二分法查找到mid层 然后通过计算前mid层的和记作need 来和 n对比， 找到第一个小于n的need即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">453. Minimum Moves to Equal Array Elements
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>math：逆反思路 即增加n-1个元素1 转化为 减去一个元素1 思路为找到最小值 然后求每个数到最小值的差值累加即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>459. Repeated Substring Pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：切割完 算出当前切割可以分为多少份 然后相乘与原字符串对比。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">476. Number Complement
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>485. Max Consecutive Ones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitManipuation： 算出num二进制的长度 然后做一个全为1等长度的二进制 eg: 要做111(2) = 用1111(2) - 1 最后俩数进行^即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟； 单变量模拟 遇到1计算 遇到0清空  滑动窗口：滑动窗口的模板题 初始化left 然后用for或者while移动right 条件触发就移动left到right下一个位置 然后继续移动right做判断 #注意兜底 最后一段直接结束了没有0作为触发条件 需要单独再算一次 eg:[1,0,1,1,1,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>492. Construct the Rectangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：根据题目给的条件W&lt;=L 那么就以W为基准 如果W*W大于area，那么W*L肯定也会大于area 又因为要L和W差值尽量最小所以 需要找到最大的那个W 从1到题目条件边界尝试 条件一 i * i &lt;= area 并且 条件二area % i == 0 就记录一次W 如果条件一不满足就计算长宽组合即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>187. Repeated DNA Sequences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希集合 + 滑动窗口：substrings子串问题 直接遍历同时利用切片存入哈希集合 如果第二次见到就存到res中，注意res也需要做一个去重所以也可以用哈希集合，最后将res转化成list即可 #求有长度的子字符串遍历range的范围 n - Length + 1   bitmask优化：待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希集合+滑动窗口：见上次 字符串哈希 + 前缀和：待补充 https://leetcode-cn.com/problems/repeated-dna-sequences/solution/gong-shui-san-xie-yi-ti-shuang-jie-hua-d-30pg/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>997. Find the Town Judge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有向图：用数组或者defaultdict(list)来存图 找到那个出度为0并且入度为(n-1)的人 不存在就返回-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有向图：写法一 用哈希表维护 / 写法二 用数组维护 为了方便维护两个长度为N+1的数组一个为入度一个为出度，检查是否存在一个人被除了自己以外的所有人信任并且不信任任何人/ 写法三 邻接矩阵 / 写法四 邻接表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>495. Teemo Attacking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间合并：用一个栈来存持续中毒时间 如果stack[-1][1] &lt; time 那么我们就可以融合俩区间的中间部分 #边界条件可以先放置[-1,-1]或者第一个time的区间 单词遍历：待补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2027. Minimum Moves to Convert String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>520. Detect Capital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心；维护一个idx遍历s 遇到X count+=1 并且idx跳3步即每次都抹去3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：遍历word遇到大写字母就count+=1 分三种情况讨论 1.count==lenword 2.count=0 3.count==1 and (65&lt;=ord(word[0])&lt;= 90)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>521. Longest Uncommon Subsequence I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单解法：分情况讨论 1.如果两个字符串相同，则没有特殊子序列，返回-1  2.abc和 abd。这种情况下，一个字符串一定不会是另外一个字符串的子序列，因此可以将任意一个字符串看作是特殊子序列，返回 length(a) 或 length(b) 3.abcd 和 abc。这种情况下，长的字符串一定不会是短字符串的子序列，因此可以将长字符串看作是特殊子序列，返回 max(length(a),length(b))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>551. Student Attendance Record I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">模拟；俩条件 lateCombo &gt;= 3， countAbs &gt;= 2 return False </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">557. Reverse Words in a String III
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和优化+同余定理：具体推导见草稿纸，实现上难度不大，唯一需要注意的是，如果哈希表中存在remains，我们则不更新dic[remains]了，因为题目的要求比较简单只需要判断是否存在这样的子数组。由于哈希表存储的是每个余数第一次出现的下标，因此当遇到重复的余数时，根据当前下标和哈希表中存储的下标计算得到的子数组长度是以当前下标结尾的子数组中满足元素和为 k 的倍数的子数组长度中的最大值。只要最大长度至少为 2，即存在符合要求的子数组。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟+滑动窗口： 以' '为触发条件 遇到就反转[left, right-1]区间内的字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>561. Array Partition I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心： 用次小去抵消最小的 sort完towPointers min(一对)直接累加ans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2028. Find Missing Observations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟：根据题意 计算totalN = (mean * (len(rolls) + n) - sum(rolls)) 并确认totalN合法not (1*n &lt;= totalN &lt;= 6*n) 求出remains = totalN % n和each = totalN // n 建[each]*n数组 然后把remains一个个匀到数组中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>566. Reshape the Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reshape：板子题 步骤一先将原矩阵转化成一维矩阵 写法一 直接遍历数组然后append到tmp中 / 写法二 利用规律tmp[i * col + j] = mat[i][j] 步骤二将一维矩阵转化为r行c列的矩阵 c为目标数组的列 newRow = i//c newCol = i%c newMat[newRow][newCol] = tmp[i]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2565,7 +2740,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="494">
+  <cellStyleXfs count="562">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3060,8 +3235,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3214,6 +3457,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3232,7 +3484,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="494">
+  <cellStyles count="562">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3473,6 +3725,40 @@
     <cellStyle name="超链接" xfId="488" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="490" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="526" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="560" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3726,6 +4012,40 @@
     <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4058,11 +4378,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F358"/>
+  <dimension ref="A1:F398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D352" sqref="D352"/>
+      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D373" sqref="D373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4093,16 +4413,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="55" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4110,43 +4430,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="51"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="55"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="51"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="52"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="51"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="52"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="55" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4154,43 +4474,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="51"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="52"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="51"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="52"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="51"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="52"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="52"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -4198,571 +4518,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="51"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="52"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="51"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="52"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="55"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="51"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="52"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="55"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="51"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="52"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="55"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="57">
         <v>44418</v>
       </c>
-      <c r="D17" s="52"/>
+      <c r="D17" s="55"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="51"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="52"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="51"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="52"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="51"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="52"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="51"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="52"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="55"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="57">
         <v>44418</v>
       </c>
-      <c r="D22" s="52"/>
+      <c r="D22" s="55"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="51"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="51"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="51"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="51"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="57">
         <v>44418</v>
       </c>
-      <c r="D27" s="52"/>
+      <c r="D27" s="55"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="51"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="51"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="51"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="52"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="51"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="54">
+      <c r="C32" s="57">
         <v>44419</v>
       </c>
-      <c r="D32" s="52"/>
+      <c r="D32" s="55"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="51"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="51"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="52"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="51"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="51"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="52"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="57">
         <v>44419</v>
       </c>
-      <c r="D37" s="52"/>
+      <c r="D37" s="55"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="51"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="52"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="55"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="51"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="52"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="55"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="51"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="52"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="55"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="51"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="52"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="55"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="54">
+      <c r="C42" s="57">
         <v>44420</v>
       </c>
-      <c r="D42" s="52"/>
+      <c r="D42" s="55"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="51"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="52"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="55"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="51"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="52"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="55"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="51"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="52"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="55"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="51"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="52"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="55"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="54">
+      <c r="C47" s="57">
         <v>44420</v>
       </c>
-      <c r="D47" s="52"/>
+      <c r="D47" s="55"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="51"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="52"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="55"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="51"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="52"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="55"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="51"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="52"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="55"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="51"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="52"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="55"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C52" s="57">
         <v>44421</v>
       </c>
-      <c r="D52" s="52"/>
+      <c r="D52" s="55"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="51"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="52"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="55"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="51"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="52"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="55"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="51"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="52"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="55"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="51"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="52"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="55"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="54">
+      <c r="C57" s="57">
         <v>44422</v>
       </c>
-      <c r="D57" s="52"/>
+      <c r="D57" s="55"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="51"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="52"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="55"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="51"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="52"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="55"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="52"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="55"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="51"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="52"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="55"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="51" t="s">
+      <c r="A62" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="54">
+      <c r="C62" s="57">
         <v>44423</v>
       </c>
-      <c r="D62" s="52"/>
+      <c r="D62" s="55"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="51"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="52"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="55"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="51"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="52"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="55"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="51"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="52"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="55"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="51"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="52"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="55"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="51" t="s">
+      <c r="A67" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="54">
+      <c r="C67" s="57">
         <v>44423</v>
       </c>
-      <c r="D67" s="52"/>
+      <c r="D67" s="55"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="51"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="52"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="55"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="51"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="52"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="55"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="51"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="52"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="55"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="51"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="52"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="55"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="54">
+      <c r="C72" s="57">
         <v>44423</v>
       </c>
-      <c r="D72" s="52"/>
+      <c r="D72" s="55"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="51"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="52"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="55"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="51"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="52"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="55"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="51"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="52"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="55"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="51"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="52"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="55"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="51" t="s">
+      <c r="A77" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="53" t="s">
+      <c r="B77" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="54">
+      <c r="C77" s="57">
         <v>44424</v>
       </c>
-      <c r="D77" s="52"/>
+      <c r="D77" s="55"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="51"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="52"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="55"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="51"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="52"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="55"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="51"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="52"/>
+      <c r="A80" s="54"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="55"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="51"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="52"/>
+      <c r="A81" s="54"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="55"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="51" t="s">
+      <c r="A82" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="54">
+      <c r="C82" s="57">
         <v>44424</v>
       </c>
-      <c r="D82" s="52"/>
+      <c r="D82" s="55"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="51"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="52"/>
+      <c r="A83" s="54"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="55"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="51"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="52"/>
+      <c r="A84" s="54"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="55"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="51"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="52"/>
+      <c r="A85" s="54"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="55"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="51"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="52"/>
+      <c r="A86" s="54"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="55"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="51" t="s">
+      <c r="A87" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="53" t="s">
+      <c r="B87" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="54">
+      <c r="C87" s="57">
         <v>44424</v>
       </c>
-      <c r="D87" s="52"/>
+      <c r="D87" s="55"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="51"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="52"/>
+      <c r="A88" s="54"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="55"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="51"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="52"/>
+      <c r="A89" s="54"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="55"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="51"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="52"/>
+      <c r="A90" s="54"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="55"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="51"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="52"/>
+      <c r="A91" s="54"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="55"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="38" t="s">
@@ -5694,7 +6014,7 @@
         <v>44447</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="75" customHeight="1">
@@ -6276,7 +6596,7 @@
         <v>44452</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="75" customHeight="1">
@@ -6822,12 +7142,12 @@
         <v>44456</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>340</v>
+        <v>574</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="75" customHeight="1">
       <c r="A268" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B268" s="17" t="s">
         <v>33</v>
@@ -6836,306 +7156,306 @@
         <v>44457</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="75" customHeight="1">
       <c r="A269" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="C269" s="21">
         <v>44457</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="75" customHeight="1">
       <c r="A270" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="C270" s="21">
         <v>44457</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="75" customHeight="1">
       <c r="A271" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="C271" s="21">
         <v>44457</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="75" customHeight="1">
       <c r="A272" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="C272" s="21">
         <v>44457</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="75" customHeight="1">
       <c r="A273" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C273" s="21">
         <v>44457</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="75" customHeight="1">
       <c r="A274" s="38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B274" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C274" s="21">
         <v>44457</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="75" customHeight="1">
       <c r="A275" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="C275" s="26">
         <v>44458</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="75" customHeight="1">
       <c r="A276" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="C276" s="26">
         <v>44458</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="75" customHeight="1">
       <c r="A277" s="38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C277" s="26">
         <v>44459</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="75" customHeight="1">
       <c r="A278" s="38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B278" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C278" s="26">
         <v>44459</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="75" customHeight="1">
       <c r="A279" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C279" s="26">
         <v>44459</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="75" customHeight="1">
       <c r="A280" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C280" s="26">
         <v>44459</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="75" customHeight="1">
       <c r="A281" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C281" s="28">
         <v>44460</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="93" customHeight="1">
       <c r="A282" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C282" s="28">
         <v>44460</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="99" customHeight="1">
       <c r="A283" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="C283" s="28">
         <v>44460</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="111" customHeight="1">
       <c r="A284" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B284" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C284" s="28">
         <v>44460</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="75" customHeight="1">
       <c r="A285" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B285" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C285" s="28">
         <v>44460</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="75" customHeight="1">
       <c r="A286" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="C286" s="28">
         <v>44460</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="75" customHeight="1">
       <c r="A287" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="C287" s="30">
         <v>44461</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="75" customHeight="1">
       <c r="A288" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="C288" s="30">
         <v>44461</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="75" customHeight="1">
       <c r="A289" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="C289" s="30">
         <v>44461</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="75" customHeight="1">
       <c r="A290" s="38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>207</v>
@@ -7144,502 +7464,502 @@
         <v>44461</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="75" customHeight="1">
       <c r="A291" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B291" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C291" s="30">
         <v>44461</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="75" customHeight="1">
       <c r="A292" s="38" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C292" s="30">
         <v>44461</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="75" customHeight="1">
       <c r="A293" s="38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C293" s="21">
         <v>44461</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="75" customHeight="1">
       <c r="A294" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B294" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C294" s="21">
         <v>44461</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="75" customHeight="1">
       <c r="A295" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="C295" s="21">
         <v>44462</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="75" customHeight="1">
       <c r="A296" s="38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B296" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C296" s="21">
         <v>44462</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="75" customHeight="1">
       <c r="A297" s="38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B297" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C297" s="21">
         <v>44462</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="75" customHeight="1">
       <c r="A298" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B298" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C298" s="21">
         <v>44462</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="75" customHeight="1">
       <c r="A299" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B299" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C299" s="21">
         <v>44462</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="75" customHeight="1">
       <c r="A300" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="B300" s="32" t="s">
         <v>420</v>
-      </c>
-      <c r="B300" s="32" t="s">
-        <v>421</v>
       </c>
       <c r="C300" s="21">
         <v>44462</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="75" customHeight="1">
       <c r="A301" s="38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B301" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C301" s="21">
         <v>44462</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="75" customHeight="1">
       <c r="A302" s="38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B302" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C302" s="21">
         <v>44462</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="75" customHeight="1">
       <c r="A303" s="38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B303" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C303" s="21">
         <v>44462</v>
       </c>
       <c r="D303" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="75" customHeight="1">
       <c r="A304" s="38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B304" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C304" s="21">
         <v>44462</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="75" customHeight="1">
       <c r="A305" s="38" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B305" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C305" s="21">
         <v>44462</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="75" customHeight="1">
       <c r="A306" s="38" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B306" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C306" s="21">
         <v>44463</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="75" customHeight="1">
       <c r="A307" s="38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B307" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C307" s="21">
         <v>44463</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="75" customHeight="1">
       <c r="A308" s="38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B308" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C308" s="21">
         <v>44463</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="75" customHeight="1">
       <c r="A309" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B309" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C309" s="21">
         <v>44463</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="109" customHeight="1">
       <c r="A310" s="38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C310" s="21">
         <v>44463</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="75" customHeight="1">
       <c r="A311" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="C311" s="21">
         <v>44464</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="75" customHeight="1">
       <c r="A312" s="38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B312" s="34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C312" s="21">
         <v>44464</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="75" customHeight="1">
       <c r="A313" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B313" s="34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C313" s="21">
         <v>44465</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="75" customHeight="1">
       <c r="A314" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="C314" s="21">
         <v>44465</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="75" customHeight="1">
       <c r="A315" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B315" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C315" s="35">
         <v>44466</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="75" customHeight="1">
       <c r="A316" s="38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C316" s="35">
         <v>44466</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="75" customHeight="1">
       <c r="A317" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="C317" s="37">
         <v>44467</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="75" customHeight="1">
       <c r="A318" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="C318" s="37">
         <v>44467</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="75" customHeight="1">
       <c r="A319" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B319" s="36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C319" s="37">
         <v>44467</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="75" customHeight="1">
       <c r="A320" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C320" s="37">
         <v>44467</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="75" customHeight="1">
       <c r="A321" s="38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B321" s="36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C321" s="37">
         <v>44467</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="75" customHeight="1">
       <c r="A322" s="38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B322" s="36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C322" s="37">
         <v>44467</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="75" customHeight="1">
       <c r="A323" s="38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B323" s="36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C323" s="37">
         <v>44467</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="100" customHeight="1">
       <c r="A324" s="38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B324" s="36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C324" s="37">
         <v>44467</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="75" customHeight="1">
       <c r="A325" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="C325" s="40">
         <v>44468</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="75" customHeight="1">
       <c r="A326" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B326" s="39" t="s">
         <v>4</v>
@@ -7648,40 +7968,40 @@
         <v>44468</v>
       </c>
       <c r="D326" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="75" customHeight="1">
       <c r="A327" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="C327" s="40">
         <v>44468</v>
       </c>
       <c r="D327" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="75" customHeight="1">
       <c r="A328" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="C328" s="40">
         <v>44468</v>
       </c>
       <c r="D328" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="75" customHeight="1">
       <c r="A329" s="38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B329" s="41" t="s">
         <v>6</v>
@@ -7690,12 +8010,12 @@
         <v>44469</v>
       </c>
       <c r="D329" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="75" customHeight="1">
       <c r="A330" s="38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B330" s="41" t="s">
         <v>6</v>
@@ -7704,113 +8024,113 @@
         <v>44469</v>
       </c>
       <c r="D330" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="75" customHeight="1">
       <c r="A331" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="C331" s="43">
         <v>44470</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="75" customHeight="1">
       <c r="A332" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="C332" s="43">
         <v>44470</v>
       </c>
       <c r="D332" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="75" customHeight="1">
       <c r="A333" s="38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B333" s="42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C333" s="43">
         <v>44470</v>
       </c>
       <c r="D333" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="75" customHeight="1">
       <c r="A334" s="38" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B334" s="42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C334" s="43">
         <v>44470</v>
       </c>
       <c r="D334" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="75" customHeight="1">
       <c r="A335" s="38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B335" s="42" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C335" s="43">
         <v>44470</v>
       </c>
       <c r="D335" s="12" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="96" customHeight="1">
       <c r="A336" s="38" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B336" s="42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C336" s="43">
         <v>44470</v>
       </c>
       <c r="D336" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="75" customHeight="1">
       <c r="A337" s="38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B337" s="42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C337" s="43">
         <v>44470</v>
       </c>
       <c r="D337" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="75" customHeight="1">
       <c r="A338" s="38" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C338" s="44">
         <v>44470</v>
@@ -7818,35 +8138,35 @@
     </row>
     <row r="339" spans="1:4" ht="95" customHeight="1">
       <c r="A339" s="38" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C339" s="44">
         <v>44471</v>
       </c>
       <c r="D339" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="95" customHeight="1">
       <c r="A340" s="38" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C340" s="44">
         <v>44471</v>
       </c>
       <c r="D340" s="12" t="s">
-        <v>521</v>
+        <v>586</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="75" customHeight="1">
       <c r="A341" s="38" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B341" s="45" t="s">
         <v>11</v>
@@ -7855,12 +8175,12 @@
         <v>44472</v>
       </c>
       <c r="D341" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="75" customHeight="1">
       <c r="A342" s="38" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B342" s="45" t="s">
         <v>11</v>
@@ -7869,12 +8189,12 @@
         <v>44472</v>
       </c>
       <c r="D342" s="12" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="75" customHeight="1">
       <c r="A343" s="38" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B343" s="45" t="s">
         <v>11</v>
@@ -7883,54 +8203,54 @@
         <v>44472</v>
       </c>
       <c r="D343" s="12" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="75" customHeight="1">
       <c r="A344" s="38" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C344" s="48">
         <v>44473</v>
       </c>
       <c r="D344" s="12" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="75" customHeight="1">
       <c r="A345" s="38" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C345" s="48">
         <v>44473</v>
       </c>
       <c r="D345" s="12" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="75" customHeight="1">
       <c r="A346" s="38" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B346" s="47" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C346" s="48">
         <v>44474</v>
       </c>
       <c r="D346" s="12" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="93" customHeight="1">
       <c r="A347" s="38" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B347" s="47" t="s">
         <v>4</v>
@@ -7939,12 +8259,12 @@
         <v>44474</v>
       </c>
       <c r="D347" s="12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="75" customHeight="1">
       <c r="A348" s="38" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B348" s="47" t="s">
         <v>4</v>
@@ -7953,12 +8273,12 @@
         <v>44474</v>
       </c>
       <c r="D348" s="12" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="75" customHeight="1">
       <c r="A349" s="38" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B349" s="47" t="s">
         <v>4</v>
@@ -7967,12 +8287,12 @@
         <v>44474</v>
       </c>
       <c r="D349" s="12" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="124" customHeight="1">
       <c r="A350" s="38" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B350" s="49" t="s">
         <v>4</v>
@@ -7981,82 +8301,369 @@
         <v>44475</v>
       </c>
       <c r="D350" s="12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="75" customHeight="1">
       <c r="A351" s="38" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C351" s="50">
         <v>44475</v>
       </c>
       <c r="D351" s="12" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="75" customHeight="1">
       <c r="A352" s="38" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B352" s="49" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C352" s="50">
         <v>44475</v>
       </c>
       <c r="D352" s="12" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="75" customHeight="1">
       <c r="A353" s="38" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B353" s="49" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C353" s="50">
         <v>44475</v>
       </c>
       <c r="D353" s="12" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="75" customHeight="1">
       <c r="A354" s="38" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B354" s="49" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C354" s="50">
         <v>44475</v>
       </c>
       <c r="D354" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="75" customHeight="1">
       <c r="A355" s="38" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B355" s="49" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C355" s="50">
         <v>44475</v>
       </c>
       <c r="D355" s="12" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="75" customHeight="1">
+      <c r="A356" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="B356" s="51" t="s">
+        <v>538</v>
+      </c>
+      <c r="C356" s="52">
+        <v>44476</v>
+      </c>
+      <c r="D356" s="12" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="134" customHeight="1">
+      <c r="A357" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" ht="75" customHeight="1"/>
-    <row r="357" spans="1:4" ht="75" customHeight="1"/>
-    <row r="358" spans="1:4" ht="75" customHeight="1"/>
+      <c r="C357" s="52">
+        <v>44476</v>
+      </c>
+      <c r="D357" s="12" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="75" customHeight="1">
+      <c r="A358" s="38" t="s">
+        <v>555</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C358" s="21">
+        <v>44476</v>
+      </c>
+      <c r="D358" s="12" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="75" customHeight="1">
+      <c r="A359" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B359" s="51" t="s">
+        <v>554</v>
+      </c>
+      <c r="C359" s="21">
+        <v>44476</v>
+      </c>
+      <c r="D359" s="12" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="75" customHeight="1">
+      <c r="A360" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B360" s="51" t="s">
+        <v>554</v>
+      </c>
+      <c r="C360" s="21">
+        <v>44476</v>
+      </c>
+      <c r="D360" s="12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="75" customHeight="1">
+      <c r="A361" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="B361" s="51" t="s">
+        <v>554</v>
+      </c>
+      <c r="C361" s="21">
+        <v>44476</v>
+      </c>
+      <c r="D361" s="12" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="75" customHeight="1">
+      <c r="A362" s="38" t="s">
+        <v>562</v>
+      </c>
+      <c r="B362" s="51" t="s">
+        <v>554</v>
+      </c>
+      <c r="C362" s="21">
+        <v>44476</v>
+      </c>
+      <c r="D362" s="12" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="75" customHeight="1">
+      <c r="A363" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="B363" s="51" t="s">
+        <v>554</v>
+      </c>
+      <c r="C363" s="21">
+        <v>44476</v>
+      </c>
+      <c r="D363" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="75" customHeight="1">
+      <c r="A364" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C364" s="21">
+        <v>44477</v>
+      </c>
+      <c r="D364" s="12" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="75" customHeight="1">
+      <c r="A365" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C365" s="21">
+        <v>44477</v>
+      </c>
+      <c r="D365" s="12" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="75" customHeight="1">
+      <c r="A366" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C366" s="21">
+        <v>44477</v>
+      </c>
+      <c r="D366" s="12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="75" customHeight="1">
+      <c r="A367" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="B367" s="53" t="s">
+        <v>572</v>
+      </c>
+      <c r="C367" s="21">
+        <v>44477</v>
+      </c>
+      <c r="D367" s="12" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="75" customHeight="1">
+      <c r="A368" s="38" t="s">
+        <v>578</v>
+      </c>
+      <c r="B368" s="53" t="s">
+        <v>572</v>
+      </c>
+      <c r="C368" s="21">
+        <v>44477</v>
+      </c>
+      <c r="D368" s="12" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="80" customHeight="1">
+      <c r="A369" s="38" t="s">
+        <v>581</v>
+      </c>
+      <c r="B369" s="53" t="s">
+        <v>572</v>
+      </c>
+      <c r="C369" s="21">
+        <v>44477</v>
+      </c>
+      <c r="D369" s="12" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="75" customHeight="1">
+      <c r="A370" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="B370" s="53" t="s">
+        <v>572</v>
+      </c>
+      <c r="C370" s="21">
+        <v>44477</v>
+      </c>
+      <c r="D370" s="12" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="75" customHeight="1">
+      <c r="A371" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="B371" s="53" t="s">
+        <v>572</v>
+      </c>
+      <c r="C371" s="21">
+        <v>44477</v>
+      </c>
+      <c r="D371" s="12" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="75" customHeight="1">
+      <c r="A372" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="B372" s="53" t="s">
+        <v>572</v>
+      </c>
+      <c r="C372" s="21">
+        <v>44477</v>
+      </c>
+      <c r="D372" s="12" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="75" customHeight="1">
+      <c r="A373" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C373" s="21">
+        <v>44477</v>
+      </c>
+      <c r="D373" s="12" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="75" customHeight="1">
+      <c r="A374" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="B374" s="53" t="s">
+        <v>572</v>
+      </c>
+      <c r="C374" s="21">
+        <v>44477</v>
+      </c>
+      <c r="D374" s="12" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="75" customHeight="1"/>
+    <row r="376" spans="1:4" ht="75" customHeight="1"/>
+    <row r="377" spans="1:4" ht="75" customHeight="1"/>
+    <row r="378" spans="1:4" ht="75" customHeight="1"/>
+    <row r="379" spans="1:4" ht="75" customHeight="1"/>
+    <row r="380" spans="1:4" ht="75" customHeight="1"/>
+    <row r="381" spans="1:4" ht="75" customHeight="1"/>
+    <row r="382" spans="1:4" ht="75" customHeight="1"/>
+    <row r="383" spans="1:4" ht="75" customHeight="1"/>
+    <row r="384" spans="1:4" ht="75" customHeight="1"/>
+    <row r="385" ht="75" customHeight="1"/>
+    <row r="386" ht="75" customHeight="1"/>
+    <row r="387" ht="75" customHeight="1"/>
+    <row r="388" ht="75" customHeight="1"/>
+    <row r="389" ht="75" customHeight="1"/>
+    <row r="390" ht="75" customHeight="1"/>
+    <row r="391" ht="75" customHeight="1"/>
+    <row r="392" ht="75" customHeight="1"/>
+    <row r="393" ht="75" customHeight="1"/>
+    <row r="394" ht="75" customHeight="1"/>
+    <row r="395" ht="75" customHeight="1"/>
+    <row r="396" ht="75" customHeight="1"/>
+    <row r="397" ht="75" customHeight="1"/>
+    <row r="398" ht="75" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
     <mergeCell ref="A2:A6"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17960" yWindow="1740" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="17260" yWindow="1280" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="605">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2625,6 +2625,47 @@
     <t>reshape：板子题 步骤一先将原矩阵转化成一维矩阵 写法一 直接遍历数组然后append到tmp中 / 写法二 利用规律tmp[i * col + j] = mat[i][j] 步骤二将一维矩阵转化为r行c列的矩阵 c为目标数组的列 newRow = i//c newCol = i%c newMat[newRow][newCol] = tmp[i]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>886. Possible Bipartition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DFS+染色法： 根据题目建图 然后DFS染色 如果存在一个染色冲突即返回False 实现上有两种写法 一种是维护全局变量 如果没染过色就深搜 在dfs后面设置个if not valid 表示如果函数执行完 valid被设置成False就说明不成立。 / 写法二 另一种是用check函数 一个False就返回False 即if vis[k] == 0 and not dfs(node, color): return False </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">352. Data Stream as Disjoint Intervals
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>441. Arranging Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分：等差数列求搭建到mid项和，然后看n的数量是否够用，二分区间 搜右区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1203. Sort Items by Groups Respecting Dependencies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2740,7 +2781,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="562">
+  <cellStyleXfs count="574">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3303,8 +3344,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3466,6 +3519,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3484,7 +3540,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="562">
+  <cellStyles count="574">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3759,6 +3815,12 @@
     <cellStyle name="超链接" xfId="556" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="558" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="572" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4046,6 +4108,12 @@
     <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4381,15 +4449,15 @@
   <dimension ref="A1:F398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D373" sqref="D373"/>
+      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D377" sqref="D377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="38" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="13" customWidth="1"/>
     <col min="4" max="4" width="79.5" style="12" customWidth="1"/>
     <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
@@ -4413,16 +4481,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="56" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4430,43 +4498,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="54"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="55"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="54"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="56"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="54"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="56"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="56" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4474,43 +4542,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="54"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="54"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="55"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="56"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="54"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="55"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="56"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="54"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="55"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="56"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="56" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -4518,571 +4586,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="54"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="55"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="54"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="55"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="56"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="54"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="55"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="56"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="54"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="55"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="56"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="58">
         <v>44418</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="56"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="54"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="55"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="56"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="54"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="55"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="54"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="55"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="54"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="55"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="56"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="58">
         <v>44418</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="56"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="54"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="56"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="54"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="56"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="54"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="54"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="58">
         <v>44418</v>
       </c>
-      <c r="D27" s="55"/>
+      <c r="D27" s="56"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="54"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="54"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="54"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="54"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="56"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="58">
         <v>44419</v>
       </c>
-      <c r="D32" s="55"/>
+      <c r="D32" s="56"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="54"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="56"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="54"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="56"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="54"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="55"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="56"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="54"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="56"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="58">
         <v>44419</v>
       </c>
-      <c r="D37" s="55"/>
+      <c r="D37" s="56"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="54"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="55"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="56"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="54"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="55"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="54"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="56"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="54"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="55"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="56"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="58">
         <v>44420</v>
       </c>
-      <c r="D42" s="55"/>
+      <c r="D42" s="56"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="54"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="55"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="56"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="54"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="55"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="56"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="54"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="55"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="56"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="54"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="55"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="56"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="57">
+      <c r="C47" s="58">
         <v>44420</v>
       </c>
-      <c r="D47" s="55"/>
+      <c r="D47" s="56"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="54"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="55"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="56"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="54"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="55"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="56"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="54"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="55"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="56"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="54"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="55"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="56"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="57">
+      <c r="C52" s="58">
         <v>44421</v>
       </c>
-      <c r="D52" s="55"/>
+      <c r="D52" s="56"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="54"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="55"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="54"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="55"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="56"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="54"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="55"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="56"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="54"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="55"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="56"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="57">
+      <c r="C57" s="58">
         <v>44422</v>
       </c>
-      <c r="D57" s="55"/>
+      <c r="D57" s="56"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="55"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="56"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="55"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="56"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="55"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="56"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="55"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="56"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="56" t="s">
+      <c r="B62" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="57">
+      <c r="C62" s="58">
         <v>44423</v>
       </c>
-      <c r="D62" s="55"/>
+      <c r="D62" s="56"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="54"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="55"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="56"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="54"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="55"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="56"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="54"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="55"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="56"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="54"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="55"/>
+      <c r="A66" s="55"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="56"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="54" t="s">
+      <c r="A67" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="57">
+      <c r="C67" s="58">
         <v>44423</v>
       </c>
-      <c r="D67" s="55"/>
+      <c r="D67" s="56"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="54"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="55"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="56"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="54"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="55"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="56"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="54"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="55"/>
+      <c r="A70" s="55"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="56"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="54"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="55"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="56"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="56" t="s">
+      <c r="B72" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="57">
+      <c r="C72" s="58">
         <v>44423</v>
       </c>
-      <c r="D72" s="55"/>
+      <c r="D72" s="56"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="54"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="55"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="56"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="54"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="55"/>
+      <c r="A74" s="55"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="56"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="54"/>
-      <c r="B75" s="56"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="55"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="56"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="54"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="55"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="56"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="54" t="s">
+      <c r="A77" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="57">
+      <c r="C77" s="58">
         <v>44424</v>
       </c>
-      <c r="D77" s="55"/>
+      <c r="D77" s="56"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="54"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="55"/>
+      <c r="A78" s="55"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="56"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="54"/>
-      <c r="B79" s="56"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="55"/>
+      <c r="A79" s="55"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="56"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="54"/>
-      <c r="B80" s="56"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="55"/>
+      <c r="A80" s="55"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="56"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="54"/>
-      <c r="B81" s="56"/>
-      <c r="C81" s="54"/>
-      <c r="D81" s="55"/>
+      <c r="A81" s="55"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="56"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="54" t="s">
+      <c r="A82" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="56" t="s">
+      <c r="B82" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="57">
+      <c r="C82" s="58">
         <v>44424</v>
       </c>
-      <c r="D82" s="55"/>
+      <c r="D82" s="56"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="54"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="55"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="56"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="54"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="55"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="56"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="54"/>
-      <c r="B85" s="56"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="55"/>
+      <c r="A85" s="55"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="56"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="54"/>
-      <c r="B86" s="56"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="55"/>
+      <c r="A86" s="55"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="56"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="57">
+      <c r="C87" s="58">
         <v>44424</v>
       </c>
-      <c r="D87" s="55"/>
+      <c r="D87" s="56"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="54"/>
-      <c r="B88" s="56"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="55"/>
+      <c r="A88" s="55"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="56"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="54"/>
-      <c r="B89" s="56"/>
-      <c r="C89" s="54"/>
-      <c r="D89" s="55"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="56"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="54"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="55"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="56"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="54"/>
-      <c r="B91" s="56"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="55"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="56"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="38" t="s">
@@ -8640,10 +8708,62 @@
         <v>594</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="75" customHeight="1"/>
-    <row r="376" spans="1:4" ht="75" customHeight="1"/>
-    <row r="377" spans="1:4" ht="75" customHeight="1"/>
-    <row r="378" spans="1:4" ht="75" customHeight="1"/>
+    <row r="375" spans="1:4" ht="81" customHeight="1">
+      <c r="A375" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="B375" s="54" t="s">
+        <v>591</v>
+      </c>
+      <c r="C375" s="21">
+        <v>44478</v>
+      </c>
+      <c r="D375" s="12" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="75" customHeight="1">
+      <c r="A376" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C376" s="21">
+        <v>44478</v>
+      </c>
+      <c r="D376" s="12" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="75" customHeight="1">
+      <c r="A377" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C377" s="21">
+        <v>44479</v>
+      </c>
+      <c r="D377" s="12" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="75" customHeight="1">
+      <c r="A378" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C378" s="21">
+        <v>44479</v>
+      </c>
+      <c r="D378" s="12" t="s">
+        <v>600</v>
+      </c>
+    </row>
     <row r="379" spans="1:4" ht="75" customHeight="1"/>
     <row r="380" spans="1:4" ht="75" customHeight="1"/>
     <row r="381" spans="1:4" ht="75" customHeight="1"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="14960" tabRatio="500"/>
+    <workbookView windowWidth="28000" windowHeight="12660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517">
   <si>
     <t>Title</t>
   </si>
@@ -1767,18 +1767,30 @@
   <si>
     <t>模拟：用一个1000000000来做unit不断获取一个长度为3的单位curNum 如果curNum长度不够就为0 第一个循环获取billion单位 配合thousands[3] 意味着num的长度最少为10即billion起步 每次补充完s 然后将unit缩小3个单位长度 eg:1000 -&gt; 1 #一亿表示为one hundred million #有空可以看看别人写的简单思路和BFS版本的补充</t>
   </si>
+  <si>
+    <t>29. Divide Two Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模拟：比较恶心的一道题 恶心的点主要在于边界条件 有负号先提取负号 先看一个corner case是-2**31/-1, 然后需要考虑正负号问题 有两种解决方法一种是都abs abs的话要考虑abs(-2**31)另一种是都转化成负数 因为同符号相除不会变号 处理完上述条件 本质上我们需要做一个用-法代替除法的过程，每次都减去divisor并统计看一共减去了几次，优化时我们可以用倍增法加速。#倍增法明天还得继续看看 </t>
+  </si>
+  <si>
+    <t>1834. Single-Threaded CPU</t>
+  </si>
+  <si>
+    <t>sort + minHeap：做一个长度为n的indices数组 n为tasks长度 然后根据task[0]的时间点对indices进行排序 排序以后开始入最小堆 维护timestamp和ptr （用于指向indices 因为indices已经按照tasks[x][0]排序过，所以ptr直接在indices中按顺序往后移动判断开始时间是和否存小于等于timeStamp）如果栈内没东西可以做一个加速 将timestamp与tasks[indices[ptr]][0]取大者 然后将所有开始时间小于timeStamp的都加入优先队 列 接着我们选择选择处理时间话费最小的任务即pop出的元素 更新timestamp为做完此项目以后的时间 并保存下它的idx后加入res即可</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1801,7 +1813,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1815,63 +1827,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1890,9 +1850,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1906,8 +1866,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1935,11 +1956,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1948,7 +1979,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1987,13 +2018,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2005,25 +2138,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2035,19 +2150,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2059,115 +2186,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2190,51 +2209,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2251,6 +2229,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2279,144 +2298,150 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2480,7 +2505,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
@@ -2513,21 +2538,23 @@
     <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
     <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="标题" xfId="32" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="33" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="34" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="35" builtinId="40"/>
-    <cellStyle name="注释" xfId="36" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="37" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="38" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51"/>
-    <cellStyle name="千位分隔[0]" xfId="40" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="41" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="43" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="46" builtinId="24"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -2865,9 +2892,9 @@
   <dimension ref="A1:F398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C379" sqref="C379"/>
+      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="5"/>
@@ -6846,8 +6873,34 @@
         <v>512</v>
       </c>
     </row>
-    <row r="381" ht="75" customHeight="1"/>
-    <row r="382" ht="75" customHeight="1"/>
+    <row r="381" ht="75" customHeight="1" spans="1:4">
+      <c r="A381" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C381" s="19">
+        <v>44481</v>
+      </c>
+      <c r="D381" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="382" ht="96" customHeight="1" spans="1:4">
+      <c r="A382" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C382" s="19">
+        <v>44481</v>
+      </c>
+      <c r="D382" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
     <row r="383" ht="75" customHeight="1"/>
     <row r="384" ht="75" customHeight="1"/>
     <row r="385" ht="75" customHeight="1"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12660" tabRatio="500"/>
+    <workbookView windowWidth="28320" windowHeight="15380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523">
   <si>
     <t>Title</t>
   </si>
@@ -1779,16 +1779,34 @@
   <si>
     <t>sort + minHeap：做一个长度为n的indices数组 n为tasks长度 然后根据task[0]的时间点对indices进行排序 排序以后开始入最小堆 维护timestamp和ptr （用于指向indices 因为indices已经按照tasks[x][0]排序过，所以ptr直接在indices中按顺序往后移动判断开始时间是和否存小于等于timeStamp）如果栈内没东西可以做一个加速 将timestamp与tasks[indices[ptr]][0]取大者 然后将所有开始时间小于timeStamp的都加入优先队 列 接着我们选择选择处理时间话费最小的任务即pop出的元素 更新timestamp为做完此项目以后的时间 并保存下它的idx后加入res即可</t>
   </si>
+  <si>
+    <t>1904.The Number of Full Rounds You Have Played</t>
+  </si>
+  <si>
+    <t>分类讨论：分为隔天的情况和不隔天的情况 隔天的情况就用23 - startHour + endHour 算出一共有多少个小时，然后再求出分钟（这里还没太明白）。 转化成分钟：如果全换算成分钟时，startTime 大于 endTime 就给endTime加上一天的分钟数, 然后对startTime的分钟数上取整15分钟，endTime的分钟数下取整15分钟，最后再转化成分钟求一共有多少个15分钟。</t>
+  </si>
+  <si>
+    <t>Time(/or%)</t>
+  </si>
+  <si>
+    <t>306. Additive Number</t>
+  </si>
+  <si>
+    <t>暴力：遍历所有情况 分别截取p1, p2, rst = num[:i], num[i:j], num[j:] 先判断p1和p2是否合理 然后再用check函数判断是否是fib数列，check函数的base就是一直往下搜直到p==rst就返回True，如果某次len(p) &gt; len(rst) or rst[:len(p)] != p就返回False，目标是一True为True。</t>
+  </si>
+  <si>
+    <t>DFS(check)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1813,7 +1831,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1828,25 +1914,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1868,29 +1939,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1911,17 +1960,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1929,28 +1969,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2024,7 +2042,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2036,25 +2090,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2066,7 +2144,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2078,19 +2180,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2102,49 +2192,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2156,37 +2204,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2203,8 +2221,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2234,6 +2252,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2244,17 +2286,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2276,172 +2307,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2892,9 +2910,9 @@
   <dimension ref="A1:F398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
+      <selection pane="bottomLeft" activeCell="D385" sqref="D385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="5"/>
@@ -6901,8 +6919,40 @@
         <v>516</v>
       </c>
     </row>
-    <row r="383" ht="75" customHeight="1"/>
-    <row r="384" ht="75" customHeight="1"/>
+    <row r="383" ht="75" customHeight="1" spans="1:5">
+      <c r="A383" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C383" s="11">
+        <v>44482</v>
+      </c>
+      <c r="D383" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="384" ht="75" customHeight="1" spans="1:5">
+      <c r="A384" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C384" s="11">
+        <v>44482</v>
+      </c>
+      <c r="D384" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
     <row r="385" ht="75" customHeight="1"/>
     <row r="386" ht="75" customHeight="1"/>
     <row r="387" ht="75" customHeight="1"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28320" windowHeight="15380" tabRatio="500"/>
+    <workbookView windowWidth="28860" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550">
   <si>
     <t>Title</t>
   </si>
@@ -1308,159 +1308,7 @@
     <t>304. Range Sum Query 2D - Immutable</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>暴力：暴力遍历 把范围拆成一维前缀和分别去算 二维前缀和：求出 preSum 二维阵列然后带入 A sigma(i=a) B sigma(i=b) arr[i][j] = preSum[i][j] + preSum[i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="华文黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1][j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="华文黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="华文黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">− </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>preSum[i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="华文黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1][j] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="华文黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">− </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>preSum[i][j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="华文黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1] (可简化，即让preSum 阵列会比原矩阵多一行一列类似一维) 简化为：A sigma(i=a) B sigma(i=b) preSum[A+1][B+1]+preSum[a][b]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="华文黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>preSum[A+1][b]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="华文黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>preSum[a][B+1]</t>
-    </r>
+    <t>暴力：暴力遍历 把范围拆成一维前缀和分别去算 二维前缀和：求出 preSum 二维阵列然后带入 A sigma(i=a) B sigma(i=b) arr[i][j] = preSum[i][j] + preSum[i−1][j−1] − preSum[i−1][j] − preSum[i][j−1] (可简化，即让preSum 阵列会比原矩阵多一行一列类似一维) 简化为：A sigma(i=a) B sigma(i=b) preSum[A+1][B+1]+preSum[a][b]−preSum[A+1][b]−preSum[a][B+1]</t>
   </si>
   <si>
     <t>223. Rectangle Area</t>
@@ -1525,6 +1373,9 @@
     <t>405. Convert a Number to Hexadecimal</t>
   </si>
   <si>
+    <t>待补充</t>
+  </si>
+  <si>
     <t>30. Substring with Concatenation of All Words</t>
   </si>
   <si>
@@ -1709,7 +1560,7 @@
     <t>551. Student Attendance Record I</t>
   </si>
   <si>
-    <t xml:space="preserve">模拟；俩条件 lateCombo &gt;= 3， countAbs &gt;= 2 return False </t>
+    <t>模拟；俩条件 lateCombo &gt;= 3， countAbs &gt;= 2 return False</t>
   </si>
   <si>
     <t xml:space="preserve">557. Reverse Words in a String III
@@ -1740,16 +1591,13 @@
     <t>886. Possible Bipartition</t>
   </si>
   <si>
-    <t xml:space="preserve">DFS+染色法： 根据题目建图 然后DFS染色 如果存在一个染色冲突即返回False 实现上有两种写法 一种是维护全局变量 如果没染过色就深搜 在dfs后面设置个if not valid 表示如果函数执行完 valid被设置成False就说明不成立。 / 写法二 另一种是用check函数 一个False就返回False 即if vis[k] == 0 and not dfs(node, color): return False </t>
+    <t>DFS+染色法： 根据题目建图 然后DFS染色 如果存在一个染色冲突即返回False 实现上有两种写法 一种是维护全局变量 如果没染过色就深搜 在dfs后面设置个if not valid 表示如果函数执行完 valid被设置成False就说明不成立。 / 写法二 另一种是用check函数 一个False就返回False 即if vis[k] == 0 and not dfs(node, color): return False</t>
   </si>
   <si>
     <t xml:space="preserve">352. Data Stream as Disjoint Intervals
 </t>
   </si>
   <si>
-    <t>待补充</t>
-  </si>
-  <si>
     <t>二分：等差数列求搭建到mid项和，然后看n的数量是否够用，二分区间 搜右区间</t>
   </si>
   <si>
@@ -1796,6 +1644,90 @@
   </si>
   <si>
     <t>DFS(check)</t>
+  </si>
+  <si>
+    <t>1737. Change Minimum Characters to Satisfy One of Three Conditions</t>
+  </si>
+  <si>
+    <t>暴力枚举分界：先用数组统计词频率 暴力枚举borderline 然后计算满足三个条件分别需要移动多少个字母 取最小的即可 #需要注意俩点第一点是如果borderline为字母a 无法统计小于a的字母数 第二点是需要移动字母的区间划分</t>
+  </si>
+  <si>
+    <t>分界问题</t>
+  </si>
+  <si>
+    <t>852. Peak Index in a Mountain Array</t>
+  </si>
+  <si>
+    <t>二分答案：题目给出arr长度大于3，所以很简单，不用考虑边界条件</t>
+  </si>
+  <si>
+    <t>二分</t>
+  </si>
+  <si>
+    <t>1276. Number of Burgers with No Waste of Ingredients</t>
+  </si>
+  <si>
+    <t>数学：类似鸡兔同笼问题  设我们可以做X个大汉堡和Y个小汉堡 4X+Y = T，2X+Y = C 解出来 X = (1/2)*T - C, Y = 2C - (1/2)T 因为X,Y都需要大于等于0 接着解出不等式
+ 又因为需要的tomato和cheese都为偶数所以最终条件为 T = 2K （K属于N） 4*C &gt;= T
+ T&gt;= 2C</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77. Combinations     </t>
+  </si>
+  <si>
+    <t>DFS：类N叉树遍历 可以做一个当前可以选择的数量 &lt; 还需要选择的数量 的剪枝 二进制枚举：类二叉树遍历写法 做一个选与不选的判断</t>
+  </si>
+  <si>
+    <t>39. Combination Sum</t>
+  </si>
+  <si>
+    <t>DFS：类N叉树遍历 传入参数total 当total==target就加入res 去重上需要注意如果当i&gt;0 就只能从i开始选 即：从每一层的第 22 个结点开始，都不能再搜索产生同一层结点已经使用过的 candidate 里的元素 这描述可能有点抽象  二进制枚举：类二叉树遍历写法 做一个选与不选的判断 不选的情况idx+1 选idx就不变</t>
+  </si>
+  <si>
+    <t>38. Count and Say</t>
+  </si>
+  <si>
+    <t>双指针：有点类似快排的双指针写法 首选确定外层循环次数为n-1次 维护一个tmp 内层循环设置为i &lt; len(s) 接着锚定start在i的位置，然后从j从start+1出发，如果不等就设置一个finish在j-1，这样如果第一次就不等也可以处理长度为1的情况，然后用finish-start+1算出长度 tmp=tmp+str(cnt)+s[start]，外层循环循环一次就赋值给s一次供下次循环遍历使用。</t>
+  </si>
+  <si>
+    <t>双指针</t>
+  </si>
+  <si>
+    <t xml:space="preserve">912. Sort an Array
+</t>
+  </si>
+  <si>
+    <t>排序：quickSort mergeSort 以收缩左区间写法来做二分(while low &lt; high)，同时不要忘记建个tmp（长度为high-low+1）来暂存两个数组merge后的结果  #快排可以再去练练top k的题</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>282. Expression Add Operators</t>
+  </si>
+  <si>
+    <t>DFS：两个点需要考虑 前导零的判断 和 多个数字组合成一个数 第一个解决方法是当(i！=startIdx) and nums[startIdx] == '0' 第二个解决方法是 用i来做字符串切片 而不是按常规的直接枚举i位置的元素， 设置DFS参数为startIdx, prev, cur, expression，prev用于储存上次的值，cur用于存这次的值，乘法比较特殊 eg: 1+(cur:(2+prev:3)) * 4 dfs(567) -&gt; 1+(cur:(2+prev:3 - prev:3 + (prev:3 * 4))) dfs(567)</t>
+  </si>
+  <si>
+    <t>DFS/运算符</t>
+  </si>
+  <si>
+    <t>241. Different Ways to Add Parentheses</t>
+  </si>
+  <si>
+    <t>暴力枚举分界+分治：把负号当做分界开始暴力枚举，遇到符号就开始划分 分成left和right，然后将left和right继续分（此处运用了分治思想），直到expression.isdigit就返回[int(expression)] 当返回left和right时 根据符号（前面划分所获得的）不同计算 计算完毕返回res（分治思想）给上一层的left或者right继续计算。</t>
+  </si>
+  <si>
+    <t>40. Combination Sum II</t>
+  </si>
+  <si>
+    <t>230. Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>暴力：用递归或者迭代中序遍历BST 然后存入数组 返回第k-1个即可 加速：将时间复杂度提升到常数k 在中序遍历的迭代写法中维护一个k，每次pop出来一个元素先执行k-1，然后判断如果k=0就返回node.val即可（依据题意当k=1返回第1小的元素即为第一个）</t>
   </si>
 </sst>
 </file>
@@ -1803,12 +1735,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1851,8 +1783,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1866,14 +1807,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1881,16 +1814,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1913,14 +1838,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1930,18 +1847,40 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1955,13 +1894,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1988,12 +1920,6 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="华文黑体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2042,72 +1968,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2120,37 +1980,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2168,19 +2082,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2192,19 +2094,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2223,6 +2149,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2252,6 +2193,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2275,36 +2231,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2321,85 +2247,85 @@
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2411,49 +2337,49 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2910,9 +2836,9 @@
   <dimension ref="A1:F398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D385" sqref="D385"/>
+      <selection pane="bottomLeft" activeCell="D394" sqref="D394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="5"/>
@@ -6292,7 +6218,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="338" ht="75" customHeight="1" spans="1:3">
+    <row r="338" ht="75" customHeight="1" spans="1:4">
       <c r="A338" s="3" t="s">
         <v>433</v>
       </c>
@@ -6302,10 +6228,13 @@
       <c r="C338" s="11">
         <v>44470</v>
       </c>
+      <c r="D338" s="4" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="339" ht="95" customHeight="1" spans="1:4">
       <c r="A339" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>29</v>
@@ -6314,12 +6243,12 @@
         <v>44471</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="340" ht="95" customHeight="1" spans="1:4">
       <c r="A340" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>6</v>
@@ -6328,12 +6257,12 @@
         <v>44471</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="341" ht="75" customHeight="1" spans="1:4">
       <c r="A341" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>6</v>
@@ -6342,12 +6271,12 @@
         <v>44472</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="342" ht="75" customHeight="1" spans="1:4">
       <c r="A342" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>6</v>
@@ -6356,12 +6285,12 @@
         <v>44472</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="343" ht="75" customHeight="1" spans="1:4">
       <c r="A343" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>6</v>
@@ -6370,12 +6299,12 @@
         <v>44472</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="344" ht="75" customHeight="1" spans="1:4">
       <c r="A344" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>31</v>
@@ -6384,12 +6313,12 @@
         <v>44473</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="345" ht="75" customHeight="1" spans="1:4">
       <c r="A345" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>31</v>
@@ -6398,12 +6327,12 @@
         <v>44473</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="346" ht="75" customHeight="1" spans="1:4">
       <c r="A346" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>31</v>
@@ -6412,12 +6341,12 @@
         <v>44474</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="347" ht="93" customHeight="1" spans="1:4">
       <c r="A347" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>6</v>
@@ -6426,12 +6355,12 @@
         <v>44474</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="348" ht="75" customHeight="1" spans="1:4">
       <c r="A348" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>6</v>
@@ -6440,12 +6369,12 @@
         <v>44474</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="349" ht="75" customHeight="1" spans="1:4">
       <c r="A349" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>6</v>
@@ -6454,12 +6383,12 @@
         <v>44474</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="350" ht="124" customHeight="1" spans="1:4">
       <c r="A350" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>6</v>
@@ -6468,7 +6397,7 @@
         <v>44475</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="351" ht="75" customHeight="1" spans="1:4">
@@ -6482,12 +6411,12 @@
         <v>44475</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="352" ht="75" customHeight="1" spans="1:4">
       <c r="A352" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>31</v>
@@ -6496,12 +6425,12 @@
         <v>44475</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="353" ht="75" customHeight="1" spans="1:4">
       <c r="A353" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>31</v>
@@ -6510,12 +6439,12 @@
         <v>44475</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="354" ht="75" customHeight="1" spans="1:4">
       <c r="A354" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>31</v>
@@ -6524,12 +6453,12 @@
         <v>44475</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="355" ht="75" customHeight="1" spans="1:4">
       <c r="A355" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>31</v>
@@ -6538,12 +6467,12 @@
         <v>44475</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="356" ht="75" customHeight="1" spans="1:4">
       <c r="A356" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>31</v>
@@ -6552,12 +6481,12 @@
         <v>44476</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="357" ht="134" customHeight="1" spans="1:4">
       <c r="A357" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>29</v>
@@ -6566,12 +6495,12 @@
         <v>44476</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="358" ht="75" customHeight="1" spans="1:4">
       <c r="A358" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>31</v>
@@ -6580,12 +6509,12 @@
         <v>44476</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="359" ht="75" customHeight="1" spans="1:4">
       <c r="A359" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>31</v>
@@ -6594,12 +6523,12 @@
         <v>44476</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="360" ht="75" customHeight="1" spans="1:4">
       <c r="A360" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>31</v>
@@ -6608,12 +6537,12 @@
         <v>44476</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="361" ht="75" customHeight="1" spans="1:4">
       <c r="A361" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>31</v>
@@ -6622,12 +6551,12 @@
         <v>44476</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="362" ht="75" customHeight="1" spans="1:4">
       <c r="A362" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>31</v>
@@ -6636,12 +6565,12 @@
         <v>44476</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="363" ht="75" customHeight="1" spans="1:4">
       <c r="A363" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>31</v>
@@ -6650,7 +6579,7 @@
         <v>44476</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="364" ht="75" customHeight="1" spans="1:4">
@@ -6664,7 +6593,7 @@
         <v>44477</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="365" ht="75" customHeight="1" spans="1:4">
@@ -6678,12 +6607,12 @@
         <v>44477</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="366" ht="75" customHeight="1" spans="1:4">
       <c r="A366" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>31</v>
@@ -6692,12 +6621,12 @@
         <v>44477</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="367" ht="75" customHeight="1" spans="1:4">
       <c r="A367" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>31</v>
@@ -6706,12 +6635,12 @@
         <v>44477</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="368" ht="75" customHeight="1" spans="1:4">
       <c r="A368" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>31</v>
@@ -6720,12 +6649,12 @@
         <v>44477</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="369" ht="80" customHeight="1" spans="1:4">
       <c r="A369" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>31</v>
@@ -6734,12 +6663,12 @@
         <v>44477</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="370" ht="75" customHeight="1" spans="1:4">
       <c r="A370" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>31</v>
@@ -6748,12 +6677,12 @@
         <v>44477</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="371" ht="75" customHeight="1" spans="1:4">
       <c r="A371" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>31</v>
@@ -6762,12 +6691,12 @@
         <v>44477</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="372" ht="75" customHeight="1" spans="1:4">
       <c r="A372" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>31</v>
@@ -6776,12 +6705,12 @@
         <v>44477</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="373" ht="75" customHeight="1" spans="1:4">
       <c r="A373" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>6</v>
@@ -6790,12 +6719,12 @@
         <v>44477</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="374" ht="75" customHeight="1" spans="1:4">
       <c r="A374" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>31</v>
@@ -6804,12 +6733,12 @@
         <v>44477</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="375" ht="81" customHeight="1" spans="1:4">
       <c r="A375" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>6</v>
@@ -6818,12 +6747,12 @@
         <v>44478</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="376" ht="75" customHeight="1" spans="1:4">
       <c r="A376" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>29</v>
@@ -6832,12 +6761,12 @@
         <v>44478</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
     </row>
     <row r="377" ht="75" customHeight="1" spans="1:4">
       <c r="A377" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>31</v>
@@ -6860,7 +6789,7 @@
         <v>44479</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
     </row>
     <row r="379" ht="75" customHeight="1" spans="1:4">
@@ -6953,17 +6882,187 @@
         <v>522</v>
       </c>
     </row>
-    <row r="385" ht="75" customHeight="1"/>
-    <row r="386" ht="75" customHeight="1"/>
-    <row r="387" ht="75" customHeight="1"/>
-    <row r="388" ht="75" customHeight="1"/>
-    <row r="389" ht="75" customHeight="1"/>
-    <row r="390" ht="75" customHeight="1"/>
-    <row r="391" ht="75" customHeight="1"/>
-    <row r="392" ht="75" customHeight="1"/>
-    <row r="393" ht="75" customHeight="1"/>
-    <row r="394" ht="75" customHeight="1"/>
-    <row r="395" ht="75" customHeight="1"/>
+    <row r="385" ht="75" customHeight="1" spans="1:5">
+      <c r="A385" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C385" s="11">
+        <v>44483</v>
+      </c>
+      <c r="D385" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="386" ht="75" customHeight="1" spans="1:5">
+      <c r="A386" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C386" s="11">
+        <v>44483</v>
+      </c>
+      <c r="D386" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="387" ht="75" customHeight="1" spans="1:5">
+      <c r="A387" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C387" s="11">
+        <v>44483</v>
+      </c>
+      <c r="D387" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="388" ht="75" customHeight="1" spans="1:5">
+      <c r="A388" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C388" s="11">
+        <v>44483</v>
+      </c>
+      <c r="D388" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="389" ht="75" customHeight="1" spans="1:5">
+      <c r="A389" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C389" s="11">
+        <v>44484</v>
+      </c>
+      <c r="D389" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="390" ht="75" customHeight="1" spans="1:5">
+      <c r="A390" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C390" s="11">
+        <v>44484</v>
+      </c>
+      <c r="D390" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="391" ht="75" customHeight="1" spans="1:5">
+      <c r="A391" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C391" s="11">
+        <v>44484</v>
+      </c>
+      <c r="D391" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="392" ht="83" customHeight="1" spans="1:5">
+      <c r="A392" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C392" s="11">
+        <v>44485</v>
+      </c>
+      <c r="D392" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="393" ht="92" customHeight="1" spans="1:5">
+      <c r="A393" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C393" s="11">
+        <v>44485</v>
+      </c>
+      <c r="D393" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="394" ht="75" customHeight="1" spans="1:4">
+      <c r="A394" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394" s="11">
+        <v>44485</v>
+      </c>
+      <c r="D394" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="395" ht="75" customHeight="1" spans="1:4">
+      <c r="A395" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C395" s="11">
+        <v>44486</v>
+      </c>
+      <c r="D395" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
     <row r="396" ht="75" customHeight="1"/>
     <row r="397" ht="75" customHeight="1"/>
     <row r="398" ht="75" customHeight="1"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28860" windowHeight="14400" tabRatio="500"/>
+    <workbookView windowWidth="32100" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591">
   <si>
     <t>Title</t>
   </si>
@@ -1681,6 +1681,9 @@
     <t>DFS：类N叉树遍历 可以做一个当前可以选择的数量 &lt; 还需要选择的数量 的剪枝 二进制枚举：类二叉树遍历写法 做一个选与不选的判断</t>
   </si>
   <si>
+    <t>二进制枚举/DFS</t>
+  </si>
+  <si>
     <t>39. Combination Sum</t>
   </si>
   <si>
@@ -1724,10 +1727,131 @@
     <t>40. Combination Sum II</t>
   </si>
   <si>
+    <t>二进制枚举：做一个freq先统计所有数字的出现次数，然后按数字大小排序按下方便剪枝，还是分为选与不选的情况，不过在选的情况中，我们会选most个当前数数字 most的取值为 min(rest // freq[0], freq[1])，定义dfs(idx, rest, sequence)，循环从1到most个字母 往下搜 dfs(idx+1, rest - (i*freq[idx][0]), sequence + (i*freq[idx][1])) 当rest==0就加入答案</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二进制枚举/DFS        </t>
+  </si>
+  <si>
     <t>230. Kth Smallest Element in a BST</t>
   </si>
   <si>
     <t>暴力：用递归或者迭代中序遍历BST 然后存入数组 返回第k-1个即可 加速：将时间复杂度提升到常数k 在中序遍历的迭代写法中维护一个k，每次pop出来一个元素先执行k-1，然后判断如果k=0就返回node.val即可（依据题意当k=1返回第1小的元素即为第一个）</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>493. Reverse Pairs</t>
+  </si>
+  <si>
+    <t>二分：假设已经遍历过的下标为i, 当前遍历下标为j, 因为我们顺序遍历，所以对于 nums 中的任意一个nums[j], 此时已经在 tmp 中的元素都是在原数组中位于 nums[j] 之前的元素, 这样就保证了 i &lt; j，我们再找到 3 * nums[j] 在 tmp 中的插入位置索引, 该位置之后的就是满足题意的元素,这是因为这些nums[i]都大于 3 * nums[j]，最后按升序插入,待下一个nums[j]对比 分治排序：在merge的时候再遍历一次（此时已经保证全部i&lt;j，只需要挑出nums[i] &gt; 2 * nums[j]）计算累加cnt。</t>
+  </si>
+  <si>
+    <t>binarySearch+possible</t>
+  </si>
+  <si>
+    <t>bitManipuation： 算出num二进制的长度 然后做一个全为1等长度的二进制 eg: 要制造111(2) = 需要用1111(2) - 1即可 最后将俩数进行^即可</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>693. Binary Number with Alternating Bits</t>
+  </si>
+  <si>
+    <t>模拟：转化成字符串然后遍历判断  bitManipuation：用1与n取&amp;存入x 然后n&gt;&gt;1 接着用1与n取&amp;存入y 对比x与y的值是否相等 相等就返回False / 也可以n&gt;&gt;1 然后和 n取^此时运算后的位置应该全是1 然后n+1（进一位）与n取&amp;为0返回True</t>
+  </si>
+  <si>
+    <t>211. Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>DFS: 三种方式 arr / dict / defaultdict 先实现Trie 然后DFS 参数设计上主要在于需要对是否是'.'符号讨论， 如果是'.'就得对children一个搜过去，如果不是就只搜一个字母。 #树的判空的条件要注意很容易就noneError，arr写法中可以判断是否child为None也可以像后面defaultdict类似写法，defaultdict写法因为不会出现keyError所以可以用if not root: return False 来作为没有搜到w的出口，与之不同的dict写法则用key in tire.keys()因为需要判空不然会报错。</t>
+  </si>
+  <si>
+    <t>DFS/Trie/数据结构</t>
+  </si>
+  <si>
+    <t>三种方式 arr / dict / defaultdict</t>
+  </si>
+  <si>
+    <t>Trie/数据结构</t>
+  </si>
+  <si>
+    <t>875. Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>二分左界+possible：找到速度的上下界限然后计算在当前speed下，累加吃完每一堆所需要的时间sumHours += math.ceil(pile / speed)，如果时间小于等于h就R=mid，反之L=mid+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+705. Design HashSet</t>
+  </si>
+  <si>
+    <t>超大数组法： 定长拉链法： 不定长拉链法： 待补充</t>
+  </si>
+  <si>
+    <t>set/数据结构</t>
+  </si>
+  <si>
+    <t>706. Design HashMap</t>
+  </si>
+  <si>
+    <t>hashMap/数据结构</t>
+  </si>
+  <si>
+    <t>201. Bitwise AND of Numbers Range</t>
+  </si>
+  <si>
+    <t>bitManipulation：我们通过右移，将两个数字压缩为它们的公共前缀。在迭代过程中，我们计算执行的右移操作数，将得到的公共前缀左移相同的操作数得到结果。</t>
+  </si>
+  <si>
+    <t>bitManipulation</t>
+  </si>
+  <si>
+    <t>274. H-Index</t>
+  </si>
+  <si>
+    <t>二分：确定H指数的上下界分别为0, len(citations)，写一个isValid函数，传入猜的H指数，函数内部就是遍历citations，如果numC&gt;=H指数，cnt+=1，最后如果cnt&gt;=H指数说明此H指数合法 即当前有。（也可以用二分来找，但是要注意cornercase：[0,0,0,0]要先处理） #all()函数用于判断给定的可迭代参数 iterable 中的所有元素是否都为 TRUE，如果是返回 True，否则返回 False。元素除了是 0、空、None、False 外都算 True。 any()函数用于判断给定的可迭代参数 iterable 是否全部为 False，则返回 False，如果有一个为 True，则返回 True。元素除了是 0、空、FALSE 外都算 TRUE。</t>
+  </si>
+  <si>
+    <t>154. Find Minimum in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>二分左界：</t>
+  </si>
+  <si>
+    <t>binarySearch</t>
+  </si>
+  <si>
+    <t>778. Swim in Rising Water</t>
+  </si>
+  <si>
+    <t>二分+possible：写法一 DFS 确定上下界[max(grid[0][0], grid[n-1][n-1]), (n * n) - 1]，在此区间内具有二段性所以我们可以用二分法搜左边界，具体流程就是确定mid，用mid的时间即水位去搜看是否能到达终点  写法二 BFS 用队列实现，和DFS差别不大。  BFS+PQ：此解法类似DJ算法的变种，核心就是每次都游到优先队列中的最低点。 #还需要回看 这题的DJ建图和并查集都还没学</t>
+  </si>
+  <si>
+    <t>DFS/binarySearch+possible/unionfind/DJ</t>
+  </si>
+  <si>
+    <t>二分答案：根据mid落点来讨论 此旋转数组中L与R不会相等  因为没有重复元素 用L作为判断或者R都可以，这里我们选择用mid与L来判断（如果不为target也需要收缩边界以退出循环否则死循环，当收缩为如下区域时 nums[mid] != target，然后执行 nums[mid] == nums[left] 才会退出循环 不写就死循环了 eg: [1,2] ）， 判断完在上升区域还是下降区域以后，再判断nums[mid]是否存在于上升区域，如果不存在就收缩L，反之。</t>
+  </si>
+  <si>
+    <t>inorder：利用BST中序遍历的有序新性，在调用next时候，获取栈顶元素返回。当self.cur不为为空或者栈内还有东西返回True，反之。</t>
+  </si>
+  <si>
+    <t>Tree（inorder）</t>
+  </si>
+  <si>
+    <t>DFS： 回溯法 双for循环先找word[0]，然后第一次的idx从1开始，用check函数的写法来完成，一Ture为True。#为了避免死循环并且降低时间复杂度更低，只维护一个visited，所以注意需要回溯visited数组。</t>
+  </si>
+  <si>
+    <t>429. N-ary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>BFS：层序遍历模板 加入left和right改成for child一下 DFS：当res长度和level相同就加入新的[]表示新的一层，把每一level就加入对应的res即res[level] = node.val，递归搜索。</t>
+  </si>
+  <si>
+    <t>Tree（层序遍历/DFS/BFS）</t>
   </si>
 </sst>
 </file>
@@ -1735,10 +1859,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1763,12 +1887,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1777,7 +1993,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1793,77 +2009,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1881,28 +2027,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1968,7 +2092,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1980,13 +2116,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1998,49 +2224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2052,73 +2242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2130,7 +2254,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2141,15 +2265,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2172,22 +2287,25 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2207,6 +2325,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2222,116 +2351,111 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2340,52 +2464,52 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2425,7 +2549,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2833,12 +2957,12 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F398"/>
+  <dimension ref="A1:F466"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D394" sqref="D394"/>
+      <selection pane="bottomLeft" activeCell="D409" sqref="D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="5"/>
@@ -2847,7 +2971,8 @@
     <col min="2" max="2" width="9.16666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.8333333333333" style="3" customWidth="1"/>
     <col min="4" max="4" width="79.5" style="4" customWidth="1"/>
-    <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.8333333333333" style="1"/>
   </cols>
   <sheetData>
@@ -2868,7 +2993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="14" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2881,13 +3006,13 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="3:5">
+    <row r="3" ht="14" spans="3:5">
       <c r="C3" s="10"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2900,7 +3025,7 @@
     <row r="6" ht="33" customHeight="1" spans="3:3">
       <c r="C6" s="10"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -2913,13 +3038,13 @@
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
+    <row r="8" ht="14" spans="3:5">
       <c r="C8" s="9"/>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2932,7 +3057,7 @@
     <row r="11" ht="98" customHeight="1" spans="3:3">
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="14" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -2945,13 +3070,13 @@
       <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" ht="14" spans="3:5">
       <c r="C13" s="10"/>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3242,7 +3367,7 @@
       <c r="C97" s="11">
         <v>44426</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4021,33 +4146,37 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="178" s="1" customFormat="1" ht="75" customHeight="1" spans="1:4">
+    <row r="178" s="1" customFormat="1" ht="75" customHeight="1" spans="1:5">
       <c r="A178" s="3"/>
       <c r="C178" s="11">
         <v>44441</v>
       </c>
       <c r="D178" s="4"/>
-    </row>
-    <row r="179" s="1" customFormat="1" ht="75" customHeight="1" spans="1:4">
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" s="1" customFormat="1" ht="75" customHeight="1" spans="1:5">
       <c r="A179" s="3"/>
       <c r="C179" s="11">
         <v>44442</v>
       </c>
       <c r="D179" s="4"/>
-    </row>
-    <row r="180" s="1" customFormat="1" ht="75" customHeight="1" spans="1:4">
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" s="1" customFormat="1" ht="75" customHeight="1" spans="1:5">
       <c r="A180" s="3"/>
       <c r="C180" s="11">
         <v>44443</v>
       </c>
       <c r="D180" s="4"/>
-    </row>
-    <row r="181" s="1" customFormat="1" ht="75" customHeight="1" spans="1:4">
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" s="1" customFormat="1" ht="75" customHeight="1" spans="1:5">
       <c r="A181" s="3"/>
       <c r="C181" s="11">
         <v>44444</v>
       </c>
       <c r="D181" s="4"/>
+      <c r="E181" s="3"/>
     </row>
     <row r="182" ht="75" customHeight="1" spans="3:3">
       <c r="C182" s="11">
@@ -4072,7 +4201,7 @@
       <c r="D184" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="E184" s="7" t="s">
         <v>124</v>
       </c>
       <c r="F184" s="2" t="s">
@@ -6861,7 +6990,7 @@
       <c r="D383" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="E383" s="1" t="s">
+      <c r="E383" s="3" t="s">
         <v>519</v>
       </c>
     </row>
@@ -6878,7 +7007,7 @@
       <c r="D384" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E384" s="1" t="s">
+      <c r="E384" s="3" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6895,7 +7024,7 @@
       <c r="D385" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="E385" s="1" t="s">
+      <c r="E385" s="3" t="s">
         <v>525</v>
       </c>
     </row>
@@ -6912,7 +7041,7 @@
       <c r="D386" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="E386" s="1" t="s">
+      <c r="E386" s="3" t="s">
         <v>528</v>
       </c>
     </row>
@@ -6929,7 +7058,7 @@
       <c r="D387" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="E387" s="1" t="s">
+      <c r="E387" s="3" t="s">
         <v>531</v>
       </c>
     </row>
@@ -6946,13 +7075,13 @@
       <c r="D388" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="E388" s="1" t="s">
-        <v>17</v>
+      <c r="E388" s="3" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="389" ht="75" customHeight="1" spans="1:5">
       <c r="A389" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>6</v>
@@ -6961,15 +7090,15 @@
         <v>44484</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="E389" s="1" t="s">
-        <v>17</v>
+        <v>536</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="390" ht="75" customHeight="1" spans="1:5">
       <c r="A390" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>6</v>
@@ -6978,15 +7107,15 @@
         <v>44484</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="E390" s="1" t="s">
         <v>538</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="391" ht="75" customHeight="1" spans="1:5">
       <c r="A391" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>6</v>
@@ -6995,15 +7124,15 @@
         <v>44484</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="E391" s="1" t="s">
         <v>541</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="392" ht="83" customHeight="1" spans="1:5">
       <c r="A392" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>29</v>
@@ -7012,15 +7141,15 @@
         <v>44485</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="E392" s="1" t="s">
         <v>544</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="393" ht="92" customHeight="1" spans="1:5">
       <c r="A393" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>6</v>
@@ -7029,15 +7158,15 @@
         <v>44485</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="E393" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E393" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="394" ht="75" customHeight="1" spans="1:4">
+    <row r="394" ht="75" customHeight="1" spans="1:5">
       <c r="A394" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>6</v>
@@ -7046,12 +7175,15 @@
         <v>44485</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="395" ht="75" customHeight="1" spans="1:4">
+        <v>549</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="395" ht="75" customHeight="1" spans="1:5">
       <c r="A395" s="3" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>6</v>
@@ -7060,12 +7192,339 @@
         <v>44486</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="396" ht="75" customHeight="1"/>
-    <row r="397" ht="75" customHeight="1"/>
-    <row r="398" ht="75" customHeight="1"/>
+        <v>552</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="396" ht="91" customHeight="1" spans="1:5">
+      <c r="A396" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C396" s="11">
+        <v>44487</v>
+      </c>
+      <c r="D396" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="397" ht="75" customHeight="1" spans="1:5">
+      <c r="A397" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C397" s="11">
+        <v>44487</v>
+      </c>
+      <c r="D397" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="398" ht="75" customHeight="1" spans="1:5">
+      <c r="A398" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C398" s="11">
+        <v>44487</v>
+      </c>
+      <c r="D398" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="399" ht="87" customHeight="1" spans="1:5">
+      <c r="A399" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C399" s="11">
+        <v>44488</v>
+      </c>
+      <c r="D399" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="400" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A400" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C400" s="11">
+        <v>44488</v>
+      </c>
+      <c r="D400" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="401" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A401" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C401" s="11">
+        <v>44488</v>
+      </c>
+      <c r="D401" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="402" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A402" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C402" s="11">
+        <v>44489</v>
+      </c>
+      <c r="D402" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="403" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A403" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C403" s="11">
+        <v>44489</v>
+      </c>
+      <c r="D403" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="404" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A404" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C404" s="11">
+        <v>44489</v>
+      </c>
+      <c r="D404" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="405" ht="100" customHeight="1" spans="1:5">
+      <c r="A405" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C405" s="11">
+        <v>44489</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="406" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A406" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C406" s="11">
+        <v>44489</v>
+      </c>
+      <c r="D406" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="407" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A407" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C407" s="11">
+        <v>44490</v>
+      </c>
+      <c r="D407" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="408" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A408" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C408" s="11">
+        <v>44490</v>
+      </c>
+      <c r="D408" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="409" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A409" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C409" s="11">
+        <v>44490</v>
+      </c>
+      <c r="D409" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="410" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A410" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C410" s="11">
+        <v>44490</v>
+      </c>
+      <c r="D410" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="411" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A411" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C411" s="11">
+        <v>44490</v>
+      </c>
+      <c r="D411" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="412" ht="75.1" customHeight="1"/>
+    <row r="413" ht="75.1" customHeight="1"/>
+    <row r="414" ht="75.1" customHeight="1"/>
+    <row r="415" ht="75.1" customHeight="1"/>
+    <row r="416" ht="75.1" customHeight="1"/>
+    <row r="417" ht="75.1" customHeight="1"/>
+    <row r="418" ht="75.1" customHeight="1"/>
+    <row r="419" ht="75.1" customHeight="1"/>
+    <row r="420" ht="75.1" customHeight="1"/>
+    <row r="421" ht="75.1" customHeight="1"/>
+    <row r="422" ht="75.1" customHeight="1"/>
+    <row r="423" ht="75.1" customHeight="1"/>
+    <row r="424" ht="75.1" customHeight="1"/>
+    <row r="425" ht="75.1" customHeight="1"/>
+    <row r="426" ht="75.1" customHeight="1"/>
+    <row r="427" ht="75.1" customHeight="1"/>
+    <row r="428" ht="75.1" customHeight="1"/>
+    <row r="429" ht="75.1" customHeight="1"/>
+    <row r="430" ht="75.1" customHeight="1"/>
+    <row r="431" ht="75.1" customHeight="1"/>
+    <row r="432" ht="75.1" customHeight="1"/>
+    <row r="433" ht="75.1" customHeight="1"/>
+    <row r="434" ht="75.1" customHeight="1"/>
+    <row r="435" ht="75.1" customHeight="1"/>
+    <row r="436" ht="75.1" customHeight="1"/>
+    <row r="437" ht="75.1" customHeight="1"/>
+    <row r="438" ht="75.1" customHeight="1"/>
+    <row r="439" ht="75.1" customHeight="1"/>
+    <row r="440" ht="75.1" customHeight="1"/>
+    <row r="441" ht="75.1" customHeight="1"/>
+    <row r="442" ht="75.1" customHeight="1"/>
+    <row r="443" ht="75.1" customHeight="1"/>
+    <row r="444" ht="75.1" customHeight="1"/>
+    <row r="445" ht="75.1" customHeight="1"/>
+    <row r="446" ht="75.1" customHeight="1"/>
+    <row r="447" ht="75.1" customHeight="1"/>
+    <row r="448" ht="75.1" customHeight="1"/>
+    <row r="449" ht="75.1" customHeight="1"/>
+    <row r="450" ht="75.1" customHeight="1"/>
+    <row r="451" ht="75.1" customHeight="1"/>
+    <row r="452" ht="75.1" customHeight="1"/>
+    <row r="453" ht="75.1" customHeight="1"/>
+    <row r="454" ht="75.1" customHeight="1"/>
+    <row r="455" ht="75.1" customHeight="1"/>
+    <row r="456" ht="75.1" customHeight="1"/>
+    <row r="457" ht="75.1" customHeight="1"/>
+    <row r="458" ht="75.1" customHeight="1"/>
+    <row r="459" ht="75.1" customHeight="1"/>
+    <row r="460" ht="75.1" customHeight="1"/>
+    <row r="461" ht="75.1" customHeight="1"/>
+    <row r="462" ht="75.1" customHeight="1"/>
+    <row r="463" ht="75.1" customHeight="1"/>
+    <row r="464" ht="75.1" customHeight="1"/>
+    <row r="465" ht="75.1" customHeight="1"/>
+    <row r="466" ht="75.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
     <mergeCell ref="A2:A6"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32100" windowHeight="15600" tabRatio="500"/>
+    <workbookView windowWidth="28200" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621">
   <si>
     <t>Title</t>
   </si>
@@ -1434,7 +1434,7 @@
     <t>638. Shopping Offers</t>
   </si>
   <si>
-    <t>DFS： 以needs为基准的暴力搜索 有全排列的感觉 cost = min(不选礼包，选择礼包的话费 + dfs(剩下的needs))</t>
+    <t>DFS： 以needs为基准的暴力搜索 有N叉数遍历的感觉 cost = min(不选礼包，选择礼包的话费 + dfs(剩下的needs))</t>
   </si>
   <si>
     <t xml:space="preserve">756. Pyramid Transition Matrix
@@ -1512,7 +1512,7 @@
 </t>
   </si>
   <si>
-    <t>bitManipuation： 算出num二进制的长度 然后做一个全为1等长度的二进制 eg: 要做111(2) = 用1111(2) - 1 最后俩数进行^即可</t>
+    <t>bitManipulation 算出num二进制的长度 然后做一个全为1等长度的二进制 eg: 要做111(2) = 用1111(2) - 1 最后俩数进行^即可</t>
   </si>
   <si>
     <t>485. Max Consecutive Ones</t>
@@ -1751,7 +1751,7 @@
     <t>binarySearch+possible</t>
   </si>
   <si>
-    <t>bitManipuation： 算出num二进制的长度 然后做一个全为1等长度的二进制 eg: 要制造111(2) = 需要用1111(2) - 1即可 最后将俩数进行^即可</t>
+    <t>bitManipulation： 算出num二进制的长度 然后做一个全为1等长度的二进制 eg: 要制造111(2) = 需要用1111(2) - 1即可 最后将俩数进行^即可</t>
   </si>
   <si>
     <t>bit</t>
@@ -1760,7 +1760,7 @@
     <t>693. Binary Number with Alternating Bits</t>
   </si>
   <si>
-    <t>模拟：转化成字符串然后遍历判断  bitManipuation：用1与n取&amp;存入x 然后n&gt;&gt;1 接着用1与n取&amp;存入y 对比x与y的值是否相等 相等就返回False / 也可以n&gt;&gt;1 然后和 n取^此时运算后的位置应该全是1 然后n+1（进一位）与n取&amp;为0返回True</t>
+    <t>模拟：转化成字符串然后遍历判断  bitManipulation：用1与n取&amp;存入x 然后n&gt;&gt;1 接着用1与n取&amp;存入y 对比x与y的值是否相等 相等就返回False / 也可以n&gt;&gt;1 然后和 n取^此时运算后的位置应该全是1 然后n+1（进一位）与n取&amp;为0返回True</t>
   </si>
   <si>
     <t>211. Design Add and Search Words Data Structure</t>
@@ -1852,6 +1852,96 @@
   </si>
   <si>
     <t>Tree（层序遍历/DFS/BFS）</t>
+  </si>
+  <si>
+    <t>287. Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>sort+二分：先排序然后二分 如果找到的mid前面的合法数字数量大于等于 说明不合法部分在[left, mid]反之，本质上就是个二分左边界 二分查找：在上个解法上优化 确定mid以后 遍历nums计算所有等于nums[mid]的数字 等于表示合法 收缩left（还需要考虑上不存在的小于即不存在的情况eg:[2,2,2,2]） 大于表示多了 收缩right #还有点懵 indexSort：待补充（其它相关练习题目见wisdompeak视频）</t>
+  </si>
+  <si>
+    <t>binarySearch/Floyd/indexingSort</t>
+  </si>
+  <si>
+    <t>1157. Online Majority Element In Subarray</t>
+  </si>
+  <si>
+    <t>摩尔投票法：比较套路 下次重写下 又忘记了</t>
+  </si>
+  <si>
+    <t>binarySearch/摩尔投票</t>
+  </si>
+  <si>
+    <t>面试题 17.10. Find Majority Element LCCI</t>
+  </si>
+  <si>
+    <t>哈希表：遍历统计数量超过n/2就加入res 摩尔投票法：比较套路 下次重写下 又忘记了</t>
+  </si>
+  <si>
+    <t>摩尔投票</t>
+  </si>
+  <si>
+    <t>229. Majority Element II</t>
+  </si>
+  <si>
+    <t>哈希表：遍历统计数量超过n/3就加入res 摩尔投票法：比较套路 下次重写下 又忘记了</t>
+  </si>
+  <si>
+    <t>1456. Maximum Number of Vowels in a Substring of Given Length</t>
+  </si>
+  <si>
+    <t>模拟：因为L&gt;=W W*W如果大于area 那么L*W一定也大于area (条件二) 所以我们先找W,最大化W 由于必须等于给定的目标面积L*W=area(条件一) 所以找到的area模W得为0 在保证W合法的情况下,当W越来越大,那么area//W就会越小,也就满足第三个条件:长度 L 和宽度 W 之间的差距应当尽可能小</t>
+  </si>
+  <si>
+    <t>imitation/simulation</t>
+  </si>
+  <si>
+    <t>837. New 21 Game</t>
+  </si>
+  <si>
+    <t>DP+slidingWindow：从后面确定的数据往前推，因为当点数为17就不能抽了 所以后面大于conditionCanChoose的概率是固定的可以枚举出来。状态转移方程为：dp[i]  = 1/W  * (dp[i+1] + ... + dp[i+W])，细节上在每次计算可以用 + dp[i] - dp[i + chooseRange]降低时间复杂度 本质上是个滑动窗口      本题还可以再优化待补充</t>
+  </si>
+  <si>
+    <t>DP+slidingWindow</t>
+  </si>
+  <si>
+    <t>剑指 Offer 13. 机器人的运动范围</t>
+  </si>
+  <si>
+    <t>DFS：写法一 check写法暴力搜索 维护全局变量 写法二 触发base累加返回数值 有点后序遍历那味</t>
+  </si>
+  <si>
+    <t>剑指 Offer 21. 调整数组顺序使奇数位于偶数前面</t>
+  </si>
+  <si>
+    <t>twoPointers：同方向遍历 left right初始化为0 然后right往后找第一个奇数调换 每次调换完毕同时移动left和right一步</t>
+  </si>
+  <si>
+    <t>twoPointers</t>
+  </si>
+  <si>
+    <t>bruteForce：用&amp;1去验证最后一位是否为1 循环n&gt;&gt;=1直到为0 bitManipulation：核心思路：n &amp; (n - 1) 会把n中的最后一个1变成0，循环中每次去除n的最后一个1，res记录循环次数，就是1的个数。</t>
+  </si>
+  <si>
+    <t>滑动窗口+哈希表：因为是26字母 哈希表可以换成长度为26的数组 先初始化窗口然后对比俩数组是否相同后判断，从lenP开始到lenS接着在countS中i-lenP-=1，i位置+=1 本质上就是模拟滑动。 滑动窗口+双指针：初始化countP步骤和前面的差不多，滑动窗口实现上先固定left，然后外部循环每次移动一步right，直到countS对应的字母无法和countP的字母不相同，就内部循环移动left直到相同为止，如果在外部循环中right-left+1 == lenP那就加入答案。#anagrams就是顺序不同但是不可以跳位置，子序列subsequence可以跳位置但是顺序得相同，substring是既不可以跳位置顺序也得相同</t>
+  </si>
+  <si>
+    <t>slidingWindow/twoPointers/hashTable/anagrams</t>
+  </si>
+  <si>
+    <t>240. Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>二分：对每一行进行二分 findLeftInsertPos 模拟：从左下角出发 在做表合法的情况下 检查与target的关系 如果大于target就往上移动一行 如果小于target就往右移动一列。</t>
+  </si>
+  <si>
+    <t>76. Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>滑动窗口+哈希表：step1 construct a new hashMap which store need char for t and res that store a tuple (0,float('inf')) which is the value of left and right, for counting the char in t  step2 move sliding window on and if needCnt equals zero(all of chars in need should be negative or zero), we need to find the shortest window in this loop, and then calculate length of the window, finally move to the next window that does not meet the criteria eg:s = "ADO|BECODEBANC" -&gt; "ADOB|ECODEBANC"  t = "ABC"</t>
+  </si>
+  <si>
+    <t>slidingWindow</t>
   </si>
 </sst>
 </file>
@@ -1859,10 +1949,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1893,28 +1983,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1924,7 +1992,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1937,8 +2005,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1952,9 +2021,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1977,10 +2061,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1992,18 +2097,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2019,14 +2117,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2092,7 +2182,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2104,25 +2266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2134,37 +2278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2176,13 +2290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2194,13 +2302,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2218,43 +2332,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2268,21 +2358,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2292,11 +2367,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2321,6 +2402,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2350,106 +2455,91 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2461,55 +2551,55 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2957,12 +3047,12 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F466"/>
+  <dimension ref="A1:F474"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D409" sqref="D409"/>
+      <selection pane="bottomLeft" activeCell="D424" sqref="D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="5"/>
@@ -7470,19 +7560,224 @@
         <v>590</v>
       </c>
     </row>
-    <row r="412" ht="75.1" customHeight="1"/>
-    <row r="413" ht="75.1" customHeight="1"/>
-    <row r="414" ht="75.1" customHeight="1"/>
-    <row r="415" ht="75.1" customHeight="1"/>
-    <row r="416" ht="75.1" customHeight="1"/>
-    <row r="417" ht="75.1" customHeight="1"/>
-    <row r="418" ht="75.1" customHeight="1"/>
-    <row r="419" ht="75.1" customHeight="1"/>
-    <row r="420" ht="75.1" customHeight="1"/>
-    <row r="421" ht="75.1" customHeight="1"/>
-    <row r="422" ht="75.1" customHeight="1"/>
-    <row r="423" ht="75.1" customHeight="1"/>
-    <row r="424" ht="75.1" customHeight="1"/>
+    <row r="412" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A412" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C412" s="11">
+        <v>44491</v>
+      </c>
+      <c r="D412" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="413" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A413" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C413" s="11">
+        <v>44491</v>
+      </c>
+      <c r="D413" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="414" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A414" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C414" s="11">
+        <v>44491</v>
+      </c>
+      <c r="D414" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="415" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A415" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C415" s="11">
+        <v>44491</v>
+      </c>
+      <c r="D415" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="416" ht="75.1" customHeight="1" spans="1:4">
+      <c r="A416" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C416" s="11">
+        <v>44491</v>
+      </c>
+      <c r="D416" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="417" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A417" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C417" s="11">
+        <v>44492</v>
+      </c>
+      <c r="D417" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="418" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A418" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C418" s="11">
+        <v>44492</v>
+      </c>
+      <c r="D418" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="419" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A419" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C419" s="11">
+        <v>44492</v>
+      </c>
+      <c r="D419" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="420" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A420" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C420" s="11">
+        <v>44492</v>
+      </c>
+      <c r="D420" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="421" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A421" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C421" s="11">
+        <v>44492</v>
+      </c>
+      <c r="D421" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="422" ht="97" customHeight="1" spans="1:5">
+      <c r="A422" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C422" s="11">
+        <v>44493</v>
+      </c>
+      <c r="D422" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="423" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A423" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C423" s="11">
+        <v>44494</v>
+      </c>
+      <c r="D423" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="424" ht="101" customHeight="1" spans="1:5">
+      <c r="A424" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C424" s="11">
+        <v>44494</v>
+      </c>
+      <c r="D424" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
     <row r="425" ht="75.1" customHeight="1"/>
     <row r="426" ht="75.1" customHeight="1"/>
     <row r="427" ht="75.1" customHeight="1"/>
@@ -7525,6 +7820,14 @@
     <row r="464" ht="75.1" customHeight="1"/>
     <row r="465" ht="75.1" customHeight="1"/>
     <row r="466" ht="75.1" customHeight="1"/>
+    <row r="467" ht="75.1" customHeight="1"/>
+    <row r="468" ht="75.1" customHeight="1"/>
+    <row r="469" ht="75.1" customHeight="1"/>
+    <row r="470" ht="75.1" customHeight="1"/>
+    <row r="471" ht="75.1" customHeight="1"/>
+    <row r="472" ht="75.1" customHeight="1"/>
+    <row r="473" ht="75.1" customHeight="1"/>
+    <row r="474" ht="75.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
     <mergeCell ref="A2:A6"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="15220" tabRatio="500"/>
+    <workbookView windowWidth="31920" windowHeight="13080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814">
   <si>
     <t>Title</t>
   </si>
@@ -1943,6 +1943,600 @@
   <si>
     <t>slidingWindow</t>
   </si>
+  <si>
+    <t>50. Pow(x, n)</t>
+  </si>
+  <si>
+    <t>快速幂迭代版本：先判断是否为负数 如果是负数转化为求1/x的-n次幂 分两种情况 先判断n是否为奇数 如果是需要多乘一个x eg: x**9 = x*x**8 此时n均为偶数情况 利用倍增思维 我们每次都求进行x**2（这样只需要循环logn次） 而不是原来的每次乘以x（如果这样就是需要循环n次）最后将n缩小为n//2 eg：x**8 = (x**2)**8//2   #倍增思维 倍增乘法（快速乘）#递归版本快速幂待补充 #x**n的结果为幂 x称为底数 n称为指数</t>
+  </si>
+  <si>
+    <t>快速幂</t>
+  </si>
+  <si>
+    <t>496. Next Greater Element I</t>
+  </si>
+  <si>
+    <t>单调栈: 维护一个单调递减栈，遇到大的元素就弹出栈顶元素，并做一个配对，最后扫一边nums1数组 有配对的把配对结果加入ans 没有配对的就设置成-1 #单调栈写法还需要多练练 不够熟练</t>
+  </si>
+  <si>
+    <t>monotonousStack</t>
+  </si>
+  <si>
+    <t>560. Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哈希表+前缀和：simplify后的公式 preSum[j + 1] = preSum[i] + nums[i]  /  nums[i] + ... nums[j] = preSum[j + 1] - preSum[i] #待理清 </t>
+  </si>
+  <si>
+    <t>hashTable/preSum</t>
+  </si>
+  <si>
+    <t>1658. Minimum Operations to Reduce X to Zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">滑动窗口/双指针：题目要求删掉数组nums的左右两端的元素，并且删掉的元素和为target，也就是留下中间连续的子数组，其和为sum(nums) - target; 题目还让求出最小的操作次数，即删掉的元素个数越少越好，也就是留下的中间子数组的长度越大越好。那么问题就转化为了找数组中间和为sum(nums) - target的最长子数组，令该表达式为我们的新目标new_target, 并将原数组的长度记作N。具体实现就是维护一个maxLen，固定left，先移动right并累加curSum 如果超过了new_target，就移动left，如果curSum==new_target，我们就记录长度并与maxLen对比。哈希表+前缀和： #待理清 </t>
+  </si>
+  <si>
+    <t>slidingWindow/twoPointers/hashTable/preSum</t>
+  </si>
+  <si>
+    <t>1423. Maximum Points You Can Obtain from Cards</t>
+  </si>
+  <si>
+    <t>滑动窗口/双指针：找到长度为len(cardPoints) - k的窗口并且窗口内元素和最小的情况 先初始化窗口长度计数，然后再滑动 移去cardPoints[left]的值 计入cardPoints[right]的值   哈希表+前缀和：#待理清 #把草稿纸的整理上来</t>
+  </si>
+  <si>
+    <t>401. Binary Watch</t>
+  </si>
+  <si>
+    <t>暴力：双重for循环暴力枚举时间所有的可能性，如果合法（如果位1的个数等于turnedOn）就加入res DFS(backTracking) ：回溯+字符串格式化 总共10个灯 用数组来模拟即[0]*10 剩下的就是combination  函数设计为dfs(剩余灯数，startIdx，数组) base就是如果当前小时和分钟都合法就加入res bitManipulation：本质上就是枚举，用二进制模拟手表，即长度为10的二进制数2**10 每次用位运算（i &gt;&gt; 6, i &amp; 0x3f）取到高 4 位和低 6 位，合法就加入res</t>
+  </si>
+  <si>
+    <t>DFS（backTracking）</t>
+  </si>
+  <si>
+    <t>剑指 Offer 17. 打印从1到最大的n位数</t>
+  </si>
+  <si>
+    <t>暴力：从1循环到10**n，加入res DFS：为了避免数字开头出现0，先把首位first固定，first取值范围为1~9 用digit表示要生成的数字的位数，本题要从1位数一直生成到n位数，对每种数字的位数都生成一下首位，所以有个双重for循环 生成首位之后进入递归生成剩下的digit - 1位数，从0~9中取值 递归的中止条件为已经生成了digit位的数字，即index == digit，将此时的数num转为int加到结果res中</t>
+  </si>
+  <si>
+    <t>20. Valid Parentheses</t>
+  </si>
+  <si>
+    <t>栈：单栈秒了 遍历字符串s 如果是左括号就加入栈，碰到右括号先检查是否栈内有东西，然后再看栈顶和当前的字符是否匹配，不匹配或者栈内没东西都返回False 哈希表：先建立一个括号互相配对的哈希表 并在栈内先加入? （防止popfromemptylist以及加入后带来的单独括号的case就直接返回True了的情况 eg:[ ）如果是左括号就加入栈 如果是右括号 看栈顶元素去字典里查看是否等于当前字符。 最后返回len(stack)==1</t>
+  </si>
+  <si>
+    <t>stack/parentheses</t>
+  </si>
+  <si>
+    <t>22. Generate Parentheses</t>
+  </si>
+  <si>
+    <t>DFS/二进制枚举：以左右括号的数量作为切入点 选左括号或者右括号 维护path base很好想 当左右数量加起来等于n*2就表示到头了(或者用path长度)就可以加入res 剪枝方面根据括号的特性采用 left &gt; n or right &gt; left。</t>
+  </si>
+  <si>
+    <t>DFS/parentheses</t>
+  </si>
+  <si>
+    <t>231. Power of Two</t>
+  </si>
+  <si>
+    <t>暴力法：先看n是否对2取余为0 如果为0就除掉一个2 一直循环下去 直到n对2取余不为0 判断n是否为1 如果是2的幂那么2被除完肯定只剩下一个1了 否则则不是2的幂。 bitManipulation：如果n &gt; 0并且n是2的幂 那么lowbits的结果肯定等于其本身 n &amp; (-n) == n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitManipulation </t>
+  </si>
+  <si>
+    <t>46. Permutations</t>
+  </si>
+  <si>
+    <t>DFS：写法一 类N叉枚举 每次从数字里选不在path里的，即每次都选没选过的，当path长度为nums就加入res / 写法二 进制枚举</t>
+  </si>
+  <si>
+    <t>47. Permutations II</t>
+  </si>
+  <si>
+    <t>DFS：写法一 类N叉枚举 先排序保证所有一样的数字在一起，这样才能够进行剪枝 设置一个和visited 每次从数字里选不在visited里的 如果在visited里就continue 需要注意的是剪枝条件为i&gt;startIdx and nums[i] == nums[i - 1] and not visited[i - 1] 就continue换下一个数字选 这样才能去重 最后当path长度为nums就加入res / 写法二 进制枚举</t>
+  </si>
+  <si>
+    <t>869. Reordered Power of 2</t>
+  </si>
+  <si>
+    <t>DFS：写法一 类N叉枚举 可以拆分为排列+2的幂 先将num转化成string枚举所有可能的排列， 然后len(path) == len(n)时检查下path第一位是否为'0’ 如果不是就加入res 最后扫一遍res看是否为2的幂 优化的话可以用check的写法（本题为一True即True） 可以直接在加入res的时候就判断如果是2的幂直接return True 这样后面的也不用判断了 #实现一个.join方法：tmp=0 然后遍历数组 把字符串转成int后与tmp*10相加后赋值为tmp 循环直到数组末尾即可  枚举+比较：因为2的幂总共有32个 2**0 2**1 ... 2**31 所以我们用一个Counter先计算n中所有数字的出现次数 枚举所有2的幂 也同样计算所有数字的出现次数 如果有一次相同就返回True</t>
+  </si>
+  <si>
+    <t>52. N-Queens II</t>
+  </si>
+  <si>
+    <t>DFS：类N叉数枚举 出现的规律为 两条斜线的坐标分别规律为(x-y)是相等的 (x-y)是相等的，做三个set 分别为列 左上角对角线 右上角对角线， dfs设计为以行为基础 没进入下一行就row就+1，并且在每一行中有n列的选择 一个个试过去 有点排列那味理解为每行都有n个选择 但是我们用set作为判断标准 能选择只有不在三个set里的 如果n==row说明到达底层 count+=1（全局变量写法）/ 在for前设置一个count 然后base如果满足了就返回1 count += dfs() (内部变量写法）# 如果满足条件的情况好想，有的是不满足情况的好像那么就设置base为不满足情况返回0 然后count += dfs()</t>
+  </si>
+  <si>
+    <t>DFS(backTracking)</t>
+  </si>
+  <si>
+    <t>921. Minimum Add to Make Parentheses Valid</t>
+  </si>
+  <si>
+    <t>贪心：题目问最少添加多少括号 我们可以转化为最少删除多少括号 两种情况需要考虑 定义一个countLeft计算左括号的数量，遍历s左括号countLeft就+1，有括号就-=1，每次循环都判断一下countLeft如果当前的countLeft&lt;0 说明必须得删除一个右括号才行（或者说必须得添加一个左括号），我们就让操作数+1，遍历完全部再判断一下是否有多余的左括号，如果有意味着我们需要删除它们，即让操作数加上他们的数量（或者理解为添加剩下左括号数量同等数量的右括号）</t>
+  </si>
+  <si>
+    <t>DFS：遍历matrix 如果为1就进入循环 并把此块1设置为0避免重复访问 这属于满足条件的情况好想， 那么我们就设置一个res=1在for循环外（因为进入dfs就表示有一块陆地了，所以再dfs末尾我们返回的res至少为1）然后符合条件就res += dfs() 逆反过来的话就写个base用如果坐标出界就返回0 然后用 res += dfs() #图的题不敢乱写成res = 1 + dfs（） 因为四个方向可能存在右边搜完是满足的然后再取左边一搜发现不满足又把re更新为1 + 0 = 0,res就被覆盖了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFS </t>
+  </si>
+  <si>
+    <t>301. Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>DFS：暴力搜索 类N叉树枚举 是个组合问题 因为每次先删除和后删除的结果是一样的，排列则不同结果为不同答案 记得需要去重（i&gt;startIdx and nums[i] == nums[i - 1]） 判断是否为有效括号的方法还是按照以左括号为主的计数法 最后再扫一遍答案选出最长的  #待补充</t>
+  </si>
+  <si>
+    <t>335. Self Crossing</t>
+  </si>
+  <si>
+    <t>#待思考</t>
+  </si>
+  <si>
+    <t>136. Single Number</t>
+  </si>
+  <si>
+    <t>bitManipulation：遍历并异或即可  #异或解法：异或运算满足交换律，a^b^a=a^a^b=b,因此ans相当于nums[0]^nums[1]^nums[2]^nums[3]^nums[4]..... 然后再根据交换律把相等的合并到一块儿进行异或（结果为0），然后再与只出现过一次的元素进行异或，这样最后的结果就是，只出现过一次的元素（0^任意值=任意值）</t>
+  </si>
+  <si>
+    <t>260. Single Number III</t>
+  </si>
+  <si>
+    <t>bitManipulation：同样也是利用位运算先全异或得到出现一次并且不同数字的异或结果记作a^b 然后获取这个值的lowbit （异或结果为1+lowbit位上俩数字 即取到最低的不同位） 并用lowbit在遍历num时候辅助进行分组 根据这位1将所有num分成两组，两个不同的数会在两组，其他仍然是相同的 在分组时用&amp; 具体就是&amp;为0为一组 其他为一组</t>
+  </si>
+  <si>
+    <t>1162. As Far from Land as Possible</t>
+  </si>
+  <si>
+    <t>BFS：应该算是最短路问题 问最短路一般都要先想到用BFS 单源朴素最短路：从海洋出发开始bfs 一碰到陆地就返回step 维护一个maxStep即可 多源最短路：从陆地出发 只要是海洋就加入队列 并且当队列中有海洋就一直step按层+1 最后返回step-1因为没法提前return会多算一次 #此题还有多种其它解法</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>500. Keyboard Row</t>
+  </si>
+  <si>
+    <t>暴力：利用subset函数  哈希表+模拟：建一个哈希{字母:行idx} 设置flag为true 开始遍历word 先获取第一个字符组 然后从第二个开始遍历 注意转化成小写判断 如果和第一个字母不在同一行就将flag设置成false 最后用flag状态来判断不加入res</t>
+  </si>
+  <si>
+    <t>hashTable</t>
+  </si>
+  <si>
+    <t>575. Distribute Candies</t>
+  </si>
+  <si>
+    <t>贪心：遍历数组 每种拿一个不超过一半 超过一般数量就break返回一共拿了多少种糖</t>
+  </si>
+  <si>
+    <t>DFS/BFS： 做一个tuple(col, row, root.val) DFS前序遍历先整一个乱序tmp出来 然后用sorted按题目要求进行排序后 按顺序遍历arr 将同列存到字典{key:[val, val, val]} 再扫一遍values即可 BFS不同的地方在于做乱序tmp时候和遍历是分开的 tmp加入的是(col, row, node.val) queue加入的是(col, row, node)</t>
+  </si>
+  <si>
+    <t>Tree/sort</t>
+  </si>
+  <si>
+    <t>剑指 Offer II 024. 反转链表</t>
+  </si>
+  <si>
+    <t>迭代：没啥好说得会背 递归：一直往下传head.next 当head为空或者head.next为空时候 就返回newHead 然后操作当前的head实现反转 然后head.next设为空</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>237. Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>模拟：用下一个node的值覆盖当前需要删除的 然后删除下一个node</t>
+  </si>
+  <si>
+    <t>70. Climbing Stairs</t>
+  </si>
+  <si>
+    <t>DP：状态定义为 dp[i]代表到达位置i一共有几种方法 初始化数组长度为n+1 因为要跳出界有n个层台阶 楼顶在n+1 状态转移为dp[i] = dp[i - 1] + dp[i - 2] 由于到达第0层台阶和第1层台阶都只有一种方法所以都初始化为1 然后开始递推即可</t>
+  </si>
+  <si>
+    <t>746. Min Cost Climbing Stairs</t>
+  </si>
+  <si>
+    <t>DP：状态定义为 dp[i]代表到达位置i的最小体力花费 初始化数组长度为n+1 因为要跳出界 状态转移为 dp[i] = min(dp[i - 1] + cost[i], dp[i - 2] + cost[i]) 注意题目的意思是从台阶起跳后加上起跳台阶上表明所耗费的体力 并且由于可以选择下标 0 或 1 作为初始阶梯，因此有 dp[0] = dp[1] = 0 eg：cost = [10, 15, 20]  dp = [0, 0, min(10, 15), min(15, 25)]</t>
+  </si>
+  <si>
+    <t>7. Reverse Integer</t>
+  </si>
+  <si>
+    <t>python 
+//取商 向负无穷取整取整 c = a // b
+/取商 返回小数 c = a / b
+%取模or取余  r = a - c * b = a - (a//b) * b 向负无穷取整取整 -7%3 = -7 - 3*(-7//3) = 2
+java
+/取商 返回0取整 c = a / b
+%取模or取余  r = a - c * b = a - (a/b) * b 向0取整 -7%3 = -7 - 3*(-7/3)= -1</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198. House Robber
+</t>
+  </si>
+  <si>
+    <t>DFS+记忆化：类二进制枚举 偷与不偷 做一个prev参数 来看前面是否被偷 如果没有被偷则这个可以偷 如果前面被偷了则这个不能偷 维护一个全局变量maxMoney不断更新即可 DP：第I类基本型 有两种初始化方式 这里将dp长度初始化为n+1 状态定义：dp[i]表示偷钱0个房子最大能获得的钱 所以初始化 dp[0] = 0，dp[1] = nums[0] 状态转移：dp[i] = max(dp[i-1], dp[i-2] + nums[i - 1])</t>
+  </si>
+  <si>
+    <t>213. House Robber II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP：第I类基本型 也是有两种初始化方式 这里将dp长度都初始化为n+1 此题的解法关键在于分类讨论 分为不偷第一家偷最后一家 所以可偷下标分为[1, n-1] （初始化中 dp[1]=0 因为不偷,dp[2]=nums[1]）和 偷第一家不偷最后一家 所以可偷下表分为[0, n-2] （初始化中 dp[1]=nums[0] 因为第一家偷不能偷最后一家 所以最后再取答案的时候只能取n-1） 然后分别建表递推即可 </t>
+  </si>
+  <si>
+    <t>剑指 Offer 58 - II. 左旋转字符串</t>
+  </si>
+  <si>
+    <t>暴力：切片 取余：从idx为n的位置开始遍历到n+len(s)，取元素的时候写成s[i%len(s)]即可</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>367. Valid Perfect Square</t>
+  </si>
+  <si>
+    <t>二分答案：如果找两个相同的因数，因为num 是正整数，所以若正整数 x 满足 x×x=num，则x一定满足 1≤x≤num。于是我们可以将 1 和 num 作为二分查找搜索区间的初始边界。#1是一个完全平方数  #找素数 设n为合数，n=ab,则a,b之中总有一个小于或等于根号n. 也就是说合数有大于根号n的因数存在，则必有一个小于根号n的因数与之对应。再换个说法，如果一个数没有小于根号n的因数，则不能有大于根号n的因数。所以只检查是否有小于或等于根号n的因数即可。</t>
+  </si>
+  <si>
+    <t>300. Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>DP：状态定义 dp[i]表示以i为结尾的最长上升子序列长度为多少 状态转移方程 dp[i] = max(dp[i], dp[j] + 1) for j in range(0, i)  当nums[j] &lt; nums[i]时候 说明是时候更新最长上升子序列的长度了 用dp[j]直接更新 (因为dp[j]自带有到j的最长上升子序列，所以就不用重复计算了) 并且注意需要找到最大的小弟</t>
+  </si>
+  <si>
+    <t>DP/subsequence</t>
+  </si>
+  <si>
+    <t>673. Number of Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>DP：状态定义 longSub[i]表示以i为结尾的最长上升子序列长度为多少 times[i]表示以i为结尾的最长上升子序列出现的次数  算法流程就是 不断更新最长子序列长度 如果存在和最长子序列长度一样的子序列就累加上其出现次数 最后扫一遍统计下 corner case：[2,2,2,2,2] 维护一个maxLen 如果长度与maxLen相同就累加上其times 如果有新的maxLen出现就重新计算times</t>
+  </si>
+  <si>
+    <t>674. Longest Continuous Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>双指针：left=0 用for维护right从1开始 如果right指向的满足就计算长度并更新maxLen 不满足就left=right 然后right继续往后找直到结束</t>
+  </si>
+  <si>
+    <t>slidingWindow/twoPointers</t>
+  </si>
+  <si>
+    <t>1218. Longest Arithmetic Subsequence of Given Difference</t>
+  </si>
+  <si>
+    <t>DP：在哈希上做DP 如果当前的元素-diff在哈希表中出现 说明它们俩接上了 那么就将dic[v-diff] + 1 即加上新的这一个构成新的长度 并维护一个最大长度res遍历完返回即可</t>
+  </si>
+  <si>
+    <t>DP/subsequence/hashTable</t>
+  </si>
+  <si>
+    <t>1143. Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>DP：状态定义dp[i][j]表示以i为结尾和以j结尾的最长公共子序列 如果text1[i - 1]==text2[j - 1]那么说明需要更新最长公共子序列 即dp[i][j] = dp[i - 1][j - 1] + 1 如果不满足的话那么就选取dp[i - 1][j]与dp[i][j - 1]中较长的</t>
+  </si>
+  <si>
+    <t>268. Missing Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暴力：作差求出丢失的数字 bitManipulation：数组nums 中有 n 个数，在这 n 个数的后面添加从 0 到 n 的每个整数，则添加了 n+1 个整数，共有 2n+1 个整数。在 2n+1 个整数中，丢失的数字只在后面 n+1 个整数中出现一次，其余的数字在前面 n 个整数中（即数组中）和后面 n+1 个整数中各出现一次，即其余的数字都出现了两次
+</t>
+  </si>
+  <si>
+    <t>62. Unique Paths</t>
+  </si>
+  <si>
+    <t>DFS： 从(0，0)出发每次只能往下走或者往左走本质就是一个二进制枚举 如果能够到达坐标(m-1,n-1)那么就返回个1 把向下走和向右走所返回的1全累加在一起即可  DP：状态定义dp[i][j]表示到达(i,j)有多少条路径 初始化第一行和第一列都为1 然后开始转移 dp[i][j] = dp[i - 1][j] + dp[i][j - 1] 最后看dp[m-1][n-1]</t>
+  </si>
+  <si>
+    <t>64. Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>DFS: 二进制枚举 如果走到了坐标(m-1,n-1)那么就返回其坐标值 取向下走和向右走的最小路径和加上出发点的值即可  DP:状态定义dp[i][j]表示到达(i,j)的最小路径和 初始化第一行和第一列为累加的路径和 并且只能从左边和上面转移过来 所以状态转移 dp[i][j] = min(dp[i-1][j], dp[i][j - 1])</t>
+  </si>
+  <si>
+    <t>598. Range Addition II</t>
+  </si>
+  <si>
+    <t>简单模拟：由于每次都是对 0 &lt;= i &lt; a 和 0 &lt;= j &lt; b 进行操作，因此每次操作都会包含点 (0, 0)，最后的最大值一定出现在位置 (0, 0)上。问题转换为：什么范围内的数与位置 (0, 0)上的值相等，即什么范围会被每一次操作所覆盖。不难发现，在所有的 ops[i] 中的横纵坐标 (x, y) 与左上角 (0,0) 形成的区域面积可确保被每次操作覆盖，x * y 即是答案。</t>
+  </si>
+  <si>
+    <t>299. Bulls and Cows</t>
+  </si>
+  <si>
+    <t>哈希表：遍历secret 如果是bulls 即位置与字符都相同 那么就来接bulls的个数 如果不是那么 用数组或者哈希表将secret和guess在此位置的字符记录下来 记录其出现次数 最后扫一遍数组取每个数字的小值累加即为cows的数量</t>
+  </si>
+  <si>
+    <t>464. Can I Win</t>
+  </si>
+  <si>
+    <t>DFS+状态压缩： 用一个二进制来表示是否被选的状态 0010 就表示1被选了 用(status&gt;&gt;i)&amp;1 来验证是否被选了 核心点在于需要判断自己选了一个数以后是否会有对手必输的情况出现 如果对手必输那么先手就必赢就可以在此check函数里返回True，有就是说是反过来的逻辑 如果对手有一种必输的情况那么先手就必赢 #此类型DFS会拿池子里的物品 例如删除括号等题目 这种游戏DP你一下我一下需要搞情况是对手还是自己的回合</t>
+  </si>
+  <si>
+    <t>488. Zuma Game</t>
+  </si>
+  <si>
+    <t>DFS：待补充      #此类型DFS会拿池子里的物品 例如删除括号，祖玛游戏等题目</t>
+  </si>
+  <si>
+    <t>DFS：postorder 维护一个全局变量res 拿到左右子节点的值以后进行计算tilt后累加给res 然后再返回所有节点的值给上一层的节点供上一层继续计算</t>
+  </si>
+  <si>
+    <t>Tree(postorder)</t>
+  </si>
+  <si>
+    <t>416. Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>DFS+memo：依据题目意思我们需要的找的target就是sum(nums)//2 写法一 二进制枚举 dfs(idx+1, curSum+nums[idx]) or dfs(idx+1, curSum)写成一个check函数即可 / 写法二 组合总和枚举术 base写成如果total刚好等于target就返回True idx==n或者total大于target都返回False DP：01背包问题 状态定义dp[i][j]表示从前i个硬币里选是否能够凑成target呢初始化 dp[0][0] = True 其它第一行为False 状态转移 dp[i][j] = dp[i - 1][j] or dp[i - 1][j - coin]</t>
+  </si>
+  <si>
+    <t>DFS/DP</t>
+  </si>
+  <si>
+    <t>简单模拟：写法一 先在stack内放一个(-1,-1) 然后遍历timeSeries进行区间合并 pop掉dummy然后扫一遍累加答案 / 写法二 直接硬刚 tmp and leftBoundary &lt;= tmp[-1][1]才合并 否则就直接放入 最后扫一遍统计答案</t>
+  </si>
+  <si>
+    <t>494. Target Sum</t>
+  </si>
+  <si>
+    <t>DFS+memo：二进制枚举 设计dfs(idx, total)一个加上nums[idx] 另一个减去nums[idx] 如果到达target就返回个1 return left+right即可 DP：写法一 全量DP 这么写需要进行偏移配合每个都需要向右偏移一个total 初始化dp数组长度为2*total+1 然后枚举背包的时候需要从-total到total+1 只有 (j-x)+total&gt;=0 和 (j+x)+total&lt;=2*total时才能转移：dp[i][j + total] += dp[i - 1][j - x + total] 最后的f[n][target]即为答案/ 写法二 优化DP (sum - neg) - neg = target 变形为 neg = (sum - target) // 2 然后只需要凑出neg部分让等式成立即可 后面就是普通的01背包问题</t>
+  </si>
+  <si>
+    <t>698. Partition to K Equal Sum Subsets</t>
+  </si>
+  <si>
+    <t>DFS(backtracking): 设计成 dfs(nums, startIdx, group, total) 当total==limited 就把startIdx和total重置为0 group+=1 继续dfs 直到group==k返回True 其中limited就是用SUM(nums)//k  本题类似permutation unique  # 注意是否会每次从头开始搜索如果从头开始搜索就需要用visited数组来避免重复剪枝就类似permutation unique  如果不会重头开始搜索就不需要用visited数组剪枝就类似 subset II</t>
+  </si>
+  <si>
+    <t>DFS(backtracking)</t>
+  </si>
+  <si>
+    <t>剑指 Offer 42. 连续子数组的最大和</t>
+  </si>
+  <si>
+    <t>DP：状态定义：dp[i]表示以i为结尾的subarray的最大和 状态转移方程：dp[i] = max(dp[i - 1] + nums[i], nums[i])</t>
+  </si>
+  <si>
+    <t>128. Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>HashSet：每次都找到可能的链头 如何定义链头？ 如果x-1不存在与s中就说明是链头 找到链头以后往后搜索看能爬多长 维护一个最长maxLen</t>
+  </si>
+  <si>
+    <t>HashSet</t>
+  </si>
+  <si>
+    <t>DFS+memo：因为可以一直重复用 所以每次都从头开始遍历coins 入口维护一个res 不断更新 DFS求最少数量 需要返回 成立的情况返回1 不成立返回-1 如果返回-1就continue掉 维护一个局部变量来获取本层合法的的最小数量  BFS+memo：待补充 DP：完全背包 dp[i][j]表示从前i个硬币中选能凑成j所需的最少个数 dp[i][j] = min(dp[i - 1][j], dp[i - 1][j - k * coin] + k) 优化后方程为 dp[j] = min(dp[j], dp[j - coin] + 1)</t>
+  </si>
+  <si>
+    <t>629. K Inverse Pairs Array</t>
+  </si>
+  <si>
+    <t>序列DP: 定义dp[i][j] 将i放入排序数组中能凑成的j个逆序对 可以思考到能从dp[i - 1]转移来 那么放置在长度为i-1的数组中一共有i中放置方法 从放在最后没有增加逆序对到放在最前增加i-1个逆序对 所以需要内部再设计一个循环把所有的逆序对累加起来 时间复杂度为n**3 dp[i][j] += dp[i - 1][j - m] for m in range(0, i - 1 + 1) 这里还可以优化状态转移方程，将j-1带入带原方程 将两式子相减可以得到 dp[i][j] = (dp[i - 1][j] + dp[i][j - 1] - dp[i - 1][j - i]) 但是要注意限制j与i的大小关系 否则会报错 只有当j&gt;=i的时候才能进行转移 否则就减去0 # 写完方程需要在观察方程中dp数组 是否有越界的情况 如果有需要限制掉</t>
+  </si>
+  <si>
+    <t>688. Knight Probability in Chessboard</t>
+  </si>
+  <si>
+    <t>DFS：题目本质就是一个概率问题 概率=(下次的概率+...+下次的概率)/8 具体实现base为count==k就返回1 然后用for所有可能计为total 如果是合法的坐标那就全部累加起来做一个valid的数目 然valid+=dfs(nextParameter) 然后用valid/total 然后返回此概率 供上一层使用 剩下的交给递归处理 概率DP：用了两个数组 一个是cur 一个是nxt cur全部初始化为1 nxt[x][y] += cur[i][j] * 1 / 8  dp[i][j]代表跳到这个格子的概率为多少 全部遍历完一层以后把nxt赋值给cur 然后在下一轮开始继续初始化nxt并赋值 重复k个循环 最后输出所有的概率累加的结果</t>
+  </si>
+  <si>
+    <t>375. Guess Number Higher or Lower II</t>
+  </si>
+  <si>
+    <t>DFS：base写成low&gt;=high 就返回0  遍历每一个可能被猜的数 然后用一个cost去接 找到左右区间中的最大值 然后和res取最小值  区间DP：主要需要弄清楚我们想要的结果是局部至多全局至少 dp(n) = min(f(1) + f(2) + ... f(n)) eg:f(3) = max(f(1-2), f(4-5)) + 3</t>
+  </si>
+  <si>
+    <t>石子游戏</t>
+  </si>
+  <si>
+    <t>518. Coin Change 2</t>
+  </si>
+  <si>
+    <t>DFS：写法一 设计dfs(startIdx, remains) 然后维护个res局部变量 用来接当remians==0的时候返回值 res+=dfs(i, remains - coins[i]) / 写法二 二进制枚举 DP：状态定义 dp[i][j] 表示从前i个物品中挑选，凑成j的方案数量 状态转移 dp[i][j] += dp[i - 1][j - k * coins[i - 1]] 优化方程后为 dp[j] += dp[j - coin]</t>
+  </si>
+  <si>
+    <t>31. Next Permutation</t>
+  </si>
+  <si>
+    <t>双指针：倒序遍历先找到第一个小于峰值的值记为firstIdx 找到以后做一个判断 如果firstIdx还是为初始值说明到头了直接调用reverse函数将nums全倒过来返回 如果firstIdx改变了 就继续从后往前找到firstIdx（不包括firstIdx） 第一个大于nums[firstIdx]的secondIdx 找到以后我们需要交换两个idx位置的数字 最后再将firstidx+1~len(nums) - 1位置的元素交换                                       总的来说我们需要将一个左边的「较小数」与一个右边的「较大数」交换，以能够让当前排列变大，从而得到下一个排列。同时我们要让这个「较小数」尽量靠右，而「较大数」尽可能小。当交换完成后，「较大数」右边的数需要按照升序重新排列。这样可以在保证新排列大于原来排列的情况下，使变大的幅度尽可能小。</t>
+  </si>
+  <si>
+    <t>剑指 Offer 55 - II. 平衡二叉树</t>
+  </si>
+  <si>
+    <t>DFS：写法一 从顶至底 运用求节点的最大depth函数来对每一个节点进行求解是否存在高度相差超过1的子树  / 写法二 从底至顶 运用后序遍历 如果有一个节点的abs(dfs(root.left) - dfs(root.right)求解超过了1那么就返回-1 最后验证是否有返回-1</t>
+  </si>
+  <si>
+    <t>DFS：写法一 二进制枚举 先做一些处理 sum一下看是否能够mod2==0 然后把target设为sum/2 设计函数dfs(i, total+nums[i]) 选与不选 base设置成如果total==target就返回True 1True即True / 写法二 不可重复组合的 也是check写法 一个个枚举过去 如果total==target就返回True后面就不找了 DP：定义为纯01背包问题 最大不超过target能凑多少 target=sum//2 no = dp[i - 1][j] 如果j &gt;= nums[i - 1]: yes = dp[i - 1][j - nums[i - 1]] + nums[i - 1] 最后决定 dp[i][j] = max(no, yes) 定义为变种01背包问题 是否能够凑出target 一种情况为dp[i][j] = [i - 1][j] 另一种情况为dp[i][j] = dp[i - 1][j] or dp[i - 1][j - nums[i - 1]] (if j &gt;= nums[i - 1])</t>
+  </si>
+  <si>
+    <t>DFS(check)/DP</t>
+  </si>
+  <si>
+    <t>字符串：大写字母范围 65 &lt;= ord(word[i]) &lt;= 90 小写字母十进制ASCALL码范围97-122</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>455. Assign Cookies</t>
+  </si>
+  <si>
+    <t>Greedy：更具题目要求you should give each child at most one cookie 所以我们先排序 从最小的饼干到最大的的饼干一个个找过去来填满孩子 如果当前的孩子可以被S[i]填满count+=1  然后i+=1,j+=1继续找下一个能够填满G[i]的饼干 直到遍历完所有孩子或者所有饼干就退出循环</t>
+  </si>
+  <si>
+    <t>剑指 Offer 65. 不用加减乘除做加法</t>
+  </si>
+  <si>
+    <t>bitManipulation：(a &amp; b) &lt;&lt; 1为进位的结果 a ^ b为不进位的结果相加即可 直到进位的结果为0为止 #python是无符号整形 参考资料：1. https://leetcode-cn.com/problems/bu-yong-jia-jian-cheng-chu-zuo-jia-fa-lcof/solution/pythonjie-fa-xiang-xi-jie-du-wei-yun-sua-jrk8/                  2. https://leetcode-cn.com/problems/bu-yong-jia-jian-cheng-chu-zuo-jia-fa-lcof/solution/pythonwei-yun-suan-fu-shu-bu-ma-zui-qian-43vf/</t>
+  </si>
+  <si>
+    <t>677. Map Sum Pairs</t>
+  </si>
+  <si>
+    <t>哈希表：暴力模拟 复习字典树</t>
+  </si>
+  <si>
+    <t>435. Non-overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Greedy：按照ending point排序 外循环用i固定一个区间 统计数量记为count 内循环用j遍历把重叠的区间一个个排除掉 直到不重叠的时候就i=j 最后用长度-count就是答案 需要注意题目给的条件是[[1,2],[2,3]]属于不重叠也就是说interval[j][0]&gt;=interval[i][1]的时候就可以退出j的循环了  #Sort sort by starting point =&gt; the minimum number of intervals to cover the whole / sort by ending point =&gt; the maximum number of intervals that are non-overlapping</t>
+  </si>
+  <si>
+    <t>646. Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t>Greedy：外循环用i固定一个区间 统计数量记为count 内循环用j遍历把重叠的区间一个个排除掉 直到不重叠的时候就i=j 注意题目所给的 [1,2],[2,3] 是属于重叠的所以 当 pairs[j][0] &lt;= pairs[i][1]的时候保持循环</t>
+  </si>
+  <si>
+    <t>319. Bulb Switcher</t>
+  </si>
+  <si>
+    <t>Math： 灯泡编号拥有偶数个质因数的一定是暗的，灯泡编号拥有奇数个质因数的一定是亮的(完全平方数) 1到n之间的完全平方数的个数等于根号n eg: 1&lt;=x**2&lt;=9  1&lt;=x&lt;=3 一个平方根对应一个完全平方数 所以完全平方数也是3个                                           #   #  0 0 0 0 0 0 
+    #  1 1 1 1 1 1  round1 
+    #  1 0 1 0 1 0  round2
+    #  1 0 0 0 1 1  round3
+    #  1 0 0 1 1 1  round4
+    #  1 0 0 1 0 1  round5
+    #  1 0 0 1 0 0  round6
+# bulb 1 2 3 4 5 6</t>
+  </si>
+  <si>
+    <t>881. Boats to Save People</t>
+  </si>
+  <si>
+    <t>Greedy：先sort 然后双指针从头和尾分别向内遍历 因为题目要求只能2人一艘船 并且要装下所有人的船数量 所以我们需要将体重最重的人和体重最轻的人搭配在一起 如果最重的人装不下最轻的人说明没其它人能和最重的人同一艘船了 他只能单独一艘船j-=1 count+=1 如果可以装下最重和最轻的人就i+=1 j-=1 count+=1 循环直到i&lt;=j不成立</t>
+  </si>
+  <si>
+    <t>剑指 Offer 56 - II. 数组中数字出现的次数 II</t>
+  </si>
+  <si>
+    <t>哈希表：暴力模拟即可 自动机：待补充</t>
+  </si>
+  <si>
+    <t>BFS：看到最少的个数应该要第一时间联想到BFS层序遍历 暴力枚举所有的情况 当curremains=0就返回count 注意是转化为图以后需要设置visited避免重复访问造成TLE  DFS：由于是可重复选择相同的并且coins不包含重复coin 遍历手法类似组和总和I 维护一个局部变量 res=inf 计算出curRemains先判断是否合法 然后计算nxtRemainsTimes 看是否合法并且小于res 如果都符合就更新res=nxtRemainsTimes+1 (nxtRemainsTimes凑成nxtremains所需的最小次数为多少) 如果res全部遍历完res没有被更新过就返回-1表示凑不出 DP：完全背包问题 dp[i][j] = min(dp[i - 1][j] , dp[i][j] = dp[i - 1][j - k * coin] + k) (if k * coin &lt;= j) 可以简化为 dp[j] = min(dp[j], dp[j - coin] + 1) (if j &gt;= coin)  #这里有个小triky 用于优化无效状态的定义 应为inf直接加上一个k或者常数可能会变成最小值 因此，我们才有先判断再使用的习惯if(f[i-1][j] != inf) 但事实上，如果每次使用都需要有前置检查的话，是很麻烦的， 所以我们考虑不直接使用 INT_MAX 作为 INF，而是使用一个比 INT_MAX 小的较大数来代表 INF 可以自定义一个INF=0x3f3f3f3f来表示最大值 来避免一些判断 简化代码 这样我们使用 INF 做状态转移的时候，就不需要先判断再使用了</t>
+  </si>
+  <si>
+    <t>DFS/BFS/DP</t>
+  </si>
+  <si>
+    <t>152. Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>序列DP：不同于53题此题不能直接写dp1[i] = max(dp[i - 1] * nums[i], nums[i]) 因为有可能存在负数的情况 有可能-5*8较小 但是后面又乘上一个负数变成最大的正数了 所以当前位置的最优解未必是由前一个位置的最优解转移得到的 解决方法我们可以根据正负性进行分类讨论 定义两个dp数组 一个用来存负数的结果 考虑当前位置如果是一个负数的话，那么我们希望以它前一个位置结尾的某个段的积也是个负数，这样就可以负负得正，并且我们希望这个积尽可能「负得更多」，即尽可能小。如果当前位置是一个正数的话，我们更希望以它前一个位置结尾的某个段的积也是个正数，并且希望它尽可能地大。于是这里我们可以再维护一个 dp2[i]表示以i结尾的最小乘积子数组 这样我们在状态转移时候 就可以把负数的情况也考虑进去 在状态转移的时候我们暴力的进行 dp1[i]=max(dp[i]-1*nums[i], dp2[i-1]*nums[i], nums[i]) 无论怎么转移都逃不过这三种情况中出现最大 同理dp2就是求出上述三个参数的最小值 同时在每次转移都计算一个res 由于题目要求我们求最大的乘积 所以 res=max(res, dp[i])</t>
+  </si>
+  <si>
+    <t>53. Maximum Subarray</t>
+  </si>
+  <si>
+    <t>序列DP：dp[i]表示以i结尾的最大subarray 状态转移为 dp[i] = max(dp[i - 1] + nums[i], nums[i]) 分治法：待补充</t>
+  </si>
+  <si>
+    <t>96. Unique Binary Search Trees</t>
+  </si>
+  <si>
+    <t>序列DP：假设n个节点的BST的组合一共有G（n）个  f(i)表示以数字i为根节点的BST有多少种组合 则有G(n)=f(1)+f(2)+f(3)+f(4)+...+f(n) 当 k 为根节点时，其左子树节点个数为 k-1 个，右子树节点为 k-i，则 f(i)=G（k-1）*G(n-k) 综合两个公式可以得到卡特兰数的公式 G(n)=G(0)*G(n-1)+G(1)*G(n-2)+...+G(n-1)*G(0) 实现上采用双重for循环外层循环从1个节点到n个节点 内层循环表示用k作为root后 左子树和右子树分别剩下多少个数的节点也是上文中的 左子树的组合数：G(k-1)*右子树的组合数：G(n-k)</t>
+  </si>
+  <si>
+    <t>391. Perfect Rectangle</t>
+  </si>
+  <si>
+    <t>sweepline</t>
+  </si>
+  <si>
+    <t>318. Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>暴力：双重for循环然后 判断字符是否重复没有重复的就可以就算max 全局维护max 返回即可 n**3的时间复杂度 这里也可以用set优化 s1&amp;s2如果有存在相同字母就将flag设置为False 并且只有在flag为True的情况下才更新max  bitManipulation：预处理降低时间复杂度 我们需要做的是将每个单词用一个二进制进行表示 具体实现就是 遍历单词中的字母记为w 计算出w-'a'的ASCALL码然后 bits[idx] |= 1&lt;&lt;ASCALL 将数值记录下来 最后双for扫一次如果bits[i] &amp; bits[j]为False就更新max</t>
+  </si>
+  <si>
+    <t>1046. Last Stone Weight</t>
+  </si>
+  <si>
+    <t>手撕Heap：push操作可以分为 1存入末尾 2上浮 pop操作可以分为 1头存入tmp 2交换头尾元素 3删除尾元素 4头元素下沉 5返回tmp</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Heap：写法一 一次性存完所有节点进入heap 然后一次性取出串起来 / 写法二 只存一个头节点的值和位于lists所属的idx pop出来后可以用idx回去定位lists[idx] = lists[idx].next实现位移 然后如果lists[idx]存在就加入heap 直到heap为空 返回dummy.next 分治法：待补充</t>
+  </si>
+  <si>
+    <t>postorder： 维护全局变量 递归返回</t>
+  </si>
+  <si>
+    <t>932. Beautiful Array</t>
+  </si>
+  <si>
+    <t>分治：因为挨着的数比如1/2/3/4/5， 2*2=1+3， 3*2=2+4，因此把挨着的数打散即可 a = dfs(arr[::2])， b = dfs(arr[1::2]) # 待理解其它写法</t>
+  </si>
+  <si>
+    <t>dividerAndConquer</t>
+  </si>
+  <si>
+    <t>397. Integer Replacement</t>
+  </si>
+  <si>
+    <t>DFS：base当n==1的时候返回0 然后上层取min(dfs(n+1), dfs(n-1))+1即返回最小的步数 BFS：维护一个queue 做一个层序遍历 如果当弹出队列的元素为1就返回step 如果不是1就按题意判断加入队列继续做运算 没加入queue一次step+=1 Greedy：当决定是n+1还是n-1 我们需要判断n+1或是n-1后的结果除2是否为偶数，如果是偶数我们就还可以继续除以二 否则如果是奇数并且不为结果1，那么我们则又需要多做一步加减</t>
+  </si>
+  <si>
+    <t>DFS(step)/BFS/Greedy</t>
+  </si>
+  <si>
+    <t>剑指 Offer 56 - I. 数组中数字出现的次数</t>
+  </si>
+  <si>
+    <t>bitManipulation：步骤1 获得ans1 ^  ans2的结果 步骤2 获取不同的最后一位即groupDivider=target &amp; (-target) num1=num2=0 然后按照groupDivider&amp;num如果为0（注意这里不能用1）那么就分为一组（与num1异或） 反之就放在另外一组（与num2异或）</t>
+  </si>
+  <si>
+    <t>594. Longest Harmonious Subsequence</t>
+  </si>
+  <si>
+    <t>hashTable：先用哈希表统计一遍所有数字的出现次数 然后用set去重后遍历nums 如果num-1或者num+1存在于哈希表中那么就计算max(maxLen, hashTable[num] + hashTable[num-1/num+1])即可 #思考 子序列问题看题意是否可以只考虑次数-&gt;哈希表 如果不是那么可能是动态规划 如果有continuous出现那么可能是双指针或者是滑动窗口</t>
+  </si>
+  <si>
+    <t>128/674</t>
+  </si>
+  <si>
+    <t>twoPointers+hashTable：用一个set来判断是否有重复 初始化双指针left=right=0 在移动前先check下s[right]是否出现在set如果出现了 就移动left指针并从set中remove掉s[left]元素 当[left, right]区间中没有重复字母时 就计算一次right-left+1和maxLen取大者即可</t>
+  </si>
+  <si>
+    <t>slidingWindow/twoPointers/hashTable</t>
+  </si>
+  <si>
+    <t>114. Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>bruteForce：Tree(preOrder)直接前序遍历 将节点放入数组 然后再串起来成单链表  tricky：算法流程就是cur=root pre和nxt放在cur.left上 然后不断移动pre找到cur.left节点最右边的节点 接着把cur.right接到pre后边 然后把cur.left设成None cur.right设置成nxt 然后cur=cur.right DFS：后序遍历也可以操作 用left指向root.left right指向root.right 然后把left放在root.right下 然后用p指向root 不停移动p.right找到最左端 然后把right连在p的右边</t>
+  </si>
+  <si>
+    <t>Tree(preorder)/Tree(postorder)</t>
+  </si>
+  <si>
+    <t>617. Merge Two Binary Trees</t>
+  </si>
+  <si>
+    <t>Tree(preorder)：先序遍历 因为要先操作出root（用当前的root1.val和root2.val相加造一个root）， leftNode和rightNode需要分别用dfs(root1.left, root2.left)和dfs(root1.right, root2.right)返回上来获得root 才可以将root.left=leftNode和root.right=rightNode</t>
+  </si>
+  <si>
+    <t>Tree(preorder)</t>
+  </si>
 </sst>
 </file>
 
@@ -1977,45 +2571,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2029,16 +2585,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2054,6 +2618,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2062,7 +2641,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2076,22 +2662,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2105,7 +2676,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2115,6 +2701,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2176,13 +2770,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2194,7 +2794,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2206,13 +2848,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2224,67 +2902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2302,31 +2926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2338,13 +2938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2355,15 +2949,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2391,6 +2976,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2406,17 +3006,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2426,17 +3022,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2455,155 +3040,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2660,6 +3254,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3047,12 +3644,12 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F474"/>
+  <dimension ref="A1:F721"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D424" sqref="D424"/>
+      <selection pane="bottomLeft" activeCell="D508" sqref="D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="5"/>
@@ -7778,56 +8375,1664 @@
         <v>620</v>
       </c>
     </row>
-    <row r="425" ht="75.1" customHeight="1"/>
-    <row r="426" ht="75.1" customHeight="1"/>
-    <row r="427" ht="75.1" customHeight="1"/>
-    <row r="428" ht="75.1" customHeight="1"/>
-    <row r="429" ht="75.1" customHeight="1"/>
-    <row r="430" ht="75.1" customHeight="1"/>
-    <row r="431" ht="75.1" customHeight="1"/>
-    <row r="432" ht="75.1" customHeight="1"/>
-    <row r="433" ht="75.1" customHeight="1"/>
-    <row r="434" ht="75.1" customHeight="1"/>
-    <row r="435" ht="75.1" customHeight="1"/>
-    <row r="436" ht="75.1" customHeight="1"/>
-    <row r="437" ht="75.1" customHeight="1"/>
-    <row r="438" ht="75.1" customHeight="1"/>
-    <row r="439" ht="75.1" customHeight="1"/>
-    <row r="440" ht="75.1" customHeight="1"/>
-    <row r="441" ht="75.1" customHeight="1"/>
-    <row r="442" ht="75.1" customHeight="1"/>
-    <row r="443" ht="75.1" customHeight="1"/>
-    <row r="444" ht="75.1" customHeight="1"/>
-    <row r="445" ht="75.1" customHeight="1"/>
-    <row r="446" ht="75.1" customHeight="1"/>
-    <row r="447" ht="75.1" customHeight="1"/>
-    <row r="448" ht="75.1" customHeight="1"/>
-    <row r="449" ht="75.1" customHeight="1"/>
-    <row r="450" ht="75.1" customHeight="1"/>
-    <row r="451" ht="75.1" customHeight="1"/>
-    <row r="452" ht="75.1" customHeight="1"/>
-    <row r="453" ht="75.1" customHeight="1"/>
-    <row r="454" ht="75.1" customHeight="1"/>
-    <row r="455" ht="75.1" customHeight="1"/>
-    <row r="456" ht="75.1" customHeight="1"/>
-    <row r="457" ht="75.1" customHeight="1"/>
-    <row r="458" ht="75.1" customHeight="1"/>
-    <row r="459" ht="75.1" customHeight="1"/>
-    <row r="460" ht="75.1" customHeight="1"/>
-    <row r="461" ht="75.1" customHeight="1"/>
-    <row r="462" ht="75.1" customHeight="1"/>
-    <row r="463" ht="75.1" customHeight="1"/>
-    <row r="464" ht="75.1" customHeight="1"/>
-    <row r="465" ht="75.1" customHeight="1"/>
-    <row r="466" ht="75.1" customHeight="1"/>
-    <row r="467" ht="75.1" customHeight="1"/>
-    <row r="468" ht="75.1" customHeight="1"/>
-    <row r="469" ht="75.1" customHeight="1"/>
-    <row r="470" ht="75.1" customHeight="1"/>
-    <row r="471" ht="75.1" customHeight="1"/>
-    <row r="472" ht="75.1" customHeight="1"/>
-    <row r="473" ht="75.1" customHeight="1"/>
-    <row r="474" ht="75.1" customHeight="1"/>
+    <row r="425" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A425" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C425" s="11">
+        <v>44495</v>
+      </c>
+      <c r="D425" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="426" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A426" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C426" s="11">
+        <v>44495</v>
+      </c>
+      <c r="D426" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="427" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A427" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C427" s="11">
+        <v>44495</v>
+      </c>
+      <c r="D427" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="428" ht="124" customHeight="1" spans="1:5">
+      <c r="A428" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C428" s="11">
+        <v>44495</v>
+      </c>
+      <c r="D428" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="429" ht="96" customHeight="1" spans="1:5">
+      <c r="A429" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C429" s="11">
+        <v>44495</v>
+      </c>
+      <c r="D429" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="430" ht="92" customHeight="1" spans="1:5">
+      <c r="A430" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C430" s="11">
+        <v>44496</v>
+      </c>
+      <c r="D430" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="431" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A431" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C431" s="11">
+        <v>44496</v>
+      </c>
+      <c r="D431" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="E431" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="432" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A432" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C432" s="11">
+        <v>44496</v>
+      </c>
+      <c r="D432" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="433" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A433" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C433" s="11">
+        <v>44496</v>
+      </c>
+      <c r="D433" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="434" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A434" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C434" s="11">
+        <v>44497</v>
+      </c>
+      <c r="D434" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="435" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A435" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C435" s="11">
+        <v>44497</v>
+      </c>
+      <c r="D435" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="436" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A436" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C436" s="11">
+        <v>44497</v>
+      </c>
+      <c r="D436" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="437" ht="114" customHeight="1" spans="1:5">
+      <c r="A437" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C437" s="11">
+        <v>44497</v>
+      </c>
+      <c r="D437" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="438" ht="111" customHeight="1" spans="1:5">
+      <c r="A438" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C438" s="11">
+        <v>44497</v>
+      </c>
+      <c r="D438" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="439" ht="90" customHeight="1" spans="1:5">
+      <c r="A439" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C439" s="11">
+        <v>44497</v>
+      </c>
+      <c r="D439" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="440" ht="85" customHeight="1" spans="1:5">
+      <c r="A440" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C440" s="11">
+        <v>44498</v>
+      </c>
+      <c r="D440" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="441" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A441" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C441" s="11">
+        <v>44498</v>
+      </c>
+      <c r="D441" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="442" ht="75.1" customHeight="1" spans="1:4">
+      <c r="A442" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C442" s="11">
+        <v>44498</v>
+      </c>
+      <c r="D442" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="443" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A443" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C443" s="11">
+        <v>44499</v>
+      </c>
+      <c r="D443" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="444" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A444" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C444" s="11">
+        <v>44499</v>
+      </c>
+      <c r="D444" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="445" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A445" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C445" s="11">
+        <v>44499</v>
+      </c>
+      <c r="D445" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="446" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A446" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C446" s="11">
+        <v>44500</v>
+      </c>
+      <c r="D446" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="447" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A447" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C447" s="11">
+        <v>44501</v>
+      </c>
+      <c r="D447" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="448" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A448" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C448" s="11">
+        <v>44501</v>
+      </c>
+      <c r="D448" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="449" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A449" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C449" s="11">
+        <v>44501</v>
+      </c>
+      <c r="D449" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="450" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A450" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C450" s="11">
+        <v>44502</v>
+      </c>
+      <c r="D450" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="451" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A451" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C451" s="11">
+        <v>44502</v>
+      </c>
+      <c r="D451" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="452" ht="78" customHeight="1" spans="1:5">
+      <c r="A452" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C452" s="11">
+        <v>44502</v>
+      </c>
+      <c r="D452" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="453" ht="113" customHeight="1" spans="1:5">
+      <c r="A453" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C453" s="11">
+        <v>44502</v>
+      </c>
+      <c r="D453" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="454" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A454" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C454" s="11">
+        <v>44503</v>
+      </c>
+      <c r="D454" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="455" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A455" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C455" s="11">
+        <v>44503</v>
+      </c>
+      <c r="D455" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="456" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A456" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C456" s="11">
+        <v>44503</v>
+      </c>
+      <c r="D456" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="457" ht="84" customHeight="1" spans="1:5">
+      <c r="A457" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C457" s="11">
+        <v>44504</v>
+      </c>
+      <c r="D457" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="458" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A458" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C458" s="11">
+        <v>44504</v>
+      </c>
+      <c r="D458" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="459" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A459" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C459" s="11">
+        <v>44504</v>
+      </c>
+      <c r="D459" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="460" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A460" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C460" s="11">
+        <v>44504</v>
+      </c>
+      <c r="D460" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="461" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A461" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C461" s="11">
+        <v>44505</v>
+      </c>
+      <c r="D461" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="462" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A462" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C462" s="11">
+        <v>44505</v>
+      </c>
+      <c r="D462" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="463" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A463" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C463" s="11">
+        <v>44506</v>
+      </c>
+      <c r="D463" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="464" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A464" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C464" s="11">
+        <v>44506</v>
+      </c>
+      <c r="D464" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="465" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A465" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C465" s="11">
+        <v>44506</v>
+      </c>
+      <c r="D465" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="466" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A466" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C466" s="11">
+        <v>44507</v>
+      </c>
+      <c r="D466" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="467" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A467" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C467" s="11">
+        <v>44508</v>
+      </c>
+      <c r="D467" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="468" ht="74" customHeight="1" spans="1:5">
+      <c r="A468" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C468" s="11">
+        <v>44508</v>
+      </c>
+      <c r="D468" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="469" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A469" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C469" s="11">
+        <v>44509</v>
+      </c>
+      <c r="D469" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="470" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A470" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C470" s="11">
+        <v>44509</v>
+      </c>
+      <c r="D470" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="471" ht="89" customHeight="1" spans="1:5">
+      <c r="A471" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C471" s="11">
+        <v>44509</v>
+      </c>
+      <c r="D471" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="E471" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="472" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A472" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C472" s="11">
+        <v>44510</v>
+      </c>
+      <c r="D472" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="473" ht="98" customHeight="1" spans="1:5">
+      <c r="A473" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C473" s="11">
+        <v>44510</v>
+      </c>
+      <c r="D473" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="474" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A474" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C474" s="11">
+        <v>44510</v>
+      </c>
+      <c r="D474" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="475" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A475" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C475" s="11">
+        <v>44510</v>
+      </c>
+      <c r="D475" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="E475" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="476" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A476" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C476" s="11">
+        <v>44511</v>
+      </c>
+      <c r="D476" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="477" ht="82" customHeight="1" spans="1:5">
+      <c r="A477" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C477" s="11">
+        <v>44511</v>
+      </c>
+      <c r="D477" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="478" s="2" customFormat="1" ht="111" customHeight="1" spans="1:6">
+      <c r="A478" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C478" s="20">
+        <v>44511</v>
+      </c>
+      <c r="D478" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="E478" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F478" s="2">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="479" ht="105" customHeight="1" spans="1:5">
+      <c r="A479" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C479" s="11">
+        <v>44511</v>
+      </c>
+      <c r="D479" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="480" s="2" customFormat="1" ht="75.1" customHeight="1" spans="1:6">
+      <c r="A480" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C480" s="20">
+        <v>44511</v>
+      </c>
+      <c r="D480" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="E480" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="F480" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="481" ht="75.1" customHeight="1" spans="1:4">
+      <c r="A481" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C481" s="11">
+        <v>44512</v>
+      </c>
+      <c r="D481" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="482" s="2" customFormat="1" ht="124" customHeight="1" spans="1:5">
+      <c r="A482" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C482" s="20">
+        <v>44512</v>
+      </c>
+      <c r="D482" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="E482" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="483" s="2" customFormat="1" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A483" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C483" s="20">
+        <v>44512</v>
+      </c>
+      <c r="D483" s="16" t="s">
+        <v>757</v>
+      </c>
+      <c r="E483" s="7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="484" s="2" customFormat="1" ht="119" customHeight="1" spans="1:5">
+      <c r="A484" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C484" s="20">
+        <v>44512</v>
+      </c>
+      <c r="D484" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="E484" s="7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="485" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A485" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C485" s="11">
+        <v>44513</v>
+      </c>
+      <c r="D485" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="486" s="2" customFormat="1" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A486" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C486" s="20">
+        <v>44513</v>
+      </c>
+      <c r="D486" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="E486" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="487" s="2" customFormat="1" ht="88" customHeight="1" spans="1:5">
+      <c r="A487" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C487" s="20">
+        <v>44513</v>
+      </c>
+      <c r="D487" s="16" t="s">
+        <v>765</v>
+      </c>
+      <c r="E487" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="488" s="2" customFormat="1" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A488" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C488" s="20">
+        <v>44514</v>
+      </c>
+      <c r="D488" s="16" t="s">
+        <v>767</v>
+      </c>
+      <c r="E488" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="489" s="2" customFormat="1" ht="88" customHeight="1" spans="1:5">
+      <c r="A489" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C489" s="20">
+        <v>44514</v>
+      </c>
+      <c r="D489" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="E489" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="490" s="2" customFormat="1" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A490" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C490" s="20">
+        <v>44514</v>
+      </c>
+      <c r="D490" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="E490" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="491" s="2" customFormat="1" ht="153" customHeight="1" spans="1:5">
+      <c r="A491" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C491" s="20">
+        <v>44515</v>
+      </c>
+      <c r="D491" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="E491" s="7" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="492" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A492" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C492" s="11">
+        <v>44515</v>
+      </c>
+      <c r="D492" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="493" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A493" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C493" s="11">
+        <v>44515</v>
+      </c>
+      <c r="D493" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="494" s="2" customFormat="1" ht="193" customHeight="1" spans="1:5">
+      <c r="A494" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C494" s="20">
+        <v>44515</v>
+      </c>
+      <c r="D494" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="E494" s="7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="495" s="2" customFormat="1" ht="167" customHeight="1" spans="1:5">
+      <c r="A495" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C495" s="20">
+        <v>44516</v>
+      </c>
+      <c r="D495" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="E495" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="496" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A496" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C496" s="11">
+        <v>44516</v>
+      </c>
+      <c r="D496" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="497" ht="87" customHeight="1" spans="1:5">
+      <c r="A497" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C497" s="11">
+        <v>44516</v>
+      </c>
+      <c r="D497" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="498" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A498" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C498" s="11">
+        <v>44516</v>
+      </c>
+      <c r="D498" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="499" s="2" customFormat="1" ht="89" customHeight="1" spans="1:5">
+      <c r="A499" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C499" s="20">
+        <v>44517</v>
+      </c>
+      <c r="D499" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="E499" s="7"/>
+    </row>
+    <row r="500" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A500" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C500" s="11">
+        <v>44517</v>
+      </c>
+      <c r="D500" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="501" s="2" customFormat="1" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A501" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C501" s="20">
+        <v>44517</v>
+      </c>
+      <c r="D501" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="E501" s="7" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="502" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A502" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C502" s="11">
+        <v>44518</v>
+      </c>
+      <c r="D502" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="503" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A503" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C503" s="11">
+        <v>44518</v>
+      </c>
+      <c r="D503" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="504" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A504" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C504" s="11">
+        <v>44519</v>
+      </c>
+      <c r="D504" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="E504" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="505" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A505" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C505" s="11">
+        <v>44519</v>
+      </c>
+      <c r="D505" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="506" ht="75.1" customHeight="1" spans="1:6">
+      <c r="A506" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C506" s="11">
+        <v>44520</v>
+      </c>
+      <c r="D506" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="E506" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="507" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A507" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C507" s="11">
+        <v>44520</v>
+      </c>
+      <c r="D507" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="508" s="2" customFormat="1" ht="85" customHeight="1" spans="1:5">
+      <c r="A508" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C508" s="20">
+        <v>44520</v>
+      </c>
+      <c r="D508" s="16" t="s">
+        <v>809</v>
+      </c>
+      <c r="E508" s="7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="509" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A509" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C509" s="11">
+        <v>44520</v>
+      </c>
+      <c r="D509" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="E509" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="510" ht="75.1" customHeight="1"/>
+    <row r="511" ht="75.1" customHeight="1"/>
+    <row r="512" ht="75.1" customHeight="1"/>
+    <row r="513" ht="75.1" customHeight="1"/>
+    <row r="514" ht="75.1" customHeight="1"/>
+    <row r="515" ht="75.1" customHeight="1"/>
+    <row r="516" ht="75.1" customHeight="1"/>
+    <row r="517" ht="75.1" customHeight="1"/>
+    <row r="518" ht="75.1" customHeight="1"/>
+    <row r="519" ht="75.1" customHeight="1"/>
+    <row r="520" ht="75.1" customHeight="1"/>
+    <row r="521" ht="75.1" customHeight="1"/>
+    <row r="522" ht="75.1" customHeight="1"/>
+    <row r="523" ht="75.1" customHeight="1"/>
+    <row r="524" ht="75.1" customHeight="1"/>
+    <row r="525" ht="75.1" customHeight="1"/>
+    <row r="526" ht="75.1" customHeight="1"/>
+    <row r="527" ht="75.1" customHeight="1"/>
+    <row r="528" ht="75.1" customHeight="1"/>
+    <row r="529" ht="75.1" customHeight="1"/>
+    <row r="530" ht="75.1" customHeight="1"/>
+    <row r="531" ht="75.1" customHeight="1"/>
+    <row r="532" ht="75.1" customHeight="1"/>
+    <row r="533" ht="75.1" customHeight="1"/>
+    <row r="534" ht="75.1" customHeight="1"/>
+    <row r="535" ht="75.1" customHeight="1"/>
+    <row r="536" ht="75.1" customHeight="1"/>
+    <row r="537" ht="75.1" customHeight="1"/>
+    <row r="538" ht="75.1" customHeight="1"/>
+    <row r="539" ht="75.1" customHeight="1"/>
+    <row r="540" ht="75.1" customHeight="1"/>
+    <row r="541" ht="75.1" customHeight="1"/>
+    <row r="542" ht="75.1" customHeight="1"/>
+    <row r="543" ht="75.1" customHeight="1"/>
+    <row r="544" ht="75.1" customHeight="1"/>
+    <row r="545" ht="75.1" customHeight="1"/>
+    <row r="546" ht="75.1" customHeight="1"/>
+    <row r="547" ht="75.1" customHeight="1"/>
+    <row r="548" ht="75.1" customHeight="1"/>
+    <row r="549" ht="75.1" customHeight="1"/>
+    <row r="550" ht="75.1" customHeight="1"/>
+    <row r="551" ht="75.1" customHeight="1"/>
+    <row r="552" ht="75.1" customHeight="1"/>
+    <row r="553" ht="75.1" customHeight="1"/>
+    <row r="554" ht="75.1" customHeight="1"/>
+    <row r="555" ht="75.1" customHeight="1"/>
+    <row r="556" ht="75.1" customHeight="1"/>
+    <row r="557" ht="75.1" customHeight="1"/>
+    <row r="558" ht="75.1" customHeight="1"/>
+    <row r="559" ht="75.1" customHeight="1"/>
+    <row r="560" ht="75.1" customHeight="1"/>
+    <row r="561" ht="75.1" customHeight="1"/>
+    <row r="562" ht="75.1" customHeight="1"/>
+    <row r="563" ht="75.1" customHeight="1"/>
+    <row r="564" ht="75.1" customHeight="1"/>
+    <row r="565" ht="75.1" customHeight="1"/>
+    <row r="566" ht="75.1" customHeight="1"/>
+    <row r="567" ht="75.1" customHeight="1"/>
+    <row r="568" ht="75.1" customHeight="1"/>
+    <row r="569" ht="75.1" customHeight="1"/>
+    <row r="570" ht="75.1" customHeight="1"/>
+    <row r="571" ht="75.1" customHeight="1"/>
+    <row r="572" ht="75.1" customHeight="1"/>
+    <row r="573" ht="75.1" customHeight="1"/>
+    <row r="574" ht="75.1" customHeight="1"/>
+    <row r="575" ht="75.1" customHeight="1"/>
+    <row r="576" ht="75.1" customHeight="1"/>
+    <row r="577" ht="75.1" customHeight="1"/>
+    <row r="578" ht="75.1" customHeight="1"/>
+    <row r="579" ht="75.1" customHeight="1"/>
+    <row r="580" ht="75.1" customHeight="1"/>
+    <row r="581" ht="75.1" customHeight="1"/>
+    <row r="582" ht="75.1" customHeight="1"/>
+    <row r="583" ht="75.1" customHeight="1"/>
+    <row r="584" ht="75.1" customHeight="1"/>
+    <row r="585" ht="75.1" customHeight="1"/>
+    <row r="586" ht="75.1" customHeight="1"/>
+    <row r="587" ht="75.1" customHeight="1"/>
+    <row r="588" ht="75.1" customHeight="1"/>
+    <row r="589" ht="75.1" customHeight="1"/>
+    <row r="590" ht="75.1" customHeight="1"/>
+    <row r="591" ht="75.1" customHeight="1"/>
+    <row r="592" ht="75.1" customHeight="1"/>
+    <row r="593" ht="75.1" customHeight="1"/>
+    <row r="594" ht="75.1" customHeight="1"/>
+    <row r="595" ht="75.1" customHeight="1"/>
+    <row r="596" ht="75.1" customHeight="1"/>
+    <row r="597" ht="75.1" customHeight="1"/>
+    <row r="598" ht="75.1" customHeight="1"/>
+    <row r="599" ht="75.1" customHeight="1"/>
+    <row r="600" ht="75.1" customHeight="1"/>
+    <row r="601" ht="75.1" customHeight="1"/>
+    <row r="602" ht="75.1" customHeight="1"/>
+    <row r="603" ht="75.1" customHeight="1"/>
+    <row r="604" ht="75.1" customHeight="1"/>
+    <row r="605" ht="75.1" customHeight="1"/>
+    <row r="606" ht="75.1" customHeight="1"/>
+    <row r="607" ht="75.1" customHeight="1"/>
+    <row r="608" ht="75.1" customHeight="1"/>
+    <row r="609" ht="75.1" customHeight="1"/>
+    <row r="610" ht="75.1" customHeight="1"/>
+    <row r="611" ht="75.1" customHeight="1"/>
+    <row r="612" ht="75.1" customHeight="1"/>
+    <row r="613" ht="75.1" customHeight="1"/>
+    <row r="614" ht="75.1" customHeight="1"/>
+    <row r="615" ht="75.1" customHeight="1"/>
+    <row r="616" ht="75.1" customHeight="1"/>
+    <row r="617" ht="75.1" customHeight="1"/>
+    <row r="618" ht="75.1" customHeight="1"/>
+    <row r="619" ht="75.1" customHeight="1"/>
+    <row r="620" ht="75.1" customHeight="1"/>
+    <row r="621" ht="75.1" customHeight="1"/>
+    <row r="622" ht="75.1" customHeight="1"/>
+    <row r="623" ht="75.1" customHeight="1"/>
+    <row r="624" ht="75.1" customHeight="1"/>
+    <row r="625" ht="75.1" customHeight="1"/>
+    <row r="626" ht="75.1" customHeight="1"/>
+    <row r="627" ht="75.1" customHeight="1"/>
+    <row r="628" ht="75.1" customHeight="1"/>
+    <row r="629" ht="75.1" customHeight="1"/>
+    <row r="630" ht="75.1" customHeight="1"/>
+    <row r="631" ht="75.1" customHeight="1"/>
+    <row r="632" ht="75.1" customHeight="1"/>
+    <row r="633" ht="75.1" customHeight="1"/>
+    <row r="634" ht="75.1" customHeight="1"/>
+    <row r="635" ht="75.1" customHeight="1"/>
+    <row r="636" ht="75.1" customHeight="1"/>
+    <row r="637" ht="75.1" customHeight="1"/>
+    <row r="638" ht="75.1" customHeight="1"/>
+    <row r="639" ht="75.1" customHeight="1"/>
+    <row r="640" ht="75.1" customHeight="1"/>
+    <row r="641" ht="75.1" customHeight="1"/>
+    <row r="642" ht="75.1" customHeight="1"/>
+    <row r="643" ht="75.1" customHeight="1"/>
+    <row r="644" ht="75.1" customHeight="1"/>
+    <row r="645" ht="75.1" customHeight="1"/>
+    <row r="646" ht="75.1" customHeight="1"/>
+    <row r="647" ht="75.1" customHeight="1"/>
+    <row r="648" ht="75.1" customHeight="1"/>
+    <row r="649" ht="75.1" customHeight="1"/>
+    <row r="650" ht="75.1" customHeight="1"/>
+    <row r="651" ht="75.1" customHeight="1"/>
+    <row r="652" ht="75.1" customHeight="1"/>
+    <row r="653" ht="75.1" customHeight="1"/>
+    <row r="654" ht="75.1" customHeight="1"/>
+    <row r="655" ht="75.1" customHeight="1"/>
+    <row r="656" ht="75.1" customHeight="1"/>
+    <row r="657" ht="75.1" customHeight="1"/>
+    <row r="658" ht="75.1" customHeight="1"/>
+    <row r="659" ht="75.1" customHeight="1"/>
+    <row r="660" ht="75.1" customHeight="1"/>
+    <row r="661" ht="75.1" customHeight="1"/>
+    <row r="662" ht="75.1" customHeight="1"/>
+    <row r="663" ht="75.1" customHeight="1"/>
+    <row r="664" ht="75.1" customHeight="1"/>
+    <row r="665" ht="75.1" customHeight="1"/>
+    <row r="666" ht="75.1" customHeight="1"/>
+    <row r="667" ht="75.1" customHeight="1"/>
+    <row r="668" ht="75.1" customHeight="1"/>
+    <row r="669" ht="75.1" customHeight="1"/>
+    <row r="670" ht="75.1" customHeight="1"/>
+    <row r="671" ht="75.1" customHeight="1"/>
+    <row r="672" ht="75.1" customHeight="1"/>
+    <row r="673" ht="75.1" customHeight="1"/>
+    <row r="674" ht="75.1" customHeight="1"/>
+    <row r="675" ht="75.1" customHeight="1"/>
+    <row r="676" ht="75.1" customHeight="1"/>
+    <row r="677" ht="75.1" customHeight="1"/>
+    <row r="678" ht="75.1" customHeight="1"/>
+    <row r="679" ht="75.1" customHeight="1"/>
+    <row r="680" ht="75.1" customHeight="1"/>
+    <row r="681" ht="75.1" customHeight="1"/>
+    <row r="682" ht="75.1" customHeight="1"/>
+    <row r="683" ht="75.1" customHeight="1"/>
+    <row r="684" ht="75.1" customHeight="1"/>
+    <row r="685" ht="75.1" customHeight="1"/>
+    <row r="686" ht="75.1" customHeight="1"/>
+    <row r="687" ht="75.1" customHeight="1"/>
+    <row r="688" ht="75.1" customHeight="1"/>
+    <row r="689" ht="75.1" customHeight="1"/>
+    <row r="690" ht="75.1" customHeight="1"/>
+    <row r="691" ht="75.1" customHeight="1"/>
+    <row r="692" ht="75.1" customHeight="1"/>
+    <row r="693" ht="75.1" customHeight="1"/>
+    <row r="694" ht="75.1" customHeight="1"/>
+    <row r="695" ht="75.1" customHeight="1"/>
+    <row r="696" ht="75.1" customHeight="1"/>
+    <row r="697" ht="75.1" customHeight="1"/>
+    <row r="698" ht="75.1" customHeight="1"/>
+    <row r="699" ht="75.1" customHeight="1"/>
+    <row r="700" ht="75.1" customHeight="1"/>
+    <row r="701" ht="75.1" customHeight="1"/>
+    <row r="702" ht="75.1" customHeight="1"/>
+    <row r="703" ht="75.1" customHeight="1"/>
+    <row r="704" ht="75.1" customHeight="1"/>
+    <row r="705" ht="75.1" customHeight="1"/>
+    <row r="706" ht="75.1" customHeight="1"/>
+    <row r="707" ht="75.1" customHeight="1"/>
+    <row r="708" ht="75.1" customHeight="1"/>
+    <row r="709" ht="75.1" customHeight="1"/>
+    <row r="710" ht="75.1" customHeight="1"/>
+    <row r="711" ht="75.1" customHeight="1"/>
+    <row r="712" ht="75.1" customHeight="1"/>
+    <row r="713" ht="75.1" customHeight="1"/>
+    <row r="714" ht="75.1" customHeight="1"/>
+    <row r="715" ht="75.1" customHeight="1"/>
+    <row r="716" ht="75.1" customHeight="1"/>
+    <row r="717" ht="75.1" customHeight="1"/>
+    <row r="718" ht="75.1" customHeight="1"/>
+    <row r="719" ht="75.1" customHeight="1"/>
+    <row r="720" ht="75.1" customHeight="1"/>
+    <row r="721" ht="75.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
     <mergeCell ref="A2:A6"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31920" windowHeight="13080" tabRatio="500"/>
+    <workbookView windowHeight="13340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851">
   <si>
     <t>Title</t>
   </si>
@@ -1272,7 +1272,7 @@
     <t>208. Implement Trie (Prefix Tree)</t>
   </si>
   <si>
-    <t>数组实现：待补充  字典实现：总体来看是个字典套字典的形式eg： {a:{b:{c:{d}}}}，写一个自己的TreeNode类，属性有children和isWord，isWord在插入方法结束时候设置成True， 搜索方法就是遍历字符串 一个个字母去字典里搜，如果有一个字母不存在就返回False，因为都是唯一的一一对应，遍历字符串以最后一个字符的isWord来判断是否找到，startsWith方法则类似，只不过不需要通过isWord来判断。</t>
+    <t>数组实现：待补充  defaultdict字典实现：总体来看是个字典套字典的形式eg： {a:{b:{c:{d}}}}，写一个自己的TreeNode类，属性有children和isWord，isWord在插入方法结束时候设置成True， 搜索方法就是遍历字符串 一个个字母去字典里搜，如果有一个字母不存在就返回False，因为都是唯一的一一对应，遍历字符串以最后一个字符的isWord来判断是否找到，startsWith方法则类似，只不过不需要通过isWord来判断。</t>
   </si>
   <si>
     <t>1603. Design Parking System</t>
@@ -1403,7 +1403,7 @@
     <t>179. Largest Number</t>
   </si>
   <si>
-    <t>cmp_to_key：重写sort 第一步先把 nums 中的所有数字转字符串，形成字符串数组 nums_str 第二步比较两个字符串 x,y 拼接的结果 x + y 和 y + x 哪个更大，从而确定 x 和 y 谁排在前面然后将 nums_str 降序排序，第三步把整个数组排序的结果拼接成一个字符串，并返回  快速排序：字符串拼接比较大小 （a+b &gt; b+a） + 快排倒序</t>
+    <t>cmp_to_key：重写sort 第一步先把 nums 中的所有数字转字符串，形成字符串数组 nums_str 第二步比较两个字符串 x,y 拼接的结果 x + y 和 y + x 哪个更大，从而确定 x 和 y 谁排在前面然后将 nums_str 降序排序，第三步把整个数组排序的结果拼接成一个字符串，并返回  快速排序：字符串拼接比较大小 （a+b &gt; b+a） + 快排倒序 # corner case: [0,0] return -&gt; "0"</t>
   </si>
   <si>
     <t>482. License Key Formatting</t>
@@ -2537,16 +2537,127 @@
   <si>
     <t>Tree(preorder)</t>
   </si>
+  <si>
+    <t>872. Leaf-Similar Trees</t>
+  </si>
+  <si>
+    <t>Tree(preorder)：遍历两棵树当到达叶子节点的时候加入res数组 然后对比两个res数组是否完全相同</t>
+  </si>
+  <si>
+    <t>8. String to Integer (atoi)</t>
+  </si>
+  <si>
+    <t>模拟：第一步check leading whitespace 第二步check neg or pos 第三步string to integer（字符可以直接进行比较 eg：s[j] &lt; '0' or s[j] &gt; '9'表示字符不是数字） 第四步范围检查  正则表达式：[ ]* 任意空白 ([+-]?\d+) []匹配一个字符 ？匹配0或1个正负号 至少一个字符的任意0-9的数字 ( )表示group                                    #https://leetcode-cn.com/problems/string-to-integer-atoi/solution/xiong-mao-shua-ti-python3-yi-qi-xue-xi-zheng-ze-bi/  https://www.liaoxuefeng.com/wiki/1016959663602400/1017639890281664</t>
+  </si>
+  <si>
+    <t>正则表达式</t>
+  </si>
+  <si>
+    <t>559. Maximum Depth of N-ary Tree</t>
+  </si>
+  <si>
+    <t>DFS：写法一 维护全局变量 / 写法二  维护局部变量ans 寻找最深的child的深度 然后返回给上一层计算 BFS：层序遍历维护step</t>
+  </si>
+  <si>
+    <t>dict字典实现： insert：如果key不存在 就cur[w] = {} 然后移动cur 如果存在就直接移动cur 到末尾了以后设置一个cur['#'] = {} search：如果key不存在就返回false 如果存在一直移动cur 最后以'#'是否在cur中来判断是否找到 startsWith：如果key不存在就返回false 最后返回true</t>
+  </si>
+  <si>
+    <t>bruteForce：直接存储键值对然后sum的时候再扫描一个个key是否匹配来计算 Trie：类似与构建字典树 不过在insert的最后结尾的时候用cur['#']=val来表示值 要sum的时候先确定前缀是存在的 然后再把同一前缀下的所有val累加起来 写法一 DFS 具体做法就是用dfs 维护一个局部变量ans 然后先查看cur中key是否有"#" 如果有就ans += cur[k] 如果没有就继续往下递归看它的val是否还有包含"#"的  / 写法二 BFS 用队列装下cur 然后一个个弹出来查看 与dfs类似只不过用了队列来操作</t>
+  </si>
+  <si>
+    <t>剑指 Offer 45. 把数组排成最小的数</t>
+  </si>
+  <si>
+    <t>cmp_to_key：重写sort 第一步先把 nums 中的所有数字转字符串，形成字符串数组 nums_str 第二步比较两个字符串 x,y 拼接的结果 x + y 和 y + x 哪个更小，从而确定 x 和 y 谁排在前面 ，具体实现用cmp_to_key方法(return 1表示大于) 第三步把整个数组排序的结果拼接成一个字符串，并返回   快速排序：改写快排 在比较的时候 str(nums[j]) + str(nums[low]) &lt; str(nums[low]) + str(nums[j])则表示与正常快排中nums[j]&lt;nums[low]一个意思 所以需要交换 #┭┮﹏┭┮不会证明 待学习   #cmp_to_key自定义函数需要:1.接收两个参数 p1 , p2; 2.返回1、0或-1，其中1代表 p1 &gt; p2, 0代表 p1 == p2, -1代表 p1 &lt; p2  #corner case: [0, 0] return -&gt; "00"</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>2078. Two Furthest Houses With Different Colors</t>
+  </si>
+  <si>
+    <t>bruteForce：暴力枚举维护maxLen</t>
+  </si>
+  <si>
+    <t>枚举</t>
+  </si>
+  <si>
+    <t>2079. Watering Plants</t>
+  </si>
+  <si>
+    <t>模拟：题目给出max(plants[i]) &lt;= capacity 那么就不需要考虑需要多次浇水的情况  定义total为目前桶内的水量 顺序遍历plants 如果plants[i] &gt; total说明水不够用了 那么就回到河边并回来 因为是预判下一个 所以想补充水时的位置是前一个位置 即所用的步数为step += i + i（来回） 并且total = capacity（装满水）如果水够用就total-plants[i] 然后step+=1 最后返回step即可</t>
+  </si>
+  <si>
+    <t>2080. Range Frequency Queries</t>
+  </si>
+  <si>
+    <t>二分：用二分插入获得idx然后相减就可以得到答案 #不一定每道题都是二分左右界和二分答案 二分插入可以用于求一个idx差值</t>
+  </si>
+  <si>
+    <t>384. Shuffle an Array</t>
+  </si>
+  <si>
+    <t>概率：根据 1/n = (n - 1)/n * 1/(n - 1) = ... 实现等概率算法  做一个tmp为nums的copy 用for循环依次选择卡片 然后在所有卡片中随机选一张卡牌(1/n)与其进行调换 每次调换完 缩小选取随机卡片的范围继续调换剩余的卡片((n - 1)/n * 1/(n - 1)) 直到所有的都被调换过一次</t>
+  </si>
+  <si>
+    <t>54. Spiral Matrix</t>
+  </si>
+  <si>
+    <t>DFS：设计函数为dfs(x, y, directionIdx, step) 进入函数就表示合法 那么意味着我们需要将matrix[x][y]加入res并设置为已经visited 再进行下一步前先用一个isValid函数验证下 下一步是否合理 如果合理就继续走不合理就 directionIdx=(directionIdx+1)%4 然后将新的参数传入dfs继续递归 注意设置visited防止重复访问造成死循环 step==row*col就可以退出循环了 corner case：[1]        4重for循环：先定义top bottom left right四个边 然后依次遍历直到top &gt; bottom or left &gt; right or right &lt; left or down &lt; top 四种情况下break掉即可            遍历的具体为left-&gt;right+1 top+=1 top-&gt;down+1 right-=1 ...</t>
+  </si>
+  <si>
+    <t>2. Add Two Numbers</t>
+  </si>
+  <si>
+    <t>模拟：题目难度不大 用cur1和cur2指向l1和l2 当cur1 or cur2的时候保持循环 需要注意几个点 第一就是两个数字长度不一样的情况下需要对cur分别判断 if cur1:cur1 = cur1.next如此 否则会nullPointer  第二就是如果遍历完发现carry还有值 最后需要单独处理下carry</t>
+  </si>
+  <si>
+    <t>BFS：最短路问题反应出想到BFS 遍历当前层for coin in coins 一个个试过去  计算 left_amount 如果left_amount==0就返回步数说明找到了 这里可以做一个剪枝提前对coins排序然后left_amount&lt;0就break掉 最后将left_amount加入set防止重复访问 队列里之推入没有访问过的left_amount 不重复推入1是因为后面的步数肯定更多没必要要找到前面就找到了2是因为会死循环 如果全遍历完都没找到就返回-1</t>
+  </si>
+  <si>
+    <t>DFS(step)/BFS</t>
+  </si>
+  <si>
+    <t>双heap：大根堆+小根堆 调用addNum的时候提前先判断左右堆内的元素数量 分为两种情况 第一种是偶数情况 此时元素数量相同 当lenRight == 0或者num小于小根堆的堆顶元素就直接加入大根堆 如果num&gt;self.right[0]说明需要放到小根堆 此时需要先弹出小根堆的堆顶元素 将其加入大根堆 然后再把num加入小根堆   第二种是奇数情况 此时L比R多一个元素(这里定义要么大根堆和小根堆中元素数量相同要么大根堆里多一个只有这两种情况) 如果此时num大于等于大根堆的堆顶元素  那么就直接加入大根堆 如果小于大根堆的堆顶元素那么 就需要从大根堆中弹出堆顶元素 将其加入小根堆 然后把num加入大根堆 #注意tuple中的取值 在findMedian函数中如果大根堆和小根堆内元素数量相同就直接 float(两个堆的堆顶元素相加)/2 如果不等那么就返回大根堆的堆顶元素</t>
+  </si>
+  <si>
+    <t>859. Buddy Strings</t>
+  </si>
+  <si>
+    <t>哈希表：1.当 s 与 goal 长度 或 词频不同，必然不为亲密字符；2.当「s 与 goal 不同的字符数量为 2（能够相互交换）」或「s 与 goal 不同的字符数量为 0，但同时 s 中有出现数量超过 2 的字符（能够自己相互交换）」时，两者必然为亲密字符。 具体实现步骤为先排除长度不同的情况 注意还需要排除词频不同的情况  计算位置不同的字母个数为多少 在末尾验证diff == 2  如果不是2个就要做另外一个判断 验证s中有出现数量超过 2 的字符  eg1:s="aa" goal="aa"  总来说得满足dif==2 or (diff==0 or s中有重复的字符)</t>
+  </si>
+  <si>
+    <t>面试题 17.17. Multi Search LCCI</t>
+  </si>
+  <si>
+    <t>Trie：这里反转思路我们将smalls插入字典树 末尾记录字符串，方便后面遍历 search的时候传入bigs[i:] 每次都判断cur中是否包含了'#' 如果包含就将这个string加入res 然后返回来res里面装着所有符合开头的字符串 然后用dic把他们分别存起来{string:[idx1, idx2...]} 这样最后再按照smalls的顺序遍历一次 用dic[small]就可以拿到顺序正确的答案了</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>232. Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>双栈：在pop前先判断 outStack是否为空 如果outStack为空就加入inStack的所有元素 如果不为空就直接从outStack中pop出元素</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>547. Number of Provinces</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2571,9 +2682,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2585,61 +2704,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2648,21 +2712,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2686,6 +2743,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2693,7 +2781,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2701,6 +2804,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2770,7 +2881,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2782,25 +3001,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2812,103 +3031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2920,25 +3043,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2952,17 +3063,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2972,21 +3086,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3006,22 +3105,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3043,97 +3152,99 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3145,55 +3256,55 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3647,9 +3758,9 @@
   <dimension ref="A1:F721"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D508" sqref="D508"/>
+      <selection pane="bottomLeft" activeCell="D527" sqref="D527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="5"/>
@@ -9646,7 +9757,9 @@
       <c r="D499" s="16" t="s">
         <v>789</v>
       </c>
-      <c r="E499" s="7"/>
+      <c r="E499" s="7" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="500" ht="75.1" customHeight="1" spans="1:5">
       <c r="A500" s="3" t="s">
@@ -9821,24 +9934,312 @@
         <v>813</v>
       </c>
     </row>
-    <row r="510" ht="75.1" customHeight="1"/>
-    <row r="511" ht="75.1" customHeight="1"/>
-    <row r="512" ht="75.1" customHeight="1"/>
-    <row r="513" ht="75.1" customHeight="1"/>
-    <row r="514" ht="75.1" customHeight="1"/>
-    <row r="515" ht="75.1" customHeight="1"/>
-    <row r="516" ht="75.1" customHeight="1"/>
-    <row r="517" ht="75.1" customHeight="1"/>
-    <row r="518" ht="75.1" customHeight="1"/>
-    <row r="519" ht="75.1" customHeight="1"/>
-    <row r="520" ht="75.1" customHeight="1"/>
-    <row r="521" ht="75.1" customHeight="1"/>
-    <row r="522" ht="75.1" customHeight="1"/>
-    <row r="523" ht="75.1" customHeight="1"/>
-    <row r="524" ht="75.1" customHeight="1"/>
-    <row r="525" ht="75.1" customHeight="1"/>
-    <row r="526" ht="75.1" customHeight="1"/>
-    <row r="527" ht="75.1" customHeight="1"/>
+    <row r="510" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A510" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C510" s="11">
+        <v>44520</v>
+      </c>
+      <c r="D510" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="E510" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="511" ht="100" customHeight="1" spans="1:5">
+      <c r="A511" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C511" s="11">
+        <v>44520</v>
+      </c>
+      <c r="D511" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="E511" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="512" ht="75.1" customHeight="1" spans="1:6">
+      <c r="A512" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C512" s="11">
+        <v>44521</v>
+      </c>
+      <c r="D512" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="E512" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F512" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="513" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A513" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C513" s="11">
+        <v>44521</v>
+      </c>
+      <c r="D513" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="E513" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="514" ht="86" customHeight="1" spans="1:5">
+      <c r="A514" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C514" s="11">
+        <v>44521</v>
+      </c>
+      <c r="D514" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="515" ht="116" customHeight="1" spans="1:6">
+      <c r="A515" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C515" s="11">
+        <v>44521</v>
+      </c>
+      <c r="D515" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="E515" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F515" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="516" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A516" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C516" s="11">
+        <v>44521</v>
+      </c>
+      <c r="D516" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="517" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A517" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C517" s="11">
+        <v>44521</v>
+      </c>
+      <c r="D517" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="E517" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="518" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A518" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C518" s="11">
+        <v>44521</v>
+      </c>
+      <c r="D518" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="E518" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="519" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A519" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C519" s="11">
+        <v>44522</v>
+      </c>
+      <c r="D519" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="E519" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="520" s="2" customFormat="1" ht="114" customHeight="1" spans="1:5">
+      <c r="A520" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C520" s="20">
+        <v>44522</v>
+      </c>
+      <c r="D520" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="E520" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="521" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A521" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C521" s="11">
+        <v>44522</v>
+      </c>
+      <c r="D521" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="522" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A522" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C522" s="11">
+        <v>44522</v>
+      </c>
+      <c r="D522" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="523" ht="125" customHeight="1" spans="1:5">
+      <c r="A523" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C523" s="11">
+        <v>44523</v>
+      </c>
+      <c r="D523" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="E523" s="3" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="524" ht="100" customHeight="1" spans="1:5">
+      <c r="A524" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C524" s="11">
+        <v>44523</v>
+      </c>
+      <c r="D524" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="E524" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="525" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A525" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C525" s="11">
+        <v>44523</v>
+      </c>
+      <c r="D525" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="526" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A526" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C526" s="11">
+        <v>44524</v>
+      </c>
+      <c r="D526" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="E526" s="3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="527" ht="75.1" customHeight="1" spans="1:3">
+      <c r="A527" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C527" s="11">
+        <v>44525</v>
+      </c>
+    </row>
     <row r="528" ht="75.1" customHeight="1"/>
     <row r="529" ht="75.1" customHeight="1"/>
     <row r="530" ht="75.1" customHeight="1"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13340" tabRatio="500"/>
+    <workbookView windowWidth="26420" windowHeight="13440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889">
   <si>
     <t>Title</t>
   </si>
@@ -2648,16 +2648,132 @@
   <si>
     <t>547. Number of Provinces</t>
   </si>
+  <si>
+    <t>DFS：按城市进行枚举 继续向下递归的条件是与枚举的城市相连并且没有被访问过 比如我们枚举完城市0 向下递归了城市1 此时城市0和城市1都被visited 然后退出递归 继续枚举城市1发现被访问过了 继续枚举城市2 城市2没有被访问过 此时向下递归  BFS：与DFS类似 外层枚举城市 只不过换成用队列来进行向下递归  并查集：find函数 传入一个节点找它的父节点 可以用数组或者是字典来实现 这里用字典 一直往上找 并查集的root定义中 可以定义root节点的父节点为root本身 或 root节点的父节点为None 停止寻找的条件按照不同的定义来判断 找到以后最好做一个路径压缩为后面的查询加速 有迭代和递归两种方法 迭代版本就是用一个original_father指向self.father[x] 然后 self.father[x] = root 最后移动x = original_father #待补充递归版本 merge函数通过find函数来判断两个传入的节点的父节点是否相同 如果不相同则合并 （合并上最好用小树连接大树）  完成并查集以后我们在节点用add加入并查集的同时判断当前节点和之前的节点是否相连 如果相连那么就merge两个节点 并且将省份数量减去1</t>
+  </si>
+  <si>
+    <t>unionFind</t>
+  </si>
+  <si>
+    <t>924. Minimize Malware Spread</t>
+  </si>
+  <si>
+    <t>并查集： 建立并查集 然后遍历initial 用find方法找到每个被感染的点的父亲节点加入tmp（储存所有initial中出现的点的father）#注意这里的find方法需要返回父节点所以在建并查集的时候需要将root节点的父节点存为root本身 并且同时用一个dict计数 记录每一个被感染的father节点出现的次数 （如果出现次数超过两次其实就意味着就算删掉一个节点也会被另外一个感染） 再遍历initial拿到每一个idx用于记录答案 通过验证tmp的节点出现次数 如果出现超过一次就跳过 然后对剩下的进行计算 通过并查集访问这些合法节点的size 找到最大的size记录其initial[i]对应的idx 返回即可 DFS：待补充</t>
+  </si>
+  <si>
+    <t>700. Search in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Tree(preorder)：直接前序遍历 然后利用BST的性质 如果val &lt; root.val 就往左递归 反之往右递归</t>
+  </si>
+  <si>
+    <t>1319. Number of Operations to Make Network Connected</t>
+  </si>
+  <si>
+    <t>并查集：如果连接的边少于节点个数-1，一定不可能将电脑全部连接起来，返回-1 father用于记录父节点 count记录连通分量数量 最少操作次数为count-1 判断完特殊情况len(connections) &lt; n - 1以后 不用add直接遍历connections拿到两个相连的节点 如果这两个节点不相连 那么就进行merge然后count-=1 最后返回count-1即可 DFS：待补充  BFS：待补充</t>
+  </si>
+  <si>
+    <t>221. Maximal Square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bruteForce： 时间复杂度为n**4 暴力枚举所有点 matrix[i][j] == '1' 如果为1进行扩展行列 扩展前先记录下maxSideLen为边长1 然后计算出可能的最大边长 需要取行列差值的小者否则可能会越界 再开一个for循环每次增加一行 先看最右下角是否符合 不符合就break 然后判断剩下的行列是否符合 如果matrix[i + k][j + m] == '0' or matrix[i + m][j + k] == '0' 设置flag为False并且break（没必要再继续验证剩下的行列了） 末尾根据flag来判断是否更新maxSideLen，如果没有被更新也不必继续扩展k了直接break枚举下一个可能点  DP：具体而言，当前位置的元素值等于三个相邻位置的元素中的最小值加 1，此外，还需要考虑边界条件。如果 i 和 j 中至少有一个为 0，则以位置 (i,j) 为右下角的最大正方形的边长只能是 1，因此 dp(i,j)=1 #不等式证明待学习
+</t>
+  </si>
+  <si>
+    <t>48. Rotate Image</t>
+  </si>
+  <si>
+    <t>两次遍历：先上下翻转 然后再对角线翻转 inplace一次遍历：按层遍历 层数=len(matrix)//2 从first到last first由layer决定 last由n-1-layer决定 主要难点在如何实现四点同步遍历 计算offset = i - first 然后根据情况判断加减offset实现四点同步遍历</t>
+  </si>
+  <si>
+    <t>1277. Count Square Submatrices with All Ones</t>
+  </si>
+  <si>
+    <t>DP：具体而言，当前位置的元素值等于三个相邻位置的元素中的最小值加 1，此外，还需要考虑边界条件。如果 i 和 j 中至少有一个为 0，则以位置 (i,j) 为右下角的最大正方形的边长只能是 1，因此 dp(i,j)=1 将所有dp[i][j]累加起来就是答案 #不等式证明待学习 eg: [ [1,1],[1,1] ] ans += dp[1][1] = min(...)+1 = 2</t>
+  </si>
+  <si>
+    <t>814. Binary Tree Pruning</t>
+  </si>
+  <si>
+    <t>Tree:三个逻辑点 第一base当没有节点返回None 第二当子节点的值为0舍去此节点 第三当子节点的值都为0并且root本身的值也为0也需要舍去</t>
+  </si>
+  <si>
+    <t>Tree(postOrder)</t>
+  </si>
+  <si>
+    <t>HashTable：因为anagram不需要考虑位置并且都是小写字母可以用数组来模拟哈希表 for right双指针写法 先移动right然后将字母加入哈希表1 每加入一次字母判断一次是否 这个字母的加入使得哈希表1中的此字母的数量&gt;p中的数量（先扫一遍p建哈希表2）数量超过了就说明不可能是anagram 此时我们需要移动left直到两个哈希表中的字母数量相同为止停止移动left 最后判断此时的长度是否等于字符串p的长度 如果相等说明是anagram</t>
+  </si>
+  <si>
+    <t>519. Random Flip Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">那么我们如何维护这个一维数组 map 呢？我们可以发现，map 中的大部分映射关系是不会改变的，即矩阵中的 (i,j) 映射到 A[i×n+j]，因此我们可以使用一个 HashMap 存储那些map 中那些被修改了的映射。对于一个数 x，如果 x 不是 HashMap 中的一个键，那么它直接映射到最开始的(x/n,x%n)；如果 x 是 HashMap 中的一个键，那么它映射到其在 HashMap 中对应的值。
+</t>
+  </si>
+  <si>
+    <t>DFS:维护局部变量 取最深child的深度 返回即可 （记得算上自身） 层序遍历：略</t>
+  </si>
+  <si>
+    <t>95. Unique Binary Search Trees II</t>
+  </si>
+  <si>
+    <t>Tree(postorder)：维护局部变量res 然后从1到n枚举所有可行根节点 然后通过递归构造出左右子树的所有合法BST  返回的是获得所有可行的左，右子树集合 再暴力枚举所有左右子树集合中的组合（给 root 节点穷举所有左右子树的组合）建树后加入res #时间复杂度计算待补充</t>
+  </si>
+  <si>
+    <t>二进制枚举 + hashTable：新遍历candidates计数 然后根据key进行排序方便剪枝（如果连一个当前idx对应的coin都装不下 那么就可以直接return了） 关键点在于 选择的话最多可以选几个 需要取min(remians//freq[idx][0], freq[idx][1])</t>
+  </si>
+  <si>
+    <t>458. Poor Pigs</t>
+  </si>
+  <si>
+    <t>Math：先计算state 初始化pigs为0表示 需要0头猪进行测试 然后每次多加一头猪 看state的pigs次方是否超过总桶子数量 如果已超过就返回pigs</t>
+  </si>
+  <si>
+    <t>786. K-th Smallest Prime Fraction</t>
+  </si>
+  <si>
+    <t>400. Nth Digit</t>
+  </si>
+  <si>
+    <t>模拟：先归纳出区间 10**(cur-1) 至 10**cur - 1 其中cur表示位数 题目给出的n是已经转化的了 1234567891011... 是这么个数中的第n位 我们需要一个个减去区间 比如n减去[1,9]以后看是否还能减 可以就继续减去[10,99] 直到n不能减去为止 比如n减去两个区间以后此时n表示的是 100101102103104105..这个数中的第n位 接着计算n//cur 化3位为1位 即100 101 102 103 104 105 得到的结果就是在正常的位数表示中的第几位 然后用这个结果加上10**(3-1) 就可以求出正常表示中具体的数字为几 即***一个三位数 接着我们需要 用n%cur求出（100101102103104105..这个数中的第n位）答案在这个三位数中的idx是多少 最后***[idx]就可以定位到答案了</t>
+  </si>
+  <si>
+    <t>407. Trapping Rain Water II</t>
+  </si>
+  <si>
+    <t>BFS+PQ：能接水的方块被定义为 该方块不为最外层的方块 该方块自身的高度比其上下左右四个相邻的方块接水后的高度都要低 逆向思维 抽象流程为将水平面升高至最低的外层高度此时才有可能接水 继续查找最低的外层高度向四个方向有没有更低的高度 如果有则计算高度差（至少接这么多水） 然后继续找四周还有没有更低的高度 如此往复即可</t>
+  </si>
+  <si>
+    <t>Dijkstra</t>
+  </si>
+  <si>
+    <t>1446. Consecutive Characters</t>
+  </si>
+  <si>
+    <t>双指针：当两个字符相等并且right不出界就计算最大长度然后移动right 直到退出循环 然后left=right 继续移动</t>
+  </si>
+  <si>
+    <t>hashTable+sort：记录pairs (score[i], i) 后面用于还原 然后对pairs根据score排序 然后遍历pairs 分类讨论下即可</t>
+  </si>
+  <si>
+    <t>28. Implement strStr()</t>
+  </si>
+  <si>
+    <t>滚动哈希(RK)：</t>
+  </si>
+  <si>
+    <t>滚动哈希(RK)/KMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2688,22 +2804,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2726,6 +2826,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2733,9 +2841,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2749,31 +2896,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2794,32 +2918,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2881,19 +2997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2905,25 +3009,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2935,91 +3027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3037,7 +3045,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3049,7 +3141,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3072,39 +3188,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3120,17 +3203,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3152,156 +3231,193 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3758,9 +3874,9 @@
   <dimension ref="A1:F721"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D527" sqref="D527"/>
+      <selection pane="bottomLeft" activeCell="D547" sqref="D547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="5"/>
@@ -10229,36 +10345,346 @@
         <v>849</v>
       </c>
     </row>
-    <row r="527" ht="75.1" customHeight="1" spans="1:3">
-      <c r="A527" s="3" t="s">
+    <row r="527" s="2" customFormat="1" ht="167" customHeight="1" spans="1:5">
+      <c r="A527" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="B527" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C527" s="11">
+      <c r="B527" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C527" s="20">
         <v>44525</v>
       </c>
-    </row>
-    <row r="528" ht="75.1" customHeight="1"/>
-    <row r="529" ht="75.1" customHeight="1"/>
-    <row r="530" ht="75.1" customHeight="1"/>
-    <row r="531" ht="75.1" customHeight="1"/>
-    <row r="532" ht="75.1" customHeight="1"/>
-    <row r="533" ht="75.1" customHeight="1"/>
-    <row r="534" ht="75.1" customHeight="1"/>
-    <row r="535" ht="75.1" customHeight="1"/>
-    <row r="536" ht="75.1" customHeight="1"/>
-    <row r="537" ht="75.1" customHeight="1"/>
-    <row r="538" ht="75.1" customHeight="1"/>
-    <row r="539" ht="75.1" customHeight="1"/>
-    <row r="540" ht="75.1" customHeight="1"/>
-    <row r="541" ht="75.1" customHeight="1"/>
-    <row r="542" ht="75.1" customHeight="1"/>
-    <row r="543" ht="75.1" customHeight="1"/>
-    <row r="544" ht="75.1" customHeight="1"/>
-    <row r="545" ht="75.1" customHeight="1"/>
-    <row r="546" ht="75.1" customHeight="1"/>
+      <c r="D527" s="16" t="s">
+        <v>851</v>
+      </c>
+      <c r="E527" s="7" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="528" ht="99" customHeight="1" spans="1:5">
+      <c r="A528" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C528" s="11">
+        <v>44525</v>
+      </c>
+      <c r="D528" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="529" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A529" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C529" s="11">
+        <v>44526</v>
+      </c>
+      <c r="D529" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="530" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A530" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C530" s="11">
+        <v>44526</v>
+      </c>
+      <c r="D530" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="E530" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="531" ht="138" customHeight="1" spans="1:6">
+      <c r="A531" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C531" s="11">
+        <v>44527</v>
+      </c>
+      <c r="D531" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F531" s="1">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="532" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A532" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C532" s="11">
+        <v>44527</v>
+      </c>
+      <c r="D532" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="533" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A533" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C533" s="11">
+        <v>44527</v>
+      </c>
+      <c r="D533" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="E533" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="534" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A534" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C534" s="11">
+        <v>44528</v>
+      </c>
+      <c r="D534" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="535" ht="75.1" customHeight="1" spans="1:6">
+      <c r="A535" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C535" s="11">
+        <v>44528</v>
+      </c>
+      <c r="D535" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F535" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536" ht="71" customHeight="1" spans="1:4">
+      <c r="A536" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C536" s="11">
+        <v>44528</v>
+      </c>
+      <c r="D536" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="537" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A537" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C537" s="11">
+        <v>44528</v>
+      </c>
+      <c r="D537" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="538" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A538" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C538" s="11">
+        <v>44529</v>
+      </c>
+      <c r="D538" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="539" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A539" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C539" s="11">
+        <v>44529</v>
+      </c>
+      <c r="D539" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="540" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A540" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C540" s="11">
+        <v>44529</v>
+      </c>
+      <c r="D540" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="541" ht="75.1" customHeight="1" spans="1:4">
+      <c r="A541" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C541" s="11">
+        <v>44529</v>
+      </c>
+      <c r="D541" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="542" s="2" customFormat="1" ht="118" customHeight="1" spans="1:5">
+      <c r="A542" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C542" s="20">
+        <v>44530</v>
+      </c>
+      <c r="D542" s="16" t="s">
+        <v>879</v>
+      </c>
+      <c r="E542" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="543" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A543" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C543" s="11">
+        <v>44530</v>
+      </c>
+      <c r="D543" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="544" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A544" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C544" s="11">
+        <v>44531</v>
+      </c>
+      <c r="D544" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="545" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A545" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C545" s="11">
+        <v>44532</v>
+      </c>
+      <c r="D545" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="546" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A546" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C546" s="11">
+        <v>44532</v>
+      </c>
+      <c r="D546" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
     <row r="547" ht="75.1" customHeight="1"/>
     <row r="548" ht="75.1" customHeight="1"/>
     <row r="549" ht="75.1" customHeight="1"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26420" windowHeight="13440" tabRatio="500"/>
+    <workbookView windowWidth="27900" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927">
   <si>
     <t>Title</t>
   </si>
@@ -2759,10 +2759,124 @@
     <t>28. Implement strStr()</t>
   </si>
   <si>
-    <t>滚动哈希(RK)：</t>
+    <t>滚动哈希(RK)：同过类滑动窗口对比两个字符串的哈希值来将n的时间复杂度降低到1 哈希函数的设计 以及取模的prime的设定 都会影响到输出因为有可能出现哈希冲突的情况 这里将哈希函数设计为 hash_val * 26 + (ord(haystack[i]) - ord('a'))，当需要移除字符的时候(实际就将内部hash值提出来然后减掉) 将hash_val - (ord(haystack[i - len(needle)]) - ord('a')) * 26 ** (len(needle) - 1) 然后计算新加入的字母 后与needle的哈希函数对比如果相同并且i&gt;=len(neddle) - 1(说明已经初始化完成)则记录开始点后返回</t>
   </si>
   <si>
     <t>滚动哈希(RK)/KMP</t>
+  </si>
+  <si>
+    <t>1005. Maximize Sum Of Array After K Negations</t>
+  </si>
+  <si>
+    <t>sort：排序后 贪心地修改最小的数为正数来最大化sum 没修改一个k-=1 如果负数都修改完了还有剩k 那么再排序一次获取新的最小值 如果此时k为odd就把最小值改成负数 如果k为even则不修改因为可以抵消掉  hashTable：计算每个数字的出现次数freq 和总和sum 根据Constraints (-100 &lt;= nums[i] &lt;= 100) 遍历所有负数 如果存在于freq中 就用sum减去新增的两倍的值 并且将freq[-i]+=ops 当k==0就退出循环 最后如果数组中不存在 0 并且剩余的修改次数是奇数，那么我们必然需要使用单独的一次修改将一个正数变为负数(剩余的修改次数为偶数，就不会减小数组的和) 为了使得数组的和尽可能大，我们就选择那个最小的正数。</t>
+  </si>
+  <si>
+    <t>sort/hashTable</t>
+  </si>
+  <si>
+    <t>215. Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>quickSelection：partition方法改成nums[j]大于nums[low]则交换nums[j]和nums[i + 1] eg：2thLargest:idx=2-1=1 所以当partition返回的i值为k-1则找到了第二大元素nums[i] 如果idx &lt; k - 1则需要收缩左边界 如果idx &gt; k - 1则需要收缩右边界  heap：写法一 普通堆 直接倒序加入最小堆 然后循环k次用tmp接 返回即可 / 写法二 大小为k的堆  len(heap) &gt; k 就弹出元素 堆内只维护k个元素 最后返回堆顶元素即可</t>
+  </si>
+  <si>
+    <t>quickSelection/heap</t>
+  </si>
+  <si>
+    <t>383. Ransom Note</t>
+  </si>
+  <si>
+    <t>hashTable：用数组来代替哈希表 扫完字符对比 如果ransomNote中有magazine没有的字符则不能构成</t>
+  </si>
+  <si>
+    <t>372. Super Pow</t>
+  </si>
+  <si>
+    <t>math：1.a**(b+c) = a**b * a**c  2.(a**b)**c = a**(b*c) 先拆出个位用公式1 然后拆出10次方用公式2 然后再递归的计算剩下的超级次方部分 普通的次方计算可以用快速幂也可以用n复杂度的普通计算方法</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>1816. Truncate Sentence</t>
+  </si>
+  <si>
+    <t>bruteForce：直接遍历遇到空格就k-=1 记录下i 然后s[:i]即可 如果都没记录i过则返回s</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>hashTable+sort：计算freq然后排序 最后按照顺序取出while freq&gt;0 就一直将val加入res字符串 （这里也可以用堆来排序）   #setdefault 如果不存在会在原字典里添加一个 key:default_value 并返回 default_value。 get 找不到 key 的时候不会修改原字典，只返回 default_value。若要修改字典 dic.setdefault(key,default_value) 等同于 dic[key] = dic.get(key,default_value)。</t>
+  </si>
+  <si>
+    <t>hashTable+sort</t>
+  </si>
+  <si>
+    <t>1034. Coloring A Border</t>
+  </si>
+  <si>
+    <t>DFS： 从row col位置开始扫 如果如果出界并且颜色不为originalColor说明为边界 将isBorder设置为True 否则就dfs继续搜 注意要设置visited 最后把(x， y)加入borders数组 最后枚举borders数组中的上色</t>
+  </si>
+  <si>
+    <t>378. Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>heap：类似排序链表那题 这里我们先将元素打成tuple(val, row, 0) 然后从堆中弹出最小值后k-=1 当k==0说明找到了第k小 返回val 注意下和排序链表类似当加入堆需要先确认有下一个节点即y &lt; n - 1 然后再加入(新val,x, y+1)  binarySearch：利用行列都是增大的性质进行二分查找 possible函数设计为计算&lt;=mid的值的数量count 如果count&gt;=k说明需要收缩右边界 说明答案在[left, mid]之间 count&lt;k则收缩左边界 说明答案在[mid+1, right]之间  （这里不能直接找数量k-1的时候因为可能会有重复的数字出现比如2出现两次就会重复计算导致出错）所以直接排除不可能的区间即小于mid的数量少于k个那么一定不在此区间内 从这个角度也可以发现该问题有单调性</t>
+  </si>
+  <si>
+    <t>heap/binarySearch</t>
+  </si>
+  <si>
+    <t>14. Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>string：写法一 横向扫描 先记录第一个字符串prefix 然后调用check函数一个个往后比较 取两个字符串的最小长度作为边界 然后往后对比直到遇到不同字符 返回s[:i] 不断更新prefix / 写法二 纵向扫描 将第一个锁定 然后纵向扫描 如果i==len(strs[j])说明出界 或者 c != strs[j][i] 就直接返回strs[0][i:]即可    api：python zip函数传入参数*strs 如果len(set) == 1 就加入此字符 不等就break掉返回答案即可</t>
+  </si>
+  <si>
+    <t>238. Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>preSum: 除自身以外的乘积=前缀乘积*后缀乘积 因为前缀和和后缀和都不包括i本身 这里初始化两个数组prefix 和suffix 都为1 然后从idx1开始赋值到 prefix[i]=prefix[i-1]*nums[i-1] suffix同理 然后答案就等与两个数组对应值相乘 这里可以优化空间复杂度将三此计算放在一个数组ans中 先计算前缀和存入ans数组 然后用一个整形变量储存后缀和 因为后缀和也是不断累乘的所以可以这么做 从后往前写入ans数组 注意坐标小心出界</t>
+  </si>
+  <si>
+    <t>preSum</t>
+  </si>
+  <si>
+    <t>剑指 Offer 57 - II. 和为s的连续正数序列</t>
+  </si>
+  <si>
+    <t>twoPointers/slidingWindow：left初始化为1 right初始化为1 移动right 增加total 加入tmp 当 total&gt;target就 移动left 减少total 移出tmp 如果等于就记录下tmp[:]</t>
+  </si>
+  <si>
+    <t>1054. Distant Barcodes</t>
+  </si>
+  <si>
+    <t>sort:先扫一遍所有元素加入dic然后降序排序dic 接着把dic中的元素按freq展开存入tmp 最后跳着存（步长为2）tmp中的元素加入res</t>
+  </si>
+  <si>
+    <t>sort/heap</t>
+  </si>
+  <si>
+    <t>645. Set Mismatch</t>
+  </si>
+  <si>
+    <t>hashTable：用长度为n+1数组代替哈希表 扫一遍存所有元素 当元素数量为2则是twice number 数量为0则是missing number  math：计算nums总和sum 计算正确总和total 计算去除重复数字的总和set 答案为[sum-set, total-set]</t>
+  </si>
+  <si>
+    <t>hashTable/math</t>
+  </si>
+  <si>
+    <t>794. Valid Tic-Tac-Toe State</t>
+  </si>
+  <si>
+    <t>string：X表示黑棋 O表示白棋 1、只有一颗棋子 但不是x则错误 2、黑棋数量小于白棋则错误 3、黑棋数量大于白棋数量+1  4、黑白棋只能一个赢（横竖斜） 5、白棋子赢只能和黑棋子数量一样 6、黑棋子赢只能比比白棋子多一个</t>
+  </si>
+  <si>
+    <t>1206. Design Skiplist</t>
+  </si>
+  <si>
+    <t>skiplist/数据结构</t>
   </si>
 </sst>
 </file>
@@ -3874,9 +3988,9 @@
   <dimension ref="A1:F721"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A558" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D547" sqref="D547"/>
+      <selection pane="bottomLeft" activeCell="D561" sqref="D561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="5"/>
@@ -10243,20 +10357,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="521" ht="75.1" customHeight="1" spans="1:5">
-      <c r="A521" s="3" t="s">
+    <row r="521" s="2" customFormat="1" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A521" s="7" t="s">
         <v>837</v>
       </c>
-      <c r="B521" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C521" s="11">
+      <c r="B521" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C521" s="20">
         <v>44522</v>
       </c>
-      <c r="D521" s="4" t="s">
+      <c r="D521" s="16" t="s">
         <v>838</v>
       </c>
-      <c r="E521" s="3" t="s">
+      <c r="E521" s="7" t="s">
         <v>682</v>
       </c>
     </row>
@@ -10668,7 +10782,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="546" ht="75.1" customHeight="1" spans="1:5">
+    <row r="546" ht="98" customHeight="1" spans="1:5">
       <c r="A546" s="3" t="s">
         <v>886</v>
       </c>
@@ -10685,21 +10799,267 @@
         <v>888</v>
       </c>
     </row>
-    <row r="547" ht="75.1" customHeight="1"/>
-    <row r="548" ht="75.1" customHeight="1"/>
-    <row r="549" ht="75.1" customHeight="1"/>
-    <row r="550" ht="75.1" customHeight="1"/>
-    <row r="551" ht="75.1" customHeight="1"/>
-    <row r="552" ht="75.1" customHeight="1"/>
-    <row r="553" ht="75.1" customHeight="1"/>
-    <row r="554" ht="75.1" customHeight="1"/>
-    <row r="555" ht="75.1" customHeight="1"/>
-    <row r="556" ht="75.1" customHeight="1"/>
-    <row r="557" ht="75.1" customHeight="1"/>
-    <row r="558" ht="75.1" customHeight="1"/>
-    <row r="559" ht="75.1" customHeight="1"/>
-    <row r="560" ht="75.1" customHeight="1"/>
-    <row r="561" ht="75.1" customHeight="1"/>
+    <row r="547" ht="112" customHeight="1" spans="1:5">
+      <c r="A547" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C547" s="11">
+        <v>44533</v>
+      </c>
+      <c r="D547" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="548" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A548" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C548" s="11">
+        <v>44533</v>
+      </c>
+      <c r="D548" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="549" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A549" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C549" s="11">
+        <v>44534</v>
+      </c>
+      <c r="D549" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="550" ht="75.1" customHeight="1" spans="1:6">
+      <c r="A550" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C550" s="11">
+        <v>44535</v>
+      </c>
+      <c r="D550" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="F550" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="551" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A551" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C551" s="11">
+        <v>44536</v>
+      </c>
+      <c r="D551" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="552" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A552" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C552" s="11">
+        <v>44536</v>
+      </c>
+      <c r="D552" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="553" ht="75.1" customHeight="1" spans="1:6">
+      <c r="A553" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C553" s="11">
+        <v>44537</v>
+      </c>
+      <c r="D553" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F553" s="1">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="554" ht="114" customHeight="1" spans="1:5">
+      <c r="A554" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C554" s="11">
+        <v>44537</v>
+      </c>
+      <c r="D554" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="555" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A555" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C555" s="11">
+        <v>44537</v>
+      </c>
+      <c r="D555" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="556" ht="89" customHeight="1" spans="1:5">
+      <c r="A556" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C556" s="11">
+        <v>44537</v>
+      </c>
+      <c r="D556" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="557" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A557" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C557" s="11">
+        <v>44537</v>
+      </c>
+      <c r="D557" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="558" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A558" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C558" s="11">
+        <v>44538</v>
+      </c>
+      <c r="D558" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="559" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A559" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C559" s="11">
+        <v>44538</v>
+      </c>
+      <c r="D559" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="560" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A560" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C560" s="11">
+        <v>44539</v>
+      </c>
+      <c r="D560" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="561" ht="75.1" customHeight="1" spans="1:5">
+      <c r="A561" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C561" s="11">
+        <v>44539</v>
+      </c>
+      <c r="D561" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E561" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
     <row r="562" ht="75.1" customHeight="1"/>
     <row r="563" ht="75.1" customHeight="1"/>
     <row r="564" ht="75.1" customHeight="1"/>

--- a/daily/Leetcode_daily (最新版）.xlsx
+++ b/daily/Leetcode_daily (最新版）.xlsx
@@ -7,7 +7,8 @@
     <workbookView windowWidth="27900" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="trash" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -2711,6 +2712,9 @@
 </t>
   </si>
   <si>
+    <t>math</t>
+  </si>
+  <si>
     <t>DFS:维护局部变量 取最深child的深度 返回即可 （记得算上自身） 层序遍历：略</t>
   </si>
   <si>
@@ -2793,9 +2797,6 @@
   </si>
   <si>
     <t>math：1.a**(b+c) = a**b * a**c  2.(a**b)**c = a**(b*c) 先拆出个位用公式1 然后拆出10次方用公式2 然后再递归的计算剩下的超级次方部分 普通的次方计算可以用快速幂也可以用n复杂度的普通计算方法</t>
-  </si>
-  <si>
-    <t>math</t>
   </si>
   <si>
     <t>1816. Truncate Sentence</t>
@@ -2884,10 +2885,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2912,28 +2913,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2947,22 +2927,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2972,46 +2936,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3019,14 +2944,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3041,15 +2967,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3111,7 +3112,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3123,25 +3172,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3153,7 +3226,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3165,121 +3268,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3296,34 +3297,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3347,6 +3322,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3382,159 +3377,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3988,7 +3989,7 @@
   <dimension ref="A1:F721"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A558" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A559" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D561" sqref="D561"/>
     </sheetView>
@@ -10598,27 +10599,27 @@
         <v>867</v>
       </c>
     </row>
-    <row r="535" ht="75.1" customHeight="1" spans="1:6">
-      <c r="A535" s="3" t="s">
+    <row r="535" s="2" customFormat="1" ht="75.1" customHeight="1" spans="1:6">
+      <c r="A535" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B535" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C535" s="11">
+      <c r="B535" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C535" s="20">
         <v>44528</v>
       </c>
-      <c r="D535" s="4" t="s">
+      <c r="D535" s="16" t="s">
         <v>868</v>
       </c>
-      <c r="E535" s="3" t="s">
+      <c r="E535" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="F535" s="1">
+      <c r="F535" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="536" ht="71" customHeight="1" spans="1:4">
+    <row r="536" ht="71" customHeight="1" spans="1:5">
       <c r="A536" s="3" t="s">
         <v>869</v>
       </c>
@@ -10630,6 +10631,9 @@
       </c>
       <c r="D536" s="4" t="s">
         <v>870</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="537" ht="75.1" customHeight="1" spans="1:5">
@@ -10643,7 +10647,7 @@
         <v>44528</v>
       </c>
       <c r="D537" s="4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E537" s="3" t="s">
         <v>729</v>
@@ -10651,7 +10655,7 @@
     </row>
     <row r="538" ht="75.1" customHeight="1" spans="1:5">
       <c r="A538" s="3" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>6</v>
@@ -10660,7 +10664,7 @@
         <v>44529</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E538" s="3" t="s">
         <v>729</v>
@@ -10677,7 +10681,7 @@
         <v>44529</v>
       </c>
       <c r="D539" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E539" s="3" t="s">
         <v>534</v>
@@ -10685,7 +10689,7 @@
     </row>
     <row r="540" ht="75.1" customHeight="1" spans="1:5">
       <c r="A540" s="3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>29</v>
@@ -10694,7 +10698,7 @@
         <v>44529</v>
       </c>
       <c r="D540" s="4" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E540" s="3" t="s">
         <v>691</v>
@@ -10702,7 +10706,7 @@
     </row>
     <row r="541" ht="75.1" customHeight="1" spans="1:4">
       <c r="A541" s="3" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>29</v>
@@ -10716,7 +10720,7 @@
     </row>
     <row r="542" s="2" customFormat="1" ht="118" customHeight="1" spans="1:5">
       <c r="A542" s="7" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B542" s="2" t="s">
         <v>6</v>
@@ -10725,7 +10729,7 @@
         <v>44530</v>
       </c>
       <c r="D542" s="16" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E542" s="7" t="s">
         <v>604</v>
@@ -10733,7 +10737,7 @@
     </row>
     <row r="543" ht="75.1" customHeight="1" spans="1:5">
       <c r="A543" s="3" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>29</v>
@@ -10742,15 +10746,15 @@
         <v>44530</v>
       </c>
       <c r="D543" s="4" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E543" s="3" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="544" ht="75.1" customHeight="1" spans="1:5">
       <c r="A544" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>31</v>
@@ -10759,7 +10763,7 @@
         <v>44531</v>
       </c>
       <c r="D544" s="4" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E544" s="3" t="s">
         <v>612</v>
@@ -10776,7 +10780,7 @@
         <v>44532</v>
       </c>
       <c r="D545" s="4" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E545" s="3" t="s">
         <v>675</v>
@@ -10784,7 +10788,7 @@
     </row>
     <row r="546" ht="98" customHeight="1" spans="1:5">
       <c r="A546" s="3" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>31</v>
@@ -10793,15 +10797,15 @@
         <v>44532</v>
       </c>
       <c r="D546" s="4" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E546" s="3" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="547" ht="112" customHeight="1" spans="1:5">
       <c r="A547" s="3" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>31</v>
@@ -10810,15 +10814,15 @@
         <v>44533</v>
       </c>
       <c r="D547" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E547" s="3" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="548" ht="75.1" customHeight="1" spans="1:5">
       <c r="A548" s="3" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>6</v>
@@ -10827,32 +10831,35 @@
         <v>44533</v>
       </c>
       <c r="D548" s="4" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E548" s="3" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="549" ht="75.1" customHeight="1" spans="1:5">
-      <c r="A549" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="B549" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C549" s="11">
+    </row>
+    <row r="549" s="2" customFormat="1" ht="75.1" customHeight="1" spans="1:6">
+      <c r="A549" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C549" s="20">
         <v>44534</v>
       </c>
-      <c r="D549" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="E549" s="3" t="s">
+      <c r="D549" s="16" t="s">
+        <v>897</v>
+      </c>
+      <c r="E549" s="7" t="s">
         <v>675</v>
+      </c>
+      <c r="F549" s="2">
+        <v>748</v>
       </c>
     </row>
     <row r="550" ht="75.1" customHeight="1" spans="1:6">
       <c r="A550" s="3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>6</v>
@@ -10861,10 +10868,10 @@
         <v>44535</v>
       </c>
       <c r="D550" s="4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E550" s="3" t="s">
-        <v>899</v>
+        <v>871</v>
       </c>
       <c r="F550" s="1">
         <v>50</v>
@@ -11299,4 +11306,20 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>